--- a/output.xlsx
+++ b/output.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\N9635226\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D87565D-9BC5-4A96-8AF1-2A9A80E4CEE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDF2B5E2-5979-4EC9-ACE1-97FC97DB4A29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25545" yWindow="3615" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$666</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2830" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3320" uniqueCount="483">
   <si>
     <t>Date</t>
   </si>
@@ -1286,37 +1289,202 @@
     <t>Prep.DK</t>
   </si>
   <si>
-    <t>Boatlanding</t>
-  </si>
-  <si>
     <t>Topside</t>
   </si>
   <si>
     <t>Hook up</t>
   </si>
   <si>
+    <t>Spool Inst.</t>
+  </si>
+  <si>
+    <t>Spool fab</t>
+  </si>
+  <si>
+    <t>WYE/PLEM</t>
+  </si>
+  <si>
+    <t>Metrology</t>
+  </si>
+  <si>
+    <t>Pigging</t>
+  </si>
+  <si>
+    <t>Hydrotest</t>
+  </si>
+  <si>
+    <t>Subcon</t>
+  </si>
+  <si>
     <t>Boat landing</t>
   </si>
   <si>
-    <t>Spool Inst.</t>
-  </si>
-  <si>
-    <t>Spool fab</t>
-  </si>
-  <si>
-    <t>WYE/PLEM</t>
-  </si>
-  <si>
-    <t>Metrology</t>
-  </si>
-  <si>
-    <t>Pigging</t>
-  </si>
-  <si>
-    <t>Hydrotest</t>
-  </si>
-  <si>
-    <t>Subcon</t>
+    <t>19:03:00</t>
+  </si>
+  <si>
+    <t>16:36:00</t>
+  </si>
+  <si>
+    <t>02:40:00</t>
+  </si>
+  <si>
+    <t>07:47:00</t>
+  </si>
+  <si>
+    <t>22:15:00</t>
+  </si>
+  <si>
+    <t>PKWG</t>
+  </si>
+  <si>
+    <t>21:58:00</t>
+  </si>
+  <si>
+    <t>Spool</t>
+  </si>
+  <si>
+    <t>10:55:00</t>
+  </si>
+  <si>
+    <t>12:48:00</t>
+  </si>
+  <si>
+    <t>19:21:00</t>
+  </si>
+  <si>
+    <t>23:51:00</t>
+  </si>
+  <si>
+    <t>06:38:00</t>
+  </si>
+  <si>
+    <t>19:47:00</t>
+  </si>
+  <si>
+    <t>06:43:00</t>
+  </si>
+  <si>
+    <t>15:07:00</t>
+  </si>
+  <si>
+    <t>13:02:00</t>
+  </si>
+  <si>
+    <t>15:39:00</t>
+  </si>
+  <si>
+    <t>01:45:00</t>
+  </si>
+  <si>
+    <t>PKWE</t>
+  </si>
+  <si>
+    <t>16:03:00</t>
+  </si>
+  <si>
+    <t>04:46:00</t>
+  </si>
+  <si>
+    <t>09:35:00</t>
+  </si>
+  <si>
+    <t>19:24:00</t>
+  </si>
+  <si>
+    <t>20:27:00</t>
+  </si>
+  <si>
+    <t>02:20:00</t>
+  </si>
+  <si>
+    <t>WPS7</t>
+  </si>
+  <si>
+    <t>18:39:00</t>
+  </si>
+  <si>
+    <t>DAWD</t>
+  </si>
+  <si>
+    <t>17:18:00</t>
+  </si>
+  <si>
+    <t>04:48:00</t>
+  </si>
+  <si>
+    <t>22:19:00</t>
+  </si>
+  <si>
+    <t>15:03:00</t>
+  </si>
+  <si>
+    <t>17:29:00</t>
+  </si>
+  <si>
+    <t>DLB(Hammer)</t>
+  </si>
+  <si>
+    <t>15:09:00</t>
+  </si>
+  <si>
+    <t>16:39:00</t>
+  </si>
+  <si>
+    <t>19:17:00</t>
+  </si>
+  <si>
+    <t>15:48:00</t>
+  </si>
+  <si>
+    <t>03:30:00</t>
+  </si>
+  <si>
+    <t>13:16:00</t>
+  </si>
+  <si>
+    <t>07:32:00</t>
+  </si>
+  <si>
+    <t>Hs &lt; 2m</t>
+  </si>
+  <si>
+    <t>17:50</t>
+  </si>
+  <si>
+    <t>Berth barge</t>
+  </si>
+  <si>
+    <t>19:44:00</t>
+  </si>
+  <si>
+    <t>07:41:00</t>
+  </si>
+  <si>
+    <t>23:55:00</t>
+  </si>
+  <si>
+    <t>07:56:00</t>
+  </si>
+  <si>
+    <t>Paint</t>
+  </si>
+  <si>
+    <t>11:18:00</t>
+  </si>
+  <si>
+    <t>11:37:00</t>
+  </si>
+  <si>
+    <t>03:26:00</t>
+  </si>
+  <si>
+    <t>09:36:00</t>
+  </si>
+  <si>
+    <t>DAPLD</t>
+  </si>
+  <si>
+    <t>Additional Work</t>
   </si>
 </sst>
 </file>
@@ -1324,9 +1492,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="yyyy/m/d\ h:mm;@"/>
+    <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1349,6 +1517,11 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1364,7 +1537,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1387,17 +1560,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1407,6 +1591,9 @@
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="21" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="20" fontId="3" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1425,9 +1612,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1465,9 +1652,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1500,26 +1687,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1552,26 +1722,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1745,20 +1898,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I568"/>
+  <dimension ref="A1:I666"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A414" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B416" sqref="B416"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="I93" sqref="I93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.625" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="5" width="9" style="7"/>
-    <col min="9" max="9" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1778,7 +1931,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
         <v>45169</v>
       </c>
@@ -1798,7 +1951,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>45170</v>
       </c>
@@ -1818,7 +1971,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>45170</v>
       </c>
@@ -1838,7 +1991,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>45170</v>
       </c>
@@ -1858,7 +2011,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>45170</v>
       </c>
@@ -1878,7 +2031,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>45171</v>
       </c>
@@ -1898,7 +2051,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>45172</v>
       </c>
@@ -1918,7 +2071,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>45173</v>
       </c>
@@ -1938,7 +2091,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>45173</v>
       </c>
@@ -1958,7 +2111,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>45173</v>
       </c>
@@ -1978,7 +2131,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>45174</v>
       </c>
@@ -1998,7 +2151,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>45174</v>
       </c>
@@ -2018,7 +2171,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
         <v>45175</v>
       </c>
@@ -2038,7 +2191,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
         <v>45176</v>
       </c>
@@ -2058,7 +2211,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
         <v>45176</v>
       </c>
@@ -2078,7 +2231,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
         <v>45177</v>
       </c>
@@ -2098,7 +2251,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
         <v>45177</v>
       </c>
@@ -2118,7 +2271,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="6">
         <v>45178</v>
       </c>
@@ -2138,7 +2291,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="6">
         <v>45178</v>
       </c>
@@ -2158,7 +2311,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="6">
         <v>45178</v>
       </c>
@@ -2178,7 +2331,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="6">
         <v>45179</v>
       </c>
@@ -2198,7 +2351,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="6">
         <v>45179</v>
       </c>
@@ -2218,7 +2371,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="6">
         <v>45179</v>
       </c>
@@ -2238,7 +2391,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="6">
         <v>45180</v>
       </c>
@@ -2258,7 +2411,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="6">
         <v>45180</v>
       </c>
@@ -2278,7 +2431,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="6">
         <v>45181</v>
       </c>
@@ -2298,7 +2451,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="6">
         <v>45181</v>
       </c>
@@ -2318,7 +2471,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="6">
         <v>45181</v>
       </c>
@@ -2338,7 +2491,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="6">
         <v>45182</v>
       </c>
@@ -2358,7 +2511,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="6">
         <v>45182</v>
       </c>
@@ -2378,7 +2531,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:6" ht="13.8" x14ac:dyDescent="0.2">
       <c r="A32" s="6">
         <v>45182</v>
       </c>
@@ -2394,11 +2547,11 @@
       <c r="E32" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" s="9" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="6">
         <v>45183</v>
       </c>
@@ -2418,7 +2571,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:6" ht="13.8" x14ac:dyDescent="0.2">
       <c r="A34" s="6">
         <v>45183</v>
       </c>
@@ -2434,11 +2587,11 @@
       <c r="E34" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F34" s="9" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="6">
         <v>45183</v>
       </c>
@@ -2458,7 +2611,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="6">
         <v>45183</v>
       </c>
@@ -2478,7 +2631,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="6">
         <v>45183</v>
       </c>
@@ -2498,7 +2651,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="6">
         <v>45184</v>
       </c>
@@ -2518,7 +2671,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="6">
         <v>45184</v>
       </c>
@@ -2538,7 +2691,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="6">
         <v>45184</v>
       </c>
@@ -2558,7 +2711,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="6">
         <v>45184</v>
       </c>
@@ -2578,7 +2731,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="6">
         <v>45184</v>
       </c>
@@ -2598,7 +2751,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="6">
         <v>45184</v>
       </c>
@@ -2615,10 +2768,10 @@
         <v>403</v>
       </c>
       <c r="F43" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="6">
         <v>45184</v>
       </c>
@@ -2638,7 +2791,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="6">
         <v>45185</v>
       </c>
@@ -2658,7 +2811,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="6">
         <v>45185</v>
       </c>
@@ -2675,10 +2828,10 @@
         <v>403</v>
       </c>
       <c r="F46" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="6">
         <v>45185</v>
       </c>
@@ -2698,7 +2851,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="6">
         <v>45185</v>
       </c>
@@ -2718,7 +2871,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="6">
         <v>45185</v>
       </c>
@@ -2735,10 +2888,10 @@
         <v>403</v>
       </c>
       <c r="F49" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="6">
         <v>45185</v>
       </c>
@@ -2758,7 +2911,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="6">
         <v>45185</v>
       </c>
@@ -2775,10 +2928,10 @@
         <v>403</v>
       </c>
       <c r="F51" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="6">
         <v>45186</v>
       </c>
@@ -2798,7 +2951,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="6">
         <v>45186</v>
       </c>
@@ -2815,10 +2968,10 @@
         <v>403</v>
       </c>
       <c r="F53" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="6">
         <v>45186</v>
       </c>
@@ -2838,7 +2991,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="6">
         <v>45187</v>
       </c>
@@ -2858,7 +3011,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="6">
         <v>45187</v>
       </c>
@@ -2875,10 +3028,10 @@
         <v>403</v>
       </c>
       <c r="F56" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="6">
         <v>45187</v>
       </c>
@@ -2898,7 +3051,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="6">
         <v>45187</v>
       </c>
@@ -2918,7 +3071,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="6">
         <v>45187</v>
       </c>
@@ -2938,7 +3091,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="6">
         <v>45188</v>
       </c>
@@ -2958,7 +3111,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="6">
         <v>45188</v>
       </c>
@@ -2978,7 +3131,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="6">
         <v>45189</v>
       </c>
@@ -2998,7 +3151,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="6">
         <v>45189</v>
       </c>
@@ -3018,7 +3171,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="6">
         <v>45189</v>
       </c>
@@ -3038,7 +3191,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="6">
         <v>45189</v>
       </c>
@@ -3058,7 +3211,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="6">
         <v>45190</v>
       </c>
@@ -3078,7 +3231,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="6">
         <v>45190</v>
       </c>
@@ -3098,7 +3251,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="6">
         <v>45190</v>
       </c>
@@ -3118,7 +3271,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="6">
         <v>45191</v>
       </c>
@@ -3138,7 +3291,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="6">
         <v>45191</v>
       </c>
@@ -3158,7 +3311,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="6">
         <v>45191</v>
       </c>
@@ -3178,7 +3331,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="6">
         <v>45191</v>
       </c>
@@ -3198,7 +3351,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="6">
         <v>45192</v>
       </c>
@@ -3218,7 +3371,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="6">
         <v>45192</v>
       </c>
@@ -3238,7 +3391,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="6">
         <v>45192</v>
       </c>
@@ -3258,7 +3411,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="6">
         <v>45192</v>
       </c>
@@ -3278,7 +3431,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="6">
         <v>45192</v>
       </c>
@@ -3298,7 +3451,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="6">
         <v>45192</v>
       </c>
@@ -3318,7 +3471,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="6">
         <v>45193</v>
       </c>
@@ -3338,7 +3491,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="6">
         <v>45193</v>
       </c>
@@ -3358,7 +3511,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="6">
         <v>45193</v>
       </c>
@@ -3378,7 +3531,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="6">
         <v>45193</v>
       </c>
@@ -3398,7 +3551,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="6">
         <v>45193</v>
       </c>
@@ -3418,7 +3571,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="6">
         <v>45194</v>
       </c>
@@ -3438,7 +3591,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="6">
         <v>45194</v>
       </c>
@@ -3458,7 +3611,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="6">
         <v>45194</v>
       </c>
@@ -3478,7 +3631,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="6">
         <v>45195</v>
       </c>
@@ -3498,7 +3651,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="6">
         <v>45195</v>
       </c>
@@ -3518,7 +3671,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:6" ht="13.8" x14ac:dyDescent="0.2">
       <c r="A89" s="6">
         <v>45195</v>
       </c>
@@ -3534,11 +3687,11 @@
       <c r="E89" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="F89" t="s">
+      <c r="F89" s="9" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="6">
         <v>45195</v>
       </c>
@@ -3558,7 +3711,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" s="6">
         <v>45196</v>
       </c>
@@ -3578,7 +3731,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" s="6">
         <v>45196</v>
       </c>
@@ -3598,7 +3751,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:6" ht="13.8" x14ac:dyDescent="0.2">
       <c r="A93" s="6">
         <v>45196</v>
       </c>
@@ -3614,11 +3767,11 @@
       <c r="E93" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="F93" t="s">
+      <c r="F93" s="9" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" s="6">
         <v>45196</v>
       </c>
@@ -3638,7 +3791,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" s="6">
         <v>45197</v>
       </c>
@@ -3658,7 +3811,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" s="6">
         <v>45197</v>
       </c>
@@ -3678,7 +3831,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" s="6">
         <v>45197</v>
       </c>
@@ -3698,7 +3851,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" s="6">
         <v>45197</v>
       </c>
@@ -3718,7 +3871,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" s="6">
         <v>45197</v>
       </c>
@@ -3738,7 +3891,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" s="6">
         <v>45198</v>
       </c>
@@ -3758,7 +3911,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" s="6">
         <v>45198</v>
       </c>
@@ -3778,7 +3931,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" s="6">
         <v>45198</v>
       </c>
@@ -3795,10 +3948,10 @@
         <v>403</v>
       </c>
       <c r="F102" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.15">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" s="6">
         <v>45198</v>
       </c>
@@ -3815,10 +3968,10 @@
         <v>403</v>
       </c>
       <c r="F103" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.15">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" s="6">
         <v>45198</v>
       </c>
@@ -3835,10 +3988,10 @@
         <v>403</v>
       </c>
       <c r="F104" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.15">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" s="6">
         <v>45199</v>
       </c>
@@ -3855,10 +4008,10 @@
         <v>403</v>
       </c>
       <c r="F105" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.15">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" s="6">
         <v>45199</v>
       </c>
@@ -3875,10 +4028,10 @@
         <v>403</v>
       </c>
       <c r="F106" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.15">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" s="6">
         <v>45200</v>
       </c>
@@ -3898,7 +4051,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" s="6">
         <v>45200</v>
       </c>
@@ -3915,10 +4068,10 @@
         <v>403</v>
       </c>
       <c r="F108" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.15">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" s="6">
         <v>45200</v>
       </c>
@@ -3938,7 +4091,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" s="6">
         <v>45200</v>
       </c>
@@ -3958,7 +4111,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" s="6">
         <v>45201</v>
       </c>
@@ -3978,7 +4131,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" s="6">
         <v>45201</v>
       </c>
@@ -3998,7 +4151,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" s="6">
         <v>45201</v>
       </c>
@@ -4018,7 +4171,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" s="6">
         <v>45201</v>
       </c>
@@ -4038,7 +4191,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" s="6">
         <v>45202</v>
       </c>
@@ -4058,7 +4211,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" s="6">
         <v>45202</v>
       </c>
@@ -4078,7 +4231,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" s="6">
         <v>45202</v>
       </c>
@@ -4098,7 +4251,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" s="6">
         <v>45202</v>
       </c>
@@ -4118,7 +4271,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" s="6">
         <v>45203</v>
       </c>
@@ -4138,7 +4291,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" s="6">
         <v>45203</v>
       </c>
@@ -4158,7 +4311,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" s="6">
         <v>45203</v>
       </c>
@@ -4178,7 +4331,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" s="6">
         <v>45203</v>
       </c>
@@ -4198,7 +4351,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" s="6">
         <v>45203</v>
       </c>
@@ -4218,7 +4371,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" s="6">
         <v>45204</v>
       </c>
@@ -4238,7 +4391,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" s="6">
         <v>45205</v>
       </c>
@@ -4258,7 +4411,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" s="6">
         <v>45205</v>
       </c>
@@ -4278,7 +4431,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" s="6">
         <v>45206</v>
       </c>
@@ -4298,7 +4451,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" s="6">
         <v>45206</v>
       </c>
@@ -4318,7 +4471,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" s="6">
         <v>45207</v>
       </c>
@@ -4338,7 +4491,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" s="6">
         <v>45207</v>
       </c>
@@ -4358,7 +4511,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" s="6">
         <v>45207</v>
       </c>
@@ -4378,7 +4531,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:6" ht="13.8" x14ac:dyDescent="0.2">
       <c r="A132" s="6">
         <v>45207</v>
       </c>
@@ -4394,11 +4547,11 @@
       <c r="E132" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="F132" t="s">
+      <c r="F132" s="9" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:6" ht="13.8" x14ac:dyDescent="0.2">
       <c r="A133" s="6">
         <v>45208</v>
       </c>
@@ -4414,11 +4567,11 @@
       <c r="E133" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="F133" t="s">
+      <c r="F133" s="9" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" s="6">
         <v>45208</v>
       </c>
@@ -4438,7 +4591,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" s="6">
         <v>45208</v>
       </c>
@@ -4458,7 +4611,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" s="6">
         <v>45209</v>
       </c>
@@ -4478,7 +4631,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" s="6">
         <v>45209</v>
       </c>
@@ -4498,7 +4651,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" s="6">
         <v>45209</v>
       </c>
@@ -4518,7 +4671,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" s="6">
         <v>45209</v>
       </c>
@@ -4535,10 +4688,10 @@
         <v>403</v>
       </c>
       <c r="F139" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.15">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" s="6">
         <v>45209</v>
       </c>
@@ -4555,10 +4708,10 @@
         <v>403</v>
       </c>
       <c r="F140" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.15">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" s="6">
         <v>45210</v>
       </c>
@@ -4578,7 +4731,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142" s="6">
         <v>45210</v>
       </c>
@@ -4598,7 +4751,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" s="6">
         <v>45210</v>
       </c>
@@ -4615,10 +4768,10 @@
         <v>403</v>
       </c>
       <c r="F143" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.15">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" s="6">
         <v>45210</v>
       </c>
@@ -4635,10 +4788,10 @@
         <v>403</v>
       </c>
       <c r="F144" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.15">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" s="6">
         <v>45211</v>
       </c>
@@ -4655,10 +4808,10 @@
         <v>403</v>
       </c>
       <c r="F145" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.15">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" s="6">
         <v>45211</v>
       </c>
@@ -4678,7 +4831,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" s="6">
         <v>45212</v>
       </c>
@@ -4695,10 +4848,10 @@
         <v>403</v>
       </c>
       <c r="F147" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.15">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" s="6">
         <v>45212</v>
       </c>
@@ -4718,7 +4871,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" s="6">
         <v>45212</v>
       </c>
@@ -4738,7 +4891,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" s="6">
         <v>45212</v>
       </c>
@@ -4755,10 +4908,10 @@
         <v>409</v>
       </c>
       <c r="F150" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.15">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" s="6">
         <v>45213</v>
       </c>
@@ -4778,7 +4931,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152" s="6">
         <v>45213</v>
       </c>
@@ -4795,10 +4948,10 @@
         <v>409</v>
       </c>
       <c r="F152" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.15">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153" s="6">
         <v>45213</v>
       </c>
@@ -4815,10 +4968,10 @@
         <v>403</v>
       </c>
       <c r="F153" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.15">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154" s="6">
         <v>45213</v>
       </c>
@@ -4838,7 +4991,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155" s="6">
         <v>45213</v>
       </c>
@@ -4858,7 +5011,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156" s="6">
         <v>45214</v>
       </c>
@@ -4878,7 +5031,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157" s="6">
         <v>45214</v>
       </c>
@@ -4895,10 +5048,10 @@
         <v>403</v>
       </c>
       <c r="F157" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.15">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158" s="6">
         <v>45214</v>
       </c>
@@ -4915,10 +5068,10 @@
         <v>409</v>
       </c>
       <c r="F158" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.15">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159" s="6">
         <v>45214</v>
       </c>
@@ -4938,7 +5091,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160" s="6">
         <v>45215</v>
       </c>
@@ -4958,7 +5111,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161" s="6">
         <v>45215</v>
       </c>
@@ -4975,10 +5128,10 @@
         <v>403</v>
       </c>
       <c r="F161" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.15">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162" s="6">
         <v>45215</v>
       </c>
@@ -4998,7 +5151,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163" s="6">
         <v>45216</v>
       </c>
@@ -5018,7 +5171,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A164" s="6">
         <v>45216</v>
       </c>
@@ -5038,7 +5191,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A165" s="6">
         <v>45216</v>
       </c>
@@ -5055,10 +5208,10 @@
         <v>409</v>
       </c>
       <c r="F165" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.15">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A166" s="6">
         <v>45217</v>
       </c>
@@ -5078,7 +5231,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A167" s="6">
         <v>45217</v>
       </c>
@@ -5095,10 +5248,10 @@
         <v>409</v>
       </c>
       <c r="F167" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.15">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A168" s="6">
         <v>45217</v>
       </c>
@@ -5118,7 +5271,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A169" s="6">
         <v>45217</v>
       </c>
@@ -5138,7 +5291,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A170" s="6">
         <v>45217</v>
       </c>
@@ -5158,7 +5311,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A171" s="6">
         <v>45217</v>
       </c>
@@ -5178,7 +5331,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A172" s="6">
         <v>45218</v>
       </c>
@@ -5198,7 +5351,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A173" s="6">
         <v>45218</v>
       </c>
@@ -5218,7 +5371,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A174" s="6">
         <v>45218</v>
       </c>
@@ -5235,10 +5388,10 @@
         <v>409</v>
       </c>
       <c r="F174" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.15">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A175" s="6">
         <v>45218</v>
       </c>
@@ -5258,7 +5411,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A176" s="6">
         <v>45218</v>
       </c>
@@ -5278,7 +5431,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A177" s="6">
         <v>45219</v>
       </c>
@@ -5298,7 +5451,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A178" s="6">
         <v>45219</v>
       </c>
@@ -5318,7 +5471,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A179" s="6">
         <v>45219</v>
       </c>
@@ -5338,7 +5491,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A180" s="6">
         <v>45219</v>
       </c>
@@ -5355,10 +5508,10 @@
         <v>409</v>
       </c>
       <c r="F180" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.15">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A181" s="6">
         <v>45219</v>
       </c>
@@ -5375,10 +5528,10 @@
         <v>409</v>
       </c>
       <c r="F181" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.15">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A182" s="6">
         <v>45219</v>
       </c>
@@ -5398,7 +5551,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A183" s="6">
         <v>45219</v>
       </c>
@@ -5415,10 +5568,10 @@
         <v>409</v>
       </c>
       <c r="F183" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.15">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A184" s="6">
         <v>45220</v>
       </c>
@@ -5438,7 +5591,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A185" s="6">
         <v>45220</v>
       </c>
@@ -5455,10 +5608,10 @@
         <v>409</v>
       </c>
       <c r="F185" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.15">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A186" s="6">
         <v>45220</v>
       </c>
@@ -5475,10 +5628,10 @@
         <v>409</v>
       </c>
       <c r="F186" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.15">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A187" s="6">
         <v>45220</v>
       </c>
@@ -5495,10 +5648,10 @@
         <v>409</v>
       </c>
       <c r="F187" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.15">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A188" s="6">
         <v>45221</v>
       </c>
@@ -5518,7 +5671,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A189" s="6">
         <v>45221</v>
       </c>
@@ -5535,10 +5688,10 @@
         <v>409</v>
       </c>
       <c r="F189" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.15">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A190" s="6">
         <v>45222</v>
       </c>
@@ -5558,7 +5711,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A191" s="6">
         <v>45222</v>
       </c>
@@ -5575,10 +5728,10 @@
         <v>409</v>
       </c>
       <c r="F191" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.15">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A192" s="6">
         <v>45222</v>
       </c>
@@ -5595,10 +5748,10 @@
         <v>409</v>
       </c>
       <c r="F192" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.15">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A193" s="6">
         <v>45222</v>
       </c>
@@ -5618,7 +5771,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A194" s="6">
         <v>45222</v>
       </c>
@@ -5635,10 +5788,10 @@
         <v>409</v>
       </c>
       <c r="F194" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.15">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A195" s="6">
         <v>45223</v>
       </c>
@@ -5658,7 +5811,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A196" s="6">
         <v>45223</v>
       </c>
@@ -5675,10 +5828,10 @@
         <v>409</v>
       </c>
       <c r="F196" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.15">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A197" s="6">
         <v>45223</v>
       </c>
@@ -5695,10 +5848,10 @@
         <v>409</v>
       </c>
       <c r="F197" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.15">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A198" s="6">
         <v>45224</v>
       </c>
@@ -5718,7 +5871,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A199" s="6">
         <v>45224</v>
       </c>
@@ -5735,10 +5888,10 @@
         <v>409</v>
       </c>
       <c r="F199" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.15">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A200" s="6">
         <v>45224</v>
       </c>
@@ -5755,10 +5908,10 @@
         <v>409</v>
       </c>
       <c r="F200" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.15">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A201" s="6">
         <v>45225</v>
       </c>
@@ -5778,7 +5931,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A202" s="6">
         <v>45225</v>
       </c>
@@ -5795,10 +5948,10 @@
         <v>409</v>
       </c>
       <c r="F202" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.15">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A203" s="6">
         <v>45225</v>
       </c>
@@ -5815,10 +5968,10 @@
         <v>409</v>
       </c>
       <c r="F203" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.15">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A204" s="6">
         <v>45226</v>
       </c>
@@ -5838,7 +5991,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A205" s="6">
         <v>45226</v>
       </c>
@@ -5855,10 +6008,10 @@
         <v>409</v>
       </c>
       <c r="F205" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.15">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A206" s="6">
         <v>45226</v>
       </c>
@@ -5875,10 +6028,10 @@
         <v>409</v>
       </c>
       <c r="F206" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.15">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A207" s="6">
         <v>45227</v>
       </c>
@@ -5898,7 +6051,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A208" s="6">
         <v>45227</v>
       </c>
@@ -5915,10 +6068,10 @@
         <v>409</v>
       </c>
       <c r="F208" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.15">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A209" s="6">
         <v>45227</v>
       </c>
@@ -5935,10 +6088,10 @@
         <v>409</v>
       </c>
       <c r="F209" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.15">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A210" s="6">
         <v>45228</v>
       </c>
@@ -5955,10 +6108,10 @@
         <v>409</v>
       </c>
       <c r="F210" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.15">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A211" s="6">
         <v>45228</v>
       </c>
@@ -5978,7 +6131,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A212" s="6">
         <v>45228</v>
       </c>
@@ -5998,7 +6151,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A213" s="6">
         <v>45228</v>
       </c>
@@ -6018,7 +6171,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A214" s="6">
         <v>45229</v>
       </c>
@@ -6038,7 +6191,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A215" s="6">
         <v>45229</v>
       </c>
@@ -6058,7 +6211,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A216" s="6">
         <v>45230</v>
       </c>
@@ -6078,7 +6231,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A217" s="6">
         <v>45230</v>
       </c>
@@ -6098,7 +6251,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A218" s="6">
         <v>45230</v>
       </c>
@@ -6118,7 +6271,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A219" s="6">
         <v>45231</v>
       </c>
@@ -6138,7 +6291,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A220" s="6">
         <v>45231</v>
       </c>
@@ -6158,7 +6311,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A221" s="6">
         <v>45231</v>
       </c>
@@ -6175,10 +6328,10 @@
         <v>409</v>
       </c>
       <c r="F221" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.15">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A222" s="6">
         <v>45232</v>
       </c>
@@ -6198,7 +6351,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A223" s="6">
         <v>45232</v>
       </c>
@@ -6218,7 +6371,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A224" s="6">
         <v>45232</v>
       </c>
@@ -6238,7 +6391,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A225" s="6">
         <v>45232</v>
       </c>
@@ -6258,7 +6411,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A226" s="6">
         <v>45232</v>
       </c>
@@ -6278,7 +6431,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A227" s="6">
         <v>45232</v>
       </c>
@@ -6298,7 +6451,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A228" s="6">
         <v>45233</v>
       </c>
@@ -6318,7 +6471,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A229" s="6">
         <v>45233</v>
       </c>
@@ -6338,7 +6491,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A230" s="6">
         <v>45233</v>
       </c>
@@ -6358,7 +6511,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A231" s="6">
         <v>45234</v>
       </c>
@@ -6378,7 +6531,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A232" s="6">
         <v>45234</v>
       </c>
@@ -6398,7 +6551,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A233" s="6">
         <v>45235</v>
       </c>
@@ -6418,7 +6571,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A234" s="6">
         <v>45235</v>
       </c>
@@ -6438,7 +6591,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A235" s="6">
         <v>45235</v>
       </c>
@@ -6458,7 +6611,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A236" s="6">
         <v>45235</v>
       </c>
@@ -6478,7 +6631,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A237" s="6">
         <v>45236</v>
       </c>
@@ -6498,7 +6651,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A238" s="6">
         <v>45236</v>
       </c>
@@ -6518,7 +6671,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A239" s="6">
         <v>45237</v>
       </c>
@@ -6538,7 +6691,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A240" s="6">
         <v>45237</v>
       </c>
@@ -6558,7 +6711,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A241" s="6">
         <v>45238</v>
       </c>
@@ -6578,7 +6731,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A242" s="6">
         <v>45238</v>
       </c>
@@ -6598,7 +6751,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:6" ht="13.8" x14ac:dyDescent="0.2">
       <c r="A243" s="6">
         <v>45238</v>
       </c>
@@ -6614,11 +6767,11 @@
       <c r="E243" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="F243" t="s">
+      <c r="F243" s="9" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A244" s="6">
         <v>45238</v>
       </c>
@@ -6638,7 +6791,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A245" s="6">
         <v>45238</v>
       </c>
@@ -6658,7 +6811,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A246" s="6">
         <v>45238</v>
       </c>
@@ -6678,7 +6831,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A247" s="6">
         <v>45239</v>
       </c>
@@ -6698,7 +6851,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A248" s="6">
         <v>45239</v>
       </c>
@@ -6718,7 +6871,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A249" s="6">
         <v>45239</v>
       </c>
@@ -6738,7 +6891,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A250" s="6">
         <v>45239</v>
       </c>
@@ -6755,10 +6908,10 @@
         <v>409</v>
       </c>
       <c r="F250" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.15">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A251" s="6">
         <v>45239</v>
       </c>
@@ -6778,7 +6931,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A252" s="6">
         <v>45239</v>
       </c>
@@ -6795,10 +6948,10 @@
         <v>409</v>
       </c>
       <c r="F252" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.15">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A253" s="6">
         <v>45239</v>
       </c>
@@ -6818,7 +6971,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A254" s="6">
         <v>45239</v>
       </c>
@@ -6835,10 +6988,10 @@
         <v>409</v>
       </c>
       <c r="F254" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.15">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A255" s="6">
         <v>45240</v>
       </c>
@@ -6858,7 +7011,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A256" s="6">
         <v>45240</v>
       </c>
@@ -6875,10 +7028,10 @@
         <v>409</v>
       </c>
       <c r="F256" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.15">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A257" s="6">
         <v>45240</v>
       </c>
@@ -6898,7 +7051,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A258" s="6">
         <v>45240</v>
       </c>
@@ -6915,10 +7068,10 @@
         <v>409</v>
       </c>
       <c r="F258" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.15">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A259" s="6">
         <v>45240</v>
       </c>
@@ -6935,10 +7088,10 @@
         <v>409</v>
       </c>
       <c r="F259" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.15">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A260" s="6">
         <v>45240</v>
       </c>
@@ -6955,10 +7108,10 @@
         <v>409</v>
       </c>
       <c r="F260" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.15">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A261" s="6">
         <v>45240</v>
       </c>
@@ -6975,10 +7128,10 @@
         <v>409</v>
       </c>
       <c r="F261" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.15">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A262" s="6">
         <v>45240</v>
       </c>
@@ -6995,10 +7148,10 @@
         <v>409</v>
       </c>
       <c r="F262" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.15">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A263" s="6">
         <v>45240</v>
       </c>
@@ -7018,7 +7171,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A264" s="6">
         <v>45240</v>
       </c>
@@ -7035,10 +7188,10 @@
         <v>403</v>
       </c>
       <c r="F264" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.15">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A265" s="6">
         <v>45241</v>
       </c>
@@ -7058,7 +7211,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A266" s="6">
         <v>45241</v>
       </c>
@@ -7078,7 +7231,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A267" s="6">
         <v>45241</v>
       </c>
@@ -7095,10 +7248,10 @@
         <v>403</v>
       </c>
       <c r="F267" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.15">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A268" s="6">
         <v>45241</v>
       </c>
@@ -7118,7 +7271,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A269" s="6">
         <v>45241</v>
       </c>
@@ -7135,10 +7288,10 @@
         <v>403</v>
       </c>
       <c r="F269" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.15">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A270" s="6">
         <v>45241</v>
       </c>
@@ -7158,7 +7311,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A271" s="6">
         <v>45241</v>
       </c>
@@ -7175,10 +7328,10 @@
         <v>409</v>
       </c>
       <c r="F271" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.15">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A272" s="6">
         <v>45242</v>
       </c>
@@ -7195,10 +7348,10 @@
         <v>403</v>
       </c>
       <c r="F272" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.15">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A273" s="6">
         <v>45242</v>
       </c>
@@ -7218,7 +7371,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A274" s="6">
         <v>45242</v>
       </c>
@@ -7235,10 +7388,10 @@
         <v>409</v>
       </c>
       <c r="F274" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.15">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A275" s="6">
         <v>45242</v>
       </c>
@@ -7255,10 +7408,10 @@
         <v>409</v>
       </c>
       <c r="F275" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.15">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A276" s="6">
         <v>45242</v>
       </c>
@@ -7275,10 +7428,10 @@
         <v>403</v>
       </c>
       <c r="F276" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.15">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A277" s="6">
         <v>45243</v>
       </c>
@@ -7295,10 +7448,10 @@
         <v>403</v>
       </c>
       <c r="F277" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.15">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A278" s="6">
         <v>45243</v>
       </c>
@@ -7315,10 +7468,10 @@
         <v>409</v>
       </c>
       <c r="F278" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.15">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A279" s="6">
         <v>45243</v>
       </c>
@@ -7338,7 +7491,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A280" s="6">
         <v>45244</v>
       </c>
@@ -7358,7 +7511,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A281" s="6">
         <v>45244</v>
       </c>
@@ -7375,10 +7528,10 @@
         <v>403</v>
       </c>
       <c r="F281" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.15">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A282" s="6">
         <v>45244</v>
       </c>
@@ -7395,10 +7548,10 @@
         <v>409</v>
       </c>
       <c r="F282" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.15">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A283" s="6">
         <v>45244</v>
       </c>
@@ -7415,10 +7568,10 @@
         <v>409</v>
       </c>
       <c r="F283" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.15">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A284" s="6">
         <v>45244</v>
       </c>
@@ -7438,7 +7591,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A285" s="6">
         <v>45244</v>
       </c>
@@ -7455,10 +7608,10 @@
         <v>409</v>
       </c>
       <c r="F285" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.15">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A286" s="6">
         <v>45244</v>
       </c>
@@ -7475,7 +7628,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A287" s="6">
         <v>45244</v>
       </c>
@@ -7492,10 +7645,10 @@
         <v>409</v>
       </c>
       <c r="F287" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.15">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A288" s="6">
         <v>45244</v>
       </c>
@@ -7515,7 +7668,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A289" s="6">
         <v>45245</v>
       </c>
@@ -7532,10 +7685,10 @@
         <v>409</v>
       </c>
       <c r="F289" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.15">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A290" s="6">
         <v>45245</v>
       </c>
@@ -7555,7 +7708,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A291" s="6">
         <v>45245</v>
       </c>
@@ -7575,7 +7728,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A292" s="6">
         <v>45245</v>
       </c>
@@ -7595,7 +7748,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A293" s="6">
         <v>45245</v>
       </c>
@@ -7615,7 +7768,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A294" s="6">
         <v>45246</v>
       </c>
@@ -7635,7 +7788,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A295" s="6">
         <v>45246</v>
       </c>
@@ -7655,7 +7808,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A296" s="6">
         <v>45247</v>
       </c>
@@ -7675,7 +7828,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A297" s="6">
         <v>45247</v>
       </c>
@@ -7695,7 +7848,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A298" s="6">
         <v>45248</v>
       </c>
@@ -7715,7 +7868,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A299" s="6">
         <v>45248</v>
       </c>
@@ -7735,7 +7888,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A300" s="6">
         <v>45249</v>
       </c>
@@ -7755,7 +7908,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A301" s="6">
         <v>45249</v>
       </c>
@@ -7775,7 +7928,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A302" s="6">
         <v>45250</v>
       </c>
@@ -7795,7 +7948,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A303" s="6">
         <v>45250</v>
       </c>
@@ -7815,7 +7968,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A304" s="6">
         <v>45251</v>
       </c>
@@ -7835,7 +7988,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A305" s="6">
         <v>45251</v>
       </c>
@@ -7855,7 +8008,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A306" s="6">
         <v>45251</v>
       </c>
@@ -7872,10 +8025,10 @@
         <v>403</v>
       </c>
       <c r="F306" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.15">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A307" s="6">
         <v>45252</v>
       </c>
@@ -7892,10 +8045,10 @@
         <v>403</v>
       </c>
       <c r="F307" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.15">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A308" s="6">
         <v>45252</v>
       </c>
@@ -7915,7 +8068,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A309" s="6">
         <v>45252</v>
       </c>
@@ -7935,7 +8088,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A310" s="6">
         <v>45252</v>
       </c>
@@ -7955,7 +8108,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A311" s="6">
         <v>45252</v>
       </c>
@@ -7975,7 +8128,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A312" s="6">
         <v>45252</v>
       </c>
@@ -7995,7 +8148,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A313" s="6">
         <v>45253</v>
       </c>
@@ -8015,7 +8168,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A314" s="6">
         <v>45253</v>
       </c>
@@ -8035,7 +8188,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A315" s="6">
         <v>45253</v>
       </c>
@@ -8055,7 +8208,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A316" s="6">
         <v>45254</v>
       </c>
@@ -8075,7 +8228,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A317" s="6">
         <v>45254</v>
       </c>
@@ -8095,7 +8248,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A318" s="6">
         <v>45254</v>
       </c>
@@ -8115,7 +8268,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A319" s="6">
         <v>45255</v>
       </c>
@@ -8135,7 +8288,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A320" s="6">
         <v>45255</v>
       </c>
@@ -8155,7 +8308,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A321" s="6">
         <v>45255</v>
       </c>
@@ -8175,7 +8328,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A322" s="6">
         <v>45256</v>
       </c>
@@ -8195,7 +8348,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A323" s="6">
         <v>45256</v>
       </c>
@@ -8215,7 +8368,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A324" s="6">
         <v>45256</v>
       </c>
@@ -8235,7 +8388,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A325" s="6">
         <v>45257</v>
       </c>
@@ -8255,7 +8408,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A326" s="6">
         <v>45257</v>
       </c>
@@ -8275,7 +8428,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A327" s="6">
         <v>45257</v>
       </c>
@@ -8292,7 +8445,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A328" s="6">
         <v>45258</v>
       </c>
@@ -8312,7 +8465,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A329" s="6">
         <v>45258</v>
       </c>
@@ -8332,7 +8485,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A330" s="6">
         <v>45259</v>
       </c>
@@ -8352,7 +8505,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A331" s="6">
         <v>45259</v>
       </c>
@@ -8372,7 +8525,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A332" s="6">
         <v>45259</v>
       </c>
@@ -8392,7 +8545,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="333" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A333" s="6">
         <v>45260</v>
       </c>
@@ -8412,7 +8565,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A334" s="6">
         <v>45260</v>
       </c>
@@ -8432,7 +8585,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="335" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A335" s="6">
         <v>45260</v>
       </c>
@@ -8449,7 +8602,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="336" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A336" s="6">
         <v>45260</v>
       </c>
@@ -8469,7 +8622,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A337" s="6">
         <v>45260</v>
       </c>
@@ -8489,7 +8642,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A338" s="6">
         <v>45260</v>
       </c>
@@ -8509,7 +8662,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="339" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A339" s="6">
         <v>45261</v>
       </c>
@@ -8529,7 +8682,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="340" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A340" s="6">
         <v>45261</v>
       </c>
@@ -8549,7 +8702,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A341" s="6">
         <v>45261</v>
       </c>
@@ -8569,7 +8722,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A342" s="6">
         <v>45261</v>
       </c>
@@ -8589,7 +8742,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A343" s="6">
         <v>45261</v>
       </c>
@@ -8609,7 +8762,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A344" s="6">
         <v>45261</v>
       </c>
@@ -8629,7 +8782,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="345" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A345" s="6">
         <v>45261</v>
       </c>
@@ -8649,7 +8802,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="346" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A346" s="6">
         <v>45262</v>
       </c>
@@ -8666,10 +8819,10 @@
         <v>406</v>
       </c>
       <c r="F346" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.15">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A347" s="6">
         <v>45262</v>
       </c>
@@ -8689,7 +8842,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="348" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A348" s="6">
         <v>45262</v>
       </c>
@@ -8709,7 +8862,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="349" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A349" s="6">
         <v>45262</v>
       </c>
@@ -8729,7 +8882,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="350" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A350" s="6">
         <v>45262</v>
       </c>
@@ -8749,7 +8902,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="351" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A351" s="6">
         <v>45262</v>
       </c>
@@ -8769,7 +8922,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="352" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A352" s="6">
         <v>45263</v>
       </c>
@@ -8789,7 +8942,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="353" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A353" s="6">
         <v>45263</v>
       </c>
@@ -8809,7 +8962,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="354" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A354" s="6">
         <v>45264</v>
       </c>
@@ -8829,7 +8982,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="355" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A355" s="6">
         <v>45264</v>
       </c>
@@ -8849,7 +9002,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="356" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A356" s="6">
         <v>45264</v>
       </c>
@@ -8869,7 +9022,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="357" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A357" s="6">
         <v>45264</v>
       </c>
@@ -8889,7 +9042,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="358" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A358" s="6">
         <v>45265</v>
       </c>
@@ -8909,7 +9062,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="359" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A359" s="6">
         <v>45265</v>
       </c>
@@ -8929,7 +9082,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="360" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A360" s="6">
         <v>45265</v>
       </c>
@@ -8949,7 +9102,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="361" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A361" s="6">
         <v>45265</v>
       </c>
@@ -8969,7 +9122,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="362" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A362" s="6">
         <v>45266</v>
       </c>
@@ -8989,7 +9142,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="363" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A363" s="6">
         <v>45266</v>
       </c>
@@ -9009,7 +9162,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="364" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A364" s="6">
         <v>45266</v>
       </c>
@@ -9029,7 +9182,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="365" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A365" s="6">
         <v>45266</v>
       </c>
@@ -9046,10 +9199,10 @@
         <v>409</v>
       </c>
       <c r="F365" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.15">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A366" s="6">
         <v>45267</v>
       </c>
@@ -9069,7 +9222,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="367" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A367" s="6">
         <v>45267</v>
       </c>
@@ -9089,7 +9242,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="368" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A368" s="6">
         <v>45267</v>
       </c>
@@ -9109,7 +9262,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="369" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A369" s="6">
         <v>45267</v>
       </c>
@@ -9126,10 +9279,10 @@
         <v>409</v>
       </c>
       <c r="F369" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.15">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="370" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A370" s="6">
         <v>45267</v>
       </c>
@@ -9149,7 +9302,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="371" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A371" s="6">
         <v>45268</v>
       </c>
@@ -9169,7 +9322,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="372" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A372" s="6">
         <v>45268</v>
       </c>
@@ -9189,7 +9342,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="373" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A373" s="6">
         <v>45268</v>
       </c>
@@ -9209,7 +9362,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="374" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A374" s="6">
         <v>45269</v>
       </c>
@@ -9229,7 +9382,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="375" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A375" s="6">
         <v>45270</v>
       </c>
@@ -9249,7 +9402,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="376" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A376" s="6">
         <v>45270</v>
       </c>
@@ -9269,7 +9422,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="377" spans="1:6" ht="13.8" x14ac:dyDescent="0.2">
       <c r="A377" s="6">
         <v>45270</v>
       </c>
@@ -9285,11 +9438,11 @@
       <c r="E377" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="F377" t="s">
+      <c r="F377" s="9" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="378" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A378" s="6">
         <v>45270</v>
       </c>
@@ -9309,7 +9462,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="379" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A379" s="6">
         <v>45271</v>
       </c>
@@ -9329,7 +9482,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="380" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A380" s="6">
         <v>45271</v>
       </c>
@@ -9346,10 +9499,10 @@
         <v>409</v>
       </c>
       <c r="F380" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.15">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="381" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A381" s="6">
         <v>45271</v>
       </c>
@@ -9369,7 +9522,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="382" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A382" s="6">
         <v>45271</v>
       </c>
@@ -9389,7 +9542,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="383" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A383" s="6">
         <v>45271</v>
       </c>
@@ -9406,10 +9559,10 @@
         <v>403</v>
       </c>
       <c r="F383" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.15">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="384" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A384" s="6">
         <v>45271</v>
       </c>
@@ -9426,10 +9579,10 @@
         <v>403</v>
       </c>
       <c r="F384" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.15">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="385" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A385" s="6">
         <v>45272</v>
       </c>
@@ -9446,10 +9599,10 @@
         <v>403</v>
       </c>
       <c r="F385" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.15">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="386" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A386" s="6">
         <v>45272</v>
       </c>
@@ -9466,10 +9619,10 @@
         <v>403</v>
       </c>
       <c r="F386" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.15">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="387" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A387" s="6">
         <v>45272</v>
       </c>
@@ -9486,10 +9639,10 @@
         <v>403</v>
       </c>
       <c r="F387" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.15">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="388" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A388" s="6">
         <v>45272</v>
       </c>
@@ -9506,10 +9659,10 @@
         <v>409</v>
       </c>
       <c r="F388" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.15">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="389" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A389" s="6">
         <v>45273</v>
       </c>
@@ -9526,10 +9679,10 @@
         <v>409</v>
       </c>
       <c r="F389" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.15">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="390" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A390" s="6">
         <v>45273</v>
       </c>
@@ -9546,10 +9699,10 @@
         <v>409</v>
       </c>
       <c r="F390" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.15">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="391" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A391" s="6">
         <v>45273</v>
       </c>
@@ -9566,10 +9719,10 @@
         <v>409</v>
       </c>
       <c r="F391" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.15">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="392" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A392" s="6">
         <v>45273</v>
       </c>
@@ -9589,7 +9742,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="393" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A393" s="6">
         <v>45273</v>
       </c>
@@ -9606,10 +9759,10 @@
         <v>403</v>
       </c>
       <c r="F393" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.15">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="394" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A394" s="6">
         <v>45274</v>
       </c>
@@ -9626,10 +9779,10 @@
         <v>403</v>
       </c>
       <c r="F394" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.15">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="395" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A395" s="6">
         <v>45274</v>
       </c>
@@ -9646,10 +9799,10 @@
         <v>409</v>
       </c>
       <c r="F395" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.15">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="396" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A396" s="6">
         <v>45274</v>
       </c>
@@ -9666,10 +9819,10 @@
         <v>409</v>
       </c>
       <c r="F396" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.15">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="397" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A397" s="6">
         <v>45275</v>
       </c>
@@ -9686,10 +9839,10 @@
         <v>403</v>
       </c>
       <c r="F397" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.15">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="398" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A398" s="6">
         <v>45275</v>
       </c>
@@ -9706,10 +9859,10 @@
         <v>409</v>
       </c>
       <c r="F398" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.15">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="399" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A399" s="6">
         <v>45275</v>
       </c>
@@ -9726,10 +9879,10 @@
         <v>409</v>
       </c>
       <c r="F399" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="400" spans="1:6" x14ac:dyDescent="0.15">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="400" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A400" s="6">
         <v>45276</v>
       </c>
@@ -9746,10 +9899,10 @@
         <v>409</v>
       </c>
       <c r="F400" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.15">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="401" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A401" s="6">
         <v>45276</v>
       </c>
@@ -9766,10 +9919,10 @@
         <v>409</v>
       </c>
       <c r="F401" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.15">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="402" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A402" s="6">
         <v>45276</v>
       </c>
@@ -9789,7 +9942,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="403" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A403" s="6">
         <v>45276</v>
       </c>
@@ -9806,10 +9959,10 @@
         <v>403</v>
       </c>
       <c r="F403" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="404" spans="1:6" x14ac:dyDescent="0.15">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="404" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A404" s="6">
         <v>45276</v>
       </c>
@@ -9826,10 +9979,10 @@
         <v>409</v>
       </c>
       <c r="F404" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.15">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="405" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A405" s="6">
         <v>45276</v>
       </c>
@@ -9849,7 +10002,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="406" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A406" s="6">
         <v>45277</v>
       </c>
@@ -9866,10 +10019,10 @@
         <v>409</v>
       </c>
       <c r="F406" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.15">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="407" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A407" s="6">
         <v>45277</v>
       </c>
@@ -9889,7 +10042,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="408" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="408" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A408" s="6">
         <v>45277</v>
       </c>
@@ -9906,10 +10059,10 @@
         <v>403</v>
       </c>
       <c r="F408" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="409" spans="1:6" x14ac:dyDescent="0.15">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="409" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A409" s="6">
         <v>45277</v>
       </c>
@@ -9929,7 +10082,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="410" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A410" s="6">
         <v>45278</v>
       </c>
@@ -9946,10 +10099,10 @@
         <v>403</v>
       </c>
       <c r="F410" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="411" spans="1:6" x14ac:dyDescent="0.15">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="411" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A411" s="6">
         <v>45278</v>
       </c>
@@ -9969,7 +10122,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="412" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="412" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A412" s="6">
         <v>45278</v>
       </c>
@@ -9989,7 +10142,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="413" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="413" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A413" s="6">
         <v>45278</v>
       </c>
@@ -10009,7 +10162,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="414" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A414" s="6">
         <v>45278</v>
       </c>
@@ -10029,7 +10182,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="415" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="415" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A415" s="6">
         <v>45279</v>
       </c>
@@ -10049,7 +10202,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="416" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="416" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A416" s="6">
         <v>45279</v>
       </c>
@@ -10069,7 +10222,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="417" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="417" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A417" s="6">
         <v>45279</v>
       </c>
@@ -10089,7 +10242,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="418" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="418" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A418" s="6">
         <v>45279</v>
       </c>
@@ -10109,7 +10262,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="419" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="419" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A419" s="6">
         <v>45280</v>
       </c>
@@ -10129,7 +10282,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="420" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="420" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A420" s="6">
         <v>45280</v>
       </c>
@@ -10149,7 +10302,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="421" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="421" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A421" s="6">
         <v>45280</v>
       </c>
@@ -10169,7 +10322,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="422" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="422" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A422" s="6">
         <v>45280</v>
       </c>
@@ -10189,7 +10342,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="423" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="423" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A423" s="6">
         <v>45280</v>
       </c>
@@ -10209,7 +10362,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="424" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="424" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A424" s="6">
         <v>45280</v>
       </c>
@@ -10229,7 +10382,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="425" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="425" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A425" s="6">
         <v>45280</v>
       </c>
@@ -10249,7 +10402,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="426" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="426" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A426" s="6">
         <v>45281</v>
       </c>
@@ -10269,7 +10422,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="427" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="427" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A427" s="6">
         <v>45281</v>
       </c>
@@ -10289,7 +10442,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="428" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="428" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A428" s="6">
         <v>45281</v>
       </c>
@@ -10309,7 +10462,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="429" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="429" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A429" s="6">
         <v>45281</v>
       </c>
@@ -10329,7 +10482,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="430" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="430" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A430" s="6">
         <v>45281</v>
       </c>
@@ -10349,7 +10502,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="431" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="431" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A431" s="6">
         <v>45282</v>
       </c>
@@ -10369,7 +10522,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="432" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="432" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A432" s="6">
         <v>45282</v>
       </c>
@@ -10389,7 +10542,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="433" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="433" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A433" s="6">
         <v>45283</v>
       </c>
@@ -10409,7 +10562,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="434" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="434" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A434" s="6">
         <v>45284</v>
       </c>
@@ -10429,7 +10582,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="435" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="435" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A435" s="6">
         <v>45285</v>
       </c>
@@ -10449,7 +10602,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="436" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="436" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A436" s="6">
         <v>45286</v>
       </c>
@@ -10469,7 +10622,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="437" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="437" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A437" s="6">
         <v>45286</v>
       </c>
@@ -10489,7 +10642,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="438" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="438" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A438" s="6">
         <v>45287</v>
       </c>
@@ -10509,7 +10662,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="439" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="439" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A439" s="6">
         <v>45287</v>
       </c>
@@ -10529,7 +10682,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="440" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="440" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A440" s="6">
         <v>45287</v>
       </c>
@@ -10549,7 +10702,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="441" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="441" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A441" s="6">
         <v>45288</v>
       </c>
@@ -10569,7 +10722,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="442" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="442" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A442" s="6">
         <v>45288</v>
       </c>
@@ -10589,7 +10742,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="443" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="443" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A443" s="6">
         <v>45288</v>
       </c>
@@ -10606,7 +10759,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="444" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="444" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A444" s="6">
         <v>45289</v>
       </c>
@@ -10626,7 +10779,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="445" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="445" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A445" s="6">
         <v>45289</v>
       </c>
@@ -10646,7 +10799,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="446" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="446" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A446" s="6">
         <v>45290</v>
       </c>
@@ -10666,7 +10819,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="447" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="447" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A447" s="6">
         <v>45290</v>
       </c>
@@ -10686,7 +10839,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="448" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="448" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A448" s="6">
         <v>45290</v>
       </c>
@@ -10706,7 +10859,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="449" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="449" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A449" s="6">
         <v>45291</v>
       </c>
@@ -10726,7 +10879,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="450" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="450" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A450" s="6">
         <v>45291</v>
       </c>
@@ -10743,10 +10896,10 @@
         <v>409</v>
       </c>
       <c r="F450" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="451" spans="1:6" x14ac:dyDescent="0.15">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="451" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A451" s="6">
         <v>45291</v>
       </c>
@@ -10766,7 +10919,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="452" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="452" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A452" s="6">
         <v>45291</v>
       </c>
@@ -10786,7 +10939,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="453" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="453" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A453" s="6">
         <v>45292</v>
       </c>
@@ -10806,7 +10959,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="454" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="454" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A454" s="6">
         <v>45292</v>
       </c>
@@ -10823,10 +10976,10 @@
         <v>409</v>
       </c>
       <c r="F454" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="455" spans="1:6" x14ac:dyDescent="0.15">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="455" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A455" s="6">
         <v>45292</v>
       </c>
@@ -10846,7 +10999,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="456" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="456" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A456" s="6">
         <v>45293</v>
       </c>
@@ -10866,7 +11019,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="457" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="457" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A457" s="6">
         <v>45293</v>
       </c>
@@ -10883,10 +11036,10 @@
         <v>409</v>
       </c>
       <c r="F457" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="458" spans="1:6" x14ac:dyDescent="0.15">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="458" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A458" s="6">
         <v>45293</v>
       </c>
@@ -10906,7 +11059,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="459" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="459" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A459" s="6">
         <v>45293</v>
       </c>
@@ -10926,7 +11079,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="460" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="460" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A460" s="6">
         <v>45293</v>
       </c>
@@ -10946,7 +11099,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="461" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="461" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A461" s="6">
         <v>45294</v>
       </c>
@@ -10966,7 +11119,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="462" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="462" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A462" s="6">
         <v>45294</v>
       </c>
@@ -10986,7 +11139,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="463" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="463" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A463" s="6">
         <v>45294</v>
       </c>
@@ -11003,10 +11156,10 @@
         <v>409</v>
       </c>
       <c r="F463" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="464" spans="1:6" x14ac:dyDescent="0.15">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="464" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A464" s="6">
         <v>45294</v>
       </c>
@@ -11026,7 +11179,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="465" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="465" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A465" s="6">
         <v>45295</v>
       </c>
@@ -11046,7 +11199,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="466" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="466" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A466" s="6">
         <v>45295</v>
       </c>
@@ -11063,10 +11216,10 @@
         <v>409</v>
       </c>
       <c r="F466" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="467" spans="1:6" x14ac:dyDescent="0.15">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="467" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A467" s="6">
         <v>45295</v>
       </c>
@@ -11086,7 +11239,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="468" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="468" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A468" s="6">
         <v>45295</v>
       </c>
@@ -11106,7 +11259,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="469" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="469" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A469" s="6">
         <v>45295</v>
       </c>
@@ -11126,7 +11279,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="470" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="470" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A470" s="6">
         <v>45295</v>
       </c>
@@ -11143,10 +11296,10 @@
         <v>403</v>
       </c>
       <c r="F470" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="471" spans="1:6" x14ac:dyDescent="0.15">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="471" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A471" s="6">
         <v>45295</v>
       </c>
@@ -11166,7 +11319,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="472" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="472" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A472" s="6">
         <v>45296</v>
       </c>
@@ -11186,7 +11339,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="473" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="473" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A473" s="6">
         <v>45296</v>
       </c>
@@ -11206,7 +11359,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="474" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="474" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A474" s="6">
         <v>45296</v>
       </c>
@@ -11223,10 +11376,10 @@
         <v>409</v>
       </c>
       <c r="F474" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="475" spans="1:6" x14ac:dyDescent="0.15">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="475" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A475" s="6">
         <v>45296</v>
       </c>
@@ -11246,7 +11399,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="476" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="476" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A476" s="6">
         <v>45296</v>
       </c>
@@ -11263,10 +11416,10 @@
         <v>409</v>
       </c>
       <c r="F476" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="477" spans="1:6" x14ac:dyDescent="0.15">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="477" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A477" s="6">
         <v>45297</v>
       </c>
@@ -11283,10 +11436,10 @@
         <v>409</v>
       </c>
       <c r="F477" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="478" spans="1:6" x14ac:dyDescent="0.15">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="478" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A478" s="6">
         <v>45297</v>
       </c>
@@ -11303,10 +11456,10 @@
         <v>409</v>
       </c>
       <c r="F478" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="479" spans="1:6" x14ac:dyDescent="0.15">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="479" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A479" s="6">
         <v>45297</v>
       </c>
@@ -11326,7 +11479,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="480" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="480" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A480" s="6">
         <v>45297</v>
       </c>
@@ -11343,10 +11496,10 @@
         <v>409</v>
       </c>
       <c r="F480" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="481" spans="1:9" x14ac:dyDescent="0.15">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="481" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A481" s="6">
         <v>45297</v>
       </c>
@@ -11366,7 +11519,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="482" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="482" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A482" s="6">
         <v>45298</v>
       </c>
@@ -11383,10 +11536,10 @@
         <v>409</v>
       </c>
       <c r="F482" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="483" spans="1:9" x14ac:dyDescent="0.15">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="483" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A483" s="6">
         <v>45298</v>
       </c>
@@ -11403,10 +11556,10 @@
         <v>409</v>
       </c>
       <c r="F483" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="484" spans="1:9" x14ac:dyDescent="0.15">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="484" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A484" s="6">
         <v>45299</v>
       </c>
@@ -11423,10 +11576,10 @@
         <v>409</v>
       </c>
       <c r="F484" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="485" spans="1:9" x14ac:dyDescent="0.15">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="485" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A485" s="6">
         <v>45299</v>
       </c>
@@ -11446,7 +11599,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="486" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="486" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A486" s="6">
         <v>45299</v>
       </c>
@@ -11466,7 +11619,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="487" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="487" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A487" s="6">
         <v>45300</v>
       </c>
@@ -11486,7 +11639,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="488" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="488" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A488" s="6">
         <v>45300</v>
       </c>
@@ -11506,7 +11659,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="489" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="489" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A489" s="6">
         <v>45300</v>
       </c>
@@ -11523,10 +11676,10 @@
         <v>403</v>
       </c>
       <c r="F489" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="490" spans="1:9" x14ac:dyDescent="0.15">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="490" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A490" s="6">
         <v>45300</v>
       </c>
@@ -11543,10 +11696,10 @@
         <v>403</v>
       </c>
       <c r="F490" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="491" spans="1:9" x14ac:dyDescent="0.15">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="491" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A491" s="6">
         <v>45301</v>
       </c>
@@ -11563,10 +11716,10 @@
         <v>403</v>
       </c>
       <c r="F491" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="492" spans="1:9" x14ac:dyDescent="0.15">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="492" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A492" s="6">
         <v>45301</v>
       </c>
@@ -11586,7 +11739,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="493" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="493" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A493" s="6">
         <v>45302</v>
       </c>
@@ -11603,10 +11756,10 @@
         <v>403</v>
       </c>
       <c r="F493" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="494" spans="1:9" x14ac:dyDescent="0.15">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="494" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A494" s="6">
         <v>45302</v>
       </c>
@@ -11623,10 +11776,10 @@
         <v>409</v>
       </c>
       <c r="F494" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="495" spans="1:9" x14ac:dyDescent="0.15">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="495" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A495" s="6">
         <v>45302</v>
       </c>
@@ -11643,13 +11796,13 @@
         <v>409</v>
       </c>
       <c r="F495" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="I495" s="3">
         <v>45302.604166666664</v>
       </c>
     </row>
-    <row r="496" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="496" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A496" s="6">
         <v>45302</v>
       </c>
@@ -11672,7 +11825,7 @@
         <v>45646.958333333336</v>
       </c>
     </row>
-    <row r="497" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="497" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A497" s="6">
         <v>45302</v>
       </c>
@@ -11693,7 +11846,7 @@
       </c>
       <c r="I497" s="2"/>
     </row>
-    <row r="498" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="498" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A498" s="6">
         <v>45302</v>
       </c>
@@ -11713,7 +11866,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="499" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="499" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A499" s="6">
         <v>45302</v>
       </c>
@@ -11733,7 +11886,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="500" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="500" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A500" s="6">
         <v>45303</v>
       </c>
@@ -11753,7 +11906,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="501" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="501" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A501" s="6">
         <v>45303</v>
       </c>
@@ -11770,10 +11923,10 @@
         <v>409</v>
       </c>
       <c r="F501" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="502" spans="1:9" x14ac:dyDescent="0.15">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="502" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A502" s="6">
         <v>45303</v>
       </c>
@@ -11793,7 +11946,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="503" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="503" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A503" s="6">
         <v>45303</v>
       </c>
@@ -11810,10 +11963,10 @@
         <v>409</v>
       </c>
       <c r="F503" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="504" spans="1:9" x14ac:dyDescent="0.15">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="504" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A504" s="6">
         <v>45303</v>
       </c>
@@ -11830,10 +11983,10 @@
         <v>409</v>
       </c>
       <c r="F504" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="505" spans="1:9" x14ac:dyDescent="0.15">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="505" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A505" s="6">
         <v>45303</v>
       </c>
@@ -11850,10 +12003,10 @@
         <v>405</v>
       </c>
       <c r="F505" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="506" spans="1:9" x14ac:dyDescent="0.15">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="506" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A506" s="6">
         <v>45303</v>
       </c>
@@ -11873,7 +12026,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="507" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="507" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A507" s="6">
         <v>45303</v>
       </c>
@@ -11893,7 +12046,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="508" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="508" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A508" s="6">
         <v>45303</v>
       </c>
@@ -11910,10 +12063,10 @@
         <v>409</v>
       </c>
       <c r="F508" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="509" spans="1:9" x14ac:dyDescent="0.15">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="509" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A509" s="6">
         <v>45304</v>
       </c>
@@ -11930,10 +12083,10 @@
         <v>409</v>
       </c>
       <c r="F509" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="510" spans="1:9" x14ac:dyDescent="0.15">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="510" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A510" s="6">
         <v>45304</v>
       </c>
@@ -11950,10 +12103,10 @@
         <v>409</v>
       </c>
       <c r="F510" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="511" spans="1:9" x14ac:dyDescent="0.15">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="511" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A511" s="6">
         <v>45304</v>
       </c>
@@ -11970,10 +12123,10 @@
         <v>409</v>
       </c>
       <c r="F511" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="512" spans="1:9" x14ac:dyDescent="0.15">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="512" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A512" s="6">
         <v>45304</v>
       </c>
@@ -11993,7 +12146,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="513" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="513" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A513" s="6">
         <v>45304</v>
       </c>
@@ -12013,7 +12166,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="514" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="514" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A514" s="6">
         <v>45305</v>
       </c>
@@ -12030,10 +12183,10 @@
         <v>409</v>
       </c>
       <c r="F514" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="515" spans="1:6" x14ac:dyDescent="0.15">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="515" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A515" s="6">
         <v>45305</v>
       </c>
@@ -12050,10 +12203,10 @@
         <v>409</v>
       </c>
       <c r="F515" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="516" spans="1:6" x14ac:dyDescent="0.15">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="516" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A516" s="6">
         <v>45305</v>
       </c>
@@ -12073,7 +12226,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="517" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="517" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A517" s="6">
         <v>45305</v>
       </c>
@@ -12093,7 +12246,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="518" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="518" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A518" s="6">
         <v>45306</v>
       </c>
@@ -12110,10 +12263,10 @@
         <v>409</v>
       </c>
       <c r="F518" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="519" spans="1:6" x14ac:dyDescent="0.15">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="519" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A519" s="6">
         <v>45307</v>
       </c>
@@ -12130,10 +12283,10 @@
         <v>409</v>
       </c>
       <c r="F519" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="520" spans="1:6" x14ac:dyDescent="0.15">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="520" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A520" s="6">
         <v>45307</v>
       </c>
@@ -12150,10 +12303,10 @@
         <v>409</v>
       </c>
       <c r="F520" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="521" spans="1:6" x14ac:dyDescent="0.15">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="521" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A521" s="6">
         <v>45307</v>
       </c>
@@ -12173,7 +12326,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="522" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="522" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A522" s="6">
         <v>45308</v>
       </c>
@@ -12190,10 +12343,10 @@
         <v>409</v>
       </c>
       <c r="F522" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="523" spans="1:6" x14ac:dyDescent="0.15">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="523" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A523" s="6">
         <v>45308</v>
       </c>
@@ -12213,7 +12366,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="524" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="524" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A524" s="6">
         <v>45308</v>
       </c>
@@ -12233,7 +12386,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="525" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="525" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A525" s="6">
         <v>45308</v>
       </c>
@@ -12253,7 +12406,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="526" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="526" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A526" s="6">
         <v>45308</v>
       </c>
@@ -12273,7 +12426,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="527" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="527" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A527" s="6">
         <v>45308</v>
       </c>
@@ -12293,7 +12446,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="528" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="528" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A528" s="6">
         <v>45309</v>
       </c>
@@ -12313,7 +12466,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="529" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="529" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A529" s="6">
         <v>45309</v>
       </c>
@@ -12333,7 +12486,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="530" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="530" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A530" s="6">
         <v>45309</v>
       </c>
@@ -12353,7 +12506,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="531" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="531" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A531" s="6">
         <v>45309</v>
       </c>
@@ -12373,7 +12526,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="532" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="532" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A532" s="6">
         <v>45309</v>
       </c>
@@ -12390,10 +12543,10 @@
         <v>403</v>
       </c>
       <c r="F532" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="533" spans="1:6" x14ac:dyDescent="0.15">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="533" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A533" s="6">
         <v>45309</v>
       </c>
@@ -12413,7 +12566,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="534" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="534" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A534" s="6">
         <v>45310</v>
       </c>
@@ -12430,10 +12583,10 @@
         <v>403</v>
       </c>
       <c r="F534" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="535" spans="1:6" x14ac:dyDescent="0.15">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="535" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A535" s="6">
         <v>45310</v>
       </c>
@@ -12453,7 +12606,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="536" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="536" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A536" s="6">
         <v>45310</v>
       </c>
@@ -12473,7 +12626,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="537" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="537" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A537" s="6">
         <v>45310</v>
       </c>
@@ -12493,7 +12646,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="538" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="538" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A538" s="6">
         <v>45310</v>
       </c>
@@ -12513,7 +12666,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="539" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="539" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A539" s="6">
         <v>45310</v>
       </c>
@@ -12533,7 +12686,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="540" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="540" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A540" s="6">
         <v>45311</v>
       </c>
@@ -12553,7 +12706,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="541" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="541" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A541" s="6">
         <v>45311</v>
       </c>
@@ -12573,7 +12726,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="542" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="542" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A542" s="6">
         <v>45311</v>
       </c>
@@ -12593,7 +12746,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="543" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="543" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A543" s="6">
         <v>45311</v>
       </c>
@@ -12613,7 +12766,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="544" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="544" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A544" s="6">
         <v>45311</v>
       </c>
@@ -12630,10 +12783,10 @@
         <v>403</v>
       </c>
       <c r="F544" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="545" spans="1:6" x14ac:dyDescent="0.15">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="545" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A545" s="6">
         <v>45311</v>
       </c>
@@ -12650,10 +12803,10 @@
         <v>403</v>
       </c>
       <c r="F545" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="546" spans="1:6" x14ac:dyDescent="0.15">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="546" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A546" s="6">
         <v>45312</v>
       </c>
@@ -12670,10 +12823,10 @@
         <v>403</v>
       </c>
       <c r="F546" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="547" spans="1:6" x14ac:dyDescent="0.15">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="547" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A547" s="6">
         <v>45312</v>
       </c>
@@ -12690,10 +12843,10 @@
         <v>409</v>
       </c>
       <c r="F547" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="548" spans="1:6" x14ac:dyDescent="0.15">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="548" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A548" s="6">
         <v>45312</v>
       </c>
@@ -12710,10 +12863,10 @@
         <v>409</v>
       </c>
       <c r="F548" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="549" spans="1:6" x14ac:dyDescent="0.15">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="549" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A549" s="6">
         <v>45312</v>
       </c>
@@ -12730,10 +12883,10 @@
         <v>409</v>
       </c>
       <c r="F549" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="550" spans="1:6" x14ac:dyDescent="0.15">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="550" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A550" s="6">
         <v>45313</v>
       </c>
@@ -12750,10 +12903,10 @@
         <v>403</v>
       </c>
       <c r="F550" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="551" spans="1:6" x14ac:dyDescent="0.15">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="551" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A551" s="6">
         <v>45313</v>
       </c>
@@ -12773,7 +12926,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="552" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="552" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A552" s="6">
         <v>45313</v>
       </c>
@@ -12790,10 +12943,10 @@
         <v>409</v>
       </c>
       <c r="F552" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="553" spans="1:6" x14ac:dyDescent="0.15">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="553" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A553" s="6">
         <v>45314</v>
       </c>
@@ -12810,10 +12963,10 @@
         <v>409</v>
       </c>
       <c r="F553" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="554" spans="1:6" x14ac:dyDescent="0.15">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="554" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A554" s="6">
         <v>45314</v>
       </c>
@@ -12833,7 +12986,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="555" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="555" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A555" s="6">
         <v>45314</v>
       </c>
@@ -12850,10 +13003,10 @@
         <v>403</v>
       </c>
       <c r="F555" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="556" spans="1:6" x14ac:dyDescent="0.15">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="556" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A556" s="6">
         <v>45315</v>
       </c>
@@ -12873,7 +13026,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="557" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="557" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A557" s="6">
         <v>45316</v>
       </c>
@@ -12893,7 +13046,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="558" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="558" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A558" s="6">
         <v>45317</v>
       </c>
@@ -12913,7 +13066,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="559" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="559" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A559" s="6">
         <v>45318</v>
       </c>
@@ -12933,7 +13086,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="560" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="560" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A560" s="6">
         <v>45319</v>
       </c>
@@ -12953,7 +13106,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="561" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="561" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A561" s="6">
         <v>45320</v>
       </c>
@@ -12973,7 +13126,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="562" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="562" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A562" s="6">
         <v>45321</v>
       </c>
@@ -12993,7 +13146,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="563" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="563" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A563" s="6">
         <v>45321</v>
       </c>
@@ -13010,10 +13163,10 @@
         <v>403</v>
       </c>
       <c r="F563" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="564" spans="1:6" x14ac:dyDescent="0.15">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="564" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A564" s="6">
         <v>45321</v>
       </c>
@@ -13033,7 +13186,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="565" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="565" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A565" s="6">
         <v>45321</v>
       </c>
@@ -13050,10 +13203,10 @@
         <v>409</v>
       </c>
       <c r="F565" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="566" spans="1:6" x14ac:dyDescent="0.15">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="566" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A566" s="6">
         <v>45321</v>
       </c>
@@ -13073,7 +13226,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="567" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="567" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A567" s="6">
         <v>45322</v>
       </c>
@@ -13090,10 +13243,10 @@
         <v>409</v>
       </c>
       <c r="F567" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="568" spans="1:6" x14ac:dyDescent="0.15">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="568" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A568" s="6">
         <v>45322</v>
       </c>
@@ -13110,11 +13263,1977 @@
         <v>409</v>
       </c>
       <c r="F568" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="569" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A569" s="2">
+        <v>45323</v>
+      </c>
+      <c r="B569" t="s">
+        <v>7</v>
+      </c>
+      <c r="C569" t="s">
+        <v>278</v>
+      </c>
+      <c r="D569" t="s">
+        <v>401</v>
+      </c>
+      <c r="E569" t="s">
+        <v>403</v>
+      </c>
+      <c r="F569" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="570" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A570" s="2">
+        <v>45323</v>
+      </c>
+      <c r="B570" t="s">
+        <v>7</v>
+      </c>
+      <c r="C570" t="s">
+        <v>141</v>
+      </c>
+      <c r="D570" t="s">
+        <v>401</v>
+      </c>
+      <c r="E570" t="s">
+        <v>409</v>
+      </c>
+      <c r="F570" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="571" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A571" s="2">
+        <v>45323</v>
+      </c>
+      <c r="B571" t="s">
+        <v>141</v>
+      </c>
+      <c r="C571" t="s">
+        <v>427</v>
+      </c>
+      <c r="D571" t="s">
+        <v>401</v>
+      </c>
+      <c r="E571" t="s">
+        <v>403</v>
+      </c>
+      <c r="F571" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="572" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A572" s="2">
+        <v>45323</v>
+      </c>
+      <c r="B572" t="s">
+        <v>427</v>
+      </c>
+      <c r="C572" t="s">
+        <v>247</v>
+      </c>
+      <c r="D572" t="s">
+        <v>401</v>
+      </c>
+      <c r="E572" t="s">
+        <v>402</v>
+      </c>
+      <c r="F572" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="573" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A573" s="2">
+        <v>45324</v>
+      </c>
+      <c r="B573" t="s">
+        <v>7</v>
+      </c>
+      <c r="C573" t="s">
+        <v>235</v>
+      </c>
+      <c r="D573" t="s">
+        <v>401</v>
+      </c>
+      <c r="E573" t="s">
+        <v>402</v>
+      </c>
+      <c r="F573" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="574" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A574" s="2">
+        <v>45324</v>
+      </c>
+      <c r="B574" t="s">
+        <v>36</v>
+      </c>
+      <c r="C574" t="s">
+        <v>428</v>
+      </c>
+      <c r="D574" t="s">
+        <v>398</v>
+      </c>
+      <c r="E574" t="s">
+        <v>402</v>
+      </c>
+      <c r="F574" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="575" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A575" s="2">
+        <v>45324</v>
+      </c>
+      <c r="B575" t="s">
+        <v>428</v>
+      </c>
+      <c r="C575" t="s">
+        <v>247</v>
+      </c>
+      <c r="D575" t="s">
+        <v>398</v>
+      </c>
+      <c r="E575" t="s">
+        <v>403</v>
+      </c>
+      <c r="F575" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="576" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A576" s="2">
+        <v>45325</v>
+      </c>
+      <c r="B576" t="s">
+        <v>7</v>
+      </c>
+      <c r="C576" t="s">
+        <v>429</v>
+      </c>
+      <c r="D576" t="s">
+        <v>398</v>
+      </c>
+      <c r="E576" t="s">
+        <v>403</v>
+      </c>
+      <c r="F576" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="577" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A577" s="2">
+        <v>45325</v>
+      </c>
+      <c r="B577" t="s">
+        <v>429</v>
+      </c>
+      <c r="C577" t="s">
+        <v>430</v>
+      </c>
+      <c r="D577" t="s">
+        <v>398</v>
+      </c>
+      <c r="E577" t="s">
+        <v>402</v>
+      </c>
+      <c r="F577" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="578" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A578" s="2">
+        <v>45325</v>
+      </c>
+      <c r="B578" t="s">
+        <v>430</v>
+      </c>
+      <c r="C578" t="s">
+        <v>106</v>
+      </c>
+      <c r="D578" t="s">
+        <v>398</v>
+      </c>
+      <c r="E578" t="s">
+        <v>407</v>
+      </c>
+      <c r="F578" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="579" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A579" s="2">
+        <v>45326</v>
+      </c>
+      <c r="B579" t="s">
+        <v>7</v>
+      </c>
+      <c r="C579" t="s">
+        <v>130</v>
+      </c>
+      <c r="D579" t="s">
+        <v>398</v>
+      </c>
+      <c r="E579" t="s">
+        <v>407</v>
+      </c>
+      <c r="F579" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="580" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A580" s="2">
+        <v>45326</v>
+      </c>
+      <c r="B580" t="s">
+        <v>130</v>
+      </c>
+      <c r="C580" t="s">
+        <v>431</v>
+      </c>
+      <c r="D580" t="s">
+        <v>432</v>
+      </c>
+      <c r="E580" t="s">
+        <v>402</v>
+      </c>
+      <c r="F580" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="581" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A581" s="2">
+        <v>45326</v>
+      </c>
+      <c r="B581" t="s">
+        <v>360</v>
+      </c>
+      <c r="C581" t="s">
+        <v>247</v>
+      </c>
+      <c r="D581" t="s">
+        <v>432</v>
+      </c>
+      <c r="E581" t="s">
+        <v>403</v>
+      </c>
+      <c r="F581" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="582" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A582" s="2">
+        <v>45326</v>
+      </c>
+      <c r="B582" t="s">
+        <v>240</v>
+      </c>
+      <c r="C582" t="s">
+        <v>102</v>
+      </c>
+      <c r="D582" t="s">
+        <v>432</v>
+      </c>
+      <c r="E582" t="s">
+        <v>403</v>
+      </c>
+      <c r="F582" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="583" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A583" s="2">
+        <v>45327</v>
+      </c>
+      <c r="B583" t="s">
+        <v>7</v>
+      </c>
+      <c r="C583" t="s">
+        <v>115</v>
+      </c>
+      <c r="D583" t="s">
+        <v>432</v>
+      </c>
+      <c r="E583" t="s">
+        <v>403</v>
+      </c>
+      <c r="F583" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="584" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A584" s="2">
+        <v>45327</v>
+      </c>
+      <c r="B584" t="s">
+        <v>28</v>
+      </c>
+      <c r="C584" t="s">
+        <v>247</v>
+      </c>
+      <c r="D584" t="s">
+        <v>432</v>
+      </c>
+      <c r="E584" t="s">
+        <v>403</v>
+      </c>
+      <c r="F584" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="585" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A585" s="2">
+        <v>45328</v>
+      </c>
+      <c r="B585" t="s">
+        <v>7</v>
+      </c>
+      <c r="C585" t="s">
+        <v>247</v>
+      </c>
+      <c r="D585" t="s">
+        <v>432</v>
+      </c>
+      <c r="E585" t="s">
+        <v>403</v>
+      </c>
+      <c r="F585" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="586" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A586" s="2">
+        <v>45329</v>
+      </c>
+      <c r="B586" t="s">
+        <v>7</v>
+      </c>
+      <c r="C586" t="s">
+        <v>247</v>
+      </c>
+      <c r="D586" t="s">
+        <v>432</v>
+      </c>
+      <c r="E586" t="s">
+        <v>403</v>
+      </c>
+      <c r="F586" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="587" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A587" s="2">
+        <v>45329</v>
+      </c>
+      <c r="B587" t="s">
+        <v>141</v>
+      </c>
+      <c r="C587" t="s">
+        <v>433</v>
+      </c>
+      <c r="D587" t="s">
+        <v>432</v>
+      </c>
+      <c r="E587" t="s">
+        <v>409</v>
+      </c>
+      <c r="F587" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="588" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A588" s="2">
+        <v>45330</v>
+      </c>
+      <c r="B588" t="s">
+        <v>7</v>
+      </c>
+      <c r="C588" t="s">
+        <v>247</v>
+      </c>
+      <c r="D588" t="s">
+        <v>432</v>
+      </c>
+      <c r="E588" t="s">
+        <v>403</v>
+      </c>
+      <c r="F588" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="589" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A589" s="2">
+        <v>45330</v>
+      </c>
+      <c r="B589" t="s">
+        <v>150</v>
+      </c>
+      <c r="C589" t="s">
+        <v>144</v>
+      </c>
+      <c r="D589" t="s">
+        <v>432</v>
+      </c>
+      <c r="E589" t="s">
+        <v>409</v>
+      </c>
+      <c r="F589" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="590" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A590" s="2">
+        <v>45331</v>
+      </c>
+      <c r="B590" t="s">
+        <v>7</v>
+      </c>
+      <c r="C590" t="s">
+        <v>247</v>
+      </c>
+      <c r="D590" t="s">
+        <v>432</v>
+      </c>
+      <c r="E590" t="s">
+        <v>403</v>
+      </c>
+      <c r="F590" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="591" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A591" s="2">
+        <v>45332</v>
+      </c>
+      <c r="B591" t="s">
+        <v>7</v>
+      </c>
+      <c r="C591" t="s">
+        <v>161</v>
+      </c>
+      <c r="D591" t="s">
+        <v>432</v>
+      </c>
+      <c r="E591" t="s">
+        <v>403</v>
+      </c>
+      <c r="F591" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="592" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A592" s="2">
+        <v>45332</v>
+      </c>
+      <c r="B592" t="s">
+        <v>8</v>
+      </c>
+      <c r="C592" t="s">
+        <v>247</v>
+      </c>
+      <c r="D592" t="s">
+        <v>432</v>
+      </c>
+      <c r="E592" t="s">
+        <v>403</v>
+      </c>
+      <c r="F592" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="593" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A593" s="2">
+        <v>45332</v>
+      </c>
+      <c r="B593" t="s">
+        <v>435</v>
+      </c>
+      <c r="C593" t="s">
+        <v>374</v>
+      </c>
+      <c r="D593" t="s">
+        <v>432</v>
+      </c>
+      <c r="E593" t="s">
+        <v>403</v>
+      </c>
+      <c r="F593" t="s">
         <v>426</v>
       </c>
     </row>
+    <row r="594" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A594" s="2">
+        <v>45333</v>
+      </c>
+      <c r="B594" t="s">
+        <v>7</v>
+      </c>
+      <c r="C594" t="s">
+        <v>77</v>
+      </c>
+      <c r="D594" t="s">
+        <v>432</v>
+      </c>
+      <c r="E594" t="s">
+        <v>403</v>
+      </c>
+      <c r="F594" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="595" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A595" s="2">
+        <v>45333</v>
+      </c>
+      <c r="B595" t="s">
+        <v>7</v>
+      </c>
+      <c r="C595" t="s">
+        <v>436</v>
+      </c>
+      <c r="D595" t="s">
+        <v>432</v>
+      </c>
+      <c r="E595" t="s">
+        <v>409</v>
+      </c>
+      <c r="F595" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="596" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A596" s="2">
+        <v>45333</v>
+      </c>
+      <c r="B596" t="s">
+        <v>437</v>
+      </c>
+      <c r="C596" t="s">
+        <v>66</v>
+      </c>
+      <c r="D596" t="s">
+        <v>432</v>
+      </c>
+      <c r="E596" t="s">
+        <v>403</v>
+      </c>
+      <c r="F596" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="597" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A597" s="2">
+        <v>45333</v>
+      </c>
+      <c r="B597" t="s">
+        <v>66</v>
+      </c>
+      <c r="C597" t="s">
+        <v>438</v>
+      </c>
+      <c r="D597" t="s">
+        <v>432</v>
+      </c>
+      <c r="E597" t="s">
+        <v>409</v>
+      </c>
+      <c r="F597" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="598" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A598" s="2">
+        <v>45334</v>
+      </c>
+      <c r="B598" t="s">
+        <v>7</v>
+      </c>
+      <c r="C598" t="s">
+        <v>439</v>
+      </c>
+      <c r="D598" t="s">
+        <v>432</v>
+      </c>
+      <c r="E598" t="s">
+        <v>409</v>
+      </c>
+      <c r="F598" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="599" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A599" s="2">
+        <v>45334</v>
+      </c>
+      <c r="B599" t="s">
+        <v>372</v>
+      </c>
+      <c r="C599" t="s">
+        <v>247</v>
+      </c>
+      <c r="D599" t="s">
+        <v>432</v>
+      </c>
+      <c r="E599" t="s">
+        <v>409</v>
+      </c>
+      <c r="F599" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="600" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A600" s="2">
+        <v>45334</v>
+      </c>
+      <c r="B600" t="s">
+        <v>439</v>
+      </c>
+      <c r="C600" t="s">
+        <v>440</v>
+      </c>
+      <c r="D600" t="s">
+        <v>432</v>
+      </c>
+      <c r="E600" t="s">
+        <v>403</v>
+      </c>
+      <c r="F600" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="601" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A601" s="2">
+        <v>45335</v>
+      </c>
+      <c r="B601" t="s">
+        <v>7</v>
+      </c>
+      <c r="C601" t="s">
+        <v>47</v>
+      </c>
+      <c r="D601" t="s">
+        <v>432</v>
+      </c>
+      <c r="E601" t="s">
+        <v>409</v>
+      </c>
+      <c r="F601" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="602" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A602" s="2">
+        <v>45335</v>
+      </c>
+      <c r="B602" t="s">
+        <v>441</v>
+      </c>
+      <c r="C602" t="s">
+        <v>18</v>
+      </c>
+      <c r="D602" t="s">
+        <v>432</v>
+      </c>
+      <c r="E602" t="s">
+        <v>409</v>
+      </c>
+      <c r="F602" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="603" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A603" s="2">
+        <v>45335</v>
+      </c>
+      <c r="B603" t="s">
+        <v>442</v>
+      </c>
+      <c r="C603" t="s">
+        <v>125</v>
+      </c>
+      <c r="D603" t="s">
+        <v>432</v>
+      </c>
+      <c r="E603" t="s">
+        <v>403</v>
+      </c>
+      <c r="F603" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="604" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A604" s="2">
+        <v>45335</v>
+      </c>
+      <c r="B604" t="s">
+        <v>125</v>
+      </c>
+      <c r="C604" t="s">
+        <v>247</v>
+      </c>
+      <c r="D604" t="s">
+        <v>432</v>
+      </c>
+      <c r="E604" t="s">
+        <v>403</v>
+      </c>
+      <c r="F604" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="605" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A605" s="2">
+        <v>45336</v>
+      </c>
+      <c r="B605" t="s">
+        <v>7</v>
+      </c>
+      <c r="C605" t="s">
+        <v>247</v>
+      </c>
+      <c r="D605" t="s">
+        <v>432</v>
+      </c>
+      <c r="E605" t="s">
+        <v>403</v>
+      </c>
+      <c r="F605" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="606" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A606" s="2">
+        <v>45337</v>
+      </c>
+      <c r="B606" t="s">
+        <v>7</v>
+      </c>
+      <c r="C606" t="s">
+        <v>443</v>
+      </c>
+      <c r="D606" t="s">
+        <v>432</v>
+      </c>
+      <c r="E606" t="s">
+        <v>403</v>
+      </c>
+      <c r="F606" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="607" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A607" s="2">
+        <v>45337</v>
+      </c>
+      <c r="B607" t="s">
+        <v>28</v>
+      </c>
+      <c r="C607" t="s">
+        <v>444</v>
+      </c>
+      <c r="D607" t="s">
+        <v>432</v>
+      </c>
+      <c r="E607" t="s">
+        <v>409</v>
+      </c>
+      <c r="F607" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="608" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A608" s="2">
+        <v>45337</v>
+      </c>
+      <c r="B608" t="s">
+        <v>444</v>
+      </c>
+      <c r="C608" t="s">
+        <v>247</v>
+      </c>
+      <c r="D608" t="s">
+        <v>432</v>
+      </c>
+      <c r="E608" t="s">
+        <v>402</v>
+      </c>
+      <c r="F608" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="609" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A609" s="2">
+        <v>45338</v>
+      </c>
+      <c r="B609" t="s">
+        <v>7</v>
+      </c>
+      <c r="C609" t="s">
+        <v>148</v>
+      </c>
+      <c r="D609" t="s">
+        <v>432</v>
+      </c>
+      <c r="E609" t="s">
+        <v>402</v>
+      </c>
+      <c r="F609" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="610" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A610" s="2">
+        <v>45338</v>
+      </c>
+      <c r="B610" t="s">
+        <v>445</v>
+      </c>
+      <c r="C610" t="s">
+        <v>379</v>
+      </c>
+      <c r="D610" t="s">
+        <v>446</v>
+      </c>
+      <c r="E610" t="s">
+        <v>402</v>
+      </c>
+      <c r="F610" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="611" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A611" s="2">
+        <v>45338</v>
+      </c>
+      <c r="B611" t="s">
+        <v>447</v>
+      </c>
+      <c r="C611" t="s">
+        <v>281</v>
+      </c>
+      <c r="D611" t="s">
+        <v>446</v>
+      </c>
+      <c r="E611" t="s">
+        <v>409</v>
+      </c>
+      <c r="F611" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="612" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A612" s="2">
+        <v>45338</v>
+      </c>
+      <c r="B612" t="s">
+        <v>59</v>
+      </c>
+      <c r="C612" t="s">
+        <v>294</v>
+      </c>
+      <c r="D612" t="s">
+        <v>446</v>
+      </c>
+      <c r="E612" t="s">
+        <v>409</v>
+      </c>
+      <c r="F612" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="613" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A613" s="2">
+        <v>45338</v>
+      </c>
+      <c r="B613" t="s">
+        <v>106</v>
+      </c>
+      <c r="C613" t="s">
+        <v>247</v>
+      </c>
+      <c r="D613" t="s">
+        <v>446</v>
+      </c>
+      <c r="E613" t="s">
+        <v>409</v>
+      </c>
+      <c r="F613" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="614" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A614" s="2">
+        <v>45339</v>
+      </c>
+      <c r="B614" t="s">
+        <v>7</v>
+      </c>
+      <c r="C614" t="s">
+        <v>166</v>
+      </c>
+      <c r="D614" t="s">
+        <v>446</v>
+      </c>
+      <c r="E614" t="s">
+        <v>409</v>
+      </c>
+      <c r="F614" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="615" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A615" s="2">
+        <v>45339</v>
+      </c>
+      <c r="B615" t="s">
+        <v>166</v>
+      </c>
+      <c r="C615" t="s">
+        <v>247</v>
+      </c>
+      <c r="D615" t="s">
+        <v>446</v>
+      </c>
+      <c r="E615" t="s">
+        <v>409</v>
+      </c>
+      <c r="F615" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="616" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A616" s="2">
+        <v>45340</v>
+      </c>
+      <c r="B616" t="s">
+        <v>7</v>
+      </c>
+      <c r="C616" t="s">
+        <v>300</v>
+      </c>
+      <c r="D616" t="s">
+        <v>446</v>
+      </c>
+      <c r="E616" t="s">
+        <v>409</v>
+      </c>
+      <c r="F616" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="617" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A617" s="2">
+        <v>45340</v>
+      </c>
+      <c r="B617" t="s">
+        <v>300</v>
+      </c>
+      <c r="C617" t="s">
+        <v>247</v>
+      </c>
+      <c r="D617" t="s">
+        <v>446</v>
+      </c>
+      <c r="E617" t="s">
+        <v>402</v>
+      </c>
+      <c r="F617" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="618" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A618" s="2">
+        <v>45341</v>
+      </c>
+      <c r="B618" t="s">
+        <v>7</v>
+      </c>
+      <c r="C618" t="s">
+        <v>448</v>
+      </c>
+      <c r="D618" t="s">
+        <v>446</v>
+      </c>
+      <c r="E618" t="s">
+        <v>402</v>
+      </c>
+      <c r="F618" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="619" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A619" s="2">
+        <v>45341</v>
+      </c>
+      <c r="B619" t="s">
+        <v>31</v>
+      </c>
+      <c r="C619" t="s">
+        <v>247</v>
+      </c>
+      <c r="D619" t="s">
+        <v>432</v>
+      </c>
+      <c r="E619" t="s">
+        <v>402</v>
+      </c>
+      <c r="F619" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="620" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A620" s="2">
+        <v>45341</v>
+      </c>
+      <c r="B620" t="s">
+        <v>449</v>
+      </c>
+      <c r="C620" t="s">
+        <v>281</v>
+      </c>
+      <c r="D620" t="s">
+        <v>432</v>
+      </c>
+      <c r="E620" t="s">
+        <v>403</v>
+      </c>
+      <c r="F620" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="621" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A621" s="2">
+        <v>45341</v>
+      </c>
+      <c r="B621" t="s">
+        <v>450</v>
+      </c>
+      <c r="C621" t="s">
+        <v>451</v>
+      </c>
+      <c r="D621" t="s">
+        <v>432</v>
+      </c>
+      <c r="E621" t="s">
+        <v>403</v>
+      </c>
+      <c r="F621" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="622" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A622" s="2">
+        <v>45342</v>
+      </c>
+      <c r="B622" t="s">
+        <v>7</v>
+      </c>
+      <c r="C622" t="s">
+        <v>452</v>
+      </c>
+      <c r="D622" t="s">
+        <v>432</v>
+      </c>
+      <c r="E622" t="s">
+        <v>402</v>
+      </c>
+      <c r="F622" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="623" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A623" s="2">
+        <v>45342</v>
+      </c>
+      <c r="B623" t="s">
+        <v>452</v>
+      </c>
+      <c r="C623" t="s">
+        <v>247</v>
+      </c>
+      <c r="D623" t="s">
+        <v>432</v>
+      </c>
+      <c r="E623" t="s">
+        <v>407</v>
+      </c>
+      <c r="F623" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="624" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A624" s="2">
+        <v>45343</v>
+      </c>
+      <c r="B624" t="s">
+        <v>7</v>
+      </c>
+      <c r="C624" t="s">
+        <v>140</v>
+      </c>
+      <c r="D624" t="s">
+        <v>432</v>
+      </c>
+      <c r="E624" t="s">
+        <v>407</v>
+      </c>
+      <c r="F624" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="625" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A625" s="2">
+        <v>45343</v>
+      </c>
+      <c r="B625" t="s">
+        <v>62</v>
+      </c>
+      <c r="C625" t="s">
+        <v>254</v>
+      </c>
+      <c r="D625" t="s">
+        <v>453</v>
+      </c>
+      <c r="E625" t="s">
+        <v>402</v>
+      </c>
+      <c r="F625" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="626" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A626" s="2">
+        <v>45343</v>
+      </c>
+      <c r="B626" t="s">
+        <v>254</v>
+      </c>
+      <c r="C626" t="s">
+        <v>247</v>
+      </c>
+      <c r="D626" t="s">
+        <v>453</v>
+      </c>
+      <c r="E626" t="s">
+        <v>409</v>
+      </c>
+      <c r="F626" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="627" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A627" s="2">
+        <v>45344</v>
+      </c>
+      <c r="B627" t="s">
+        <v>7</v>
+      </c>
+      <c r="C627" t="s">
+        <v>284</v>
+      </c>
+      <c r="D627" t="s">
+        <v>453</v>
+      </c>
+      <c r="E627" t="s">
+        <v>409</v>
+      </c>
+      <c r="F627" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="628" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A628" s="2">
+        <v>45344</v>
+      </c>
+      <c r="B628" t="s">
+        <v>284</v>
+      </c>
+      <c r="C628" t="s">
+        <v>247</v>
+      </c>
+      <c r="D628" t="s">
+        <v>453</v>
+      </c>
+      <c r="E628" t="s">
+        <v>402</v>
+      </c>
+      <c r="F628" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="629" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A629" s="2">
+        <v>45345</v>
+      </c>
+      <c r="B629" t="s">
+        <v>7</v>
+      </c>
+      <c r="C629" t="s">
+        <v>337</v>
+      </c>
+      <c r="D629" t="s">
+        <v>453</v>
+      </c>
+      <c r="E629" t="s">
+        <v>402</v>
+      </c>
+      <c r="F629" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="630" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A630" s="2">
+        <v>45413</v>
+      </c>
+      <c r="B630" t="s">
+        <v>7</v>
+      </c>
+      <c r="C630" t="s">
+        <v>454</v>
+      </c>
+      <c r="D630" t="s">
+        <v>455</v>
+      </c>
+      <c r="E630" t="s">
+        <v>399</v>
+      </c>
+      <c r="F630" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="631" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A631" s="2">
+        <v>45413</v>
+      </c>
+      <c r="B631" t="s">
+        <v>7</v>
+      </c>
+      <c r="C631" t="s">
+        <v>247</v>
+      </c>
+      <c r="D631" t="s">
+        <v>455</v>
+      </c>
+      <c r="E631" t="s">
+        <v>403</v>
+      </c>
+      <c r="F631" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="632" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A632" s="2">
+        <v>45414</v>
+      </c>
+      <c r="B632" t="s">
+        <v>7</v>
+      </c>
+      <c r="C632" t="s">
+        <v>456</v>
+      </c>
+      <c r="D632" t="s">
+        <v>455</v>
+      </c>
+      <c r="E632" t="s">
+        <v>399</v>
+      </c>
+      <c r="F632" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="633" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A633" s="2">
+        <v>45414</v>
+      </c>
+      <c r="B633" t="s">
+        <v>7</v>
+      </c>
+      <c r="C633" t="s">
+        <v>247</v>
+      </c>
+      <c r="D633" t="s">
+        <v>455</v>
+      </c>
+      <c r="E633" t="s">
+        <v>403</v>
+      </c>
+      <c r="F633" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="634" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A634" s="2">
+        <v>45415</v>
+      </c>
+      <c r="B634" t="s">
+        <v>7</v>
+      </c>
+      <c r="C634" t="s">
+        <v>279</v>
+      </c>
+      <c r="D634" t="s">
+        <v>455</v>
+      </c>
+      <c r="E634" t="s">
+        <v>399</v>
+      </c>
+      <c r="F634" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="635" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A635" s="2">
+        <v>45415</v>
+      </c>
+      <c r="B635" t="s">
+        <v>7</v>
+      </c>
+      <c r="C635" t="s">
+        <v>247</v>
+      </c>
+      <c r="D635" t="s">
+        <v>455</v>
+      </c>
+      <c r="E635" t="s">
+        <v>403</v>
+      </c>
+      <c r="F635" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="636" spans="1:6" ht="13.8" x14ac:dyDescent="0.2">
+      <c r="A636" s="2">
+        <v>45415</v>
+      </c>
+      <c r="B636" t="s">
+        <v>457</v>
+      </c>
+      <c r="C636" t="s">
+        <v>263</v>
+      </c>
+      <c r="D636" t="s">
+        <v>455</v>
+      </c>
+      <c r="E636" t="s">
+        <v>403</v>
+      </c>
+      <c r="F636" s="9" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="637" spans="1:6" ht="13.8" x14ac:dyDescent="0.2">
+      <c r="A637" s="2">
+        <v>45415</v>
+      </c>
+      <c r="B637" t="s">
+        <v>294</v>
+      </c>
+      <c r="C637" t="s">
+        <v>458</v>
+      </c>
+      <c r="D637" t="s">
+        <v>455</v>
+      </c>
+      <c r="E637" t="s">
+        <v>403</v>
+      </c>
+      <c r="F637" s="9" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="638" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A638" s="2">
+        <v>45416</v>
+      </c>
+      <c r="B638" t="s">
+        <v>7</v>
+      </c>
+      <c r="C638" t="s">
+        <v>247</v>
+      </c>
+      <c r="D638" t="s">
+        <v>455</v>
+      </c>
+      <c r="E638" t="s">
+        <v>403</v>
+      </c>
+      <c r="F638" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="639" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A639" s="2">
+        <v>45416</v>
+      </c>
+      <c r="B639" t="s">
+        <v>459</v>
+      </c>
+      <c r="C639" t="s">
+        <v>460</v>
+      </c>
+      <c r="D639" t="s">
+        <v>455</v>
+      </c>
+      <c r="E639" t="s">
+        <v>406</v>
+      </c>
+      <c r="F639" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="640" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A640" s="2">
+        <v>45417</v>
+      </c>
+      <c r="B640" t="s">
+        <v>7</v>
+      </c>
+      <c r="C640" t="s">
+        <v>243</v>
+      </c>
+      <c r="D640" t="s">
+        <v>455</v>
+      </c>
+      <c r="E640" t="s">
+        <v>399</v>
+      </c>
+      <c r="F640" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="641" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A641" s="2">
+        <v>45417</v>
+      </c>
+      <c r="B641" t="s">
+        <v>7</v>
+      </c>
+      <c r="C641" t="s">
+        <v>169</v>
+      </c>
+      <c r="D641" t="s">
+        <v>455</v>
+      </c>
+      <c r="E641" t="s">
+        <v>403</v>
+      </c>
+      <c r="F641" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="642" spans="1:6" ht="13.8" x14ac:dyDescent="0.2">
+      <c r="A642" s="2">
+        <v>45417</v>
+      </c>
+      <c r="B642" t="s">
+        <v>169</v>
+      </c>
+      <c r="C642" t="s">
+        <v>350</v>
+      </c>
+      <c r="D642" t="s">
+        <v>455</v>
+      </c>
+      <c r="E642" t="s">
+        <v>403</v>
+      </c>
+      <c r="F642" s="9" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="643" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A643" s="2">
+        <v>45417</v>
+      </c>
+      <c r="B643" t="s">
+        <v>313</v>
+      </c>
+      <c r="C643" t="s">
+        <v>462</v>
+      </c>
+      <c r="D643" t="s">
+        <v>455</v>
+      </c>
+      <c r="E643" t="s">
+        <v>404</v>
+      </c>
+      <c r="F643" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="644" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A644" s="2">
+        <v>45417</v>
+      </c>
+      <c r="B644" t="s">
+        <v>463</v>
+      </c>
+      <c r="C644" t="s">
+        <v>247</v>
+      </c>
+      <c r="D644" t="s">
+        <v>455</v>
+      </c>
+      <c r="E644" t="s">
+        <v>403</v>
+      </c>
+      <c r="F644" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="645" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A645" s="2">
+        <v>45418</v>
+      </c>
+      <c r="B645" t="s">
+        <v>7</v>
+      </c>
+      <c r="C645" t="s">
+        <v>59</v>
+      </c>
+      <c r="D645" t="s">
+        <v>455</v>
+      </c>
+      <c r="E645" t="s">
+        <v>399</v>
+      </c>
+      <c r="F645" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="646" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A646" s="2">
+        <v>45418</v>
+      </c>
+      <c r="B646" t="s">
+        <v>7</v>
+      </c>
+      <c r="C646" t="s">
+        <v>274</v>
+      </c>
+      <c r="D646" t="s">
+        <v>455</v>
+      </c>
+      <c r="E646" t="s">
+        <v>403</v>
+      </c>
+      <c r="F646" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="647" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A647" s="2">
+        <v>45418</v>
+      </c>
+      <c r="B647" t="s">
+        <v>281</v>
+      </c>
+      <c r="C647" t="s">
+        <v>464</v>
+      </c>
+      <c r="D647" t="s">
+        <v>455</v>
+      </c>
+      <c r="E647" t="s">
+        <v>403</v>
+      </c>
+      <c r="F647" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="648" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A648" s="2">
+        <v>45418</v>
+      </c>
+      <c r="B648" t="s">
+        <v>464</v>
+      </c>
+      <c r="C648" t="s">
+        <v>247</v>
+      </c>
+      <c r="D648" t="s">
+        <v>455</v>
+      </c>
+      <c r="E648" t="s">
+        <v>403</v>
+      </c>
+      <c r="F648" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="649" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A649" s="2">
+        <v>45419</v>
+      </c>
+      <c r="B649" t="s">
+        <v>7</v>
+      </c>
+      <c r="C649" t="s">
+        <v>79</v>
+      </c>
+      <c r="D649" t="s">
+        <v>455</v>
+      </c>
+      <c r="E649" t="s">
+        <v>399</v>
+      </c>
+      <c r="F649" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="650" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A650" s="2">
+        <v>45419</v>
+      </c>
+      <c r="B650" t="s">
+        <v>7</v>
+      </c>
+      <c r="C650" t="s">
+        <v>465</v>
+      </c>
+      <c r="D650" t="s">
+        <v>455</v>
+      </c>
+      <c r="E650" t="s">
+        <v>403</v>
+      </c>
+      <c r="F650" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="651" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A651" s="2">
+        <v>45419</v>
+      </c>
+      <c r="B651" t="s">
+        <v>466</v>
+      </c>
+      <c r="C651" t="s">
+        <v>467</v>
+      </c>
+      <c r="D651" t="s">
+        <v>455</v>
+      </c>
+      <c r="E651" t="s">
+        <v>403</v>
+      </c>
+      <c r="F651" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="652" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A652" s="2">
+        <v>45419</v>
+      </c>
+      <c r="B652" t="s">
+        <v>28</v>
+      </c>
+      <c r="C652" t="s">
+        <v>468</v>
+      </c>
+      <c r="D652" t="s">
+        <v>455</v>
+      </c>
+      <c r="E652" t="s">
+        <v>404</v>
+      </c>
+      <c r="F652" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="653" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A653" s="2">
+        <v>45419</v>
+      </c>
+      <c r="B653" t="s">
+        <v>467</v>
+      </c>
+      <c r="C653" t="s">
+        <v>470</v>
+      </c>
+      <c r="D653" t="s">
+        <v>455</v>
+      </c>
+      <c r="E653" t="s">
+        <v>403</v>
+      </c>
+      <c r="F653" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="654" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A654" s="2">
+        <v>45419</v>
+      </c>
+      <c r="B654" t="s">
+        <v>470</v>
+      </c>
+      <c r="C654" t="s">
+        <v>247</v>
+      </c>
+      <c r="D654" t="s">
+        <v>455</v>
+      </c>
+      <c r="E654" t="s">
+        <v>403</v>
+      </c>
+      <c r="F654" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="655" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A655" s="2">
+        <v>45420</v>
+      </c>
+      <c r="B655" t="s">
+        <v>7</v>
+      </c>
+      <c r="C655" t="s">
+        <v>472</v>
+      </c>
+      <c r="D655" t="s">
+        <v>455</v>
+      </c>
+      <c r="E655" t="s">
+        <v>399</v>
+      </c>
+      <c r="F655" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="656" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A656" s="2">
+        <v>45420</v>
+      </c>
+      <c r="B656" t="s">
+        <v>7</v>
+      </c>
+      <c r="C656" t="s">
+        <v>473</v>
+      </c>
+      <c r="D656" t="s">
+        <v>455</v>
+      </c>
+      <c r="E656" t="s">
+        <v>403</v>
+      </c>
+      <c r="F656" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="657" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A657" s="2">
+        <v>45420</v>
+      </c>
+      <c r="B657" t="s">
+        <v>473</v>
+      </c>
+      <c r="C657" t="s">
+        <v>474</v>
+      </c>
+      <c r="D657" t="s">
+        <v>455</v>
+      </c>
+      <c r="E657" t="s">
+        <v>403</v>
+      </c>
+      <c r="F657" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="658" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A658" s="2">
+        <v>45421</v>
+      </c>
+      <c r="B658" t="s">
+        <v>7</v>
+      </c>
+      <c r="C658" t="s">
+        <v>66</v>
+      </c>
+      <c r="D658" t="s">
+        <v>455</v>
+      </c>
+      <c r="E658" t="s">
+        <v>403</v>
+      </c>
+      <c r="F658" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="659" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A659" s="2">
+        <v>45421</v>
+      </c>
+      <c r="B659" t="s">
+        <v>31</v>
+      </c>
+      <c r="C659" t="s">
+        <v>107</v>
+      </c>
+      <c r="D659" t="s">
+        <v>455</v>
+      </c>
+      <c r="E659" t="s">
+        <v>404</v>
+      </c>
+      <c r="F659" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="660" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A660" s="2">
+        <v>45422</v>
+      </c>
+      <c r="B660" t="s">
+        <v>7</v>
+      </c>
+      <c r="C660" t="s">
+        <v>475</v>
+      </c>
+      <c r="D660" t="s">
+        <v>455</v>
+      </c>
+      <c r="E660" t="s">
+        <v>403</v>
+      </c>
+      <c r="F660" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="661" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A661" s="2">
+        <v>45422</v>
+      </c>
+      <c r="B661" t="s">
+        <v>8</v>
+      </c>
+      <c r="C661" t="s">
+        <v>247</v>
+      </c>
+      <c r="D661" t="s">
+        <v>455</v>
+      </c>
+      <c r="E661" t="s">
+        <v>403</v>
+      </c>
+      <c r="F661" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="662" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A662" s="2">
+        <v>45422</v>
+      </c>
+      <c r="B662" t="s">
+        <v>95</v>
+      </c>
+      <c r="C662" t="s">
+        <v>477</v>
+      </c>
+      <c r="D662" t="s">
+        <v>455</v>
+      </c>
+      <c r="E662" t="s">
+        <v>404</v>
+      </c>
+      <c r="F662" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="663" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A663" s="2">
+        <v>45422</v>
+      </c>
+      <c r="B663" t="s">
+        <v>478</v>
+      </c>
+      <c r="C663" t="s">
+        <v>78</v>
+      </c>
+      <c r="D663" t="s">
+        <v>455</v>
+      </c>
+      <c r="E663" t="s">
+        <v>409</v>
+      </c>
+      <c r="F663" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="664" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A664" s="2">
+        <v>45423</v>
+      </c>
+      <c r="B664" t="s">
+        <v>7</v>
+      </c>
+      <c r="C664" t="s">
+        <v>111</v>
+      </c>
+      <c r="D664" t="s">
+        <v>455</v>
+      </c>
+      <c r="E664" t="s">
+        <v>403</v>
+      </c>
+      <c r="F664" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="665" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A665" s="2">
+        <v>45423</v>
+      </c>
+      <c r="B665" t="s">
+        <v>479</v>
+      </c>
+      <c r="C665" t="s">
+        <v>480</v>
+      </c>
+      <c r="D665" t="s">
+        <v>481</v>
+      </c>
+      <c r="E665" t="s">
+        <v>482</v>
+      </c>
+      <c r="F665" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="666" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A666" s="2">
+        <v>45423</v>
+      </c>
+      <c r="B666" t="s">
+        <v>111</v>
+      </c>
+      <c r="C666" t="s">
+        <v>247</v>
+      </c>
+      <c r="D666" t="s">
+        <v>455</v>
+      </c>
+      <c r="E666" t="s">
+        <v>403</v>
+      </c>
+      <c r="F666" t="s">
+        <v>418</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:F666" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="2"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F32 F34 F89 F93 F132:F133 F243 F377 F636:F637 F642" xr:uid="{A4F4424F-EE82-47DE-9A7F-21121B10FF1A}">
+      <formula1>INDIRECT(E32)</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/output.xlsx
+++ b/output.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\N9635226\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDF2B5E2-5979-4EC9-ACE1-97FC97DB4A29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF37654E-1EE5-4418-BDA6-650B7FCFF6B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25545" yWindow="3615" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="1605" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$666</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$659</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3320" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3285" uniqueCount="480">
   <si>
     <t>Date</t>
   </si>
@@ -1280,211 +1280,203 @@
     <t>DLB</t>
   </si>
   <si>
+    <t>Slip ring</t>
+  </si>
+  <si>
+    <t>Prep.DK</t>
+  </si>
+  <si>
+    <t>Topside</t>
+  </si>
+  <si>
+    <t>Hook up</t>
+  </si>
+  <si>
+    <t>Spool Inst.</t>
+  </si>
+  <si>
+    <t>Spool fab</t>
+  </si>
+  <si>
+    <t>WYE/PLEM</t>
+  </si>
+  <si>
+    <t>Metrology</t>
+  </si>
+  <si>
+    <t>Pigging</t>
+  </si>
+  <si>
+    <t>Hydrotest</t>
+  </si>
+  <si>
+    <t>Subcon</t>
+  </si>
+  <si>
+    <t>Boat landing</t>
+  </si>
+  <si>
+    <t>19:03:00</t>
+  </si>
+  <si>
+    <t>16:36:00</t>
+  </si>
+  <si>
+    <t>02:40:00</t>
+  </si>
+  <si>
+    <t>07:47:00</t>
+  </si>
+  <si>
+    <t>22:15:00</t>
+  </si>
+  <si>
+    <t>PKWG</t>
+  </si>
+  <si>
+    <t>21:58:00</t>
+  </si>
+  <si>
+    <t>Spool</t>
+  </si>
+  <si>
+    <t>10:55:00</t>
+  </si>
+  <si>
+    <t>12:48:00</t>
+  </si>
+  <si>
+    <t>19:21:00</t>
+  </si>
+  <si>
+    <t>23:51:00</t>
+  </si>
+  <si>
+    <t>06:38:00</t>
+  </si>
+  <si>
+    <t>19:47:00</t>
+  </si>
+  <si>
+    <t>06:43:00</t>
+  </si>
+  <si>
+    <t>15:07:00</t>
+  </si>
+  <si>
+    <t>13:02:00</t>
+  </si>
+  <si>
+    <t>15:39:00</t>
+  </si>
+  <si>
+    <t>01:45:00</t>
+  </si>
+  <si>
+    <t>PKWE</t>
+  </si>
+  <si>
+    <t>16:03:00</t>
+  </si>
+  <si>
+    <t>04:46:00</t>
+  </si>
+  <si>
+    <t>09:35:00</t>
+  </si>
+  <si>
+    <t>19:24:00</t>
+  </si>
+  <si>
+    <t>20:27:00</t>
+  </si>
+  <si>
+    <t>02:20:00</t>
+  </si>
+  <si>
+    <t>WPS7</t>
+  </si>
+  <si>
+    <t>DAWD</t>
+  </si>
+  <si>
+    <t>04:48:00</t>
+  </si>
+  <si>
+    <t>22:19:00</t>
+  </si>
+  <si>
+    <t>15:03:00</t>
+  </si>
+  <si>
+    <t>17:29:00</t>
+  </si>
+  <si>
+    <t>DLB(Hammer)</t>
+  </si>
+  <si>
+    <t>15:09:00</t>
+  </si>
+  <si>
+    <t>16:39:00</t>
+  </si>
+  <si>
+    <t>19:17:00</t>
+  </si>
+  <si>
+    <t>15:48:00</t>
+  </si>
+  <si>
+    <t>03:30:00</t>
+  </si>
+  <si>
+    <t>13:16:00</t>
+  </si>
+  <si>
+    <t>07:32:00</t>
+  </si>
+  <si>
+    <t>Hs &lt; 2m</t>
+  </si>
+  <si>
+    <t>17:50</t>
+  </si>
+  <si>
+    <t>Berth barge</t>
+  </si>
+  <si>
+    <t>07:41:00</t>
+  </si>
+  <si>
+    <t>23:55:00</t>
+  </si>
+  <si>
+    <t>07:56:00</t>
+  </si>
+  <si>
+    <t>Paint</t>
+  </si>
+  <si>
+    <t>11:18:00</t>
+  </si>
+  <si>
+    <t>11:37:00</t>
+  </si>
+  <si>
+    <t>03:26:00</t>
+  </si>
+  <si>
+    <t>09:36:00</t>
+  </si>
+  <si>
+    <t>DAPLD</t>
+  </si>
+  <si>
+    <t>Additional Work</t>
+  </si>
+  <si>
     <t>Leveling</t>
-  </si>
-  <si>
-    <t>Slip ring</t>
-  </si>
-  <si>
-    <t>Prep.DK</t>
-  </si>
-  <si>
-    <t>Topside</t>
-  </si>
-  <si>
-    <t>Hook up</t>
-  </si>
-  <si>
-    <t>Spool Inst.</t>
-  </si>
-  <si>
-    <t>Spool fab</t>
-  </si>
-  <si>
-    <t>WYE/PLEM</t>
-  </si>
-  <si>
-    <t>Metrology</t>
-  </si>
-  <si>
-    <t>Pigging</t>
-  </si>
-  <si>
-    <t>Hydrotest</t>
-  </si>
-  <si>
-    <t>Subcon</t>
-  </si>
-  <si>
-    <t>Boat landing</t>
-  </si>
-  <si>
-    <t>19:03:00</t>
-  </si>
-  <si>
-    <t>16:36:00</t>
-  </si>
-  <si>
-    <t>02:40:00</t>
-  </si>
-  <si>
-    <t>07:47:00</t>
-  </si>
-  <si>
-    <t>22:15:00</t>
-  </si>
-  <si>
-    <t>PKWG</t>
-  </si>
-  <si>
-    <t>21:58:00</t>
-  </si>
-  <si>
-    <t>Spool</t>
-  </si>
-  <si>
-    <t>10:55:00</t>
-  </si>
-  <si>
-    <t>12:48:00</t>
-  </si>
-  <si>
-    <t>19:21:00</t>
-  </si>
-  <si>
-    <t>23:51:00</t>
-  </si>
-  <si>
-    <t>06:38:00</t>
-  </si>
-  <si>
-    <t>19:47:00</t>
-  </si>
-  <si>
-    <t>06:43:00</t>
-  </si>
-  <si>
-    <t>15:07:00</t>
-  </si>
-  <si>
-    <t>13:02:00</t>
-  </si>
-  <si>
-    <t>15:39:00</t>
-  </si>
-  <si>
-    <t>01:45:00</t>
-  </si>
-  <si>
-    <t>PKWE</t>
-  </si>
-  <si>
-    <t>16:03:00</t>
-  </si>
-  <si>
-    <t>04:46:00</t>
-  </si>
-  <si>
-    <t>09:35:00</t>
-  </si>
-  <si>
-    <t>19:24:00</t>
-  </si>
-  <si>
-    <t>20:27:00</t>
-  </si>
-  <si>
-    <t>02:20:00</t>
-  </si>
-  <si>
-    <t>WPS7</t>
-  </si>
-  <si>
-    <t>18:39:00</t>
-  </si>
-  <si>
-    <t>DAWD</t>
-  </si>
-  <si>
-    <t>17:18:00</t>
-  </si>
-  <si>
-    <t>04:48:00</t>
-  </si>
-  <si>
-    <t>22:19:00</t>
-  </si>
-  <si>
-    <t>15:03:00</t>
-  </si>
-  <si>
-    <t>17:29:00</t>
-  </si>
-  <si>
-    <t>DLB(Hammer)</t>
-  </si>
-  <si>
-    <t>15:09:00</t>
-  </si>
-  <si>
-    <t>16:39:00</t>
-  </si>
-  <si>
-    <t>19:17:00</t>
-  </si>
-  <si>
-    <t>15:48:00</t>
-  </si>
-  <si>
-    <t>03:30:00</t>
-  </si>
-  <si>
-    <t>13:16:00</t>
-  </si>
-  <si>
-    <t>07:32:00</t>
-  </si>
-  <si>
-    <t>Hs &lt; 2m</t>
-  </si>
-  <si>
-    <t>17:50</t>
-  </si>
-  <si>
-    <t>Berth barge</t>
-  </si>
-  <si>
-    <t>19:44:00</t>
-  </si>
-  <si>
-    <t>07:41:00</t>
-  </si>
-  <si>
-    <t>23:55:00</t>
-  </si>
-  <si>
-    <t>07:56:00</t>
-  </si>
-  <si>
-    <t>Paint</t>
-  </si>
-  <si>
-    <t>11:18:00</t>
-  </si>
-  <si>
-    <t>11:37:00</t>
-  </si>
-  <si>
-    <t>03:26:00</t>
-  </si>
-  <si>
-    <t>09:36:00</t>
-  </si>
-  <si>
-    <t>DAPLD</t>
-  </si>
-  <si>
-    <t>Additional Work</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -1494,7 +1486,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm;@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1517,11 +1509,6 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <name val="Arial Narrow"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1537,7 +1524,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1560,22 +1547,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1591,9 +1567,6 @@
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="21" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="20" fontId="3" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1898,10 +1871,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I666"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:I659"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="I93" sqref="I93"/>
+    <sheetView tabSelected="1" topLeftCell="A634" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="G133" sqref="G133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1931,7 +1905,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
         <v>45169</v>
       </c>
@@ -1951,7 +1925,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>45170</v>
       </c>
@@ -1991,7 +1965,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>45170</v>
       </c>
@@ -2031,7 +2005,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>45171</v>
       </c>
@@ -2051,7 +2025,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>45172</v>
       </c>
@@ -2071,7 +2045,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>45173</v>
       </c>
@@ -2211,7 +2185,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
         <v>45176</v>
       </c>
@@ -2231,7 +2205,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
         <v>45177</v>
       </c>
@@ -2271,7 +2245,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="6">
         <v>45178</v>
       </c>
@@ -2311,7 +2285,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="6">
         <v>45178</v>
       </c>
@@ -2331,7 +2305,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="6">
         <v>45179</v>
       </c>
@@ -2351,7 +2325,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="6">
         <v>45179</v>
       </c>
@@ -2391,7 +2365,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="6">
         <v>45180</v>
       </c>
@@ -2451,7 +2425,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="6">
         <v>45181</v>
       </c>
@@ -2471,7 +2445,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="6">
         <v>45181</v>
       </c>
@@ -2491,7 +2465,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="6">
         <v>45182</v>
       </c>
@@ -2531,7 +2505,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="13.8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="6">
         <v>45182</v>
       </c>
@@ -2547,11 +2521,11 @@
       <c r="E32" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="F32" s="9" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F32" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="6">
         <v>45183</v>
       </c>
@@ -2571,7 +2545,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="13.8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="6">
         <v>45183</v>
       </c>
@@ -2587,8 +2561,8 @@
       <c r="E34" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="F34" s="9" t="s">
-        <v>414</v>
+      <c r="F34" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
@@ -2628,10 +2602,10 @@
         <v>403</v>
       </c>
       <c r="F36" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="6">
         <v>45183</v>
       </c>
@@ -2651,7 +2625,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="6">
         <v>45184</v>
       </c>
@@ -2671,7 +2645,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="6">
         <v>45184</v>
       </c>
@@ -2708,7 +2682,7 @@
         <v>403</v>
       </c>
       <c r="F40" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
@@ -2728,10 +2702,10 @@
         <v>403</v>
       </c>
       <c r="F41" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="6">
         <v>45184</v>
       </c>
@@ -2768,10 +2742,10 @@
         <v>403</v>
       </c>
       <c r="F43" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="6">
         <v>45184</v>
       </c>
@@ -2791,7 +2765,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="6">
         <v>45185</v>
       </c>
@@ -2828,10 +2802,10 @@
         <v>403</v>
       </c>
       <c r="F46" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="6">
         <v>45185</v>
       </c>
@@ -2868,7 +2842,7 @@
         <v>403</v>
       </c>
       <c r="F48" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
@@ -2888,10 +2862,10 @@
         <v>403</v>
       </c>
       <c r="F49" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="6">
         <v>45185</v>
       </c>
@@ -2928,10 +2902,10 @@
         <v>403</v>
       </c>
       <c r="F51" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="6">
         <v>45186</v>
       </c>
@@ -2968,10 +2942,10 @@
         <v>403</v>
       </c>
       <c r="F53" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="6">
         <v>45186</v>
       </c>
@@ -2991,7 +2965,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="6">
         <v>45187</v>
       </c>
@@ -3028,10 +3002,10 @@
         <v>403</v>
       </c>
       <c r="F56" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="6">
         <v>45187</v>
       </c>
@@ -3051,7 +3025,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="6">
         <v>45187</v>
       </c>
@@ -3071,7 +3045,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="6">
         <v>45187</v>
       </c>
@@ -3091,7 +3065,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="6">
         <v>45188</v>
       </c>
@@ -3111,7 +3085,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="6">
         <v>45188</v>
       </c>
@@ -3131,7 +3105,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="6">
         <v>45189</v>
       </c>
@@ -3151,7 +3125,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="6">
         <v>45189</v>
       </c>
@@ -3211,7 +3185,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="6">
         <v>45190</v>
       </c>
@@ -3271,7 +3245,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="6">
         <v>45191</v>
       </c>
@@ -3311,7 +3285,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="6">
         <v>45191</v>
       </c>
@@ -3351,7 +3325,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="6">
         <v>45192</v>
       </c>
@@ -3391,7 +3365,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="6">
         <v>45192</v>
       </c>
@@ -3431,7 +3405,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="6">
         <v>45192</v>
       </c>
@@ -3471,7 +3445,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="6">
         <v>45193</v>
       </c>
@@ -3551,7 +3525,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="6">
         <v>45193</v>
       </c>
@@ -3571,7 +3545,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="6">
         <v>45194</v>
       </c>
@@ -3591,7 +3565,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="6">
         <v>45194</v>
       </c>
@@ -3631,7 +3605,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="6">
         <v>45195</v>
       </c>
@@ -3671,7 +3645,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="13.8" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="6">
         <v>45195</v>
       </c>
@@ -3687,11 +3661,11 @@
       <c r="E89" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="F89" s="9" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F89" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="6">
         <v>45195</v>
       </c>
@@ -3711,7 +3685,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="6">
         <v>45196</v>
       </c>
@@ -3731,7 +3705,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="6">
         <v>45196</v>
       </c>
@@ -3751,7 +3725,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="13.8" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="6">
         <v>45196</v>
       </c>
@@ -3767,8 +3741,8 @@
       <c r="E93" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="F93" s="9" t="s">
-        <v>414</v>
+      <c r="F93" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
@@ -3788,10 +3762,10 @@
         <v>403</v>
       </c>
       <c r="F94" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="6">
         <v>45197</v>
       </c>
@@ -3828,7 +3802,7 @@
         <v>403</v>
       </c>
       <c r="F96" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
@@ -3888,7 +3862,7 @@
         <v>403</v>
       </c>
       <c r="F99" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
@@ -3908,10 +3882,10 @@
         <v>403</v>
       </c>
       <c r="F100" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="6">
         <v>45198</v>
       </c>
@@ -3948,7 +3922,7 @@
         <v>403</v>
       </c>
       <c r="F102" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
@@ -3968,7 +3942,7 @@
         <v>403</v>
       </c>
       <c r="F103" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
@@ -3988,7 +3962,7 @@
         <v>403</v>
       </c>
       <c r="F104" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
@@ -4008,7 +3982,7 @@
         <v>403</v>
       </c>
       <c r="F105" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
@@ -4028,10 +4002,10 @@
         <v>403</v>
       </c>
       <c r="F106" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="6">
         <v>45200</v>
       </c>
@@ -4068,10 +4042,10 @@
         <v>403</v>
       </c>
       <c r="F108" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="6">
         <v>45200</v>
       </c>
@@ -4091,7 +4065,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" s="6">
         <v>45200</v>
       </c>
@@ -4111,7 +4085,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" s="6">
         <v>45201</v>
       </c>
@@ -4131,7 +4105,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" s="6">
         <v>45201</v>
       </c>
@@ -4151,7 +4125,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" s="6">
         <v>45201</v>
       </c>
@@ -4191,7 +4165,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" s="6">
         <v>45202</v>
       </c>
@@ -4211,7 +4185,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" s="6">
         <v>45202</v>
       </c>
@@ -4271,7 +4245,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" s="6">
         <v>45203</v>
       </c>
@@ -4311,7 +4285,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" s="6">
         <v>45203</v>
       </c>
@@ -4351,7 +4325,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" s="6">
         <v>45203</v>
       </c>
@@ -4391,7 +4365,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" s="6">
         <v>45205</v>
       </c>
@@ -4431,7 +4405,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" s="6">
         <v>45206</v>
       </c>
@@ -4471,7 +4445,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" s="6">
         <v>45207</v>
       </c>
@@ -4511,7 +4485,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" s="6">
         <v>45207</v>
       </c>
@@ -4531,7 +4505,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="132" spans="1:6" ht="13.8" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" s="6">
         <v>45207</v>
       </c>
@@ -4547,11 +4521,11 @@
       <c r="E132" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="F132" s="9" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" ht="13.8" x14ac:dyDescent="0.2">
+      <c r="F132" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" s="6">
         <v>45208</v>
       </c>
@@ -4567,11 +4541,11 @@
       <c r="E133" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="F133" s="9" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F133" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" s="6">
         <v>45208</v>
       </c>
@@ -4608,10 +4582,10 @@
         <v>403</v>
       </c>
       <c r="F135" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" s="6">
         <v>45209</v>
       </c>
@@ -4648,7 +4622,7 @@
         <v>403</v>
       </c>
       <c r="F137" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.2">
@@ -4668,7 +4642,7 @@
         <v>403</v>
       </c>
       <c r="F138" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.2">
@@ -4688,7 +4662,7 @@
         <v>403</v>
       </c>
       <c r="F139" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.2">
@@ -4708,10 +4682,10 @@
         <v>403</v>
       </c>
       <c r="F140" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" s="6">
         <v>45210</v>
       </c>
@@ -4768,7 +4742,7 @@
         <v>403</v>
       </c>
       <c r="F143" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.2">
@@ -4788,7 +4762,7 @@
         <v>403</v>
       </c>
       <c r="F144" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.2">
@@ -4808,10 +4782,10 @@
         <v>403</v>
       </c>
       <c r="F145" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" s="6">
         <v>45211</v>
       </c>
@@ -4848,10 +4822,10 @@
         <v>403</v>
       </c>
       <c r="F147" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" s="6">
         <v>45212</v>
       </c>
@@ -4871,7 +4845,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" s="6">
         <v>45212</v>
       </c>
@@ -4891,7 +4865,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" s="6">
         <v>45212</v>
       </c>
@@ -4908,10 +4882,10 @@
         <v>409</v>
       </c>
       <c r="F150" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" s="6">
         <v>45213</v>
       </c>
@@ -4931,7 +4905,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" s="6">
         <v>45213</v>
       </c>
@@ -4948,7 +4922,7 @@
         <v>409</v>
       </c>
       <c r="F152" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.2">
@@ -4968,10 +4942,10 @@
         <v>403</v>
       </c>
       <c r="F153" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" s="6">
         <v>45213</v>
       </c>
@@ -4991,7 +4965,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" s="6">
         <v>45213</v>
       </c>
@@ -5011,7 +4985,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" s="6">
         <v>45214</v>
       </c>
@@ -5048,10 +5022,10 @@
         <v>403</v>
       </c>
       <c r="F157" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" s="6">
         <v>45214</v>
       </c>
@@ -5068,10 +5042,10 @@
         <v>409</v>
       </c>
       <c r="F158" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" s="6">
         <v>45214</v>
       </c>
@@ -5091,7 +5065,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" s="6">
         <v>45215</v>
       </c>
@@ -5128,10 +5102,10 @@
         <v>403</v>
       </c>
       <c r="F161" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" s="6">
         <v>45215</v>
       </c>
@@ -5151,7 +5125,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" s="6">
         <v>45216</v>
       </c>
@@ -5171,7 +5145,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" s="6">
         <v>45216</v>
       </c>
@@ -5191,7 +5165,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" s="6">
         <v>45216</v>
       </c>
@@ -5208,10 +5182,10 @@
         <v>409</v>
       </c>
       <c r="F165" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" s="6">
         <v>45217</v>
       </c>
@@ -5231,7 +5205,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" s="6">
         <v>45217</v>
       </c>
@@ -5248,10 +5222,10 @@
         <v>409</v>
       </c>
       <c r="F167" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" s="6">
         <v>45217</v>
       </c>
@@ -5271,7 +5245,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" s="6">
         <v>45217</v>
       </c>
@@ -5291,7 +5265,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" s="6">
         <v>45217</v>
       </c>
@@ -5311,7 +5285,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" s="6">
         <v>45217</v>
       </c>
@@ -5331,7 +5305,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" s="6">
         <v>45218</v>
       </c>
@@ -5351,7 +5325,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" s="6">
         <v>45218</v>
       </c>
@@ -5371,7 +5345,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" s="6">
         <v>45218</v>
       </c>
@@ -5388,10 +5362,10 @@
         <v>409</v>
       </c>
       <c r="F174" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" s="6">
         <v>45218</v>
       </c>
@@ -5411,7 +5385,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" s="6">
         <v>45218</v>
       </c>
@@ -5431,7 +5405,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" s="6">
         <v>45219</v>
       </c>
@@ -5451,7 +5425,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" s="6">
         <v>45219</v>
       </c>
@@ -5471,7 +5445,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" s="6">
         <v>45219</v>
       </c>
@@ -5491,7 +5465,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" s="6">
         <v>45219</v>
       </c>
@@ -5508,10 +5482,10 @@
         <v>409</v>
       </c>
       <c r="F180" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" s="6">
         <v>45219</v>
       </c>
@@ -5528,10 +5502,10 @@
         <v>409</v>
       </c>
       <c r="F181" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" s="6">
         <v>45219</v>
       </c>
@@ -5551,7 +5525,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" s="6">
         <v>45219</v>
       </c>
@@ -5568,10 +5542,10 @@
         <v>409</v>
       </c>
       <c r="F183" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" s="6">
         <v>45220</v>
       </c>
@@ -5591,7 +5565,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" s="6">
         <v>45220</v>
       </c>
@@ -5608,10 +5582,10 @@
         <v>409</v>
       </c>
       <c r="F185" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" s="6">
         <v>45220</v>
       </c>
@@ -5628,10 +5602,10 @@
         <v>409</v>
       </c>
       <c r="F186" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" s="6">
         <v>45220</v>
       </c>
@@ -5648,10 +5622,10 @@
         <v>409</v>
       </c>
       <c r="F187" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" s="6">
         <v>45221</v>
       </c>
@@ -5671,7 +5645,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" s="6">
         <v>45221</v>
       </c>
@@ -5688,10 +5662,10 @@
         <v>409</v>
       </c>
       <c r="F189" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" s="6">
         <v>45222</v>
       </c>
@@ -5711,7 +5685,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" s="6">
         <v>45222</v>
       </c>
@@ -5728,10 +5702,10 @@
         <v>409</v>
       </c>
       <c r="F191" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" s="6">
         <v>45222</v>
       </c>
@@ -5748,10 +5722,10 @@
         <v>409</v>
       </c>
       <c r="F192" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" s="6">
         <v>45222</v>
       </c>
@@ -5771,7 +5745,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" s="6">
         <v>45222</v>
       </c>
@@ -5788,10 +5762,10 @@
         <v>409</v>
       </c>
       <c r="F194" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" s="6">
         <v>45223</v>
       </c>
@@ -5811,7 +5785,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" s="6">
         <v>45223</v>
       </c>
@@ -5828,10 +5802,10 @@
         <v>409</v>
       </c>
       <c r="F196" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" s="6">
         <v>45223</v>
       </c>
@@ -5848,10 +5822,10 @@
         <v>409</v>
       </c>
       <c r="F197" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" s="6">
         <v>45224</v>
       </c>
@@ -5871,7 +5845,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" s="6">
         <v>45224</v>
       </c>
@@ -5888,10 +5862,10 @@
         <v>409</v>
       </c>
       <c r="F199" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" s="6">
         <v>45224</v>
       </c>
@@ -5908,10 +5882,10 @@
         <v>409</v>
       </c>
       <c r="F200" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" s="6">
         <v>45225</v>
       </c>
@@ -5931,7 +5905,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202" s="6">
         <v>45225</v>
       </c>
@@ -5948,10 +5922,10 @@
         <v>409</v>
       </c>
       <c r="F202" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203" s="6">
         <v>45225</v>
       </c>
@@ -5968,10 +5942,10 @@
         <v>409</v>
       </c>
       <c r="F203" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204" s="6">
         <v>45226</v>
       </c>
@@ -5991,7 +5965,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205" s="6">
         <v>45226</v>
       </c>
@@ -6008,10 +5982,10 @@
         <v>409</v>
       </c>
       <c r="F205" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206" s="6">
         <v>45226</v>
       </c>
@@ -6028,10 +6002,10 @@
         <v>409</v>
       </c>
       <c r="F206" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207" s="6">
         <v>45227</v>
       </c>
@@ -6051,7 +6025,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208" s="6">
         <v>45227</v>
       </c>
@@ -6068,10 +6042,10 @@
         <v>409</v>
       </c>
       <c r="F208" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209" s="6">
         <v>45227</v>
       </c>
@@ -6088,10 +6062,10 @@
         <v>409</v>
       </c>
       <c r="F209" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210" s="6">
         <v>45228</v>
       </c>
@@ -6108,10 +6082,10 @@
         <v>409</v>
       </c>
       <c r="F210" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211" s="6">
         <v>45228</v>
       </c>
@@ -6131,7 +6105,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212" s="6">
         <v>45228</v>
       </c>
@@ -6151,7 +6125,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213" s="6">
         <v>45228</v>
       </c>
@@ -6171,7 +6145,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214" s="6">
         <v>45229</v>
       </c>
@@ -6191,7 +6165,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215" s="6">
         <v>45229</v>
       </c>
@@ -6211,7 +6185,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216" s="6">
         <v>45230</v>
       </c>
@@ -6231,7 +6205,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217" s="6">
         <v>45230</v>
       </c>
@@ -6251,7 +6225,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218" s="6">
         <v>45230</v>
       </c>
@@ -6271,7 +6245,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219" s="6">
         <v>45231</v>
       </c>
@@ -6291,7 +6265,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220" s="6">
         <v>45231</v>
       </c>
@@ -6311,7 +6285,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221" s="6">
         <v>45231</v>
       </c>
@@ -6328,10 +6302,10 @@
         <v>409</v>
       </c>
       <c r="F221" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222" s="6">
         <v>45232</v>
       </c>
@@ -6351,7 +6325,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223" s="6">
         <v>45232</v>
       </c>
@@ -6371,7 +6345,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224" s="6">
         <v>45232</v>
       </c>
@@ -6451,7 +6425,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228" s="6">
         <v>45233</v>
       </c>
@@ -6511,7 +6485,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231" s="6">
         <v>45234</v>
       </c>
@@ -6551,7 +6525,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233" s="6">
         <v>45235</v>
       </c>
@@ -6591,7 +6565,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235" s="6">
         <v>45235</v>
       </c>
@@ -6651,7 +6625,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238" s="6">
         <v>45236</v>
       </c>
@@ -6671,7 +6645,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239" s="6">
         <v>45237</v>
       </c>
@@ -6731,7 +6705,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A242" s="6">
         <v>45238</v>
       </c>
@@ -6751,7 +6725,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="243" spans="1:6" ht="13.8" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A243" s="6">
         <v>45238</v>
       </c>
@@ -6767,11 +6741,11 @@
       <c r="E243" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="F243" s="9" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F243" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A244" s="6">
         <v>45238</v>
       </c>
@@ -6828,10 +6802,10 @@
         <v>403</v>
       </c>
       <c r="F246" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.2">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A247" s="6">
         <v>45239</v>
       </c>
@@ -6868,7 +6842,7 @@
         <v>403</v>
       </c>
       <c r="F248" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.2">
@@ -6891,7 +6865,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A250" s="6">
         <v>45239</v>
       </c>
@@ -6908,7 +6882,7 @@
         <v>409</v>
       </c>
       <c r="F250" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.2">
@@ -6928,10 +6902,10 @@
         <v>403</v>
       </c>
       <c r="F251" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.2">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A252" s="6">
         <v>45239</v>
       </c>
@@ -6948,10 +6922,10 @@
         <v>409</v>
       </c>
       <c r="F252" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.2">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A253" s="6">
         <v>45239</v>
       </c>
@@ -6971,7 +6945,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A254" s="6">
         <v>45239</v>
       </c>
@@ -6988,10 +6962,10 @@
         <v>409</v>
       </c>
       <c r="F254" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.2">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A255" s="6">
         <v>45240</v>
       </c>
@@ -7011,7 +6985,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A256" s="6">
         <v>45240</v>
       </c>
@@ -7028,7 +7002,7 @@
         <v>409</v>
       </c>
       <c r="F256" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.2">
@@ -7048,10 +7022,10 @@
         <v>403</v>
       </c>
       <c r="F257" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.2">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A258" s="6">
         <v>45240</v>
       </c>
@@ -7068,10 +7042,10 @@
         <v>409</v>
       </c>
       <c r="F258" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.2">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A259" s="6">
         <v>45240</v>
       </c>
@@ -7088,10 +7062,10 @@
         <v>409</v>
       </c>
       <c r="F259" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.2">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A260" s="6">
         <v>45240</v>
       </c>
@@ -7108,10 +7082,10 @@
         <v>409</v>
       </c>
       <c r="F260" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.2">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A261" s="6">
         <v>45240</v>
       </c>
@@ -7128,10 +7102,10 @@
         <v>409</v>
       </c>
       <c r="F261" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.2">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A262" s="6">
         <v>45240</v>
       </c>
@@ -7148,7 +7122,7 @@
         <v>409</v>
       </c>
       <c r="F262" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.2">
@@ -7188,10 +7162,10 @@
         <v>403</v>
       </c>
       <c r="F264" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.2">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A265" s="6">
         <v>45241</v>
       </c>
@@ -7228,7 +7202,7 @@
         <v>403</v>
       </c>
       <c r="F266" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.2">
@@ -7248,10 +7222,10 @@
         <v>403</v>
       </c>
       <c r="F267" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.2">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A268" s="6">
         <v>45241</v>
       </c>
@@ -7288,7 +7262,7 @@
         <v>403</v>
       </c>
       <c r="F269" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.2">
@@ -7311,7 +7285,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A271" s="6">
         <v>45241</v>
       </c>
@@ -7328,7 +7302,7 @@
         <v>409</v>
       </c>
       <c r="F271" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.2">
@@ -7348,10 +7322,10 @@
         <v>403</v>
       </c>
       <c r="F272" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.2">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A273" s="6">
         <v>45242</v>
       </c>
@@ -7371,7 +7345,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A274" s="6">
         <v>45242</v>
       </c>
@@ -7388,10 +7362,10 @@
         <v>409</v>
       </c>
       <c r="F274" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.2">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A275" s="6">
         <v>45242</v>
       </c>
@@ -7408,7 +7382,7 @@
         <v>409</v>
       </c>
       <c r="F275" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.2">
@@ -7428,7 +7402,7 @@
         <v>403</v>
       </c>
       <c r="F276" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.2">
@@ -7448,10 +7422,10 @@
         <v>403</v>
       </c>
       <c r="F277" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.2">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A278" s="6">
         <v>45243</v>
       </c>
@@ -7468,10 +7442,10 @@
         <v>409</v>
       </c>
       <c r="F278" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.2">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A279" s="6">
         <v>45243</v>
       </c>
@@ -7491,7 +7465,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A280" s="6">
         <v>45244</v>
       </c>
@@ -7528,10 +7502,10 @@
         <v>403</v>
       </c>
       <c r="F281" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.2">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A282" s="6">
         <v>45244</v>
       </c>
@@ -7548,10 +7522,10 @@
         <v>409</v>
       </c>
       <c r="F282" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.2">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A283" s="6">
         <v>45244</v>
       </c>
@@ -7568,10 +7542,10 @@
         <v>409</v>
       </c>
       <c r="F283" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.2">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A284" s="6">
         <v>45244</v>
       </c>
@@ -7591,7 +7565,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A285" s="6">
         <v>45244</v>
       </c>
@@ -7608,10 +7582,10 @@
         <v>409</v>
       </c>
       <c r="F285" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.2">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A286" s="6">
         <v>45244</v>
       </c>
@@ -7628,7 +7602,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A287" s="6">
         <v>45244</v>
       </c>
@@ -7645,10 +7619,10 @@
         <v>409</v>
       </c>
       <c r="F287" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.2">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A288" s="6">
         <v>45244</v>
       </c>
@@ -7668,7 +7642,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A289" s="6">
         <v>45245</v>
       </c>
@@ -7685,10 +7659,10 @@
         <v>409</v>
       </c>
       <c r="F289" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.2">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A290" s="6">
         <v>45245</v>
       </c>
@@ -7708,7 +7682,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A291" s="6">
         <v>45245</v>
       </c>
@@ -7728,7 +7702,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A292" s="6">
         <v>45245</v>
       </c>
@@ -7768,7 +7742,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A294" s="6">
         <v>45246</v>
       </c>
@@ -7788,7 +7762,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A295" s="6">
         <v>45246</v>
       </c>
@@ -7808,7 +7782,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A296" s="6">
         <v>45247</v>
       </c>
@@ -7828,7 +7802,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A297" s="6">
         <v>45247</v>
       </c>
@@ -7848,7 +7822,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A298" s="6">
         <v>45248</v>
       </c>
@@ -7868,7 +7842,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A299" s="6">
         <v>45248</v>
       </c>
@@ -7888,7 +7862,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A300" s="6">
         <v>45249</v>
       </c>
@@ -7908,7 +7882,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A301" s="6">
         <v>45249</v>
       </c>
@@ -7928,7 +7902,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A302" s="6">
         <v>45250</v>
       </c>
@@ -7948,7 +7922,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A303" s="6">
         <v>45250</v>
       </c>
@@ -7968,7 +7942,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A304" s="6">
         <v>45251</v>
       </c>
@@ -7988,7 +7962,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A305" s="6">
         <v>45251</v>
       </c>
@@ -8025,7 +7999,7 @@
         <v>403</v>
       </c>
       <c r="F306" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.2">
@@ -8045,7 +8019,7 @@
         <v>403</v>
       </c>
       <c r="F307" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.2">
@@ -8088,7 +8062,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A310" s="6">
         <v>45252</v>
       </c>
@@ -8108,7 +8082,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A311" s="6">
         <v>45252</v>
       </c>
@@ -8128,7 +8102,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A312" s="6">
         <v>45252</v>
       </c>
@@ -8148,7 +8122,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A313" s="6">
         <v>45253</v>
       </c>
@@ -8168,7 +8142,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A314" s="6">
         <v>45253</v>
       </c>
@@ -8188,7 +8162,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A315" s="6">
         <v>45253</v>
       </c>
@@ -8208,7 +8182,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A316" s="6">
         <v>45254</v>
       </c>
@@ -8228,7 +8202,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A317" s="6">
         <v>45254</v>
       </c>
@@ -8248,7 +8222,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A318" s="6">
         <v>45254</v>
       </c>
@@ -8268,7 +8242,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A319" s="6">
         <v>45255</v>
       </c>
@@ -8288,7 +8262,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A320" s="6">
         <v>45255</v>
       </c>
@@ -8308,7 +8282,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A321" s="6">
         <v>45255</v>
       </c>
@@ -8328,7 +8302,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A322" s="6">
         <v>45256</v>
       </c>
@@ -8348,7 +8322,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A323" s="6">
         <v>45256</v>
       </c>
@@ -8368,7 +8342,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A324" s="6">
         <v>45256</v>
       </c>
@@ -8388,7 +8362,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A325" s="6">
         <v>45257</v>
       </c>
@@ -8408,7 +8382,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A326" s="6">
         <v>45257</v>
       </c>
@@ -8428,7 +8402,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A327" s="6">
         <v>45257</v>
       </c>
@@ -8445,7 +8419,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A328" s="6">
         <v>45258</v>
       </c>
@@ -8465,7 +8439,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A329" s="6">
         <v>45258</v>
       </c>
@@ -8485,7 +8459,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A330" s="6">
         <v>45259</v>
       </c>
@@ -8505,7 +8479,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A331" s="6">
         <v>45259</v>
       </c>
@@ -8525,7 +8499,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A332" s="6">
         <v>45259</v>
       </c>
@@ -8545,7 +8519,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A333" s="6">
         <v>45260</v>
       </c>
@@ -8565,7 +8539,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A334" s="6">
         <v>45260</v>
       </c>
@@ -8585,7 +8559,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A335" s="6">
         <v>45260</v>
       </c>
@@ -8602,7 +8576,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A336" s="6">
         <v>45260</v>
       </c>
@@ -8622,7 +8596,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A337" s="6">
         <v>45260</v>
       </c>
@@ -8642,7 +8616,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A338" s="6">
         <v>45260</v>
       </c>
@@ -8662,7 +8636,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A339" s="6">
         <v>45261</v>
       </c>
@@ -8682,7 +8656,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A340" s="6">
         <v>45261</v>
       </c>
@@ -8702,7 +8676,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A341" s="6">
         <v>45261</v>
       </c>
@@ -8722,7 +8696,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A342" s="6">
         <v>45261</v>
       </c>
@@ -8742,7 +8716,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A343" s="6">
         <v>45261</v>
       </c>
@@ -8762,7 +8736,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A344" s="6">
         <v>45261</v>
       </c>
@@ -8782,7 +8756,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A345" s="6">
         <v>45261</v>
       </c>
@@ -8802,7 +8776,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A346" s="6">
         <v>45262</v>
       </c>
@@ -8819,10 +8793,10 @@
         <v>406</v>
       </c>
       <c r="F346" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.2">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A347" s="6">
         <v>45262</v>
       </c>
@@ -8842,7 +8816,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A348" s="6">
         <v>45262</v>
       </c>
@@ -8882,7 +8856,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A350" s="6">
         <v>45262</v>
       </c>
@@ -8902,7 +8876,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A351" s="6">
         <v>45262</v>
       </c>
@@ -8922,7 +8896,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A352" s="6">
         <v>45263</v>
       </c>
@@ -8942,7 +8916,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A353" s="6">
         <v>45263</v>
       </c>
@@ -8962,7 +8936,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A354" s="6">
         <v>45264</v>
       </c>
@@ -8982,7 +8956,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A355" s="6">
         <v>45264</v>
       </c>
@@ -9042,7 +9016,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A358" s="6">
         <v>45265</v>
       </c>
@@ -9062,7 +9036,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A359" s="6">
         <v>45265</v>
       </c>
@@ -9102,7 +9076,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A361" s="6">
         <v>45265</v>
       </c>
@@ -9142,7 +9116,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A363" s="6">
         <v>45266</v>
       </c>
@@ -9182,7 +9156,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A365" s="6">
         <v>45266</v>
       </c>
@@ -9199,7 +9173,7 @@
         <v>409</v>
       </c>
       <c r="F365" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.2">
@@ -9242,7 +9216,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A368" s="6">
         <v>45267</v>
       </c>
@@ -9262,7 +9236,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A369" s="6">
         <v>45267</v>
       </c>
@@ -9279,7 +9253,7 @@
         <v>409</v>
       </c>
       <c r="F369" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.2">
@@ -9322,7 +9296,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A372" s="6">
         <v>45268</v>
       </c>
@@ -9422,7 +9396,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="377" spans="1:6" ht="13.8" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A377" s="6">
         <v>45270</v>
       </c>
@@ -9438,8 +9412,8 @@
       <c r="E377" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="F377" s="9" t="s">
-        <v>414</v>
+      <c r="F377" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.2">
@@ -9459,7 +9433,7 @@
         <v>403</v>
       </c>
       <c r="F378" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="379" spans="1:6" x14ac:dyDescent="0.2">
@@ -9479,10 +9453,10 @@
         <v>403</v>
       </c>
       <c r="F379" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.2">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="380" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A380" s="6">
         <v>45271</v>
       </c>
@@ -9499,10 +9473,10 @@
         <v>409</v>
       </c>
       <c r="F380" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.2">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="381" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A381" s="6">
         <v>45271</v>
       </c>
@@ -9539,7 +9513,7 @@
         <v>403</v>
       </c>
       <c r="F382" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.2">
@@ -9559,7 +9533,7 @@
         <v>403</v>
       </c>
       <c r="F383" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.2">
@@ -9579,7 +9553,7 @@
         <v>403</v>
       </c>
       <c r="F384" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="385" spans="1:6" x14ac:dyDescent="0.2">
@@ -9599,7 +9573,7 @@
         <v>403</v>
       </c>
       <c r="F385" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="386" spans="1:6" x14ac:dyDescent="0.2">
@@ -9619,7 +9593,7 @@
         <v>403</v>
       </c>
       <c r="F386" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.2">
@@ -9639,10 +9613,10 @@
         <v>403</v>
       </c>
       <c r="F387" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.2">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="388" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A388" s="6">
         <v>45272</v>
       </c>
@@ -9659,10 +9633,10 @@
         <v>409</v>
       </c>
       <c r="F388" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.2">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="389" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A389" s="6">
         <v>45273</v>
       </c>
@@ -9679,10 +9653,10 @@
         <v>409</v>
       </c>
       <c r="F389" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.2">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="390" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A390" s="6">
         <v>45273</v>
       </c>
@@ -9699,10 +9673,10 @@
         <v>409</v>
       </c>
       <c r="F390" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.2">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="391" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A391" s="6">
         <v>45273</v>
       </c>
@@ -9719,10 +9693,10 @@
         <v>409</v>
       </c>
       <c r="F391" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.2">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="392" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A392" s="6">
         <v>45273</v>
       </c>
@@ -9759,7 +9733,7 @@
         <v>403</v>
       </c>
       <c r="F393" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="394" spans="1:6" x14ac:dyDescent="0.2">
@@ -9779,10 +9753,10 @@
         <v>403</v>
       </c>
       <c r="F394" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.2">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="395" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A395" s="6">
         <v>45274</v>
       </c>
@@ -9799,10 +9773,10 @@
         <v>409</v>
       </c>
       <c r="F395" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.2">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="396" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A396" s="6">
         <v>45274</v>
       </c>
@@ -9819,7 +9793,7 @@
         <v>409</v>
       </c>
       <c r="F396" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="397" spans="1:6" x14ac:dyDescent="0.2">
@@ -9839,10 +9813,10 @@
         <v>403</v>
       </c>
       <c r="F397" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.2">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="398" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A398" s="6">
         <v>45275</v>
       </c>
@@ -9859,10 +9833,10 @@
         <v>409</v>
       </c>
       <c r="F398" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.2">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="399" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A399" s="6">
         <v>45275</v>
       </c>
@@ -9879,10 +9853,10 @@
         <v>409</v>
       </c>
       <c r="F399" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="400" spans="1:6" x14ac:dyDescent="0.2">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="400" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A400" s="6">
         <v>45276</v>
       </c>
@@ -9899,10 +9873,10 @@
         <v>409</v>
       </c>
       <c r="F400" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.2">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="401" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A401" s="6">
         <v>45276</v>
       </c>
@@ -9919,10 +9893,10 @@
         <v>409</v>
       </c>
       <c r="F401" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.2">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="402" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A402" s="6">
         <v>45276</v>
       </c>
@@ -9959,10 +9933,10 @@
         <v>403</v>
       </c>
       <c r="F403" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="404" spans="1:6" x14ac:dyDescent="0.2">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="404" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A404" s="6">
         <v>45276</v>
       </c>
@@ -9979,10 +9953,10 @@
         <v>409</v>
       </c>
       <c r="F404" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.2">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="405" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A405" s="6">
         <v>45276</v>
       </c>
@@ -10002,7 +9976,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A406" s="6">
         <v>45277</v>
       </c>
@@ -10019,10 +9993,10 @@
         <v>409</v>
       </c>
       <c r="F406" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.2">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="407" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A407" s="6">
         <v>45277</v>
       </c>
@@ -10059,10 +10033,10 @@
         <v>403</v>
       </c>
       <c r="F408" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="409" spans="1:6" x14ac:dyDescent="0.2">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="409" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A409" s="6">
         <v>45277</v>
       </c>
@@ -10099,7 +10073,7 @@
         <v>403</v>
       </c>
       <c r="F410" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="411" spans="1:6" x14ac:dyDescent="0.2">
@@ -10122,7 +10096,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="412" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A412" s="6">
         <v>45278</v>
       </c>
@@ -10142,7 +10116,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="413" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A413" s="6">
         <v>45278</v>
       </c>
@@ -10162,7 +10136,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A414" s="6">
         <v>45278</v>
       </c>
@@ -10182,7 +10156,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="415" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A415" s="6">
         <v>45279</v>
       </c>
@@ -10202,7 +10176,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="416" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A416" s="6">
         <v>45279</v>
       </c>
@@ -10222,7 +10196,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="417" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A417" s="6">
         <v>45279</v>
       </c>
@@ -10242,7 +10216,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="418" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A418" s="6">
         <v>45279</v>
       </c>
@@ -10262,7 +10236,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="419" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A419" s="6">
         <v>45280</v>
       </c>
@@ -10282,7 +10256,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="420" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A420" s="6">
         <v>45280</v>
       </c>
@@ -10302,7 +10276,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="421" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A421" s="6">
         <v>45280</v>
       </c>
@@ -10322,7 +10296,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="422" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A422" s="6">
         <v>45280</v>
       </c>
@@ -10342,7 +10316,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="423" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A423" s="6">
         <v>45280</v>
       </c>
@@ -10362,7 +10336,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="424" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A424" s="6">
         <v>45280</v>
       </c>
@@ -10382,7 +10356,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="425" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A425" s="6">
         <v>45280</v>
       </c>
@@ -10402,7 +10376,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="426" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A426" s="6">
         <v>45281</v>
       </c>
@@ -10422,7 +10396,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="427" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A427" s="6">
         <v>45281</v>
       </c>
@@ -10462,7 +10436,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="429" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A429" s="6">
         <v>45281</v>
       </c>
@@ -10482,7 +10456,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="430" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A430" s="6">
         <v>45281</v>
       </c>
@@ -10502,7 +10476,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="431" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A431" s="6">
         <v>45282</v>
       </c>
@@ -10522,7 +10496,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="432" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A432" s="6">
         <v>45282</v>
       </c>
@@ -10542,7 +10516,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="433" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A433" s="6">
         <v>45283</v>
       </c>
@@ -10562,7 +10536,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="434" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A434" s="6">
         <v>45284</v>
       </c>
@@ -10582,7 +10556,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="435" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A435" s="6">
         <v>45285</v>
       </c>
@@ -10602,7 +10576,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="436" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A436" s="6">
         <v>45286</v>
       </c>
@@ -10622,7 +10596,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="437" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A437" s="6">
         <v>45286</v>
       </c>
@@ -10642,7 +10616,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="438" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A438" s="6">
         <v>45287</v>
       </c>
@@ -10662,7 +10636,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="439" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A439" s="6">
         <v>45287</v>
       </c>
@@ -10682,7 +10656,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="440" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A440" s="6">
         <v>45287</v>
       </c>
@@ -10702,7 +10676,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="441" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A441" s="6">
         <v>45288</v>
       </c>
@@ -10722,7 +10696,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="442" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A442" s="6">
         <v>45288</v>
       </c>
@@ -10742,7 +10716,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="443" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A443" s="6">
         <v>45288</v>
       </c>
@@ -10759,7 +10733,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="444" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A444" s="6">
         <v>45289</v>
       </c>
@@ -10779,7 +10753,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="445" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A445" s="6">
         <v>45289</v>
       </c>
@@ -10819,7 +10793,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="447" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A447" s="6">
         <v>45290</v>
       </c>
@@ -10879,7 +10853,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="450" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A450" s="6">
         <v>45291</v>
       </c>
@@ -10896,7 +10870,7 @@
         <v>409</v>
       </c>
       <c r="F450" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="451" spans="1:6" x14ac:dyDescent="0.2">
@@ -10919,7 +10893,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="452" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A452" s="6">
         <v>45291</v>
       </c>
@@ -10959,7 +10933,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="454" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A454" s="6">
         <v>45292</v>
       </c>
@@ -10976,7 +10950,7 @@
         <v>409</v>
       </c>
       <c r="F454" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="455" spans="1:6" x14ac:dyDescent="0.2">
@@ -11019,7 +10993,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="457" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A457" s="6">
         <v>45293</v>
       </c>
@@ -11036,7 +11010,7 @@
         <v>409</v>
       </c>
       <c r="F457" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="458" spans="1:6" x14ac:dyDescent="0.2">
@@ -11079,7 +11053,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="460" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A460" s="6">
         <v>45293</v>
       </c>
@@ -11099,7 +11073,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="461" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A461" s="6">
         <v>45294</v>
       </c>
@@ -11139,7 +11113,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="463" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A463" s="6">
         <v>45294</v>
       </c>
@@ -11156,10 +11130,10 @@
         <v>409</v>
       </c>
       <c r="F463" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="464" spans="1:6" x14ac:dyDescent="0.2">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="464" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A464" s="6">
         <v>45294</v>
       </c>
@@ -11199,7 +11173,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="466" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A466" s="6">
         <v>45295</v>
       </c>
@@ -11216,10 +11190,10 @@
         <v>409</v>
       </c>
       <c r="F466" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="467" spans="1:6" x14ac:dyDescent="0.2">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="467" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A467" s="6">
         <v>45295</v>
       </c>
@@ -11256,10 +11230,10 @@
         <v>403</v>
       </c>
       <c r="F468" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="469" spans="1:6" x14ac:dyDescent="0.2">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="469" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A469" s="6">
         <v>45295</v>
       </c>
@@ -11296,7 +11270,7 @@
         <v>403</v>
       </c>
       <c r="F470" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="471" spans="1:6" x14ac:dyDescent="0.2">
@@ -11316,7 +11290,7 @@
         <v>403</v>
       </c>
       <c r="F471" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="472" spans="1:6" x14ac:dyDescent="0.2">
@@ -11336,10 +11310,10 @@
         <v>403</v>
       </c>
       <c r="F472" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="473" spans="1:6" x14ac:dyDescent="0.2">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="473" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A473" s="6">
         <v>45296</v>
       </c>
@@ -11359,7 +11333,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="474" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A474" s="6">
         <v>45296</v>
       </c>
@@ -11376,7 +11350,7 @@
         <v>409</v>
       </c>
       <c r="F474" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="475" spans="1:6" x14ac:dyDescent="0.2">
@@ -11396,10 +11370,10 @@
         <v>403</v>
       </c>
       <c r="F475" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="476" spans="1:6" x14ac:dyDescent="0.2">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="476" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A476" s="6">
         <v>45296</v>
       </c>
@@ -11416,10 +11390,10 @@
         <v>409</v>
       </c>
       <c r="F476" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="477" spans="1:6" x14ac:dyDescent="0.2">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="477" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A477" s="6">
         <v>45297</v>
       </c>
@@ -11436,10 +11410,10 @@
         <v>409</v>
       </c>
       <c r="F477" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="478" spans="1:6" x14ac:dyDescent="0.2">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="478" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A478" s="6">
         <v>45297</v>
       </c>
@@ -11456,10 +11430,10 @@
         <v>409</v>
       </c>
       <c r="F478" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="479" spans="1:6" x14ac:dyDescent="0.2">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="479" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A479" s="6">
         <v>45297</v>
       </c>
@@ -11479,7 +11453,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="480" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A480" s="6">
         <v>45297</v>
       </c>
@@ -11496,7 +11470,7 @@
         <v>409</v>
       </c>
       <c r="F480" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="481" spans="1:9" x14ac:dyDescent="0.2">
@@ -11516,10 +11490,10 @@
         <v>403</v>
       </c>
       <c r="F481" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="482" spans="1:9" x14ac:dyDescent="0.2">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="482" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A482" s="6">
         <v>45298</v>
       </c>
@@ -11536,10 +11510,10 @@
         <v>409</v>
       </c>
       <c r="F482" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="483" spans="1:9" x14ac:dyDescent="0.2">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="483" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A483" s="6">
         <v>45298</v>
       </c>
@@ -11556,10 +11530,10 @@
         <v>409</v>
       </c>
       <c r="F483" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="484" spans="1:9" x14ac:dyDescent="0.2">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="484" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A484" s="6">
         <v>45299</v>
       </c>
@@ -11576,10 +11550,10 @@
         <v>409</v>
       </c>
       <c r="F484" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="485" spans="1:9" x14ac:dyDescent="0.2">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="485" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A485" s="6">
         <v>45299</v>
       </c>
@@ -11599,7 +11573,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="486" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A486" s="6">
         <v>45299</v>
       </c>
@@ -11619,7 +11593,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="487" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A487" s="6">
         <v>45300</v>
       </c>
@@ -11639,7 +11613,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="488" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A488" s="6">
         <v>45300</v>
       </c>
@@ -11676,7 +11650,7 @@
         <v>403</v>
       </c>
       <c r="F489" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="490" spans="1:9" x14ac:dyDescent="0.2">
@@ -11696,7 +11670,7 @@
         <v>403</v>
       </c>
       <c r="F490" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="491" spans="1:9" x14ac:dyDescent="0.2">
@@ -11716,10 +11690,10 @@
         <v>403</v>
       </c>
       <c r="F491" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="492" spans="1:9" x14ac:dyDescent="0.2">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="492" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A492" s="6">
         <v>45301</v>
       </c>
@@ -11756,10 +11730,10 @@
         <v>403</v>
       </c>
       <c r="F493" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="494" spans="1:9" x14ac:dyDescent="0.2">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="494" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A494" s="6">
         <v>45302</v>
       </c>
@@ -11776,10 +11750,10 @@
         <v>409</v>
       </c>
       <c r="F494" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="495" spans="1:9" x14ac:dyDescent="0.2">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="495" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A495" s="6">
         <v>45302</v>
       </c>
@@ -11796,13 +11770,13 @@
         <v>409</v>
       </c>
       <c r="F495" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="I495" s="3">
         <v>45302.604166666664</v>
       </c>
     </row>
-    <row r="496" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A496" s="6">
         <v>45302</v>
       </c>
@@ -11825,7 +11799,7 @@
         <v>45646.958333333336</v>
       </c>
     </row>
-    <row r="497" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A497" s="6">
         <v>45302</v>
       </c>
@@ -11846,7 +11820,7 @@
       </c>
       <c r="I497" s="2"/>
     </row>
-    <row r="498" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A498" s="6">
         <v>45302</v>
       </c>
@@ -11866,7 +11840,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="499" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A499" s="6">
         <v>45302</v>
       </c>
@@ -11886,7 +11860,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="500" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A500" s="6">
         <v>45303</v>
       </c>
@@ -11906,7 +11880,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="501" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A501" s="6">
         <v>45303</v>
       </c>
@@ -11923,10 +11897,10 @@
         <v>409</v>
       </c>
       <c r="F501" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="502" spans="1:9" x14ac:dyDescent="0.2">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="502" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A502" s="6">
         <v>45303</v>
       </c>
@@ -11946,7 +11920,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="503" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A503" s="6">
         <v>45303</v>
       </c>
@@ -11963,10 +11937,10 @@
         <v>409</v>
       </c>
       <c r="F503" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="504" spans="1:9" x14ac:dyDescent="0.2">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="504" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A504" s="6">
         <v>45303</v>
       </c>
@@ -11983,10 +11957,10 @@
         <v>409</v>
       </c>
       <c r="F504" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="505" spans="1:9" x14ac:dyDescent="0.2">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="505" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A505" s="6">
         <v>45303</v>
       </c>
@@ -12003,10 +11977,10 @@
         <v>405</v>
       </c>
       <c r="F505" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="506" spans="1:9" x14ac:dyDescent="0.2">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="506" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A506" s="6">
         <v>45303</v>
       </c>
@@ -12026,7 +12000,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="507" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A507" s="6">
         <v>45303</v>
       </c>
@@ -12046,7 +12020,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="508" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A508" s="6">
         <v>45303</v>
       </c>
@@ -12063,10 +12037,10 @@
         <v>409</v>
       </c>
       <c r="F508" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="509" spans="1:9" x14ac:dyDescent="0.2">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="509" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A509" s="6">
         <v>45304</v>
       </c>
@@ -12083,10 +12057,10 @@
         <v>409</v>
       </c>
       <c r="F509" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="510" spans="1:9" x14ac:dyDescent="0.2">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="510" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A510" s="6">
         <v>45304</v>
       </c>
@@ -12103,10 +12077,10 @@
         <v>409</v>
       </c>
       <c r="F510" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="511" spans="1:9" x14ac:dyDescent="0.2">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="511" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A511" s="6">
         <v>45304</v>
       </c>
@@ -12123,10 +12097,10 @@
         <v>409</v>
       </c>
       <c r="F511" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="512" spans="1:9" x14ac:dyDescent="0.2">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="512" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A512" s="6">
         <v>45304</v>
       </c>
@@ -12146,7 +12120,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="513" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A513" s="6">
         <v>45304</v>
       </c>
@@ -12166,7 +12140,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="514" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A514" s="6">
         <v>45305</v>
       </c>
@@ -12183,10 +12157,10 @@
         <v>409</v>
       </c>
       <c r="F514" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="515" spans="1:6" x14ac:dyDescent="0.2">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="515" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A515" s="6">
         <v>45305</v>
       </c>
@@ -12203,10 +12177,10 @@
         <v>409</v>
       </c>
       <c r="F515" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="516" spans="1:6" x14ac:dyDescent="0.2">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="516" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A516" s="6">
         <v>45305</v>
       </c>
@@ -12226,7 +12200,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="517" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A517" s="6">
         <v>45305</v>
       </c>
@@ -12246,7 +12220,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="518" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A518" s="6">
         <v>45306</v>
       </c>
@@ -12263,10 +12237,10 @@
         <v>409</v>
       </c>
       <c r="F518" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="519" spans="1:6" x14ac:dyDescent="0.2">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="519" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A519" s="6">
         <v>45307</v>
       </c>
@@ -12283,10 +12257,10 @@
         <v>409</v>
       </c>
       <c r="F519" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="520" spans="1:6" x14ac:dyDescent="0.2">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="520" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A520" s="6">
         <v>45307</v>
       </c>
@@ -12303,10 +12277,10 @@
         <v>409</v>
       </c>
       <c r="F520" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="521" spans="1:6" x14ac:dyDescent="0.2">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="521" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A521" s="6">
         <v>45307</v>
       </c>
@@ -12326,7 +12300,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="522" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A522" s="6">
         <v>45308</v>
       </c>
@@ -12343,10 +12317,10 @@
         <v>409</v>
       </c>
       <c r="F522" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="523" spans="1:6" x14ac:dyDescent="0.2">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="523" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A523" s="6">
         <v>45308</v>
       </c>
@@ -12366,7 +12340,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="524" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A524" s="6">
         <v>45308</v>
       </c>
@@ -12386,7 +12360,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="525" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A525" s="6">
         <v>45308</v>
       </c>
@@ -12406,7 +12380,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="526" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A526" s="6">
         <v>45308</v>
       </c>
@@ -12426,7 +12400,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="527" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A527" s="6">
         <v>45308</v>
       </c>
@@ -12446,7 +12420,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="528" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A528" s="6">
         <v>45309</v>
       </c>
@@ -12466,7 +12440,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="529" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A529" s="6">
         <v>45309</v>
       </c>
@@ -12486,7 +12460,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="530" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A530" s="6">
         <v>45309</v>
       </c>
@@ -12506,7 +12480,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="531" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A531" s="6">
         <v>45309</v>
       </c>
@@ -12543,7 +12517,7 @@
         <v>403</v>
       </c>
       <c r="F532" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="533" spans="1:6" x14ac:dyDescent="0.2">
@@ -12583,7 +12557,7 @@
         <v>403</v>
       </c>
       <c r="F534" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="535" spans="1:6" x14ac:dyDescent="0.2">
@@ -12626,7 +12600,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="537" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A537" s="6">
         <v>45310</v>
       </c>
@@ -12646,7 +12620,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="538" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A538" s="6">
         <v>45310</v>
       </c>
@@ -12666,7 +12640,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="539" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A539" s="6">
         <v>45310</v>
       </c>
@@ -12686,7 +12660,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="540" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A540" s="6">
         <v>45311</v>
       </c>
@@ -12706,7 +12680,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="541" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A541" s="6">
         <v>45311</v>
       </c>
@@ -12763,7 +12737,7 @@
         <v>403</v>
       </c>
       <c r="F543" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="544" spans="1:6" x14ac:dyDescent="0.2">
@@ -12783,7 +12757,7 @@
         <v>403</v>
       </c>
       <c r="F544" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="545" spans="1:6" x14ac:dyDescent="0.2">
@@ -12803,7 +12777,7 @@
         <v>403</v>
       </c>
       <c r="F545" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="546" spans="1:6" x14ac:dyDescent="0.2">
@@ -12823,10 +12797,10 @@
         <v>403</v>
       </c>
       <c r="F546" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="547" spans="1:6" x14ac:dyDescent="0.2">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="547" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A547" s="6">
         <v>45312</v>
       </c>
@@ -12843,10 +12817,10 @@
         <v>409</v>
       </c>
       <c r="F547" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="548" spans="1:6" x14ac:dyDescent="0.2">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="548" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A548" s="6">
         <v>45312</v>
       </c>
@@ -12863,10 +12837,10 @@
         <v>409</v>
       </c>
       <c r="F548" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="549" spans="1:6" x14ac:dyDescent="0.2">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="549" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A549" s="6">
         <v>45312</v>
       </c>
@@ -12883,7 +12857,7 @@
         <v>409</v>
       </c>
       <c r="F549" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="550" spans="1:6" x14ac:dyDescent="0.2">
@@ -12903,7 +12877,7 @@
         <v>403</v>
       </c>
       <c r="F550" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="551" spans="1:6" x14ac:dyDescent="0.2">
@@ -12926,7 +12900,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="552" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A552" s="6">
         <v>45313</v>
       </c>
@@ -12943,10 +12917,10 @@
         <v>409</v>
       </c>
       <c r="F552" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="553" spans="1:6" x14ac:dyDescent="0.2">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="553" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A553" s="6">
         <v>45314</v>
       </c>
@@ -12963,10 +12937,10 @@
         <v>409</v>
       </c>
       <c r="F553" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="554" spans="1:6" x14ac:dyDescent="0.2">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="554" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A554" s="6">
         <v>45314</v>
       </c>
@@ -13003,10 +12977,10 @@
         <v>403</v>
       </c>
       <c r="F555" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="556" spans="1:6" x14ac:dyDescent="0.2">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="556" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A556" s="6">
         <v>45315</v>
       </c>
@@ -13026,7 +13000,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="557" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A557" s="6">
         <v>45316</v>
       </c>
@@ -13046,7 +13020,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="558" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A558" s="6">
         <v>45317</v>
       </c>
@@ -13066,7 +13040,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="559" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A559" s="6">
         <v>45318</v>
       </c>
@@ -13086,7 +13060,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="560" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A560" s="6">
         <v>45319</v>
       </c>
@@ -13106,7 +13080,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="561" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A561" s="6">
         <v>45320</v>
       </c>
@@ -13126,7 +13100,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="562" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A562" s="6">
         <v>45321</v>
       </c>
@@ -13163,10 +13137,10 @@
         <v>403</v>
       </c>
       <c r="F563" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="564" spans="1:6" x14ac:dyDescent="0.2">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="564" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A564" s="6">
         <v>45321</v>
       </c>
@@ -13186,7 +13160,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="565" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A565" s="6">
         <v>45321</v>
       </c>
@@ -13203,10 +13177,10 @@
         <v>409</v>
       </c>
       <c r="F565" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="566" spans="1:6" x14ac:dyDescent="0.2">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="566" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A566" s="6">
         <v>45321</v>
       </c>
@@ -13226,7 +13200,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="567" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A567" s="6">
         <v>45322</v>
       </c>
@@ -13243,10 +13217,10 @@
         <v>409</v>
       </c>
       <c r="F567" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="568" spans="1:6" x14ac:dyDescent="0.2">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="568" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A568" s="6">
         <v>45322</v>
       </c>
@@ -13263,7 +13237,7 @@
         <v>409</v>
       </c>
       <c r="F568" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="569" spans="1:6" x14ac:dyDescent="0.2">
@@ -13286,7 +13260,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="570" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A570" s="2">
         <v>45323</v>
       </c>
@@ -13303,7 +13277,7 @@
         <v>409</v>
       </c>
       <c r="F570" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="571" spans="1:6" x14ac:dyDescent="0.2">
@@ -13314,7 +13288,7 @@
         <v>141</v>
       </c>
       <c r="C571" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D571" t="s">
         <v>401</v>
@@ -13323,15 +13297,15 @@
         <v>403</v>
       </c>
       <c r="F571" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="572" spans="1:6" x14ac:dyDescent="0.2">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="572" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A572" s="2">
         <v>45323</v>
       </c>
       <c r="B572" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C572" t="s">
         <v>247</v>
@@ -13346,7 +13320,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="573" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A573" s="2">
         <v>45324</v>
       </c>
@@ -13366,7 +13340,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="574" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A574" s="2">
         <v>45324</v>
       </c>
@@ -13374,7 +13348,7 @@
         <v>36</v>
       </c>
       <c r="C574" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D574" t="s">
         <v>398</v>
@@ -13391,7 +13365,7 @@
         <v>45324</v>
       </c>
       <c r="B575" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C575" t="s">
         <v>247</v>
@@ -13414,7 +13388,7 @@
         <v>7</v>
       </c>
       <c r="C576" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D576" t="s">
         <v>398</v>
@@ -13426,15 +13400,15 @@
         <v>405</v>
       </c>
     </row>
-    <row r="577" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A577" s="2">
         <v>45325</v>
       </c>
       <c r="B577" t="s">
+        <v>428</v>
+      </c>
+      <c r="C577" t="s">
         <v>429</v>
-      </c>
-      <c r="C577" t="s">
-        <v>430</v>
       </c>
       <c r="D577" t="s">
         <v>398</v>
@@ -13446,12 +13420,12 @@
         <v>399</v>
       </c>
     </row>
-    <row r="578" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A578" s="2">
         <v>45325</v>
       </c>
       <c r="B578" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C578" t="s">
         <v>106</v>
@@ -13466,7 +13440,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="579" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A579" s="2">
         <v>45326</v>
       </c>
@@ -13486,7 +13460,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="580" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A580" s="2">
         <v>45326</v>
       </c>
@@ -13494,10 +13468,10 @@
         <v>130</v>
       </c>
       <c r="C580" t="s">
+        <v>430</v>
+      </c>
+      <c r="D580" t="s">
         <v>431</v>
-      </c>
-      <c r="D580" t="s">
-        <v>432</v>
       </c>
       <c r="E580" t="s">
         <v>402</v>
@@ -13517,7 +13491,7 @@
         <v>247</v>
       </c>
       <c r="D581" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E581" t="s">
         <v>403</v>
@@ -13537,7 +13511,7 @@
         <v>102</v>
       </c>
       <c r="D582" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E582" t="s">
         <v>403</v>
@@ -13557,7 +13531,7 @@
         <v>115</v>
       </c>
       <c r="D583" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E583" t="s">
         <v>403</v>
@@ -13577,7 +13551,7 @@
         <v>247</v>
       </c>
       <c r="D584" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E584" t="s">
         <v>403</v>
@@ -13597,7 +13571,7 @@
         <v>247</v>
       </c>
       <c r="D585" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E585" t="s">
         <v>403</v>
@@ -13617,7 +13591,7 @@
         <v>247</v>
       </c>
       <c r="D586" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E586" t="s">
         <v>403</v>
@@ -13626,7 +13600,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="587" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A587" s="2">
         <v>45329</v>
       </c>
@@ -13634,16 +13608,16 @@
         <v>141</v>
       </c>
       <c r="C587" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D587" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E587" t="s">
         <v>409</v>
       </c>
       <c r="F587" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="588" spans="1:6" x14ac:dyDescent="0.2">
@@ -13657,7 +13631,7 @@
         <v>247</v>
       </c>
       <c r="D588" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E588" t="s">
         <v>403</v>
@@ -13666,7 +13640,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="589" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A589" s="2">
         <v>45330</v>
       </c>
@@ -13677,13 +13651,13 @@
         <v>144</v>
       </c>
       <c r="D589" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E589" t="s">
         <v>409</v>
       </c>
       <c r="F589" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="590" spans="1:6" x14ac:dyDescent="0.2">
@@ -13697,7 +13671,7 @@
         <v>247</v>
       </c>
       <c r="D590" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E590" t="s">
         <v>403</v>
@@ -13717,7 +13691,7 @@
         <v>161</v>
       </c>
       <c r="D591" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E591" t="s">
         <v>403</v>
@@ -13737,13 +13711,13 @@
         <v>247</v>
       </c>
       <c r="D592" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E592" t="s">
         <v>403</v>
       </c>
       <c r="F592" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="593" spans="1:6" x14ac:dyDescent="0.2">
@@ -13751,19 +13725,19 @@
         <v>45332</v>
       </c>
       <c r="B593" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C593" t="s">
         <v>374</v>
       </c>
       <c r="D593" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E593" t="s">
         <v>403</v>
       </c>
       <c r="F593" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="594" spans="1:6" x14ac:dyDescent="0.2">
@@ -13777,16 +13751,16 @@
         <v>77</v>
       </c>
       <c r="D594" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E594" t="s">
         <v>403</v>
       </c>
       <c r="F594" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="595" spans="1:6" x14ac:dyDescent="0.2">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="595" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A595" s="2">
         <v>45333</v>
       </c>
@@ -13794,16 +13768,16 @@
         <v>7</v>
       </c>
       <c r="C595" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D595" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E595" t="s">
         <v>409</v>
       </c>
       <c r="F595" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="596" spans="1:6" x14ac:dyDescent="0.2">
@@ -13811,22 +13785,22 @@
         <v>45333</v>
       </c>
       <c r="B596" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C596" t="s">
         <v>66</v>
       </c>
       <c r="D596" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E596" t="s">
         <v>403</v>
       </c>
       <c r="F596" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="597" spans="1:6" x14ac:dyDescent="0.2">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="597" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A597" s="2">
         <v>45333</v>
       </c>
@@ -13834,19 +13808,19 @@
         <v>66</v>
       </c>
       <c r="C597" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D597" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E597" t="s">
         <v>409</v>
       </c>
       <c r="F597" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="598" spans="1:6" x14ac:dyDescent="0.2">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="598" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A598" s="2">
         <v>45334</v>
       </c>
@@ -13854,19 +13828,19 @@
         <v>7</v>
       </c>
       <c r="C598" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D598" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E598" t="s">
         <v>409</v>
       </c>
       <c r="F598" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="599" spans="1:6" x14ac:dyDescent="0.2">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="599" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A599" s="2">
         <v>45334</v>
       </c>
@@ -13877,13 +13851,13 @@
         <v>247</v>
       </c>
       <c r="D599" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E599" t="s">
         <v>409</v>
       </c>
       <c r="F599" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="600" spans="1:6" x14ac:dyDescent="0.2">
@@ -13891,22 +13865,22 @@
         <v>45334</v>
       </c>
       <c r="B600" t="s">
+        <v>438</v>
+      </c>
+      <c r="C600" t="s">
         <v>439</v>
       </c>
-      <c r="C600" t="s">
-        <v>440</v>
-      </c>
       <c r="D600" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E600" t="s">
         <v>403</v>
       </c>
       <c r="F600" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="601" spans="1:6" x14ac:dyDescent="0.2">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="601" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A601" s="2">
         <v>45335</v>
       </c>
@@ -13917,33 +13891,33 @@
         <v>47</v>
       </c>
       <c r="D601" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E601" t="s">
         <v>409</v>
       </c>
       <c r="F601" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="602" spans="1:6" x14ac:dyDescent="0.2">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="602" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A602" s="2">
         <v>45335</v>
       </c>
       <c r="B602" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C602" t="s">
         <v>18</v>
       </c>
       <c r="D602" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E602" t="s">
         <v>409</v>
       </c>
       <c r="F602" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="603" spans="1:6" x14ac:dyDescent="0.2">
@@ -13951,19 +13925,19 @@
         <v>45335</v>
       </c>
       <c r="B603" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C603" t="s">
         <v>125</v>
       </c>
       <c r="D603" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E603" t="s">
         <v>403</v>
       </c>
       <c r="F603" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="604" spans="1:6" x14ac:dyDescent="0.2">
@@ -13977,13 +13951,13 @@
         <v>247</v>
       </c>
       <c r="D604" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E604" t="s">
         <v>403</v>
       </c>
       <c r="F604" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="605" spans="1:6" x14ac:dyDescent="0.2">
@@ -13997,13 +13971,13 @@
         <v>247</v>
       </c>
       <c r="D605" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E605" t="s">
         <v>403</v>
       </c>
       <c r="F605" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="606" spans="1:6" x14ac:dyDescent="0.2">
@@ -14014,19 +13988,19 @@
         <v>7</v>
       </c>
       <c r="C606" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D606" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E606" t="s">
         <v>403</v>
       </c>
       <c r="F606" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="607" spans="1:6" x14ac:dyDescent="0.2">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="607" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A607" s="2">
         <v>45337</v>
       </c>
@@ -14034,30 +14008,30 @@
         <v>28</v>
       </c>
       <c r="C607" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D607" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E607" t="s">
         <v>409</v>
       </c>
       <c r="F607" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="608" spans="1:6" x14ac:dyDescent="0.2">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="608" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A608" s="2">
         <v>45337</v>
       </c>
       <c r="B608" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C608" t="s">
         <v>247</v>
       </c>
       <c r="D608" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E608" t="s">
         <v>402</v>
@@ -14066,7 +14040,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="609" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A609" s="2">
         <v>45338</v>
       </c>
@@ -14077,7 +14051,7 @@
         <v>148</v>
       </c>
       <c r="D609" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E609" t="s">
         <v>402</v>
@@ -14086,18 +14060,18 @@
         <v>399</v>
       </c>
     </row>
-    <row r="610" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A610" s="2">
         <v>45338</v>
       </c>
       <c r="B610" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C610" t="s">
         <v>379</v>
       </c>
       <c r="D610" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E610" t="s">
         <v>402</v>
@@ -14106,18 +14080,18 @@
         <v>399</v>
       </c>
     </row>
-    <row r="611" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A611" s="2">
         <v>45338</v>
       </c>
       <c r="B611" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C611" t="s">
         <v>281</v>
       </c>
       <c r="D611" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E611" t="s">
         <v>409</v>
@@ -14126,7 +14100,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="612" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A612" s="2">
         <v>45338</v>
       </c>
@@ -14137,7 +14111,7 @@
         <v>294</v>
       </c>
       <c r="D612" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E612" t="s">
         <v>409</v>
@@ -14146,7 +14120,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="613" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A613" s="2">
         <v>45338</v>
       </c>
@@ -14157,16 +14131,16 @@
         <v>247</v>
       </c>
       <c r="D613" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E613" t="s">
         <v>409</v>
       </c>
       <c r="F613" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="614" spans="1:6" x14ac:dyDescent="0.2">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="614" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A614" s="2">
         <v>45339</v>
       </c>
@@ -14177,16 +14151,16 @@
         <v>166</v>
       </c>
       <c r="D614" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E614" t="s">
         <v>409</v>
       </c>
       <c r="F614" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="615" spans="1:6" x14ac:dyDescent="0.2">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="615" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A615" s="2">
         <v>45339</v>
       </c>
@@ -14197,16 +14171,16 @@
         <v>247</v>
       </c>
       <c r="D615" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E615" t="s">
         <v>409</v>
       </c>
       <c r="F615" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="616" spans="1:6" x14ac:dyDescent="0.2">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="616" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A616" s="2">
         <v>45340</v>
       </c>
@@ -14217,16 +14191,16 @@
         <v>300</v>
       </c>
       <c r="D616" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E616" t="s">
         <v>409</v>
       </c>
       <c r="F616" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="617" spans="1:6" x14ac:dyDescent="0.2">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="617" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A617" s="2">
         <v>45340</v>
       </c>
@@ -14237,7 +14211,7 @@
         <v>247</v>
       </c>
       <c r="D617" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E617" t="s">
         <v>402</v>
@@ -14246,7 +14220,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="618" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A618" s="2">
         <v>45341</v>
       </c>
@@ -14254,10 +14228,10 @@
         <v>7</v>
       </c>
       <c r="C618" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D618" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E618" t="s">
         <v>402</v>
@@ -14266,7 +14240,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="619" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A619" s="2">
         <v>45341</v>
       </c>
@@ -14277,7 +14251,7 @@
         <v>247</v>
       </c>
       <c r="D619" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E619" t="s">
         <v>402</v>
@@ -14291,19 +14265,19 @@
         <v>45341</v>
       </c>
       <c r="B620" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C620" t="s">
         <v>281</v>
       </c>
       <c r="D620" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E620" t="s">
         <v>403</v>
       </c>
       <c r="F620" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="621" spans="1:6" x14ac:dyDescent="0.2">
@@ -14311,13 +14285,13 @@
         <v>45341</v>
       </c>
       <c r="B621" t="s">
+        <v>449</v>
+      </c>
+      <c r="C621" t="s">
         <v>450</v>
       </c>
-      <c r="C621" t="s">
-        <v>451</v>
-      </c>
       <c r="D621" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E621" t="s">
         <v>403</v>
@@ -14326,7 +14300,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="622" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A622" s="2">
         <v>45342</v>
       </c>
@@ -14334,10 +14308,10 @@
         <v>7</v>
       </c>
       <c r="C622" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D622" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E622" t="s">
         <v>402</v>
@@ -14346,18 +14320,18 @@
         <v>399</v>
       </c>
     </row>
-    <row r="623" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A623" s="2">
         <v>45342</v>
       </c>
       <c r="B623" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C623" t="s">
         <v>247</v>
       </c>
       <c r="D623" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E623" t="s">
         <v>407</v>
@@ -14366,7 +14340,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="624" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A624" s="2">
         <v>45343</v>
       </c>
@@ -14377,7 +14351,7 @@
         <v>140</v>
       </c>
       <c r="D624" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E624" t="s">
         <v>407</v>
@@ -14386,7 +14360,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="625" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A625" s="2">
         <v>45343</v>
       </c>
@@ -14397,7 +14371,7 @@
         <v>254</v>
       </c>
       <c r="D625" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E625" t="s">
         <v>402</v>
@@ -14406,7 +14380,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="626" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A626" s="2">
         <v>45343</v>
       </c>
@@ -14417,16 +14391,16 @@
         <v>247</v>
       </c>
       <c r="D626" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E626" t="s">
         <v>409</v>
       </c>
       <c r="F626" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="627" spans="1:6" x14ac:dyDescent="0.2">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="627" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A627" s="2">
         <v>45344</v>
       </c>
@@ -14437,16 +14411,16 @@
         <v>284</v>
       </c>
       <c r="D627" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E627" t="s">
         <v>409</v>
       </c>
       <c r="F627" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="628" spans="1:6" x14ac:dyDescent="0.2">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="628" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A628" s="2">
         <v>45344</v>
       </c>
@@ -14457,7 +14431,7 @@
         <v>247</v>
       </c>
       <c r="D628" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E628" t="s">
         <v>402</v>
@@ -14466,7 +14440,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="629" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A629" s="2">
         <v>45345</v>
       </c>
@@ -14477,7 +14451,7 @@
         <v>337</v>
       </c>
       <c r="D629" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E629" t="s">
         <v>402</v>
@@ -14494,21 +14468,21 @@
         <v>7</v>
       </c>
       <c r="C630" t="s">
-        <v>454</v>
+        <v>247</v>
       </c>
       <c r="D630" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E630" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="F630" t="s">
-        <v>399</v>
+        <v>412</v>
       </c>
     </row>
     <row r="631" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A631" s="2">
-        <v>45413</v>
+        <v>45414</v>
       </c>
       <c r="B631" t="s">
         <v>7</v>
@@ -14517,7 +14491,7 @@
         <v>247</v>
       </c>
       <c r="D631" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E631" t="s">
         <v>403</v>
@@ -14528,42 +14502,42 @@
     </row>
     <row r="632" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A632" s="2">
-        <v>45414</v>
+        <v>45415</v>
       </c>
       <c r="B632" t="s">
         <v>7</v>
       </c>
       <c r="C632" t="s">
-        <v>456</v>
+        <v>247</v>
       </c>
       <c r="D632" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E632" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="F632" t="s">
-        <v>399</v>
+        <v>412</v>
       </c>
     </row>
     <row r="633" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A633" s="2">
-        <v>45414</v>
+        <v>45415</v>
       </c>
       <c r="B633" t="s">
-        <v>7</v>
+        <v>454</v>
       </c>
       <c r="C633" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="D633" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E633" t="s">
         <v>403</v>
       </c>
       <c r="F633" t="s">
-        <v>412</v>
+        <v>479</v>
       </c>
     </row>
     <row r="634" spans="1:6" x14ac:dyDescent="0.2">
@@ -14571,24 +14545,24 @@
         <v>45415</v>
       </c>
       <c r="B634" t="s">
-        <v>7</v>
+        <v>294</v>
       </c>
       <c r="C634" t="s">
-        <v>279</v>
+        <v>455</v>
       </c>
       <c r="D634" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E634" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="F634" t="s">
-        <v>399</v>
+        <v>479</v>
       </c>
     </row>
     <row r="635" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A635" s="2">
-        <v>45415</v>
+        <v>45416</v>
       </c>
       <c r="B635" t="s">
         <v>7</v>
@@ -14597,7 +14571,7 @@
         <v>247</v>
       </c>
       <c r="D635" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E635" t="s">
         <v>403</v>
@@ -14606,84 +14580,84 @@
         <v>412</v>
       </c>
     </row>
-    <row r="636" spans="1:6" ht="13.8" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A636" s="2">
-        <v>45415</v>
+        <v>45416</v>
       </c>
       <c r="B636" t="s">
+        <v>456</v>
+      </c>
+      <c r="C636" t="s">
         <v>457</v>
       </c>
-      <c r="C636" t="s">
-        <v>263</v>
-      </c>
       <c r="D636" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E636" t="s">
-        <v>403</v>
-      </c>
-      <c r="F636" s="9" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="637" spans="1:6" ht="13.8" x14ac:dyDescent="0.2">
+        <v>406</v>
+      </c>
+      <c r="F636" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="637" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A637" s="2">
-        <v>45415</v>
+        <v>45417</v>
       </c>
       <c r="B637" t="s">
-        <v>294</v>
+        <v>7</v>
       </c>
       <c r="C637" t="s">
-        <v>458</v>
+        <v>169</v>
       </c>
       <c r="D637" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E637" t="s">
         <v>403</v>
       </c>
-      <c r="F637" s="9" t="s">
-        <v>414</v>
+      <c r="F637" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="638" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A638" s="2">
-        <v>45416</v>
+        <v>45417</v>
       </c>
       <c r="B638" t="s">
-        <v>7</v>
+        <v>169</v>
       </c>
       <c r="C638" t="s">
-        <v>247</v>
+        <v>350</v>
       </c>
       <c r="D638" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E638" t="s">
         <v>403</v>
       </c>
       <c r="F638" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="639" spans="1:6" x14ac:dyDescent="0.2">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="639" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A639" s="2">
-        <v>45416</v>
+        <v>45417</v>
       </c>
       <c r="B639" t="s">
+        <v>313</v>
+      </c>
+      <c r="C639" t="s">
         <v>459</v>
       </c>
-      <c r="C639" t="s">
-        <v>460</v>
-      </c>
       <c r="D639" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E639" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="F639" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
     </row>
     <row r="640" spans="1:6" x14ac:dyDescent="0.2">
@@ -14691,93 +14665,93 @@
         <v>45417</v>
       </c>
       <c r="B640" t="s">
-        <v>7</v>
+        <v>460</v>
       </c>
       <c r="C640" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="D640" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E640" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="F640" t="s">
-        <v>399</v>
+        <v>414</v>
       </c>
     </row>
     <row r="641" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A641" s="2">
-        <v>45417</v>
+        <v>45418</v>
       </c>
       <c r="B641" t="s">
         <v>7</v>
       </c>
       <c r="C641" t="s">
-        <v>169</v>
+        <v>274</v>
       </c>
       <c r="D641" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E641" t="s">
         <v>403</v>
       </c>
       <c r="F641" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="642" spans="1:6" ht="13.8" x14ac:dyDescent="0.2">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="642" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A642" s="2">
-        <v>45417</v>
+        <v>45418</v>
       </c>
       <c r="B642" t="s">
-        <v>169</v>
+        <v>281</v>
       </c>
       <c r="C642" t="s">
-        <v>350</v>
+        <v>461</v>
       </c>
       <c r="D642" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E642" t="s">
         <v>403</v>
       </c>
-      <c r="F642" s="9" t="s">
-        <v>414</v>
+      <c r="F642" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="643" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A643" s="2">
-        <v>45417</v>
+        <v>45418</v>
       </c>
       <c r="B643" t="s">
-        <v>313</v>
+        <v>461</v>
       </c>
       <c r="C643" t="s">
-        <v>462</v>
+        <v>247</v>
       </c>
       <c r="D643" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E643" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F643" t="s">
-        <v>399</v>
+        <v>415</v>
       </c>
     </row>
     <row r="644" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A644" s="2">
-        <v>45417</v>
+        <v>45419</v>
       </c>
       <c r="B644" t="s">
-        <v>463</v>
+        <v>7</v>
       </c>
       <c r="C644" t="s">
-        <v>247</v>
+        <v>462</v>
       </c>
       <c r="D644" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E644" t="s">
         <v>403</v>
@@ -14788,76 +14762,76 @@
     </row>
     <row r="645" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A645" s="2">
-        <v>45418</v>
+        <v>45419</v>
       </c>
       <c r="B645" t="s">
-        <v>7</v>
+        <v>463</v>
       </c>
       <c r="C645" t="s">
-        <v>59</v>
+        <v>464</v>
       </c>
       <c r="D645" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E645" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="F645" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="646" spans="1:6" x14ac:dyDescent="0.2">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="646" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A646" s="2">
-        <v>45418</v>
+        <v>45419</v>
       </c>
       <c r="B646" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="C646" t="s">
-        <v>274</v>
+        <v>465</v>
       </c>
       <c r="D646" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E646" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="F646" t="s">
-        <v>415</v>
+        <v>466</v>
       </c>
     </row>
     <row r="647" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A647" s="2">
-        <v>45418</v>
+        <v>45419</v>
       </c>
       <c r="B647" t="s">
-        <v>281</v>
+        <v>464</v>
       </c>
       <c r="C647" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="D647" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E647" t="s">
         <v>403</v>
       </c>
       <c r="F647" t="s">
-        <v>405</v>
+        <v>468</v>
       </c>
     </row>
     <row r="648" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A648" s="2">
-        <v>45418</v>
+        <v>45419</v>
       </c>
       <c r="B648" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="C648" t="s">
         <v>247</v>
       </c>
       <c r="D648" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E648" t="s">
         <v>403</v>
@@ -14868,372 +14842,233 @@
     </row>
     <row r="649" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A649" s="2">
-        <v>45419</v>
+        <v>45420</v>
       </c>
       <c r="B649" t="s">
         <v>7</v>
       </c>
       <c r="C649" t="s">
-        <v>79</v>
+        <v>469</v>
       </c>
       <c r="D649" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E649" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="F649" t="s">
-        <v>399</v>
+        <v>416</v>
       </c>
     </row>
     <row r="650" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A650" s="2">
-        <v>45419</v>
+        <v>45420</v>
       </c>
       <c r="B650" t="s">
-        <v>7</v>
+        <v>469</v>
       </c>
       <c r="C650" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="D650" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E650" t="s">
         <v>403</v>
       </c>
       <c r="F650" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="651" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A651" s="2">
-        <v>45419</v>
+        <v>45421</v>
       </c>
       <c r="B651" t="s">
-        <v>466</v>
+        <v>7</v>
       </c>
       <c r="C651" t="s">
-        <v>467</v>
+        <v>66</v>
       </c>
       <c r="D651" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E651" t="s">
         <v>403</v>
       </c>
       <c r="F651" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="652" spans="1:6" x14ac:dyDescent="0.2">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="652" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A652" s="2">
-        <v>45419</v>
+        <v>45421</v>
       </c>
       <c r="B652" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C652" t="s">
-        <v>468</v>
+        <v>107</v>
       </c>
       <c r="D652" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E652" t="s">
         <v>404</v>
       </c>
       <c r="F652" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
     <row r="653" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A653" s="2">
-        <v>45419</v>
+        <v>45422</v>
       </c>
       <c r="B653" t="s">
-        <v>467</v>
+        <v>7</v>
       </c>
       <c r="C653" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D653" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E653" t="s">
         <v>403</v>
       </c>
       <c r="F653" t="s">
-        <v>471</v>
+        <v>417</v>
       </c>
     </row>
     <row r="654" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A654" s="2">
-        <v>45419</v>
+        <v>45422</v>
       </c>
       <c r="B654" t="s">
-        <v>470</v>
+        <v>8</v>
       </c>
       <c r="C654" t="s">
         <v>247</v>
       </c>
       <c r="D654" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E654" t="s">
         <v>403</v>
       </c>
       <c r="F654" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="655" spans="1:6" x14ac:dyDescent="0.2">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="655" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A655" s="2">
-        <v>45420</v>
+        <v>45422</v>
       </c>
       <c r="B655" t="s">
-        <v>7</v>
+        <v>95</v>
       </c>
       <c r="C655" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D655" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E655" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="F655" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="656" spans="1:6" x14ac:dyDescent="0.2">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="656" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A656" s="2">
-        <v>45420</v>
+        <v>45422</v>
       </c>
       <c r="B656" t="s">
-        <v>7</v>
+        <v>474</v>
       </c>
       <c r="C656" t="s">
-        <v>473</v>
+        <v>78</v>
       </c>
       <c r="D656" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E656" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="F656" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="657" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A657" s="2">
-        <v>45420</v>
+        <v>45423</v>
       </c>
       <c r="B657" t="s">
-        <v>473</v>
+        <v>7</v>
       </c>
       <c r="C657" t="s">
-        <v>474</v>
+        <v>111</v>
       </c>
       <c r="D657" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E657" t="s">
         <v>403</v>
       </c>
       <c r="F657" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="658" spans="1:6" x14ac:dyDescent="0.2">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="658" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A658" s="2">
-        <v>45421</v>
+        <v>45423</v>
       </c>
       <c r="B658" t="s">
-        <v>7</v>
+        <v>475</v>
       </c>
       <c r="C658" t="s">
-        <v>66</v>
+        <v>476</v>
       </c>
       <c r="D658" t="s">
-        <v>455</v>
+        <v>477</v>
       </c>
       <c r="E658" t="s">
-        <v>403</v>
+        <v>478</v>
       </c>
       <c r="F658" t="s">
-        <v>418</v>
+        <v>399</v>
       </c>
     </row>
     <row r="659" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A659" s="2">
-        <v>45421</v>
+        <v>45423</v>
       </c>
       <c r="B659" t="s">
-        <v>31</v>
+        <v>111</v>
       </c>
       <c r="C659" t="s">
-        <v>107</v>
+        <v>247</v>
       </c>
       <c r="D659" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E659" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F659" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="660" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A660" s="2">
-        <v>45422</v>
-      </c>
-      <c r="B660" t="s">
-        <v>7</v>
-      </c>
-      <c r="C660" t="s">
-        <v>475</v>
-      </c>
-      <c r="D660" t="s">
-        <v>455</v>
-      </c>
-      <c r="E660" t="s">
-        <v>403</v>
-      </c>
-      <c r="F660" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="661" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A661" s="2">
-        <v>45422</v>
-      </c>
-      <c r="B661" t="s">
-        <v>8</v>
-      </c>
-      <c r="C661" t="s">
-        <v>247</v>
-      </c>
-      <c r="D661" t="s">
-        <v>455</v>
-      </c>
-      <c r="E661" t="s">
-        <v>403</v>
-      </c>
-      <c r="F661" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="662" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A662" s="2">
-        <v>45422</v>
-      </c>
-      <c r="B662" t="s">
-        <v>95</v>
-      </c>
-      <c r="C662" t="s">
-        <v>477</v>
-      </c>
-      <c r="D662" t="s">
-        <v>455</v>
-      </c>
-      <c r="E662" t="s">
-        <v>404</v>
-      </c>
-      <c r="F662" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="663" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A663" s="2">
-        <v>45422</v>
-      </c>
-      <c r="B663" t="s">
-        <v>478</v>
-      </c>
-      <c r="C663" t="s">
-        <v>78</v>
-      </c>
-      <c r="D663" t="s">
-        <v>455</v>
-      </c>
-      <c r="E663" t="s">
-        <v>409</v>
-      </c>
-      <c r="F663" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="664" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A664" s="2">
-        <v>45423</v>
-      </c>
-      <c r="B664" t="s">
-        <v>7</v>
-      </c>
-      <c r="C664" t="s">
-        <v>111</v>
-      </c>
-      <c r="D664" t="s">
-        <v>455</v>
-      </c>
-      <c r="E664" t="s">
-        <v>403</v>
-      </c>
-      <c r="F664" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="665" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A665" s="2">
-        <v>45423</v>
-      </c>
-      <c r="B665" t="s">
-        <v>479</v>
-      </c>
-      <c r="C665" t="s">
-        <v>480</v>
-      </c>
-      <c r="D665" t="s">
-        <v>481</v>
-      </c>
-      <c r="E665" t="s">
-        <v>482</v>
-      </c>
-      <c r="F665" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="666" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A666" s="2">
-        <v>45423</v>
-      </c>
-      <c r="B666" t="s">
-        <v>111</v>
-      </c>
-      <c r="C666" t="s">
-        <v>247</v>
-      </c>
-      <c r="D666" t="s">
-        <v>455</v>
-      </c>
-      <c r="E666" t="s">
-        <v>403</v>
-      </c>
-      <c r="F666" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F666" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:F659" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="PF"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="2"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F32 F34 F89 F93 F132:F133 F243 F377 F636:F637 F642" xr:uid="{A4F4424F-EE82-47DE-9A7F-21121B10FF1A}">
-      <formula1>INDIRECT(E32)</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/output.xlsx
+++ b/output.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\N9635226\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF37654E-1EE5-4418-BDA6-650B7FCFF6B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C737823-5ABE-48AC-BF7B-9C75726E0070}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1605" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3285" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3283" uniqueCount="479">
   <si>
     <t>Date</t>
   </si>
@@ -1437,9 +1437,6 @@
   </si>
   <si>
     <t>Hs &lt; 2m</t>
-  </si>
-  <si>
-    <t>17:50</t>
   </si>
   <si>
     <t>Berth barge</t>
@@ -1551,7 +1548,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1567,6 +1564,7 @@
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="21" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1871,11 +1869,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:I659"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A634" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="G133" sqref="G133"/>
+    <sheetView tabSelected="1" topLeftCell="A641" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="B643" sqref="B643"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1905,7 +1902,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
         <v>45169</v>
       </c>
@@ -1925,7 +1922,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>45170</v>
       </c>
@@ -1965,7 +1962,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>45170</v>
       </c>
@@ -2005,7 +2002,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>45171</v>
       </c>
@@ -2025,7 +2022,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>45172</v>
       </c>
@@ -2045,7 +2042,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>45173</v>
       </c>
@@ -2185,7 +2182,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
         <v>45176</v>
       </c>
@@ -2205,7 +2202,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
         <v>45177</v>
       </c>
@@ -2245,7 +2242,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="6">
         <v>45178</v>
       </c>
@@ -2285,7 +2282,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="6">
         <v>45178</v>
       </c>
@@ -2305,7 +2302,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="6">
         <v>45179</v>
       </c>
@@ -2325,7 +2322,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="6">
         <v>45179</v>
       </c>
@@ -2365,7 +2362,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="6">
         <v>45180</v>
       </c>
@@ -2425,7 +2422,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="6">
         <v>45181</v>
       </c>
@@ -2445,7 +2442,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="6">
         <v>45181</v>
       </c>
@@ -2465,7 +2462,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="6">
         <v>45182</v>
       </c>
@@ -2522,10 +2519,10 @@
         <v>403</v>
       </c>
       <c r="F32" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="6">
         <v>45183</v>
       </c>
@@ -2562,7 +2559,7 @@
         <v>403</v>
       </c>
       <c r="F34" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
@@ -2605,7 +2602,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="6">
         <v>45183</v>
       </c>
@@ -2625,7 +2622,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="6">
         <v>45184</v>
       </c>
@@ -2645,7 +2642,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="6">
         <v>45184</v>
       </c>
@@ -2705,7 +2702,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="6">
         <v>45184</v>
       </c>
@@ -2745,7 +2742,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="6">
         <v>45184</v>
       </c>
@@ -2765,7 +2762,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="6">
         <v>45185</v>
       </c>
@@ -2805,7 +2802,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="6">
         <v>45185</v>
       </c>
@@ -2865,7 +2862,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="6">
         <v>45185</v>
       </c>
@@ -2905,7 +2902,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="6">
         <v>45186</v>
       </c>
@@ -2945,7 +2942,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="6">
         <v>45186</v>
       </c>
@@ -2965,7 +2962,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="6">
         <v>45187</v>
       </c>
@@ -3005,7 +3002,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="6">
         <v>45187</v>
       </c>
@@ -3025,7 +3022,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="6">
         <v>45187</v>
       </c>
@@ -3045,7 +3042,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="6">
         <v>45187</v>
       </c>
@@ -3065,7 +3062,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="6">
         <v>45188</v>
       </c>
@@ -3085,7 +3082,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="6">
         <v>45188</v>
       </c>
@@ -3105,7 +3102,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="6">
         <v>45189</v>
       </c>
@@ -3125,7 +3122,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="6">
         <v>45189</v>
       </c>
@@ -3185,7 +3182,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="6">
         <v>45190</v>
       </c>
@@ -3245,7 +3242,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="6">
         <v>45191</v>
       </c>
@@ -3285,7 +3282,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="6">
         <v>45191</v>
       </c>
@@ -3325,7 +3322,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="6">
         <v>45192</v>
       </c>
@@ -3365,7 +3362,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="6">
         <v>45192</v>
       </c>
@@ -3405,7 +3402,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="6">
         <v>45192</v>
       </c>
@@ -3445,7 +3442,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="6">
         <v>45193</v>
       </c>
@@ -3525,7 +3522,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="6">
         <v>45193</v>
       </c>
@@ -3545,7 +3542,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="6">
         <v>45194</v>
       </c>
@@ -3565,7 +3562,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="6">
         <v>45194</v>
       </c>
@@ -3605,7 +3602,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="6">
         <v>45195</v>
       </c>
@@ -3662,10 +3659,10 @@
         <v>403</v>
       </c>
       <c r="F89" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="6">
         <v>45195</v>
       </c>
@@ -3685,7 +3682,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" s="6">
         <v>45196</v>
       </c>
@@ -3705,7 +3702,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" s="6">
         <v>45196</v>
       </c>
@@ -3742,7 +3739,7 @@
         <v>403</v>
       </c>
       <c r="F93" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
@@ -3765,7 +3762,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" s="6">
         <v>45197</v>
       </c>
@@ -3885,7 +3882,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" s="6">
         <v>45198</v>
       </c>
@@ -4005,7 +4002,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="107" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" s="6">
         <v>45200</v>
       </c>
@@ -4045,7 +4042,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="109" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" s="6">
         <v>45200</v>
       </c>
@@ -4065,7 +4062,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="110" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" s="6">
         <v>45200</v>
       </c>
@@ -4085,7 +4082,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="111" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" s="6">
         <v>45201</v>
       </c>
@@ -4105,7 +4102,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="112" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" s="6">
         <v>45201</v>
       </c>
@@ -4125,7 +4122,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="113" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" s="6">
         <v>45201</v>
       </c>
@@ -4165,7 +4162,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="115" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" s="6">
         <v>45202</v>
       </c>
@@ -4185,7 +4182,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="116" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" s="6">
         <v>45202</v>
       </c>
@@ -4245,7 +4242,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="119" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" s="6">
         <v>45203</v>
       </c>
@@ -4285,7 +4282,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="121" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" s="6">
         <v>45203</v>
       </c>
@@ -4325,7 +4322,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="123" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" s="6">
         <v>45203</v>
       </c>
@@ -4365,7 +4362,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="125" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" s="6">
         <v>45205</v>
       </c>
@@ -4405,7 +4402,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="127" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" s="6">
         <v>45206</v>
       </c>
@@ -4445,7 +4442,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="129" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" s="6">
         <v>45207</v>
       </c>
@@ -4485,7 +4482,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="131" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" s="6">
         <v>45207</v>
       </c>
@@ -4522,7 +4519,7 @@
         <v>403</v>
       </c>
       <c r="F132" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
@@ -4542,10 +4539,10 @@
         <v>403</v>
       </c>
       <c r="F133" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" s="6">
         <v>45208</v>
       </c>
@@ -4585,7 +4582,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="136" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" s="6">
         <v>45209</v>
       </c>
@@ -4685,7 +4682,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="141" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" s="6">
         <v>45210</v>
       </c>
@@ -4785,7 +4782,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="146" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" s="6">
         <v>45211</v>
       </c>
@@ -4825,7 +4822,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="148" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" s="6">
         <v>45212</v>
       </c>
@@ -4845,7 +4842,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="149" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" s="6">
         <v>45212</v>
       </c>
@@ -4865,7 +4862,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="150" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" s="6">
         <v>45212</v>
       </c>
@@ -4885,7 +4882,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="151" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" s="6">
         <v>45213</v>
       </c>
@@ -4905,7 +4902,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="152" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152" s="6">
         <v>45213</v>
       </c>
@@ -4945,7 +4942,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="154" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154" s="6">
         <v>45213</v>
       </c>
@@ -4965,7 +4962,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="155" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155" s="6">
         <v>45213</v>
       </c>
@@ -4985,7 +4982,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="156" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156" s="6">
         <v>45214</v>
       </c>
@@ -5025,7 +5022,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="158" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158" s="6">
         <v>45214</v>
       </c>
@@ -5045,7 +5042,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="159" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159" s="6">
         <v>45214</v>
       </c>
@@ -5065,7 +5062,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="160" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160" s="6">
         <v>45215</v>
       </c>
@@ -5105,7 +5102,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="162" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162" s="6">
         <v>45215</v>
       </c>
@@ -5125,7 +5122,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="163" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163" s="6">
         <v>45216</v>
       </c>
@@ -5145,7 +5142,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="164" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A164" s="6">
         <v>45216</v>
       </c>
@@ -5165,7 +5162,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="165" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A165" s="6">
         <v>45216</v>
       </c>
@@ -5185,7 +5182,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="166" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A166" s="6">
         <v>45217</v>
       </c>
@@ -5205,7 +5202,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="167" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A167" s="6">
         <v>45217</v>
       </c>
@@ -5225,7 +5222,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="168" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A168" s="6">
         <v>45217</v>
       </c>
@@ -5245,7 +5242,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="169" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A169" s="6">
         <v>45217</v>
       </c>
@@ -5265,7 +5262,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="170" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A170" s="6">
         <v>45217</v>
       </c>
@@ -5285,7 +5282,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="171" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A171" s="6">
         <v>45217</v>
       </c>
@@ -5305,7 +5302,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="172" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A172" s="6">
         <v>45218</v>
       </c>
@@ -5325,7 +5322,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="173" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A173" s="6">
         <v>45218</v>
       </c>
@@ -5345,7 +5342,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="174" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A174" s="6">
         <v>45218</v>
       </c>
@@ -5365,7 +5362,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="175" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A175" s="6">
         <v>45218</v>
       </c>
@@ -5385,7 +5382,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="176" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A176" s="6">
         <v>45218</v>
       </c>
@@ -5405,7 +5402,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="177" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A177" s="6">
         <v>45219</v>
       </c>
@@ -5425,7 +5422,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="178" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A178" s="6">
         <v>45219</v>
       </c>
@@ -5445,7 +5442,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="179" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A179" s="6">
         <v>45219</v>
       </c>
@@ -5465,7 +5462,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="180" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A180" s="6">
         <v>45219</v>
       </c>
@@ -5485,7 +5482,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="181" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A181" s="6">
         <v>45219</v>
       </c>
@@ -5505,7 +5502,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="182" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A182" s="6">
         <v>45219</v>
       </c>
@@ -5525,7 +5522,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="183" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A183" s="6">
         <v>45219</v>
       </c>
@@ -5545,7 +5542,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="184" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A184" s="6">
         <v>45220</v>
       </c>
@@ -5565,7 +5562,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="185" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A185" s="6">
         <v>45220</v>
       </c>
@@ -5585,7 +5582,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="186" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A186" s="6">
         <v>45220</v>
       </c>
@@ -5605,7 +5602,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="187" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A187" s="6">
         <v>45220</v>
       </c>
@@ -5625,7 +5622,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="188" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A188" s="6">
         <v>45221</v>
       </c>
@@ -5645,7 +5642,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="189" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A189" s="6">
         <v>45221</v>
       </c>
@@ -5665,7 +5662,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="190" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A190" s="6">
         <v>45222</v>
       </c>
@@ -5685,7 +5682,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="191" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A191" s="6">
         <v>45222</v>
       </c>
@@ -5705,7 +5702,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="192" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A192" s="6">
         <v>45222</v>
       </c>
@@ -5725,7 +5722,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="193" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A193" s="6">
         <v>45222</v>
       </c>
@@ -5745,7 +5742,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="194" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A194" s="6">
         <v>45222</v>
       </c>
@@ -5765,7 +5762,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="195" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A195" s="6">
         <v>45223</v>
       </c>
@@ -5785,7 +5782,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="196" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A196" s="6">
         <v>45223</v>
       </c>
@@ -5805,7 +5802,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="197" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A197" s="6">
         <v>45223</v>
       </c>
@@ -5825,7 +5822,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="198" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A198" s="6">
         <v>45224</v>
       </c>
@@ -5845,7 +5842,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="199" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A199" s="6">
         <v>45224</v>
       </c>
@@ -5865,7 +5862,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="200" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A200" s="6">
         <v>45224</v>
       </c>
@@ -5885,7 +5882,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="201" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A201" s="6">
         <v>45225</v>
       </c>
@@ -5905,7 +5902,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="202" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A202" s="6">
         <v>45225</v>
       </c>
@@ -5925,7 +5922,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="203" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A203" s="6">
         <v>45225</v>
       </c>
@@ -5945,7 +5942,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="204" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A204" s="6">
         <v>45226</v>
       </c>
@@ -5965,7 +5962,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="205" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A205" s="6">
         <v>45226</v>
       </c>
@@ -5985,7 +5982,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="206" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A206" s="6">
         <v>45226</v>
       </c>
@@ -6005,7 +6002,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="207" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A207" s="6">
         <v>45227</v>
       </c>
@@ -6025,7 +6022,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="208" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A208" s="6">
         <v>45227</v>
       </c>
@@ -6045,7 +6042,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="209" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A209" s="6">
         <v>45227</v>
       </c>
@@ -6065,7 +6062,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="210" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A210" s="6">
         <v>45228</v>
       </c>
@@ -6085,7 +6082,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="211" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A211" s="6">
         <v>45228</v>
       </c>
@@ -6105,7 +6102,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="212" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A212" s="6">
         <v>45228</v>
       </c>
@@ -6125,7 +6122,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="213" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A213" s="6">
         <v>45228</v>
       </c>
@@ -6145,7 +6142,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="214" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A214" s="6">
         <v>45229</v>
       </c>
@@ -6165,7 +6162,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="215" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A215" s="6">
         <v>45229</v>
       </c>
@@ -6185,7 +6182,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="216" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A216" s="6">
         <v>45230</v>
       </c>
@@ -6205,7 +6202,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="217" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A217" s="6">
         <v>45230</v>
       </c>
@@ -6225,7 +6222,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="218" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A218" s="6">
         <v>45230</v>
       </c>
@@ -6245,7 +6242,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="219" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A219" s="6">
         <v>45231</v>
       </c>
@@ -6265,7 +6262,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="220" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A220" s="6">
         <v>45231</v>
       </c>
@@ -6285,7 +6282,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="221" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A221" s="6">
         <v>45231</v>
       </c>
@@ -6305,7 +6302,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="222" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A222" s="6">
         <v>45232</v>
       </c>
@@ -6325,7 +6322,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="223" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A223" s="6">
         <v>45232</v>
       </c>
@@ -6345,7 +6342,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="224" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A224" s="6">
         <v>45232</v>
       </c>
@@ -6425,7 +6422,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="228" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A228" s="6">
         <v>45233</v>
       </c>
@@ -6485,7 +6482,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="231" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A231" s="6">
         <v>45234</v>
       </c>
@@ -6525,7 +6522,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="233" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A233" s="6">
         <v>45235</v>
       </c>
@@ -6565,7 +6562,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="235" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A235" s="6">
         <v>45235</v>
       </c>
@@ -6625,7 +6622,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="238" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A238" s="6">
         <v>45236</v>
       </c>
@@ -6645,7 +6642,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="239" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A239" s="6">
         <v>45237</v>
       </c>
@@ -6705,7 +6702,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="242" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A242" s="6">
         <v>45238</v>
       </c>
@@ -6742,10 +6739,10 @@
         <v>403</v>
       </c>
       <c r="F243" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="244" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A244" s="6">
         <v>45238</v>
       </c>
@@ -6805,7 +6802,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="247" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A247" s="6">
         <v>45239</v>
       </c>
@@ -6865,7 +6862,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="250" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A250" s="6">
         <v>45239</v>
       </c>
@@ -6905,7 +6902,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="252" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A252" s="6">
         <v>45239</v>
       </c>
@@ -6925,7 +6922,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="253" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A253" s="6">
         <v>45239</v>
       </c>
@@ -6945,7 +6942,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="254" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A254" s="6">
         <v>45239</v>
       </c>
@@ -6965,7 +6962,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="255" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A255" s="6">
         <v>45240</v>
       </c>
@@ -6985,7 +6982,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="256" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A256" s="6">
         <v>45240</v>
       </c>
@@ -7025,7 +7022,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="258" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A258" s="6">
         <v>45240</v>
       </c>
@@ -7045,7 +7042,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="259" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A259" s="6">
         <v>45240</v>
       </c>
@@ -7065,7 +7062,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="260" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A260" s="6">
         <v>45240</v>
       </c>
@@ -7085,7 +7082,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="261" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A261" s="6">
         <v>45240</v>
       </c>
@@ -7105,7 +7102,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="262" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A262" s="6">
         <v>45240</v>
       </c>
@@ -7165,7 +7162,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="265" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A265" s="6">
         <v>45241</v>
       </c>
@@ -7225,7 +7222,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="268" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A268" s="6">
         <v>45241</v>
       </c>
@@ -7285,7 +7282,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="271" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A271" s="6">
         <v>45241</v>
       </c>
@@ -7325,7 +7322,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="273" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A273" s="6">
         <v>45242</v>
       </c>
@@ -7345,7 +7342,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="274" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A274" s="6">
         <v>45242</v>
       </c>
@@ -7365,7 +7362,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="275" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A275" s="6">
         <v>45242</v>
       </c>
@@ -7425,7 +7422,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="278" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A278" s="6">
         <v>45243</v>
       </c>
@@ -7445,7 +7442,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="279" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A279" s="6">
         <v>45243</v>
       </c>
@@ -7465,7 +7462,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="280" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A280" s="6">
         <v>45244</v>
       </c>
@@ -7505,7 +7502,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="282" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A282" s="6">
         <v>45244</v>
       </c>
@@ -7525,7 +7522,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="283" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A283" s="6">
         <v>45244</v>
       </c>
@@ -7545,7 +7542,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="284" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A284" s="6">
         <v>45244</v>
       </c>
@@ -7565,7 +7562,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="285" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A285" s="6">
         <v>45244</v>
       </c>
@@ -7585,7 +7582,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="286" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A286" s="6">
         <v>45244</v>
       </c>
@@ -7602,7 +7599,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="287" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A287" s="6">
         <v>45244</v>
       </c>
@@ -7622,7 +7619,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="288" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A288" s="6">
         <v>45244</v>
       </c>
@@ -7642,7 +7639,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="289" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A289" s="6">
         <v>45245</v>
       </c>
@@ -7662,7 +7659,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="290" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A290" s="6">
         <v>45245</v>
       </c>
@@ -7682,7 +7679,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="291" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A291" s="6">
         <v>45245</v>
       </c>
@@ -7702,7 +7699,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="292" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A292" s="6">
         <v>45245</v>
       </c>
@@ -7742,7 +7739,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="294" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A294" s="6">
         <v>45246</v>
       </c>
@@ -7762,7 +7759,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="295" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A295" s="6">
         <v>45246</v>
       </c>
@@ -7782,7 +7779,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="296" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A296" s="6">
         <v>45247</v>
       </c>
@@ -7802,7 +7799,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="297" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A297" s="6">
         <v>45247</v>
       </c>
@@ -7822,7 +7819,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="298" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A298" s="6">
         <v>45248</v>
       </c>
@@ -7842,7 +7839,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="299" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A299" s="6">
         <v>45248</v>
       </c>
@@ -7862,7 +7859,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="300" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A300" s="6">
         <v>45249</v>
       </c>
@@ -7882,7 +7879,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="301" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A301" s="6">
         <v>45249</v>
       </c>
@@ -7902,7 +7899,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="302" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A302" s="6">
         <v>45250</v>
       </c>
@@ -7922,7 +7919,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="303" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A303" s="6">
         <v>45250</v>
       </c>
@@ -7942,7 +7939,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="304" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A304" s="6">
         <v>45251</v>
       </c>
@@ -7962,7 +7959,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="305" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A305" s="6">
         <v>45251</v>
       </c>
@@ -8062,7 +8059,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="310" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A310" s="6">
         <v>45252</v>
       </c>
@@ -8082,7 +8079,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="311" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A311" s="6">
         <v>45252</v>
       </c>
@@ -8102,7 +8099,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="312" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A312" s="6">
         <v>45252</v>
       </c>
@@ -8122,7 +8119,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="313" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A313" s="6">
         <v>45253</v>
       </c>
@@ -8142,7 +8139,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="314" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A314" s="6">
         <v>45253</v>
       </c>
@@ -8162,7 +8159,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="315" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A315" s="6">
         <v>45253</v>
       </c>
@@ -8182,7 +8179,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="316" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A316" s="6">
         <v>45254</v>
       </c>
@@ -8202,7 +8199,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="317" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A317" s="6">
         <v>45254</v>
       </c>
@@ -8222,7 +8219,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="318" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A318" s="6">
         <v>45254</v>
       </c>
@@ -8242,7 +8239,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="319" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A319" s="6">
         <v>45255</v>
       </c>
@@ -8262,7 +8259,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="320" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A320" s="6">
         <v>45255</v>
       </c>
@@ -8282,7 +8279,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="321" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A321" s="6">
         <v>45255</v>
       </c>
@@ -8302,7 +8299,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="322" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A322" s="6">
         <v>45256</v>
       </c>
@@ -8322,7 +8319,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="323" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A323" s="6">
         <v>45256</v>
       </c>
@@ -8342,7 +8339,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="324" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A324" s="6">
         <v>45256</v>
       </c>
@@ -8362,7 +8359,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="325" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A325" s="6">
         <v>45257</v>
       </c>
@@ -8382,7 +8379,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="326" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A326" s="6">
         <v>45257</v>
       </c>
@@ -8402,7 +8399,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="327" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A327" s="6">
         <v>45257</v>
       </c>
@@ -8419,7 +8416,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="328" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A328" s="6">
         <v>45258</v>
       </c>
@@ -8439,7 +8436,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="329" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A329" s="6">
         <v>45258</v>
       </c>
@@ -8459,7 +8456,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="330" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A330" s="6">
         <v>45259</v>
       </c>
@@ -8479,7 +8476,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="331" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A331" s="6">
         <v>45259</v>
       </c>
@@ -8499,7 +8496,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="332" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A332" s="6">
         <v>45259</v>
       </c>
@@ -8519,7 +8516,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="333" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A333" s="6">
         <v>45260</v>
       </c>
@@ -8539,7 +8536,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="334" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A334" s="6">
         <v>45260</v>
       </c>
@@ -8559,7 +8556,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="335" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A335" s="6">
         <v>45260</v>
       </c>
@@ -8576,7 +8573,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="336" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A336" s="6">
         <v>45260</v>
       </c>
@@ -8596,7 +8593,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="337" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A337" s="6">
         <v>45260</v>
       </c>
@@ -8616,7 +8613,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="338" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A338" s="6">
         <v>45260</v>
       </c>
@@ -8636,7 +8633,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="339" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A339" s="6">
         <v>45261</v>
       </c>
@@ -8656,7 +8653,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="340" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A340" s="6">
         <v>45261</v>
       </c>
@@ -8676,7 +8673,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="341" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A341" s="6">
         <v>45261</v>
       </c>
@@ -8696,7 +8693,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="342" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A342" s="6">
         <v>45261</v>
       </c>
@@ -8716,7 +8713,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="343" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A343" s="6">
         <v>45261</v>
       </c>
@@ -8736,7 +8733,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="344" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A344" s="6">
         <v>45261</v>
       </c>
@@ -8756,7 +8753,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="345" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A345" s="6">
         <v>45261</v>
       </c>
@@ -8776,7 +8773,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="346" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A346" s="6">
         <v>45262</v>
       </c>
@@ -8796,7 +8793,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="347" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A347" s="6">
         <v>45262</v>
       </c>
@@ -8816,7 +8813,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="348" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A348" s="6">
         <v>45262</v>
       </c>
@@ -8856,7 +8853,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="350" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A350" s="6">
         <v>45262</v>
       </c>
@@ -8876,7 +8873,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="351" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A351" s="6">
         <v>45262</v>
       </c>
@@ -8896,7 +8893,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="352" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A352" s="6">
         <v>45263</v>
       </c>
@@ -8916,7 +8913,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="353" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A353" s="6">
         <v>45263</v>
       </c>
@@ -8936,7 +8933,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="354" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A354" s="6">
         <v>45264</v>
       </c>
@@ -8956,7 +8953,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="355" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A355" s="6">
         <v>45264</v>
       </c>
@@ -9016,7 +9013,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="358" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A358" s="6">
         <v>45265</v>
       </c>
@@ -9036,7 +9033,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="359" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A359" s="6">
         <v>45265</v>
       </c>
@@ -9076,7 +9073,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="361" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A361" s="6">
         <v>45265</v>
       </c>
@@ -9116,7 +9113,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="363" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A363" s="6">
         <v>45266</v>
       </c>
@@ -9156,7 +9153,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="365" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A365" s="6">
         <v>45266</v>
       </c>
@@ -9216,7 +9213,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="368" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A368" s="6">
         <v>45267</v>
       </c>
@@ -9236,7 +9233,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="369" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A369" s="6">
         <v>45267</v>
       </c>
@@ -9296,7 +9293,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="372" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A372" s="6">
         <v>45268</v>
       </c>
@@ -9413,7 +9410,7 @@
         <v>403</v>
       </c>
       <c r="F377" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.2">
@@ -9456,7 +9453,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="380" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A380" s="6">
         <v>45271</v>
       </c>
@@ -9476,7 +9473,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="381" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A381" s="6">
         <v>45271</v>
       </c>
@@ -9616,7 +9613,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="388" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A388" s="6">
         <v>45272</v>
       </c>
@@ -9636,7 +9633,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="389" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A389" s="6">
         <v>45273</v>
       </c>
@@ -9656,7 +9653,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="390" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A390" s="6">
         <v>45273</v>
       </c>
@@ -9676,7 +9673,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="391" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A391" s="6">
         <v>45273</v>
       </c>
@@ -9696,7 +9693,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="392" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A392" s="6">
         <v>45273</v>
       </c>
@@ -9756,7 +9753,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="395" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A395" s="6">
         <v>45274</v>
       </c>
@@ -9776,7 +9773,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="396" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A396" s="6">
         <v>45274</v>
       </c>
@@ -9816,7 +9813,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="398" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A398" s="6">
         <v>45275</v>
       </c>
@@ -9836,7 +9833,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="399" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A399" s="6">
         <v>45275</v>
       </c>
@@ -9856,7 +9853,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="400" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A400" s="6">
         <v>45276</v>
       </c>
@@ -9876,7 +9873,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="401" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A401" s="6">
         <v>45276</v>
       </c>
@@ -9896,7 +9893,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="402" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A402" s="6">
         <v>45276</v>
       </c>
@@ -9936,7 +9933,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="404" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A404" s="6">
         <v>45276</v>
       </c>
@@ -9956,7 +9953,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="405" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A405" s="6">
         <v>45276</v>
       </c>
@@ -9976,7 +9973,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="406" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A406" s="6">
         <v>45277</v>
       </c>
@@ -9996,7 +9993,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="407" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A407" s="6">
         <v>45277</v>
       </c>
@@ -10036,7 +10033,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="409" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A409" s="6">
         <v>45277</v>
       </c>
@@ -10096,7 +10093,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="412" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A412" s="6">
         <v>45278</v>
       </c>
@@ -10116,7 +10113,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="413" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A413" s="6">
         <v>45278</v>
       </c>
@@ -10136,7 +10133,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="414" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A414" s="6">
         <v>45278</v>
       </c>
@@ -10156,7 +10153,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="415" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A415" s="6">
         <v>45279</v>
       </c>
@@ -10176,7 +10173,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="416" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A416" s="6">
         <v>45279</v>
       </c>
@@ -10196,7 +10193,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="417" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A417" s="6">
         <v>45279</v>
       </c>
@@ -10216,7 +10213,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="418" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A418" s="6">
         <v>45279</v>
       </c>
@@ -10236,7 +10233,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="419" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A419" s="6">
         <v>45280</v>
       </c>
@@ -10256,7 +10253,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="420" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A420" s="6">
         <v>45280</v>
       </c>
@@ -10276,7 +10273,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="421" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A421" s="6">
         <v>45280</v>
       </c>
@@ -10296,7 +10293,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="422" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A422" s="6">
         <v>45280</v>
       </c>
@@ -10316,7 +10313,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="423" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A423" s="6">
         <v>45280</v>
       </c>
@@ -10336,7 +10333,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="424" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A424" s="6">
         <v>45280</v>
       </c>
@@ -10356,7 +10353,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="425" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A425" s="6">
         <v>45280</v>
       </c>
@@ -10376,7 +10373,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="426" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A426" s="6">
         <v>45281</v>
       </c>
@@ -10396,7 +10393,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="427" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A427" s="6">
         <v>45281</v>
       </c>
@@ -10436,7 +10433,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="429" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A429" s="6">
         <v>45281</v>
       </c>
@@ -10456,7 +10453,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="430" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A430" s="6">
         <v>45281</v>
       </c>
@@ -10476,7 +10473,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="431" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A431" s="6">
         <v>45282</v>
       </c>
@@ -10496,7 +10493,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="432" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A432" s="6">
         <v>45282</v>
       </c>
@@ -10516,7 +10513,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="433" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A433" s="6">
         <v>45283</v>
       </c>
@@ -10536,7 +10533,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="434" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A434" s="6">
         <v>45284</v>
       </c>
@@ -10556,7 +10553,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="435" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A435" s="6">
         <v>45285</v>
       </c>
@@ -10576,7 +10573,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="436" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A436" s="6">
         <v>45286</v>
       </c>
@@ -10596,7 +10593,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="437" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A437" s="6">
         <v>45286</v>
       </c>
@@ -10616,7 +10613,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="438" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A438" s="6">
         <v>45287</v>
       </c>
@@ -10636,7 +10633,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="439" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A439" s="6">
         <v>45287</v>
       </c>
@@ -10656,7 +10653,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="440" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A440" s="6">
         <v>45287</v>
       </c>
@@ -10676,7 +10673,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="441" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A441" s="6">
         <v>45288</v>
       </c>
@@ -10696,7 +10693,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="442" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A442" s="6">
         <v>45288</v>
       </c>
@@ -10716,7 +10713,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="443" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A443" s="6">
         <v>45288</v>
       </c>
@@ -10733,7 +10730,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="444" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A444" s="6">
         <v>45289</v>
       </c>
@@ -10753,7 +10750,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="445" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A445" s="6">
         <v>45289</v>
       </c>
@@ -10793,7 +10790,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="447" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A447" s="6">
         <v>45290</v>
       </c>
@@ -10853,7 +10850,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="450" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A450" s="6">
         <v>45291</v>
       </c>
@@ -10893,7 +10890,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="452" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A452" s="6">
         <v>45291</v>
       </c>
@@ -10933,7 +10930,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="454" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A454" s="6">
         <v>45292</v>
       </c>
@@ -10993,7 +10990,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="457" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A457" s="6">
         <v>45293</v>
       </c>
@@ -11053,7 +11050,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="460" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A460" s="6">
         <v>45293</v>
       </c>
@@ -11073,7 +11070,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="461" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A461" s="6">
         <v>45294</v>
       </c>
@@ -11113,7 +11110,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="463" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A463" s="6">
         <v>45294</v>
       </c>
@@ -11133,7 +11130,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="464" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A464" s="6">
         <v>45294</v>
       </c>
@@ -11173,7 +11170,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="466" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A466" s="6">
         <v>45295</v>
       </c>
@@ -11193,7 +11190,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="467" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A467" s="6">
         <v>45295</v>
       </c>
@@ -11233,7 +11230,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="469" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A469" s="6">
         <v>45295</v>
       </c>
@@ -11313,7 +11310,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="473" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A473" s="6">
         <v>45296</v>
       </c>
@@ -11333,7 +11330,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="474" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A474" s="6">
         <v>45296</v>
       </c>
@@ -11373,7 +11370,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="476" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A476" s="6">
         <v>45296</v>
       </c>
@@ -11393,7 +11390,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="477" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A477" s="6">
         <v>45297</v>
       </c>
@@ -11413,7 +11410,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="478" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A478" s="6">
         <v>45297</v>
       </c>
@@ -11433,7 +11430,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="479" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A479" s="6">
         <v>45297</v>
       </c>
@@ -11453,7 +11450,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="480" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A480" s="6">
         <v>45297</v>
       </c>
@@ -11493,7 +11490,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="482" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A482" s="6">
         <v>45298</v>
       </c>
@@ -11513,7 +11510,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="483" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A483" s="6">
         <v>45298</v>
       </c>
@@ -11533,7 +11530,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="484" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A484" s="6">
         <v>45299</v>
       </c>
@@ -11553,7 +11550,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="485" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A485" s="6">
         <v>45299</v>
       </c>
@@ -11573,7 +11570,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="486" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A486" s="6">
         <v>45299</v>
       </c>
@@ -11593,7 +11590,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="487" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A487" s="6">
         <v>45300</v>
       </c>
@@ -11613,7 +11610,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="488" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A488" s="6">
         <v>45300</v>
       </c>
@@ -11693,7 +11690,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="492" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A492" s="6">
         <v>45301</v>
       </c>
@@ -11733,7 +11730,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="494" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A494" s="6">
         <v>45302</v>
       </c>
@@ -11753,7 +11750,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="495" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A495" s="6">
         <v>45302</v>
       </c>
@@ -11776,7 +11773,7 @@
         <v>45302.604166666664</v>
       </c>
     </row>
-    <row r="496" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A496" s="6">
         <v>45302</v>
       </c>
@@ -11799,7 +11796,7 @@
         <v>45646.958333333336</v>
       </c>
     </row>
-    <row r="497" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A497" s="6">
         <v>45302</v>
       </c>
@@ -11820,7 +11817,7 @@
       </c>
       <c r="I497" s="2"/>
     </row>
-    <row r="498" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A498" s="6">
         <v>45302</v>
       </c>
@@ -11840,7 +11837,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="499" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A499" s="6">
         <v>45302</v>
       </c>
@@ -11860,7 +11857,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="500" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A500" s="6">
         <v>45303</v>
       </c>
@@ -11880,7 +11877,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="501" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A501" s="6">
         <v>45303</v>
       </c>
@@ -11900,7 +11897,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="502" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A502" s="6">
         <v>45303</v>
       </c>
@@ -11920,7 +11917,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="503" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A503" s="6">
         <v>45303</v>
       </c>
@@ -11940,7 +11937,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="504" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A504" s="6">
         <v>45303</v>
       </c>
@@ -11960,7 +11957,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="505" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A505" s="6">
         <v>45303</v>
       </c>
@@ -11980,7 +11977,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="506" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A506" s="6">
         <v>45303</v>
       </c>
@@ -12000,7 +11997,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="507" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A507" s="6">
         <v>45303</v>
       </c>
@@ -12020,7 +12017,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="508" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A508" s="6">
         <v>45303</v>
       </c>
@@ -12040,7 +12037,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="509" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A509" s="6">
         <v>45304</v>
       </c>
@@ -12060,7 +12057,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="510" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A510" s="6">
         <v>45304</v>
       </c>
@@ -12080,7 +12077,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="511" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A511" s="6">
         <v>45304</v>
       </c>
@@ -12100,7 +12097,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="512" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A512" s="6">
         <v>45304</v>
       </c>
@@ -12120,7 +12117,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="513" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A513" s="6">
         <v>45304</v>
       </c>
@@ -12140,7 +12137,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="514" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A514" s="6">
         <v>45305</v>
       </c>
@@ -12160,7 +12157,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="515" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A515" s="6">
         <v>45305</v>
       </c>
@@ -12180,7 +12177,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="516" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A516" s="6">
         <v>45305</v>
       </c>
@@ -12200,7 +12197,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="517" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A517" s="6">
         <v>45305</v>
       </c>
@@ -12220,7 +12217,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="518" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A518" s="6">
         <v>45306</v>
       </c>
@@ -12240,7 +12237,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="519" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A519" s="6">
         <v>45307</v>
       </c>
@@ -12260,7 +12257,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="520" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A520" s="6">
         <v>45307</v>
       </c>
@@ -12280,7 +12277,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="521" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A521" s="6">
         <v>45307</v>
       </c>
@@ -12300,7 +12297,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="522" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A522" s="6">
         <v>45308</v>
       </c>
@@ -12320,7 +12317,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="523" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A523" s="6">
         <v>45308</v>
       </c>
@@ -12340,7 +12337,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="524" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A524" s="6">
         <v>45308</v>
       </c>
@@ -12360,7 +12357,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="525" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A525" s="6">
         <v>45308</v>
       </c>
@@ -12380,7 +12377,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="526" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A526" s="6">
         <v>45308</v>
       </c>
@@ -12400,7 +12397,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="527" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A527" s="6">
         <v>45308</v>
       </c>
@@ -12420,7 +12417,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="528" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A528" s="6">
         <v>45309</v>
       </c>
@@ -12440,7 +12437,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="529" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A529" s="6">
         <v>45309</v>
       </c>
@@ -12460,7 +12457,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="530" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A530" s="6">
         <v>45309</v>
       </c>
@@ -12480,7 +12477,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="531" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A531" s="6">
         <v>45309</v>
       </c>
@@ -12600,7 +12597,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="537" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A537" s="6">
         <v>45310</v>
       </c>
@@ -12620,7 +12617,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="538" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A538" s="6">
         <v>45310</v>
       </c>
@@ -12640,7 +12637,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="539" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A539" s="6">
         <v>45310</v>
       </c>
@@ -12660,7 +12657,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="540" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A540" s="6">
         <v>45311</v>
       </c>
@@ -12680,7 +12677,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="541" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A541" s="6">
         <v>45311</v>
       </c>
@@ -12800,7 +12797,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="547" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A547" s="6">
         <v>45312</v>
       </c>
@@ -12820,7 +12817,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="548" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A548" s="6">
         <v>45312</v>
       </c>
@@ -12840,7 +12837,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="549" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A549" s="6">
         <v>45312</v>
       </c>
@@ -12900,7 +12897,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="552" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A552" s="6">
         <v>45313</v>
       </c>
@@ -12920,7 +12917,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="553" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A553" s="6">
         <v>45314</v>
       </c>
@@ -12940,7 +12937,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="554" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A554" s="6">
         <v>45314</v>
       </c>
@@ -12980,7 +12977,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="556" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A556" s="6">
         <v>45315</v>
       </c>
@@ -13000,7 +12997,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="557" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A557" s="6">
         <v>45316</v>
       </c>
@@ -13020,7 +13017,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="558" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A558" s="6">
         <v>45317</v>
       </c>
@@ -13040,7 +13037,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="559" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A559" s="6">
         <v>45318</v>
       </c>
@@ -13060,7 +13057,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="560" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A560" s="6">
         <v>45319</v>
       </c>
@@ -13080,7 +13077,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="561" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A561" s="6">
         <v>45320</v>
       </c>
@@ -13100,7 +13097,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="562" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A562" s="6">
         <v>45321</v>
       </c>
@@ -13140,7 +13137,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="564" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A564" s="6">
         <v>45321</v>
       </c>
@@ -13160,7 +13157,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="565" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A565" s="6">
         <v>45321</v>
       </c>
@@ -13180,7 +13177,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="566" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A566" s="6">
         <v>45321</v>
       </c>
@@ -13200,7 +13197,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="567" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A567" s="6">
         <v>45322</v>
       </c>
@@ -13220,7 +13217,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="568" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A568" s="6">
         <v>45322</v>
       </c>
@@ -13260,7 +13257,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="570" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A570" s="2">
         <v>45323</v>
       </c>
@@ -13300,7 +13297,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="572" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A572" s="2">
         <v>45323</v>
       </c>
@@ -13320,7 +13317,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="573" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A573" s="2">
         <v>45324</v>
       </c>
@@ -13340,7 +13337,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="574" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A574" s="2">
         <v>45324</v>
       </c>
@@ -13400,7 +13397,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="577" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A577" s="2">
         <v>45325</v>
       </c>
@@ -13420,7 +13417,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="578" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A578" s="2">
         <v>45325</v>
       </c>
@@ -13440,7 +13437,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="579" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A579" s="2">
         <v>45326</v>
       </c>
@@ -13460,7 +13457,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="580" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A580" s="2">
         <v>45326</v>
       </c>
@@ -13600,7 +13597,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="587" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A587" s="2">
         <v>45329</v>
       </c>
@@ -13640,7 +13637,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="589" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A589" s="2">
         <v>45330</v>
       </c>
@@ -13760,7 +13757,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="595" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A595" s="2">
         <v>45333</v>
       </c>
@@ -13800,7 +13797,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="597" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A597" s="2">
         <v>45333</v>
       </c>
@@ -13820,7 +13817,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="598" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A598" s="2">
         <v>45334</v>
       </c>
@@ -13840,7 +13837,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="599" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A599" s="2">
         <v>45334</v>
       </c>
@@ -13880,7 +13877,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="601" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A601" s="2">
         <v>45335</v>
       </c>
@@ -13900,7 +13897,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="602" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A602" s="2">
         <v>45335</v>
       </c>
@@ -14000,7 +13997,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="607" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A607" s="2">
         <v>45337</v>
       </c>
@@ -14020,7 +14017,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="608" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A608" s="2">
         <v>45337</v>
       </c>
@@ -14040,7 +14037,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="609" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A609" s="2">
         <v>45338</v>
       </c>
@@ -14060,7 +14057,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="610" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A610" s="2">
         <v>45338</v>
       </c>
@@ -14080,7 +14077,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="611" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A611" s="2">
         <v>45338</v>
       </c>
@@ -14100,7 +14097,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="612" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A612" s="2">
         <v>45338</v>
       </c>
@@ -14120,7 +14117,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="613" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A613" s="2">
         <v>45338</v>
       </c>
@@ -14140,7 +14137,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="614" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A614" s="2">
         <v>45339</v>
       </c>
@@ -14160,7 +14157,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="615" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A615" s="2">
         <v>45339</v>
       </c>
@@ -14180,7 +14177,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="616" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A616" s="2">
         <v>45340</v>
       </c>
@@ -14200,7 +14197,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="617" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A617" s="2">
         <v>45340</v>
       </c>
@@ -14220,7 +14217,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="618" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A618" s="2">
         <v>45341</v>
       </c>
@@ -14240,7 +14237,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="619" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A619" s="2">
         <v>45341</v>
       </c>
@@ -14300,7 +14297,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="622" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A622" s="2">
         <v>45342</v>
       </c>
@@ -14320,7 +14317,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="623" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A623" s="2">
         <v>45342</v>
       </c>
@@ -14340,7 +14337,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="624" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A624" s="2">
         <v>45343</v>
       </c>
@@ -14360,7 +14357,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="625" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A625" s="2">
         <v>45343</v>
       </c>
@@ -14380,7 +14377,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="626" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A626" s="2">
         <v>45343</v>
       </c>
@@ -14400,7 +14397,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="627" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A627" s="2">
         <v>45344</v>
       </c>
@@ -14420,7 +14417,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="628" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A628" s="2">
         <v>45344</v>
       </c>
@@ -14440,7 +14437,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="629" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A629" s="2">
         <v>45345</v>
       </c>
@@ -14537,7 +14534,7 @@
         <v>403</v>
       </c>
       <c r="F633" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="634" spans="1:6" x14ac:dyDescent="0.2">
@@ -14557,7 +14554,7 @@
         <v>403</v>
       </c>
       <c r="F634" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="635" spans="1:6" x14ac:dyDescent="0.2">
@@ -14580,7 +14577,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="636" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A636" s="2">
         <v>45416</v>
       </c>
@@ -14637,10 +14634,10 @@
         <v>403</v>
       </c>
       <c r="F638" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="639" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="639" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A639" s="2">
         <v>45417</v>
       </c>
@@ -14741,7 +14738,7 @@
       </c>
     </row>
     <row r="644" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A644" s="2">
+      <c r="A644" s="6">
         <v>45419</v>
       </c>
       <c r="B644" t="s">
@@ -14761,7 +14758,7 @@
       </c>
     </row>
     <row r="645" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A645" s="2">
+      <c r="A645" s="6">
         <v>45419</v>
       </c>
       <c r="B645" t="s">
@@ -14780,8 +14777,8 @@
         <v>425</v>
       </c>
     </row>
-    <row r="646" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A646" s="2">
+    <row r="646" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A646" s="6">
         <v>45419</v>
       </c>
       <c r="B646" t="s">
@@ -14801,14 +14798,14 @@
       </c>
     </row>
     <row r="647" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A647" s="2">
+      <c r="A647" s="6">
         <v>45419</v>
       </c>
       <c r="B647" t="s">
         <v>464</v>
       </c>
-      <c r="C647" t="s">
-        <v>467</v>
+      <c r="C647" s="9">
+        <v>0.74305555555555547</v>
       </c>
       <c r="D647" t="s">
         <v>453</v>
@@ -14817,15 +14814,15 @@
         <v>403</v>
       </c>
       <c r="F647" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="648" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A648" s="2">
+      <c r="A648" s="6">
         <v>45419</v>
       </c>
-      <c r="B648" t="s">
-        <v>467</v>
+      <c r="B648" s="9">
+        <v>0.74305555555555547</v>
       </c>
       <c r="C648" t="s">
         <v>247</v>
@@ -14848,7 +14845,7 @@
         <v>7</v>
       </c>
       <c r="C649" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D649" t="s">
         <v>453</v>
@@ -14865,10 +14862,10 @@
         <v>45420</v>
       </c>
       <c r="B650" t="s">
+        <v>468</v>
+      </c>
+      <c r="C650" t="s">
         <v>469</v>
-      </c>
-      <c r="C650" t="s">
-        <v>470</v>
       </c>
       <c r="D650" t="s">
         <v>453</v>
@@ -14900,7 +14897,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="652" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A652" s="2">
         <v>45421</v>
       </c>
@@ -14928,7 +14925,7 @@
         <v>7</v>
       </c>
       <c r="C653" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D653" t="s">
         <v>453</v>
@@ -14957,10 +14954,10 @@
         <v>403</v>
       </c>
       <c r="F654" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="655" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="655" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A655" s="2">
         <v>45422</v>
       </c>
@@ -14968,7 +14965,7 @@
         <v>95</v>
       </c>
       <c r="C655" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D655" t="s">
         <v>453</v>
@@ -14980,12 +14977,12 @@
         <v>466</v>
       </c>
     </row>
-    <row r="656" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A656" s="2">
         <v>45422</v>
       </c>
       <c r="B656" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C656" t="s">
         <v>78</v>
@@ -15017,24 +15014,24 @@
         <v>403</v>
       </c>
       <c r="F657" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="658" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="658" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A658" s="2">
         <v>45423</v>
       </c>
       <c r="B658" t="s">
+        <v>474</v>
+      </c>
+      <c r="C658" t="s">
         <v>475</v>
       </c>
-      <c r="C658" t="s">
+      <c r="D658" t="s">
         <v>476</v>
       </c>
-      <c r="D658" t="s">
+      <c r="E658" t="s">
         <v>477</v>
-      </c>
-      <c r="E658" t="s">
-        <v>478</v>
       </c>
       <c r="F658" t="s">
         <v>399</v>
@@ -15061,13 +15058,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F659" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="PF"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:F659" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/output.xlsx
+++ b/output.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\N9635226\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C737823-5ABE-48AC-BF7B-9C75726E0070}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{689DCB96-F316-45A2-AF73-ABE274C4EDAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$659</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$681</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3283" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3418" uniqueCount="500">
   <si>
     <t>Date</t>
   </si>
@@ -1474,6 +1474,70 @@
   <si>
     <t>Leveling</t>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>17:05:00</t>
+  </si>
+  <si>
+    <t>09:59:00</t>
+  </si>
+  <si>
+    <t>ROV survey</t>
+  </si>
+  <si>
+    <t>20:03:00</t>
+  </si>
+  <si>
+    <t>20:24:00</t>
+  </si>
+  <si>
+    <t>Riser</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ERWN</t>
+  </si>
+  <si>
+    <t>Scaffoldings</t>
+  </si>
+  <si>
+    <t>Riser</t>
+  </si>
+  <si>
+    <t>23:06:00</t>
+  </si>
+  <si>
+    <t>Riser protector</t>
+  </si>
+  <si>
+    <t>13:43:00</t>
+  </si>
+  <si>
+    <t>04:40:00</t>
+  </si>
+  <si>
+    <t>USBL(DP)</t>
+  </si>
+  <si>
+    <t>02:42:00</t>
+  </si>
+  <si>
+    <t>03:55:00</t>
+  </si>
+  <si>
+    <t>07:15:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DAPLD </t>
+  </si>
+  <si>
+    <t>12:03:00</t>
+  </si>
+  <si>
+    <t>07:45:00</t>
+  </si>
+  <si>
+    <t>22:36:00</t>
   </si>
 </sst>
 </file>
@@ -1869,10 +1933,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I659"/>
+  <dimension ref="A1:I686"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A641" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B643" sqref="B643"/>
+    <sheetView tabSelected="1" topLeftCell="A626" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="C632" sqref="C632"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -14459,107 +14523,107 @@
     </row>
     <row r="630" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A630" s="2">
-        <v>45413</v>
+        <v>45406</v>
       </c>
       <c r="B630" t="s">
-        <v>7</v>
+        <v>274</v>
       </c>
       <c r="C630" t="s">
-        <v>247</v>
+        <v>276</v>
       </c>
       <c r="D630" t="s">
-        <v>453</v>
+        <v>485</v>
       </c>
       <c r="E630" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="F630" t="s">
-        <v>412</v>
+        <v>481</v>
       </c>
     </row>
     <row r="631" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A631" s="2">
-        <v>45414</v>
+        <v>45406</v>
       </c>
       <c r="B631" t="s">
-        <v>7</v>
+        <v>276</v>
       </c>
       <c r="C631" t="s">
         <v>247</v>
       </c>
       <c r="D631" t="s">
-        <v>453</v>
+        <v>485</v>
       </c>
       <c r="E631" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="F631" t="s">
-        <v>412</v>
+        <v>486</v>
       </c>
     </row>
     <row r="632" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A632" s="2">
-        <v>45415</v>
+        <v>45407</v>
       </c>
       <c r="B632" t="s">
         <v>7</v>
       </c>
       <c r="C632" t="s">
-        <v>247</v>
+        <v>86</v>
       </c>
       <c r="D632" t="s">
-        <v>453</v>
+        <v>485</v>
       </c>
       <c r="E632" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="F632" t="s">
-        <v>412</v>
+        <v>486</v>
       </c>
     </row>
     <row r="633" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A633" s="2">
-        <v>45415</v>
+        <v>45407</v>
       </c>
       <c r="B633" t="s">
-        <v>454</v>
+        <v>52</v>
       </c>
       <c r="C633" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="D633" t="s">
-        <v>453</v>
+        <v>485</v>
       </c>
       <c r="E633" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="F633" t="s">
-        <v>478</v>
+        <v>487</v>
       </c>
     </row>
     <row r="634" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A634" s="2">
-        <v>45415</v>
+        <v>45408</v>
       </c>
       <c r="B634" t="s">
-        <v>294</v>
+        <v>7</v>
       </c>
       <c r="C634" t="s">
-        <v>455</v>
+        <v>488</v>
       </c>
       <c r="D634" t="s">
-        <v>453</v>
+        <v>485</v>
       </c>
       <c r="E634" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="F634" t="s">
-        <v>478</v>
+        <v>399</v>
       </c>
     </row>
     <row r="635" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A635" s="2">
-        <v>45416</v>
+        <v>45408</v>
       </c>
       <c r="B635" t="s">
         <v>7</v>
@@ -14568,164 +14632,164 @@
         <v>247</v>
       </c>
       <c r="D635" t="s">
-        <v>453</v>
+        <v>485</v>
       </c>
       <c r="E635" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="F635" t="s">
-        <v>412</v>
+        <v>487</v>
       </c>
     </row>
     <row r="636" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A636" s="2">
-        <v>45416</v>
+        <v>45408</v>
       </c>
       <c r="B636" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="C636" t="s">
-        <v>457</v>
+        <v>87</v>
       </c>
       <c r="D636" t="s">
-        <v>453</v>
+        <v>485</v>
       </c>
       <c r="E636" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="F636" t="s">
-        <v>458</v>
+        <v>489</v>
       </c>
     </row>
     <row r="637" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A637" s="2">
-        <v>45417</v>
+        <v>45409</v>
       </c>
       <c r="B637" t="s">
         <v>7</v>
       </c>
       <c r="C637" t="s">
-        <v>169</v>
+        <v>490</v>
       </c>
       <c r="D637" t="s">
-        <v>453</v>
+        <v>485</v>
       </c>
       <c r="E637" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="F637" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
     </row>
     <row r="638" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A638" s="2">
-        <v>45417</v>
+        <v>45409</v>
       </c>
       <c r="B638" t="s">
-        <v>169</v>
+        <v>7</v>
       </c>
       <c r="C638" t="s">
-        <v>350</v>
+        <v>34</v>
       </c>
       <c r="D638" t="s">
-        <v>453</v>
+        <v>485</v>
       </c>
       <c r="E638" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="F638" t="s">
-        <v>478</v>
+        <v>487</v>
       </c>
     </row>
     <row r="639" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A639" s="2">
-        <v>45417</v>
+        <v>45409</v>
       </c>
       <c r="B639" t="s">
-        <v>313</v>
+        <v>41</v>
       </c>
       <c r="C639" t="s">
-        <v>459</v>
+        <v>491</v>
       </c>
       <c r="D639" t="s">
-        <v>453</v>
+        <v>485</v>
       </c>
       <c r="E639" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F639" t="s">
-        <v>466</v>
+        <v>487</v>
       </c>
     </row>
     <row r="640" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A640" s="2">
-        <v>45417</v>
+        <v>45409</v>
       </c>
       <c r="B640" t="s">
-        <v>460</v>
+        <v>34</v>
       </c>
       <c r="C640" t="s">
         <v>247</v>
       </c>
       <c r="D640" t="s">
-        <v>453</v>
+        <v>485</v>
       </c>
       <c r="E640" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="F640" t="s">
-        <v>414</v>
+        <v>492</v>
       </c>
     </row>
     <row r="641" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A641" s="2">
-        <v>45418</v>
+        <v>45410</v>
       </c>
       <c r="B641" t="s">
         <v>7</v>
       </c>
       <c r="C641" t="s">
-        <v>274</v>
+        <v>493</v>
       </c>
       <c r="D641" t="s">
-        <v>453</v>
+        <v>485</v>
       </c>
       <c r="E641" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="F641" t="s">
-        <v>414</v>
+        <v>492</v>
       </c>
     </row>
     <row r="642" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A642" s="2">
-        <v>45418</v>
+        <v>45410</v>
       </c>
       <c r="B642" t="s">
-        <v>281</v>
+        <v>494</v>
       </c>
       <c r="C642" t="s">
-        <v>461</v>
+        <v>495</v>
       </c>
       <c r="D642" t="s">
-        <v>453</v>
+        <v>496</v>
       </c>
       <c r="E642" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="F642" t="s">
-        <v>405</v>
+        <v>481</v>
       </c>
     </row>
     <row r="643" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A643" s="2">
-        <v>45418</v>
+        <v>45410</v>
       </c>
       <c r="B643" t="s">
-        <v>461</v>
+        <v>495</v>
       </c>
       <c r="C643" t="s">
-        <v>247</v>
+        <v>112</v>
       </c>
       <c r="D643" t="s">
         <v>453</v>
@@ -14734,18 +14798,18 @@
         <v>403</v>
       </c>
       <c r="F643" t="s">
-        <v>415</v>
+        <v>481</v>
       </c>
     </row>
     <row r="644" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A644" s="6">
-        <v>45419</v>
+      <c r="A644" s="2">
+        <v>45410</v>
       </c>
       <c r="B644" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C644" t="s">
-        <v>462</v>
+        <v>20</v>
       </c>
       <c r="D644" t="s">
         <v>453</v>
@@ -14754,18 +14818,18 @@
         <v>403</v>
       </c>
       <c r="F644" t="s">
-        <v>415</v>
+        <v>467</v>
       </c>
     </row>
     <row r="645" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A645" s="6">
-        <v>45419</v>
+      <c r="A645" s="2">
+        <v>45410</v>
       </c>
       <c r="B645" t="s">
-        <v>463</v>
+        <v>20</v>
       </c>
       <c r="C645" t="s">
-        <v>464</v>
+        <v>247</v>
       </c>
       <c r="D645" t="s">
         <v>453</v>
@@ -14774,38 +14838,38 @@
         <v>403</v>
       </c>
       <c r="F645" t="s">
-        <v>425</v>
+        <v>411</v>
       </c>
     </row>
     <row r="646" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A646" s="6">
-        <v>45419</v>
+      <c r="A646" s="2">
+        <v>45411</v>
       </c>
       <c r="B646" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="C646" t="s">
-        <v>465</v>
+        <v>497</v>
       </c>
       <c r="D646" t="s">
         <v>453</v>
       </c>
       <c r="E646" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="F646" t="s">
-        <v>466</v>
+        <v>399</v>
       </c>
     </row>
     <row r="647" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A647" s="6">
-        <v>45419</v>
+      <c r="A647" s="2">
+        <v>45411</v>
       </c>
       <c r="B647" t="s">
-        <v>464</v>
-      </c>
-      <c r="C647" s="9">
-        <v>0.74305555555555547</v>
+        <v>7</v>
+      </c>
+      <c r="C647" t="s">
+        <v>498</v>
       </c>
       <c r="D647" t="s">
         <v>453</v>
@@ -14814,15 +14878,15 @@
         <v>403</v>
       </c>
       <c r="F647" t="s">
-        <v>467</v>
+        <v>411</v>
       </c>
     </row>
     <row r="648" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A648" s="6">
-        <v>45419</v>
-      </c>
-      <c r="B648" s="9">
-        <v>0.74305555555555547</v>
+      <c r="A648" s="2">
+        <v>45411</v>
+      </c>
+      <c r="B648" t="s">
+        <v>52</v>
       </c>
       <c r="C648" t="s">
         <v>247</v>
@@ -14834,38 +14898,38 @@
         <v>403</v>
       </c>
       <c r="F648" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
     <row r="649" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A649" s="2">
-        <v>45420</v>
+        <v>45412</v>
       </c>
       <c r="B649" t="s">
         <v>7</v>
       </c>
       <c r="C649" t="s">
-        <v>468</v>
+        <v>499</v>
       </c>
       <c r="D649" t="s">
         <v>453</v>
       </c>
       <c r="E649" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="F649" t="s">
-        <v>416</v>
+        <v>399</v>
       </c>
     </row>
     <row r="650" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A650" s="2">
-        <v>45420</v>
+        <v>45412</v>
       </c>
       <c r="B650" t="s">
-        <v>468</v>
+        <v>7</v>
       </c>
       <c r="C650" t="s">
-        <v>469</v>
+        <v>247</v>
       </c>
       <c r="D650" t="s">
         <v>453</v>
@@ -14874,58 +14938,58 @@
         <v>403</v>
       </c>
       <c r="F650" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
     </row>
     <row r="651" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A651" s="2">
-        <v>45421</v>
+        <v>45412</v>
       </c>
       <c r="B651" t="s">
-        <v>7</v>
+        <v>263</v>
       </c>
       <c r="C651" t="s">
-        <v>66</v>
+        <v>215</v>
       </c>
       <c r="D651" t="s">
         <v>453</v>
       </c>
       <c r="E651" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="F651" t="s">
-        <v>417</v>
+        <v>458</v>
       </c>
     </row>
     <row r="652" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A652" s="2">
-        <v>45421</v>
+        <v>45413</v>
       </c>
       <c r="B652" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="C652" t="s">
-        <v>107</v>
+        <v>247</v>
       </c>
       <c r="D652" t="s">
         <v>453</v>
       </c>
       <c r="E652" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F652" t="s">
-        <v>466</v>
+        <v>412</v>
       </c>
     </row>
     <row r="653" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A653" s="2">
-        <v>45422</v>
+        <v>45414</v>
       </c>
       <c r="B653" t="s">
         <v>7</v>
       </c>
       <c r="C653" t="s">
-        <v>470</v>
+        <v>247</v>
       </c>
       <c r="D653" t="s">
         <v>453</v>
@@ -14934,15 +14998,15 @@
         <v>403</v>
       </c>
       <c r="F653" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
     </row>
     <row r="654" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A654" s="2">
-        <v>45422</v>
+        <v>45415</v>
       </c>
       <c r="B654" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C654" t="s">
         <v>247</v>
@@ -14954,58 +15018,58 @@
         <v>403</v>
       </c>
       <c r="F654" t="s">
-        <v>471</v>
+        <v>412</v>
       </c>
     </row>
     <row r="655" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A655" s="2">
-        <v>45422</v>
+        <v>45415</v>
       </c>
       <c r="B655" t="s">
-        <v>95</v>
+        <v>454</v>
       </c>
       <c r="C655" t="s">
-        <v>472</v>
+        <v>263</v>
       </c>
       <c r="D655" t="s">
         <v>453</v>
       </c>
       <c r="E655" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F655" t="s">
-        <v>466</v>
+        <v>478</v>
       </c>
     </row>
     <row r="656" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A656" s="2">
-        <v>45422</v>
+        <v>45415</v>
       </c>
       <c r="B656" t="s">
-        <v>473</v>
+        <v>294</v>
       </c>
       <c r="C656" t="s">
-        <v>78</v>
+        <v>455</v>
       </c>
       <c r="D656" t="s">
         <v>453</v>
       </c>
       <c r="E656" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="F656" t="s">
-        <v>418</v>
+        <v>478</v>
       </c>
     </row>
     <row r="657" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A657" s="2">
-        <v>45423</v>
+        <v>45416</v>
       </c>
       <c r="B657" t="s">
         <v>7</v>
       </c>
       <c r="C657" t="s">
-        <v>111</v>
+        <v>247</v>
       </c>
       <c r="D657" t="s">
         <v>453</v>
@@ -15014,38 +15078,38 @@
         <v>403</v>
       </c>
       <c r="F657" t="s">
-        <v>471</v>
+        <v>412</v>
       </c>
     </row>
     <row r="658" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A658" s="2">
-        <v>45423</v>
+        <v>45416</v>
       </c>
       <c r="B658" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="C658" t="s">
-        <v>475</v>
+        <v>457</v>
       </c>
       <c r="D658" t="s">
-        <v>476</v>
+        <v>453</v>
       </c>
       <c r="E658" t="s">
-        <v>477</v>
+        <v>406</v>
       </c>
       <c r="F658" t="s">
-        <v>399</v>
+        <v>458</v>
       </c>
     </row>
     <row r="659" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A659" s="2">
-        <v>45423</v>
+        <v>45417</v>
       </c>
       <c r="B659" t="s">
-        <v>111</v>
+        <v>7</v>
       </c>
       <c r="C659" t="s">
-        <v>247</v>
+        <v>169</v>
       </c>
       <c r="D659" t="s">
         <v>453</v>
@@ -15054,11 +15118,551 @@
         <v>403</v>
       </c>
       <c r="F659" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="660" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A660" s="2">
+        <v>45417</v>
+      </c>
+      <c r="B660" t="s">
+        <v>169</v>
+      </c>
+      <c r="C660" t="s">
+        <v>350</v>
+      </c>
+      <c r="D660" t="s">
+        <v>453</v>
+      </c>
+      <c r="E660" t="s">
+        <v>403</v>
+      </c>
+      <c r="F660" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="661" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A661" s="2">
+        <v>45417</v>
+      </c>
+      <c r="B661" t="s">
+        <v>313</v>
+      </c>
+      <c r="C661" t="s">
+        <v>459</v>
+      </c>
+      <c r="D661" t="s">
+        <v>453</v>
+      </c>
+      <c r="E661" t="s">
+        <v>404</v>
+      </c>
+      <c r="F661" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="662" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A662" s="2">
+        <v>45417</v>
+      </c>
+      <c r="B662" t="s">
+        <v>460</v>
+      </c>
+      <c r="C662" t="s">
+        <v>247</v>
+      </c>
+      <c r="D662" t="s">
+        <v>453</v>
+      </c>
+      <c r="E662" t="s">
+        <v>403</v>
+      </c>
+      <c r="F662" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="663" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A663" s="2">
+        <v>45418</v>
+      </c>
+      <c r="B663" t="s">
+        <v>7</v>
+      </c>
+      <c r="C663" t="s">
+        <v>274</v>
+      </c>
+      <c r="D663" t="s">
+        <v>453</v>
+      </c>
+      <c r="E663" t="s">
+        <v>403</v>
+      </c>
+      <c r="F663" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="664" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A664" s="2">
+        <v>45418</v>
+      </c>
+      <c r="B664" t="s">
+        <v>281</v>
+      </c>
+      <c r="C664" t="s">
+        <v>461</v>
+      </c>
+      <c r="D664" t="s">
+        <v>453</v>
+      </c>
+      <c r="E664" t="s">
+        <v>403</v>
+      </c>
+      <c r="F664" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="665" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A665" s="2">
+        <v>45418</v>
+      </c>
+      <c r="B665" t="s">
+        <v>461</v>
+      </c>
+      <c r="C665" t="s">
+        <v>247</v>
+      </c>
+      <c r="D665" t="s">
+        <v>453</v>
+      </c>
+      <c r="E665" t="s">
+        <v>403</v>
+      </c>
+      <c r="F665" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="666" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A666" s="6">
+        <v>45419</v>
+      </c>
+      <c r="B666" t="s">
+        <v>7</v>
+      </c>
+      <c r="C666" t="s">
+        <v>462</v>
+      </c>
+      <c r="D666" t="s">
+        <v>453</v>
+      </c>
+      <c r="E666" t="s">
+        <v>403</v>
+      </c>
+      <c r="F666" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="667" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A667" s="6">
+        <v>45419</v>
+      </c>
+      <c r="B667" t="s">
+        <v>463</v>
+      </c>
+      <c r="C667" t="s">
+        <v>464</v>
+      </c>
+      <c r="D667" t="s">
+        <v>453</v>
+      </c>
+      <c r="E667" t="s">
+        <v>403</v>
+      </c>
+      <c r="F667" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="668" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A668" s="6">
+        <v>45419</v>
+      </c>
+      <c r="B668" t="s">
+        <v>28</v>
+      </c>
+      <c r="C668" t="s">
+        <v>465</v>
+      </c>
+      <c r="D668" t="s">
+        <v>453</v>
+      </c>
+      <c r="E668" t="s">
+        <v>404</v>
+      </c>
+      <c r="F668" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="669" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A669" s="6">
+        <v>45419</v>
+      </c>
+      <c r="B669" t="s">
+        <v>464</v>
+      </c>
+      <c r="C669" s="9">
+        <v>0.74305555555555547</v>
+      </c>
+      <c r="D669" t="s">
+        <v>453</v>
+      </c>
+      <c r="E669" t="s">
+        <v>403</v>
+      </c>
+      <c r="F669" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="670" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A670" s="6">
+        <v>45419</v>
+      </c>
+      <c r="B670" s="9">
+        <v>0.74305555555555547</v>
+      </c>
+      <c r="C670" t="s">
+        <v>247</v>
+      </c>
+      <c r="D670" t="s">
+        <v>453</v>
+      </c>
+      <c r="E670" t="s">
+        <v>403</v>
+      </c>
+      <c r="F670" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="671" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A671" s="2">
+        <v>45420</v>
+      </c>
+      <c r="B671" t="s">
+        <v>7</v>
+      </c>
+      <c r="C671" t="s">
+        <v>468</v>
+      </c>
+      <c r="D671" t="s">
+        <v>453</v>
+      </c>
+      <c r="E671" t="s">
+        <v>403</v>
+      </c>
+      <c r="F671" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="672" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A672" s="2">
+        <v>45420</v>
+      </c>
+      <c r="B672" t="s">
+        <v>468</v>
+      </c>
+      <c r="C672" t="s">
+        <v>469</v>
+      </c>
+      <c r="D672" t="s">
+        <v>453</v>
+      </c>
+      <c r="E672" t="s">
+        <v>403</v>
+      </c>
+      <c r="F672" t="s">
         <v>417</v>
       </c>
     </row>
+    <row r="673" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A673" s="2">
+        <v>45421</v>
+      </c>
+      <c r="B673" t="s">
+        <v>7</v>
+      </c>
+      <c r="C673" t="s">
+        <v>66</v>
+      </c>
+      <c r="D673" t="s">
+        <v>453</v>
+      </c>
+      <c r="E673" t="s">
+        <v>403</v>
+      </c>
+      <c r="F673" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="674" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A674" s="2">
+        <v>45421</v>
+      </c>
+      <c r="B674" t="s">
+        <v>31</v>
+      </c>
+      <c r="C674" t="s">
+        <v>107</v>
+      </c>
+      <c r="D674" t="s">
+        <v>453</v>
+      </c>
+      <c r="E674" t="s">
+        <v>404</v>
+      </c>
+      <c r="F674" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="675" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A675" s="2">
+        <v>45422</v>
+      </c>
+      <c r="B675" t="s">
+        <v>7</v>
+      </c>
+      <c r="C675" t="s">
+        <v>470</v>
+      </c>
+      <c r="D675" t="s">
+        <v>453</v>
+      </c>
+      <c r="E675" t="s">
+        <v>403</v>
+      </c>
+      <c r="F675" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="676" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A676" s="2">
+        <v>45422</v>
+      </c>
+      <c r="B676" t="s">
+        <v>8</v>
+      </c>
+      <c r="C676" t="s">
+        <v>247</v>
+      </c>
+      <c r="D676" t="s">
+        <v>453</v>
+      </c>
+      <c r="E676" t="s">
+        <v>403</v>
+      </c>
+      <c r="F676" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="677" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A677" s="2">
+        <v>45422</v>
+      </c>
+      <c r="B677" t="s">
+        <v>95</v>
+      </c>
+      <c r="C677" t="s">
+        <v>472</v>
+      </c>
+      <c r="D677" t="s">
+        <v>453</v>
+      </c>
+      <c r="E677" t="s">
+        <v>404</v>
+      </c>
+      <c r="F677" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="678" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A678" s="2">
+        <v>45422</v>
+      </c>
+      <c r="B678" t="s">
+        <v>473</v>
+      </c>
+      <c r="C678" t="s">
+        <v>78</v>
+      </c>
+      <c r="D678" t="s">
+        <v>453</v>
+      </c>
+      <c r="E678" t="s">
+        <v>409</v>
+      </c>
+      <c r="F678" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="679" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A679" s="2">
+        <v>45423</v>
+      </c>
+      <c r="B679" t="s">
+        <v>7</v>
+      </c>
+      <c r="C679" t="s">
+        <v>111</v>
+      </c>
+      <c r="D679" t="s">
+        <v>453</v>
+      </c>
+      <c r="E679" t="s">
+        <v>403</v>
+      </c>
+      <c r="F679" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="680" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A680" s="2">
+        <v>45423</v>
+      </c>
+      <c r="B680" t="s">
+        <v>474</v>
+      </c>
+      <c r="C680" t="s">
+        <v>475</v>
+      </c>
+      <c r="D680" t="s">
+        <v>476</v>
+      </c>
+      <c r="E680" t="s">
+        <v>477</v>
+      </c>
+      <c r="F680" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="681" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A681" s="2">
+        <v>45423</v>
+      </c>
+      <c r="B681" t="s">
+        <v>111</v>
+      </c>
+      <c r="C681" t="s">
+        <v>247</v>
+      </c>
+      <c r="D681" t="s">
+        <v>453</v>
+      </c>
+      <c r="E681" t="s">
+        <v>403</v>
+      </c>
+      <c r="F681" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="682" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A682" s="2">
+        <v>45424</v>
+      </c>
+      <c r="B682" t="s">
+        <v>7</v>
+      </c>
+      <c r="C682" t="s">
+        <v>479</v>
+      </c>
+      <c r="D682" t="s">
+        <v>453</v>
+      </c>
+      <c r="E682" t="s">
+        <v>403</v>
+      </c>
+      <c r="F682" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="683" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A683" s="2">
+        <v>45424</v>
+      </c>
+      <c r="B683" t="s">
+        <v>480</v>
+      </c>
+      <c r="C683" t="s">
+        <v>263</v>
+      </c>
+      <c r="D683" t="s">
+        <v>453</v>
+      </c>
+      <c r="E683" t="s">
+        <v>403</v>
+      </c>
+      <c r="F683" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="684" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A684" s="2">
+        <v>45424</v>
+      </c>
+      <c r="B684" t="s">
+        <v>479</v>
+      </c>
+      <c r="C684" t="s">
+        <v>482</v>
+      </c>
+      <c r="D684" t="s">
+        <v>453</v>
+      </c>
+      <c r="E684" t="s">
+        <v>407</v>
+      </c>
+      <c r="F684" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="685" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A685" s="2">
+        <v>45424</v>
+      </c>
+      <c r="B685" t="s">
+        <v>482</v>
+      </c>
+      <c r="C685" t="s">
+        <v>483</v>
+      </c>
+      <c r="D685" t="s">
+        <v>453</v>
+      </c>
+      <c r="E685" t="s">
+        <v>409</v>
+      </c>
+      <c r="F685" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="686" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A686" s="2">
+        <v>45424</v>
+      </c>
+      <c r="B686" t="s">
+        <v>483</v>
+      </c>
+      <c r="C686" t="s">
+        <v>247</v>
+      </c>
+      <c r="D686" t="s">
+        <v>485</v>
+      </c>
+      <c r="E686" t="s">
+        <v>409</v>
+      </c>
+      <c r="F686" t="s">
+        <v>486</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F659" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:F681" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/output.xlsx
+++ b/output.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\N9635226\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{689DCB96-F316-45A2-AF73-ABE274C4EDAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18300001-AD4E-4163-A612-4B41D16F1BCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$681</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$686</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3418" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3418" uniqueCount="499">
   <si>
     <t>Date</t>
   </si>
@@ -1464,9 +1464,6 @@
   </si>
   <si>
     <t>09:36:00</t>
-  </si>
-  <si>
-    <t>DAPLD</t>
   </si>
   <si>
     <t>Additional Work</t>
@@ -1935,8 +1932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I686"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A626" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="C632" sqref="C632"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="D688" sqref="D688"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -2583,7 +2580,7 @@
         <v>403</v>
       </c>
       <c r="F32" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
@@ -2623,7 +2620,7 @@
         <v>403</v>
       </c>
       <c r="F34" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
@@ -3723,7 +3720,7 @@
         <v>403</v>
       </c>
       <c r="F89" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
@@ -3803,7 +3800,7 @@
         <v>403</v>
       </c>
       <c r="F93" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
@@ -4583,7 +4580,7 @@
         <v>403</v>
       </c>
       <c r="F132" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
@@ -4603,7 +4600,7 @@
         <v>403</v>
       </c>
       <c r="F133" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
@@ -6803,7 +6800,7 @@
         <v>403</v>
       </c>
       <c r="F243" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.2">
@@ -9474,7 +9471,7 @@
         <v>403</v>
       </c>
       <c r="F377" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.2">
@@ -14532,13 +14529,13 @@
         <v>276</v>
       </c>
       <c r="D630" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E630" t="s">
         <v>409</v>
       </c>
       <c r="F630" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="631" spans="1:6" x14ac:dyDescent="0.2">
@@ -14552,13 +14549,13 @@
         <v>247</v>
       </c>
       <c r="D631" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E631" t="s">
         <v>409</v>
       </c>
       <c r="F631" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="632" spans="1:6" x14ac:dyDescent="0.2">
@@ -14572,13 +14569,13 @@
         <v>86</v>
       </c>
       <c r="D632" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E632" t="s">
         <v>409</v>
       </c>
       <c r="F632" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="633" spans="1:6" x14ac:dyDescent="0.2">
@@ -14592,13 +14589,13 @@
         <v>247</v>
       </c>
       <c r="D633" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E633" t="s">
         <v>409</v>
       </c>
       <c r="F633" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="634" spans="1:6" x14ac:dyDescent="0.2">
@@ -14609,10 +14606,10 @@
         <v>7</v>
       </c>
       <c r="C634" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D634" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E634" t="s">
         <v>399</v>
@@ -14632,13 +14629,13 @@
         <v>247</v>
       </c>
       <c r="D635" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E635" t="s">
         <v>409</v>
       </c>
       <c r="F635" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="636" spans="1:6" x14ac:dyDescent="0.2">
@@ -14652,13 +14649,13 @@
         <v>87</v>
       </c>
       <c r="D636" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E636" t="s">
         <v>409</v>
       </c>
       <c r="F636" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="637" spans="1:6" x14ac:dyDescent="0.2">
@@ -14669,10 +14666,10 @@
         <v>7</v>
       </c>
       <c r="C637" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D637" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E637" t="s">
         <v>399</v>
@@ -14692,13 +14689,13 @@
         <v>34</v>
       </c>
       <c r="D638" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E638" t="s">
         <v>409</v>
       </c>
       <c r="F638" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="639" spans="1:6" x14ac:dyDescent="0.2">
@@ -14709,16 +14706,16 @@
         <v>41</v>
       </c>
       <c r="C639" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D639" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E639" t="s">
         <v>403</v>
       </c>
       <c r="F639" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="640" spans="1:6" x14ac:dyDescent="0.2">
@@ -14732,13 +14729,13 @@
         <v>247</v>
       </c>
       <c r="D640" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E640" t="s">
         <v>405</v>
       </c>
       <c r="F640" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="641" spans="1:6" x14ac:dyDescent="0.2">
@@ -14749,16 +14746,16 @@
         <v>7</v>
       </c>
       <c r="C641" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D641" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E641" t="s">
         <v>405</v>
       </c>
       <c r="F641" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="642" spans="1:6" x14ac:dyDescent="0.2">
@@ -14766,19 +14763,19 @@
         <v>45410</v>
       </c>
       <c r="B642" t="s">
+        <v>493</v>
+      </c>
+      <c r="C642" t="s">
         <v>494</v>
       </c>
-      <c r="C642" t="s">
+      <c r="D642" t="s">
         <v>495</v>
-      </c>
-      <c r="D642" t="s">
-        <v>496</v>
       </c>
       <c r="E642" t="s">
         <v>409</v>
       </c>
       <c r="F642" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="643" spans="1:6" x14ac:dyDescent="0.2">
@@ -14786,7 +14783,7 @@
         <v>45410</v>
       </c>
       <c r="B643" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C643" t="s">
         <v>112</v>
@@ -14798,7 +14795,7 @@
         <v>403</v>
       </c>
       <c r="F643" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="644" spans="1:6" x14ac:dyDescent="0.2">
@@ -14849,7 +14846,7 @@
         <v>7</v>
       </c>
       <c r="C646" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D646" t="s">
         <v>453</v>
@@ -14869,7 +14866,7 @@
         <v>7</v>
       </c>
       <c r="C647" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D647" t="s">
         <v>453</v>
@@ -14909,7 +14906,7 @@
         <v>7</v>
       </c>
       <c r="C649" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D649" t="s">
         <v>453</v>
@@ -15038,7 +15035,7 @@
         <v>403</v>
       </c>
       <c r="F655" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="656" spans="1:6" x14ac:dyDescent="0.2">
@@ -15058,7 +15055,7 @@
         <v>403</v>
       </c>
       <c r="F656" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="657" spans="1:6" x14ac:dyDescent="0.2">
@@ -15138,7 +15135,7 @@
         <v>403</v>
       </c>
       <c r="F660" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="661" spans="1:6" x14ac:dyDescent="0.2">
@@ -15532,10 +15529,10 @@
         <v>475</v>
       </c>
       <c r="D680" t="s">
+        <v>495</v>
+      </c>
+      <c r="E680" t="s">
         <v>476</v>
-      </c>
-      <c r="E680" t="s">
-        <v>477</v>
       </c>
       <c r="F680" t="s">
         <v>399</v>
@@ -15569,7 +15566,7 @@
         <v>7</v>
       </c>
       <c r="C682" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D682" t="s">
         <v>453</v>
@@ -15586,7 +15583,7 @@
         <v>45424</v>
       </c>
       <c r="B683" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C683" t="s">
         <v>263</v>
@@ -15598,7 +15595,7 @@
         <v>403</v>
       </c>
       <c r="F683" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="684" spans="1:6" x14ac:dyDescent="0.2">
@@ -15606,10 +15603,10 @@
         <v>45424</v>
       </c>
       <c r="B684" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C684" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D684" t="s">
         <v>453</v>
@@ -15626,19 +15623,19 @@
         <v>45424</v>
       </c>
       <c r="B685" t="s">
+        <v>481</v>
+      </c>
+      <c r="C685" t="s">
         <v>482</v>
       </c>
-      <c r="C685" t="s">
-        <v>483</v>
-      </c>
       <c r="D685" t="s">
-        <v>453</v>
+        <v>484</v>
       </c>
       <c r="E685" t="s">
         <v>409</v>
       </c>
       <c r="F685" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="686" spans="1:6" x14ac:dyDescent="0.2">
@@ -15646,23 +15643,23 @@
         <v>45424</v>
       </c>
       <c r="B686" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C686" t="s">
         <v>247</v>
       </c>
       <c r="D686" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E686" t="s">
         <v>409</v>
       </c>
       <c r="F686" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F681" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:F686" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/output.xlsx
+++ b/output.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\N9635226\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{01BF4791-8D1C-4A20-B310-6E4D98874D20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE6CBC04-C452-4BAE-B4E2-2BC70AB26167}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="1605" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="181">
   <si>
     <t>Date</t>
   </si>
@@ -280,9 +280,6 @@
     <t>14:16:00</t>
   </si>
   <si>
-    <t>17:50</t>
-  </si>
-  <si>
     <t>Topside</t>
   </si>
   <si>
@@ -413,9 +410,6 @@
   </si>
   <si>
     <t>20:23:00</t>
-  </si>
-  <si>
-    <t>23:25</t>
   </si>
   <si>
     <t>00:43:00</t>
@@ -635,7 +629,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -644,6 +638,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -948,8 +943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A148" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F156" sqref="F156"/>
+    <sheetView tabSelected="1" topLeftCell="A133" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B115" sqref="B115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1934,7 +1929,7 @@
         <v>69</v>
       </c>
       <c r="F49" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
@@ -2224,8 +2219,8 @@
       <c r="B64" t="s">
         <v>17</v>
       </c>
-      <c r="C64" t="s">
-        <v>86</v>
+      <c r="C64" s="4">
+        <v>0.74305555555555547</v>
       </c>
       <c r="D64" t="s">
         <v>34</v>
@@ -2241,8 +2236,8 @@
       <c r="A65" s="3">
         <v>45419</v>
       </c>
-      <c r="B65" t="s">
-        <v>86</v>
+      <c r="B65" s="4">
+        <v>0.74305555555555547</v>
       </c>
       <c r="C65" t="s">
         <v>11</v>
@@ -2254,7 +2249,7 @@
         <v>23</v>
       </c>
       <c r="F65" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
@@ -2265,7 +2260,7 @@
         <v>13</v>
       </c>
       <c r="C66" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D66" t="s">
         <v>34</v>
@@ -2274,7 +2269,7 @@
         <v>23</v>
       </c>
       <c r="F66" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
@@ -2285,7 +2280,7 @@
         <v>13</v>
       </c>
       <c r="C67" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D67" t="s">
         <v>34</v>
@@ -2302,19 +2297,19 @@
         <v>45420</v>
       </c>
       <c r="B68" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C68" t="s">
+        <v>89</v>
+      </c>
+      <c r="D68" t="s">
+        <v>34</v>
+      </c>
+      <c r="E68" t="s">
+        <v>23</v>
+      </c>
+      <c r="F68" t="s">
         <v>90</v>
-      </c>
-      <c r="D68" t="s">
-        <v>34</v>
-      </c>
-      <c r="E68" t="s">
-        <v>23</v>
-      </c>
-      <c r="F68" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
@@ -2325,7 +2320,7 @@
         <v>13</v>
       </c>
       <c r="C69" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D69" t="s">
         <v>34</v>
@@ -2334,7 +2329,7 @@
         <v>23</v>
       </c>
       <c r="F69" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
@@ -2342,10 +2337,10 @@
         <v>45421</v>
       </c>
       <c r="B70" t="s">
+        <v>91</v>
+      </c>
+      <c r="C70" t="s">
         <v>92</v>
-      </c>
-      <c r="C70" t="s">
-        <v>93</v>
       </c>
       <c r="D70" t="s">
         <v>34</v>
@@ -2362,11 +2357,11 @@
         <v>45421</v>
       </c>
       <c r="B71" t="s">
+        <v>92</v>
+      </c>
+      <c r="C71" t="s">
         <v>93</v>
       </c>
-      <c r="C71" t="s">
-        <v>94</v>
-      </c>
       <c r="D71" t="s">
         <v>34</v>
       </c>
@@ -2374,7 +2369,7 @@
         <v>23</v>
       </c>
       <c r="F71" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
@@ -2382,10 +2377,10 @@
         <v>45421</v>
       </c>
       <c r="B72" t="s">
+        <v>93</v>
+      </c>
+      <c r="C72" t="s">
         <v>94</v>
-      </c>
-      <c r="C72" t="s">
-        <v>95</v>
       </c>
       <c r="D72" t="s">
         <v>34</v>
@@ -2402,11 +2397,11 @@
         <v>45421</v>
       </c>
       <c r="B73" t="s">
+        <v>94</v>
+      </c>
+      <c r="C73" t="s">
         <v>95</v>
       </c>
-      <c r="C73" t="s">
-        <v>96</v>
-      </c>
       <c r="D73" t="s">
         <v>34</v>
       </c>
@@ -2414,7 +2409,7 @@
         <v>23</v>
       </c>
       <c r="F73" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
@@ -2422,7 +2417,7 @@
         <v>45421</v>
       </c>
       <c r="B74" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C74" t="s">
         <v>74</v>
@@ -2445,7 +2440,7 @@
         <v>74</v>
       </c>
       <c r="C75" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D75" t="s">
         <v>34</v>
@@ -2454,7 +2449,7 @@
         <v>23</v>
       </c>
       <c r="F75" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
@@ -2465,7 +2460,7 @@
         <v>13</v>
       </c>
       <c r="C76" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D76" t="s">
         <v>34</v>
@@ -2474,7 +2469,7 @@
         <v>23</v>
       </c>
       <c r="F76" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
@@ -2482,19 +2477,19 @@
         <v>45422</v>
       </c>
       <c r="B77" t="s">
+        <v>98</v>
+      </c>
+      <c r="C77" t="s">
         <v>99</v>
       </c>
-      <c r="C77" t="s">
+      <c r="D77" t="s">
+        <v>34</v>
+      </c>
+      <c r="E77" t="s">
+        <v>23</v>
+      </c>
+      <c r="F77" t="s">
         <v>100</v>
-      </c>
-      <c r="D77" t="s">
-        <v>34</v>
-      </c>
-      <c r="E77" t="s">
-        <v>23</v>
-      </c>
-      <c r="F77" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
@@ -2502,10 +2497,10 @@
         <v>45422</v>
       </c>
       <c r="B78" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C78" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D78" t="s">
         <v>34</v>
@@ -2522,10 +2517,10 @@
         <v>45422</v>
       </c>
       <c r="B79" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C79" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D79" t="s">
         <v>34</v>
@@ -2534,7 +2529,7 @@
         <v>23</v>
       </c>
       <c r="F79" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
@@ -2542,11 +2537,11 @@
         <v>45422</v>
       </c>
       <c r="B80" t="s">
+        <v>101</v>
+      </c>
+      <c r="C80" t="s">
         <v>102</v>
       </c>
-      <c r="C80" t="s">
-        <v>103</v>
-      </c>
       <c r="D80" t="s">
         <v>34</v>
       </c>
@@ -2554,7 +2549,7 @@
         <v>23</v>
       </c>
       <c r="F80" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
@@ -2562,10 +2557,10 @@
         <v>45422</v>
       </c>
       <c r="B81" t="s">
+        <v>102</v>
+      </c>
+      <c r="C81" t="s">
         <v>103</v>
-      </c>
-      <c r="C81" t="s">
-        <v>104</v>
       </c>
       <c r="D81" t="s">
         <v>34</v>
@@ -2582,19 +2577,19 @@
         <v>45422</v>
       </c>
       <c r="B82" t="s">
+        <v>103</v>
+      </c>
+      <c r="C82" t="s">
         <v>104</v>
       </c>
-      <c r="C82" t="s">
+      <c r="D82" t="s">
+        <v>34</v>
+      </c>
+      <c r="E82" t="s">
+        <v>23</v>
+      </c>
+      <c r="F82" t="s">
         <v>105</v>
-      </c>
-      <c r="D82" t="s">
-        <v>34</v>
-      </c>
-      <c r="E82" t="s">
-        <v>23</v>
-      </c>
-      <c r="F82" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
@@ -2602,10 +2597,10 @@
         <v>45422</v>
       </c>
       <c r="B83" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C83" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D83" t="s">
         <v>34</v>
@@ -2614,7 +2609,7 @@
         <v>9</v>
       </c>
       <c r="F83" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
@@ -2622,7 +2617,7 @@
         <v>45422</v>
       </c>
       <c r="B84" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C84" t="s">
         <v>11</v>
@@ -2634,7 +2629,7 @@
         <v>23</v>
       </c>
       <c r="F84" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
@@ -2645,7 +2640,7 @@
         <v>13</v>
       </c>
       <c r="C85" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D85" t="s">
         <v>34</v>
@@ -2654,7 +2649,7 @@
         <v>23</v>
       </c>
       <c r="F85" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
@@ -2662,16 +2657,16 @@
         <v>45423</v>
       </c>
       <c r="B86" t="s">
+        <v>107</v>
+      </c>
+      <c r="C86" t="s">
         <v>108</v>
       </c>
-      <c r="C86" t="s">
+      <c r="D86" t="s">
         <v>109</v>
       </c>
-      <c r="D86" t="s">
+      <c r="E86" t="s">
         <v>110</v>
-      </c>
-      <c r="E86" t="s">
-        <v>111</v>
       </c>
       <c r="F86" t="s">
         <v>18</v>
@@ -2682,10 +2677,10 @@
         <v>45423</v>
       </c>
       <c r="B87" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C87" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D87" t="s">
         <v>34</v>
@@ -2694,7 +2689,7 @@
         <v>23</v>
       </c>
       <c r="F87" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
@@ -2702,7 +2697,7 @@
         <v>45423</v>
       </c>
       <c r="B88" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C88" t="s">
         <v>11</v>
@@ -2714,7 +2709,7 @@
         <v>23</v>
       </c>
       <c r="F88" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
@@ -2725,7 +2720,7 @@
         <v>13</v>
       </c>
       <c r="C89" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D89" t="s">
         <v>34</v>
@@ -2734,7 +2729,7 @@
         <v>23</v>
       </c>
       <c r="F89" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
@@ -2742,10 +2737,10 @@
         <v>45424</v>
       </c>
       <c r="B90" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C90" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D90" t="s">
         <v>34</v>
@@ -2762,10 +2757,10 @@
         <v>45424</v>
       </c>
       <c r="B91" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C91" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D91" t="s">
         <v>34</v>
@@ -2782,11 +2777,11 @@
         <v>45424</v>
       </c>
       <c r="B92" t="s">
+        <v>114</v>
+      </c>
+      <c r="C92" t="s">
         <v>115</v>
       </c>
-      <c r="C92" t="s">
-        <v>116</v>
-      </c>
       <c r="D92" t="s">
         <v>34</v>
       </c>
@@ -2794,7 +2789,7 @@
         <v>23</v>
       </c>
       <c r="F92" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
@@ -2802,10 +2797,10 @@
         <v>45424</v>
       </c>
       <c r="B93" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C93" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D93" t="s">
         <v>34</v>
@@ -2822,10 +2817,10 @@
         <v>45424</v>
       </c>
       <c r="B94" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C94" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D94" t="s">
         <v>34</v>
@@ -2834,7 +2829,7 @@
         <v>23</v>
       </c>
       <c r="F94" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
@@ -2842,7 +2837,7 @@
         <v>45424</v>
       </c>
       <c r="B95" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C95" t="s">
         <v>47</v>
@@ -2865,7 +2860,7 @@
         <v>47</v>
       </c>
       <c r="C96" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D96" t="s">
         <v>34</v>
@@ -2874,7 +2869,7 @@
         <v>23</v>
       </c>
       <c r="F96" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
@@ -2882,10 +2877,10 @@
         <v>45424</v>
       </c>
       <c r="B97" t="s">
+        <v>118</v>
+      </c>
+      <c r="C97" t="s">
         <v>119</v>
-      </c>
-      <c r="C97" t="s">
-        <v>120</v>
       </c>
       <c r="D97" t="s">
         <v>34</v>
@@ -2902,10 +2897,10 @@
         <v>45424</v>
       </c>
       <c r="B98" t="s">
+        <v>119</v>
+      </c>
+      <c r="C98" t="s">
         <v>120</v>
-      </c>
-      <c r="C98" t="s">
-        <v>121</v>
       </c>
       <c r="D98" t="s">
         <v>8</v>
@@ -2922,7 +2917,7 @@
         <v>45424</v>
       </c>
       <c r="B99" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C99" t="s">
         <v>11</v>
@@ -2945,7 +2940,7 @@
         <v>13</v>
       </c>
       <c r="C100" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D100" t="s">
         <v>8</v>
@@ -2962,16 +2957,16 @@
         <v>45425</v>
       </c>
       <c r="B101" t="s">
+        <v>121</v>
+      </c>
+      <c r="C101" t="s">
         <v>122</v>
-      </c>
-      <c r="C101" t="s">
-        <v>123</v>
       </c>
       <c r="D101" t="s">
         <v>8</v>
       </c>
       <c r="E101" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F101" t="s">
         <v>18</v>
@@ -2982,7 +2977,7 @@
         <v>45425</v>
       </c>
       <c r="B102" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C102" t="s">
         <v>11</v>
@@ -3025,7 +3020,7 @@
         <v>13</v>
       </c>
       <c r="C104" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D104" t="s">
         <v>8</v>
@@ -3065,7 +3060,7 @@
         <v>29</v>
       </c>
       <c r="C106" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D106" t="s">
         <v>8</v>
@@ -3082,7 +3077,7 @@
         <v>45428</v>
       </c>
       <c r="B107" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C107" t="s">
         <v>11</v>
@@ -3094,7 +3089,7 @@
         <v>27</v>
       </c>
       <c r="F107" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
@@ -3114,7 +3109,7 @@
         <v>27</v>
       </c>
       <c r="F108" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
@@ -3125,7 +3120,7 @@
         <v>80</v>
       </c>
       <c r="C109" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D109" t="s">
         <v>8</v>
@@ -3142,10 +3137,10 @@
         <v>45429</v>
       </c>
       <c r="B110" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C110" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D110" t="s">
         <v>8</v>
@@ -3162,7 +3157,7 @@
         <v>45429</v>
       </c>
       <c r="B111" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C111" t="s">
         <v>11</v>
@@ -3185,7 +3180,7 @@
         <v>13</v>
       </c>
       <c r="C112" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D112" t="s">
         <v>8</v>
@@ -3202,10 +3197,10 @@
         <v>45430</v>
       </c>
       <c r="B113" t="s">
+        <v>127</v>
+      </c>
+      <c r="C113" t="s">
         <v>128</v>
-      </c>
-      <c r="C113" t="s">
-        <v>129</v>
       </c>
       <c r="D113" t="s">
         <v>8</v>
@@ -3214,7 +3209,7 @@
         <v>9</v>
       </c>
       <c r="F113" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
@@ -3222,10 +3217,10 @@
         <v>45430</v>
       </c>
       <c r="B114" t="s">
-        <v>130</v>
-      </c>
-      <c r="C114" t="s">
-        <v>131</v>
+        <v>129</v>
+      </c>
+      <c r="C114" s="4">
+        <v>0.97569444444444453</v>
       </c>
       <c r="D114" t="s">
         <v>8</v>
@@ -3245,7 +3240,7 @@
         <v>13</v>
       </c>
       <c r="C115" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D115" t="s">
         <v>8</v>
@@ -3262,10 +3257,10 @@
         <v>45431</v>
       </c>
       <c r="B116" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C116" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D116" t="s">
         <v>8</v>
@@ -3282,10 +3277,10 @@
         <v>45431</v>
       </c>
       <c r="B117" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C117" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D117" t="s">
         <v>8</v>
@@ -3302,10 +3297,10 @@
         <v>45431</v>
       </c>
       <c r="B118" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C118" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D118" t="s">
         <v>8</v>
@@ -3322,10 +3317,10 @@
         <v>45431</v>
       </c>
       <c r="B119" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C119" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D119" t="s">
         <v>8</v>
@@ -3342,10 +3337,10 @@
         <v>45431</v>
       </c>
       <c r="B120" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C120" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D120" t="s">
         <v>8</v>
@@ -3362,13 +3357,13 @@
         <v>45431</v>
       </c>
       <c r="B121" t="s">
+        <v>135</v>
+      </c>
+      <c r="C121" t="s">
+        <v>136</v>
+      </c>
+      <c r="D121" t="s">
         <v>137</v>
-      </c>
-      <c r="C121" t="s">
-        <v>138</v>
-      </c>
-      <c r="D121" t="s">
-        <v>139</v>
       </c>
       <c r="E121" t="s">
         <v>35</v>
@@ -3382,13 +3377,13 @@
         <v>45431</v>
       </c>
       <c r="B122" t="s">
+        <v>136</v>
+      </c>
+      <c r="C122" t="s">
         <v>138</v>
       </c>
-      <c r="C122" t="s">
-        <v>140</v>
-      </c>
       <c r="D122" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E122" t="s">
         <v>23</v>
@@ -3402,13 +3397,13 @@
         <v>45431</v>
       </c>
       <c r="B123" t="s">
+        <v>138</v>
+      </c>
+      <c r="C123" t="s">
         <v>140</v>
       </c>
-      <c r="C123" t="s">
-        <v>142</v>
-      </c>
       <c r="D123" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E123" t="s">
         <v>23</v>
@@ -3422,13 +3417,13 @@
         <v>45431</v>
       </c>
       <c r="B124" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C124" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D124" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E124" t="s">
         <v>23</v>
@@ -3442,13 +3437,13 @@
         <v>45431</v>
       </c>
       <c r="B125" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C125" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D125" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E125" t="s">
         <v>23</v>
@@ -3462,19 +3457,19 @@
         <v>45431</v>
       </c>
       <c r="B126" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C126" t="s">
         <v>11</v>
       </c>
       <c r="D126" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E126" t="s">
         <v>27</v>
       </c>
       <c r="F126" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
@@ -3485,16 +3480,16 @@
         <v>13</v>
       </c>
       <c r="C127" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D127" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E127" t="s">
         <v>27</v>
       </c>
       <c r="F127" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
@@ -3502,13 +3497,13 @@
         <v>45432</v>
       </c>
       <c r="B128" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C128" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D128" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E128" t="s">
         <v>23</v>
@@ -3522,13 +3517,13 @@
         <v>45432</v>
       </c>
       <c r="B129" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C129" t="s">
         <v>11</v>
       </c>
       <c r="D129" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E129" t="s">
         <v>23</v>
@@ -3545,10 +3540,10 @@
         <v>13</v>
       </c>
       <c r="C130" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D130" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E130" t="s">
         <v>23</v>
@@ -3562,13 +3557,13 @@
         <v>45433</v>
       </c>
       <c r="B131" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C131" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D131" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E131" t="s">
         <v>69</v>
@@ -3582,13 +3577,13 @@
         <v>45433</v>
       </c>
       <c r="B132" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C132" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D132" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E132" t="s">
         <v>23</v>
@@ -3602,13 +3597,13 @@
         <v>45433</v>
       </c>
       <c r="B133" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C133" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D133" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E133" t="s">
         <v>69</v>
@@ -3622,13 +3617,13 @@
         <v>45433</v>
       </c>
       <c r="B134" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C134" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D134" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E134" t="s">
         <v>23</v>
@@ -3642,13 +3637,13 @@
         <v>45433</v>
       </c>
       <c r="B135" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C135" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D135" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E135" t="s">
         <v>23</v>
@@ -3662,13 +3657,13 @@
         <v>45433</v>
       </c>
       <c r="B136" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C136" t="s">
         <v>62</v>
       </c>
       <c r="D136" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E136" t="s">
         <v>69</v>
@@ -3688,7 +3683,7 @@
         <v>11</v>
       </c>
       <c r="D137" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E137" t="s">
         <v>23</v>
@@ -3705,10 +3700,10 @@
         <v>13</v>
       </c>
       <c r="C138" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D138" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E138" t="s">
         <v>23</v>
@@ -3722,13 +3717,13 @@
         <v>45434</v>
       </c>
       <c r="B139" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C139" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D139" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E139" t="s">
         <v>69</v>
@@ -3742,13 +3737,13 @@
         <v>45434</v>
       </c>
       <c r="B140" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C140" t="s">
         <v>11</v>
       </c>
       <c r="D140" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E140" t="s">
         <v>23</v>
@@ -3765,10 +3760,10 @@
         <v>13</v>
       </c>
       <c r="C141" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D141" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E141" t="s">
         <v>23</v>
@@ -3782,13 +3777,13 @@
         <v>45435</v>
       </c>
       <c r="B142" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C142" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D142" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E142" t="s">
         <v>69</v>
@@ -3802,13 +3797,13 @@
         <v>45435</v>
       </c>
       <c r="B143" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C143" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D143" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E143" t="s">
         <v>23</v>
@@ -3822,13 +3817,13 @@
         <v>45435</v>
       </c>
       <c r="B144" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C144" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D144" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E144" t="s">
         <v>69</v>
@@ -3842,13 +3837,13 @@
         <v>45435</v>
       </c>
       <c r="B145" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C145" t="s">
         <v>11</v>
       </c>
       <c r="D145" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E145" t="s">
         <v>23</v>
@@ -3865,10 +3860,10 @@
         <v>13</v>
       </c>
       <c r="C146" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D146" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E146" t="s">
         <v>23</v>
@@ -3882,13 +3877,13 @@
         <v>45436</v>
       </c>
       <c r="B147" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C147" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D147" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E147" t="s">
         <v>23</v>
@@ -3902,13 +3897,13 @@
         <v>45436</v>
       </c>
       <c r="B148" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C148" t="s">
         <v>11</v>
       </c>
       <c r="D148" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E148" t="s">
         <v>23</v>
@@ -3925,10 +3920,10 @@
         <v>13</v>
       </c>
       <c r="C149" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D149" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E149" t="s">
         <v>23</v>
@@ -3942,13 +3937,13 @@
         <v>45437</v>
       </c>
       <c r="B150" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C150" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D150" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E150" t="s">
         <v>23</v>
@@ -3962,13 +3957,13 @@
         <v>45437</v>
       </c>
       <c r="B151" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C151" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D151" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E151" t="s">
         <v>23</v>
@@ -3982,13 +3977,13 @@
         <v>45437</v>
       </c>
       <c r="B152" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C152" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D152" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E152" t="s">
         <v>23</v>
@@ -4002,13 +3997,13 @@
         <v>45437</v>
       </c>
       <c r="B153" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C153" t="s">
         <v>11</v>
       </c>
       <c r="D153" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E153" t="s">
         <v>23</v>
@@ -4025,10 +4020,10 @@
         <v>13</v>
       </c>
       <c r="C154" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D154" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E154" t="s">
         <v>23</v>
@@ -4042,13 +4037,13 @@
         <v>45438</v>
       </c>
       <c r="B155" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C155" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D155" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E155" t="s">
         <v>23</v>
@@ -4062,13 +4057,13 @@
         <v>45438</v>
       </c>
       <c r="B156" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C156" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D156" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E156" t="s">
         <v>23</v>
@@ -4082,13 +4077,13 @@
         <v>45438</v>
       </c>
       <c r="B157" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C157" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D157" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E157" t="s">
         <v>23</v>
@@ -4102,19 +4097,19 @@
         <v>45438</v>
       </c>
       <c r="B158" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C158" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D158" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E158" t="s">
         <v>23</v>
       </c>
       <c r="F158" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.2">
@@ -4122,19 +4117,19 @@
         <v>45438</v>
       </c>
       <c r="B159" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C159" t="s">
         <v>11</v>
       </c>
       <c r="D159" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E159" t="s">
         <v>23</v>
       </c>
       <c r="F159" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.2">
@@ -4145,16 +4140,16 @@
         <v>13</v>
       </c>
       <c r="C160" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D160" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E160" t="s">
         <v>23</v>
       </c>
       <c r="F160" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.2">
@@ -4162,13 +4157,13 @@
         <v>45439</v>
       </c>
       <c r="B161" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C161" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D161" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E161" t="s">
         <v>23</v>
@@ -4182,19 +4177,19 @@
         <v>45439</v>
       </c>
       <c r="B162" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C162" t="s">
         <v>11</v>
       </c>
       <c r="D162" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E162" t="s">
         <v>23</v>
       </c>
       <c r="F162" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.2">
@@ -4205,16 +4200,16 @@
         <v>13</v>
       </c>
       <c r="C163" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D163" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E163" t="s">
         <v>23</v>
       </c>
       <c r="F163" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.2">
@@ -4225,16 +4220,16 @@
         <v>13</v>
       </c>
       <c r="C164" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D164" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E164" t="s">
         <v>23</v>
       </c>
       <c r="F164" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.2">
@@ -4245,16 +4240,16 @@
         <v>13</v>
       </c>
       <c r="C165" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D165" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E165" t="s">
         <v>23</v>
       </c>
       <c r="F165" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.2">
@@ -4262,19 +4257,19 @@
         <v>45440</v>
       </c>
       <c r="B166" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C166" t="s">
         <v>11</v>
       </c>
       <c r="D166" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E166" t="s">
         <v>9</v>
       </c>
       <c r="F166" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -8,19 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\N9635226\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE6CBC04-C452-4BAE-B4E2-2BC70AB26167}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD2852F2-109E-4073-94A9-7CEFDB5FBA6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1605" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$166</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="180">
   <si>
     <t>Date</t>
   </si>
@@ -133,9 +136,6 @@
     <t>03:55:00</t>
   </si>
   <si>
-    <t xml:space="preserve">DAPLD </t>
-  </si>
-  <si>
     <t>07:15:00</t>
   </si>
   <si>
@@ -347,9 +347,6 @@
   </si>
   <si>
     <t>09:36:00</t>
-  </si>
-  <si>
-    <t>DAPLD</t>
   </si>
   <si>
     <t>Additional Work</t>
@@ -564,6 +561,10 @@
   </si>
   <si>
     <t>CY</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DAPLD</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -943,8 +944,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B115" sqref="B115"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1303,7 +1304,7 @@
         <v>22</v>
       </c>
       <c r="D18" t="s">
-        <v>8</v>
+        <v>135</v>
       </c>
       <c r="E18" t="s">
         <v>35</v>
@@ -1323,7 +1324,7 @@
         <v>36</v>
       </c>
       <c r="D19" t="s">
-        <v>37</v>
+        <v>135</v>
       </c>
       <c r="E19" t="s">
         <v>35</v>
@@ -1340,10 +1341,10 @@
         <v>36</v>
       </c>
       <c r="C20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D20" t="s">
-        <v>37</v>
+        <v>179</v>
       </c>
       <c r="E20" t="s">
         <v>9</v>
@@ -1357,10 +1358,10 @@
         <v>45410</v>
       </c>
       <c r="B21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" t="s">
         <v>38</v>
-      </c>
-      <c r="C21" t="s">
-        <v>39</v>
       </c>
       <c r="D21" t="s">
         <v>34</v>
@@ -1377,19 +1378,19 @@
         <v>45410</v>
       </c>
       <c r="B22" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" t="s">
         <v>40</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" t="s">
+        <v>23</v>
+      </c>
+      <c r="F22" t="s">
         <v>41</v>
-      </c>
-      <c r="D22" t="s">
-        <v>34</v>
-      </c>
-      <c r="E22" t="s">
-        <v>23</v>
-      </c>
-      <c r="F22" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -1397,7 +1398,7 @@
         <v>45410</v>
       </c>
       <c r="B23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C23" t="s">
         <v>11</v>
@@ -1409,7 +1410,7 @@
         <v>23</v>
       </c>
       <c r="F23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -1420,7 +1421,7 @@
         <v>13</v>
       </c>
       <c r="C24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D24" t="s">
         <v>34</v>
@@ -1429,7 +1430,7 @@
         <v>23</v>
       </c>
       <c r="F24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -1440,7 +1441,7 @@
         <v>13</v>
       </c>
       <c r="C25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D25" t="s">
         <v>34</v>
@@ -1469,7 +1470,7 @@
         <v>23</v>
       </c>
       <c r="F26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -1480,7 +1481,7 @@
         <v>13</v>
       </c>
       <c r="C27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D27" t="s">
         <v>34</v>
@@ -1489,7 +1490,7 @@
         <v>23</v>
       </c>
       <c r="F27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -1500,7 +1501,7 @@
         <v>13</v>
       </c>
       <c r="C28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D28" t="s">
         <v>34</v>
@@ -1517,10 +1518,10 @@
         <v>45412</v>
       </c>
       <c r="B29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C29" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D29" t="s">
         <v>34</v>
@@ -1529,7 +1530,7 @@
         <v>27</v>
       </c>
       <c r="F29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -1537,7 +1538,7 @@
         <v>45412</v>
       </c>
       <c r="B30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C30" t="s">
         <v>11</v>
@@ -1549,7 +1550,7 @@
         <v>23</v>
       </c>
       <c r="F30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -1569,7 +1570,7 @@
         <v>23</v>
       </c>
       <c r="F31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -1580,7 +1581,7 @@
         <v>13</v>
       </c>
       <c r="C32" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D32" t="s">
         <v>34</v>
@@ -1609,7 +1610,7 @@
         <v>23</v>
       </c>
       <c r="F33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
@@ -1620,7 +1621,7 @@
         <v>13</v>
       </c>
       <c r="C34" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D34" t="s">
         <v>34</v>
@@ -1640,7 +1641,7 @@
         <v>13</v>
       </c>
       <c r="C35" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D35" t="s">
         <v>34</v>
@@ -1649,7 +1650,7 @@
         <v>23</v>
       </c>
       <c r="F35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
@@ -1660,7 +1661,7 @@
         <v>13</v>
       </c>
       <c r="C36" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D36" t="s">
         <v>34</v>
@@ -1677,10 +1678,10 @@
         <v>45415</v>
       </c>
       <c r="B37" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D37" t="s">
         <v>34</v>
@@ -1689,7 +1690,7 @@
         <v>23</v>
       </c>
       <c r="F37" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
@@ -1697,11 +1698,11 @@
         <v>45415</v>
       </c>
       <c r="B38" t="s">
+        <v>55</v>
+      </c>
+      <c r="C38" t="s">
         <v>56</v>
       </c>
-      <c r="C38" t="s">
-        <v>57</v>
-      </c>
       <c r="D38" t="s">
         <v>34</v>
       </c>
@@ -1709,7 +1710,7 @@
         <v>23</v>
       </c>
       <c r="F38" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
@@ -1717,11 +1718,11 @@
         <v>45415</v>
       </c>
       <c r="B39" t="s">
+        <v>57</v>
+      </c>
+      <c r="C39" t="s">
         <v>58</v>
       </c>
-      <c r="C39" t="s">
-        <v>59</v>
-      </c>
       <c r="D39" t="s">
         <v>34</v>
       </c>
@@ -1729,7 +1730,7 @@
         <v>23</v>
       </c>
       <c r="F39" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
@@ -1737,11 +1738,11 @@
         <v>45415</v>
       </c>
       <c r="B40" t="s">
+        <v>59</v>
+      </c>
+      <c r="C40" t="s">
         <v>60</v>
       </c>
-      <c r="C40" t="s">
-        <v>61</v>
-      </c>
       <c r="D40" t="s">
         <v>34</v>
       </c>
@@ -1749,7 +1750,7 @@
         <v>23</v>
       </c>
       <c r="F40" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
@@ -1757,11 +1758,11 @@
         <v>45415</v>
       </c>
       <c r="B41" t="s">
+        <v>61</v>
+      </c>
+      <c r="C41" t="s">
         <v>62</v>
       </c>
-      <c r="C41" t="s">
-        <v>63</v>
-      </c>
       <c r="D41" t="s">
         <v>34</v>
       </c>
@@ -1769,7 +1770,7 @@
         <v>23</v>
       </c>
       <c r="F41" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
@@ -1777,7 +1778,7 @@
         <v>45415</v>
       </c>
       <c r="B42" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C42" t="s">
         <v>11</v>
@@ -1789,7 +1790,7 @@
         <v>23</v>
       </c>
       <c r="F42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
@@ -1800,7 +1801,7 @@
         <v>13</v>
       </c>
       <c r="C43" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D43" t="s">
         <v>34</v>
@@ -1809,7 +1810,7 @@
         <v>23</v>
       </c>
       <c r="F43" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
@@ -1837,10 +1838,10 @@
         <v>45416</v>
       </c>
       <c r="B45" t="s">
+        <v>63</v>
+      </c>
+      <c r="C45" t="s">
         <v>64</v>
-      </c>
-      <c r="C45" t="s">
-        <v>65</v>
       </c>
       <c r="D45" t="s">
         <v>34</v>
@@ -1849,7 +1850,7 @@
         <v>27</v>
       </c>
       <c r="F45" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
@@ -1857,7 +1858,7 @@
         <v>45416</v>
       </c>
       <c r="B46" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C46" t="s">
         <v>11</v>
@@ -1869,7 +1870,7 @@
         <v>23</v>
       </c>
       <c r="F46" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
@@ -1880,7 +1881,7 @@
         <v>13</v>
       </c>
       <c r="C47" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D47" t="s">
         <v>34</v>
@@ -1889,7 +1890,7 @@
         <v>23</v>
       </c>
       <c r="F47" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
@@ -1897,19 +1898,19 @@
         <v>45417</v>
       </c>
       <c r="B48" t="s">
+        <v>65</v>
+      </c>
+      <c r="C48" t="s">
         <v>66</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
+        <v>34</v>
+      </c>
+      <c r="E48" t="s">
+        <v>23</v>
+      </c>
+      <c r="F48" t="s">
         <v>67</v>
-      </c>
-      <c r="D48" t="s">
-        <v>34</v>
-      </c>
-      <c r="E48" t="s">
-        <v>23</v>
-      </c>
-      <c r="F48" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
@@ -1917,19 +1918,19 @@
         <v>45417</v>
       </c>
       <c r="B49" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C49" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D49" t="s">
         <v>34</v>
       </c>
       <c r="E49" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F49" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
@@ -1937,11 +1938,11 @@
         <v>45417</v>
       </c>
       <c r="B50" t="s">
+        <v>69</v>
+      </c>
+      <c r="C50" t="s">
         <v>70</v>
       </c>
-      <c r="C50" t="s">
-        <v>71</v>
-      </c>
       <c r="D50" t="s">
         <v>34</v>
       </c>
@@ -1949,7 +1950,7 @@
         <v>23</v>
       </c>
       <c r="F50" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
@@ -1957,7 +1958,7 @@
         <v>45417</v>
       </c>
       <c r="B51" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C51" t="s">
         <v>11</v>
@@ -1969,7 +1970,7 @@
         <v>23</v>
       </c>
       <c r="F51" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
@@ -1989,7 +1990,7 @@
         <v>23</v>
       </c>
       <c r="F52" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
@@ -2000,7 +2001,7 @@
         <v>6</v>
       </c>
       <c r="C53" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D53" t="s">
         <v>34</v>
@@ -2009,7 +2010,7 @@
         <v>23</v>
       </c>
       <c r="F53" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
@@ -2017,10 +2018,10 @@
         <v>45418</v>
       </c>
       <c r="B54" t="s">
+        <v>74</v>
+      </c>
+      <c r="C54" t="s">
         <v>75</v>
-      </c>
-      <c r="C54" t="s">
-        <v>76</v>
       </c>
       <c r="D54" t="s">
         <v>34</v>
@@ -2037,7 +2038,7 @@
         <v>45418</v>
       </c>
       <c r="B55" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C55" t="s">
         <v>11</v>
@@ -2049,7 +2050,7 @@
         <v>23</v>
       </c>
       <c r="F55" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
@@ -2060,7 +2061,7 @@
         <v>13</v>
       </c>
       <c r="C56" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D56" t="s">
         <v>34</v>
@@ -2069,7 +2070,7 @@
         <v>23</v>
       </c>
       <c r="F56" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
@@ -2080,7 +2081,7 @@
         <v>13</v>
       </c>
       <c r="C57" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D57" t="s">
         <v>34</v>
@@ -2097,19 +2098,19 @@
         <v>45419</v>
       </c>
       <c r="B58" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C58" t="s">
+        <v>79</v>
+      </c>
+      <c r="D58" t="s">
+        <v>34</v>
+      </c>
+      <c r="E58" t="s">
+        <v>23</v>
+      </c>
+      <c r="F58" t="s">
         <v>80</v>
-      </c>
-      <c r="D58" t="s">
-        <v>34</v>
-      </c>
-      <c r="E58" t="s">
-        <v>23</v>
-      </c>
-      <c r="F58" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
@@ -2117,19 +2118,19 @@
         <v>45419</v>
       </c>
       <c r="B59" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C59" t="s">
+        <v>81</v>
+      </c>
+      <c r="D59" t="s">
+        <v>34</v>
+      </c>
+      <c r="E59" t="s">
+        <v>68</v>
+      </c>
+      <c r="F59" t="s">
         <v>82</v>
-      </c>
-      <c r="D59" t="s">
-        <v>34</v>
-      </c>
-      <c r="E59" t="s">
-        <v>69</v>
-      </c>
-      <c r="F59" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
@@ -2137,10 +2138,10 @@
         <v>45419</v>
       </c>
       <c r="B60" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C60" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D60" t="s">
         <v>34</v>
@@ -2149,7 +2150,7 @@
         <v>23</v>
       </c>
       <c r="F60" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
@@ -2157,7 +2158,7 @@
         <v>45419</v>
       </c>
       <c r="B61" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C61" t="s">
         <v>17</v>
@@ -2169,7 +2170,7 @@
         <v>23</v>
       </c>
       <c r="F61" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
@@ -2177,11 +2178,11 @@
         <v>45419</v>
       </c>
       <c r="B62" t="s">
+        <v>83</v>
+      </c>
+      <c r="C62" t="s">
         <v>84</v>
       </c>
-      <c r="C62" t="s">
-        <v>85</v>
-      </c>
       <c r="D62" t="s">
         <v>34</v>
       </c>
@@ -2189,7 +2190,7 @@
         <v>23</v>
       </c>
       <c r="F62" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
@@ -2197,7 +2198,7 @@
         <v>45419</v>
       </c>
       <c r="B63" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C63" t="s">
         <v>17</v>
@@ -2209,7 +2210,7 @@
         <v>23</v>
       </c>
       <c r="F63" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
@@ -2229,7 +2230,7 @@
         <v>23</v>
       </c>
       <c r="F64" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
@@ -2249,7 +2250,7 @@
         <v>23</v>
       </c>
       <c r="F65" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
@@ -2260,7 +2261,7 @@
         <v>13</v>
       </c>
       <c r="C66" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D66" t="s">
         <v>34</v>
@@ -2269,7 +2270,7 @@
         <v>23</v>
       </c>
       <c r="F66" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
@@ -2280,7 +2281,7 @@
         <v>13</v>
       </c>
       <c r="C67" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D67" t="s">
         <v>34</v>
@@ -2297,19 +2298,19 @@
         <v>45420</v>
       </c>
       <c r="B68" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C68" t="s">
+        <v>88</v>
+      </c>
+      <c r="D68" t="s">
+        <v>34</v>
+      </c>
+      <c r="E68" t="s">
+        <v>23</v>
+      </c>
+      <c r="F68" t="s">
         <v>89</v>
-      </c>
-      <c r="D68" t="s">
-        <v>34</v>
-      </c>
-      <c r="E68" t="s">
-        <v>23</v>
-      </c>
-      <c r="F68" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
@@ -2320,7 +2321,7 @@
         <v>13</v>
       </c>
       <c r="C69" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D69" t="s">
         <v>34</v>
@@ -2329,7 +2330,7 @@
         <v>23</v>
       </c>
       <c r="F69" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
@@ -2337,19 +2338,19 @@
         <v>45421</v>
       </c>
       <c r="B70" t="s">
+        <v>90</v>
+      </c>
+      <c r="C70" t="s">
         <v>91</v>
       </c>
-      <c r="C70" t="s">
-        <v>92</v>
-      </c>
       <c r="D70" t="s">
         <v>34</v>
       </c>
       <c r="E70" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F70" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
@@ -2357,11 +2358,11 @@
         <v>45421</v>
       </c>
       <c r="B71" t="s">
+        <v>91</v>
+      </c>
+      <c r="C71" t="s">
         <v>92</v>
       </c>
-      <c r="C71" t="s">
-        <v>93</v>
-      </c>
       <c r="D71" t="s">
         <v>34</v>
       </c>
@@ -2369,7 +2370,7 @@
         <v>23</v>
       </c>
       <c r="F71" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
@@ -2377,19 +2378,19 @@
         <v>45421</v>
       </c>
       <c r="B72" t="s">
+        <v>92</v>
+      </c>
+      <c r="C72" t="s">
         <v>93</v>
       </c>
-      <c r="C72" t="s">
-        <v>94</v>
-      </c>
       <c r="D72" t="s">
         <v>34</v>
       </c>
       <c r="E72" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F72" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
@@ -2397,11 +2398,11 @@
         <v>45421</v>
       </c>
       <c r="B73" t="s">
+        <v>93</v>
+      </c>
+      <c r="C73" t="s">
         <v>94</v>
       </c>
-      <c r="C73" t="s">
-        <v>95</v>
-      </c>
       <c r="D73" t="s">
         <v>34</v>
       </c>
@@ -2409,7 +2410,7 @@
         <v>23</v>
       </c>
       <c r="F73" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
@@ -2417,19 +2418,19 @@
         <v>45421</v>
       </c>
       <c r="B74" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C74" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D74" t="s">
         <v>34</v>
       </c>
       <c r="E74" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F74" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
@@ -2437,10 +2438,10 @@
         <v>45421</v>
       </c>
       <c r="B75" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C75" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D75" t="s">
         <v>34</v>
@@ -2449,7 +2450,7 @@
         <v>23</v>
       </c>
       <c r="F75" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
@@ -2460,7 +2461,7 @@
         <v>13</v>
       </c>
       <c r="C76" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D76" t="s">
         <v>34</v>
@@ -2469,7 +2470,7 @@
         <v>23</v>
       </c>
       <c r="F76" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
@@ -2477,19 +2478,19 @@
         <v>45422</v>
       </c>
       <c r="B77" t="s">
+        <v>97</v>
+      </c>
+      <c r="C77" t="s">
         <v>98</v>
       </c>
-      <c r="C77" t="s">
+      <c r="D77" t="s">
+        <v>34</v>
+      </c>
+      <c r="E77" t="s">
+        <v>23</v>
+      </c>
+      <c r="F77" t="s">
         <v>99</v>
-      </c>
-      <c r="D77" t="s">
-        <v>34</v>
-      </c>
-      <c r="E77" t="s">
-        <v>23</v>
-      </c>
-      <c r="F77" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
@@ -2497,19 +2498,19 @@
         <v>45422</v>
       </c>
       <c r="B78" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C78" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D78" t="s">
         <v>34</v>
       </c>
       <c r="E78" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F78" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
@@ -2517,10 +2518,10 @@
         <v>45422</v>
       </c>
       <c r="B79" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C79" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D79" t="s">
         <v>34</v>
@@ -2529,7 +2530,7 @@
         <v>23</v>
       </c>
       <c r="F79" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
@@ -2537,11 +2538,11 @@
         <v>45422</v>
       </c>
       <c r="B80" t="s">
+        <v>100</v>
+      </c>
+      <c r="C80" t="s">
         <v>101</v>
       </c>
-      <c r="C80" t="s">
-        <v>102</v>
-      </c>
       <c r="D80" t="s">
         <v>34</v>
       </c>
@@ -2549,7 +2550,7 @@
         <v>23</v>
       </c>
       <c r="F80" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
@@ -2557,19 +2558,19 @@
         <v>45422</v>
       </c>
       <c r="B81" t="s">
+        <v>101</v>
+      </c>
+      <c r="C81" t="s">
         <v>102</v>
       </c>
-      <c r="C81" t="s">
-        <v>103</v>
-      </c>
       <c r="D81" t="s">
         <v>34</v>
       </c>
       <c r="E81" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F81" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
@@ -2577,19 +2578,19 @@
         <v>45422</v>
       </c>
       <c r="B82" t="s">
+        <v>102</v>
+      </c>
+      <c r="C82" t="s">
         <v>103</v>
       </c>
-      <c r="C82" t="s">
+      <c r="D82" t="s">
+        <v>34</v>
+      </c>
+      <c r="E82" t="s">
+        <v>23</v>
+      </c>
+      <c r="F82" t="s">
         <v>104</v>
-      </c>
-      <c r="D82" t="s">
-        <v>34</v>
-      </c>
-      <c r="E82" t="s">
-        <v>23</v>
-      </c>
-      <c r="F82" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
@@ -2597,10 +2598,10 @@
         <v>45422</v>
       </c>
       <c r="B83" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C83" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D83" t="s">
         <v>34</v>
@@ -2609,7 +2610,7 @@
         <v>9</v>
       </c>
       <c r="F83" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
@@ -2617,7 +2618,7 @@
         <v>45422</v>
       </c>
       <c r="B84" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C84" t="s">
         <v>11</v>
@@ -2629,7 +2630,7 @@
         <v>23</v>
       </c>
       <c r="F84" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
@@ -2640,7 +2641,7 @@
         <v>13</v>
       </c>
       <c r="C85" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D85" t="s">
         <v>34</v>
@@ -2649,7 +2650,7 @@
         <v>23</v>
       </c>
       <c r="F85" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
@@ -2657,16 +2658,16 @@
         <v>45423</v>
       </c>
       <c r="B86" t="s">
+        <v>106</v>
+      </c>
+      <c r="C86" t="s">
         <v>107</v>
       </c>
-      <c r="C86" t="s">
+      <c r="D86" t="s">
+        <v>179</v>
+      </c>
+      <c r="E86" t="s">
         <v>108</v>
-      </c>
-      <c r="D86" t="s">
-        <v>109</v>
-      </c>
-      <c r="E86" t="s">
-        <v>110</v>
       </c>
       <c r="F86" t="s">
         <v>18</v>
@@ -2677,10 +2678,10 @@
         <v>45423</v>
       </c>
       <c r="B87" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C87" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D87" t="s">
         <v>34</v>
@@ -2689,7 +2690,7 @@
         <v>23</v>
       </c>
       <c r="F87" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
@@ -2697,7 +2698,7 @@
         <v>45423</v>
       </c>
       <c r="B88" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C88" t="s">
         <v>11</v>
@@ -2709,7 +2710,7 @@
         <v>23</v>
       </c>
       <c r="F88" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
@@ -2720,7 +2721,7 @@
         <v>13</v>
       </c>
       <c r="C89" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D89" t="s">
         <v>34</v>
@@ -2729,7 +2730,7 @@
         <v>23</v>
       </c>
       <c r="F89" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
@@ -2737,10 +2738,10 @@
         <v>45424</v>
       </c>
       <c r="B90" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C90" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D90" t="s">
         <v>34</v>
@@ -2757,19 +2758,19 @@
         <v>45424</v>
       </c>
       <c r="B91" t="s">
+        <v>110</v>
+      </c>
+      <c r="C91" t="s">
         <v>112</v>
       </c>
-      <c r="C91" t="s">
-        <v>114</v>
-      </c>
       <c r="D91" t="s">
         <v>34</v>
       </c>
       <c r="E91" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F91" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -2777,10 +2778,10 @@
         <v>45424</v>
       </c>
       <c r="B92" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C92" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D92" t="s">
         <v>34</v>
@@ -2789,7 +2790,7 @@
         <v>23</v>
       </c>
       <c r="F92" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
@@ -2797,10 +2798,10 @@
         <v>45424</v>
       </c>
       <c r="B93" t="s">
+        <v>112</v>
+      </c>
+      <c r="C93" t="s">
         <v>114</v>
-      </c>
-      <c r="C93" t="s">
-        <v>116</v>
       </c>
       <c r="D93" t="s">
         <v>34</v>
@@ -2817,11 +2818,11 @@
         <v>45424</v>
       </c>
       <c r="B94" t="s">
+        <v>113</v>
+      </c>
+      <c r="C94" t="s">
         <v>115</v>
       </c>
-      <c r="C94" t="s">
-        <v>117</v>
-      </c>
       <c r="D94" t="s">
         <v>34</v>
       </c>
@@ -2829,7 +2830,7 @@
         <v>23</v>
       </c>
       <c r="F94" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
@@ -2837,10 +2838,10 @@
         <v>45424</v>
       </c>
       <c r="B95" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C95" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D95" t="s">
         <v>34</v>
@@ -2857,10 +2858,10 @@
         <v>45424</v>
       </c>
       <c r="B96" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C96" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D96" t="s">
         <v>34</v>
@@ -2869,7 +2870,7 @@
         <v>23</v>
       </c>
       <c r="F96" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
@@ -2877,13 +2878,13 @@
         <v>45424</v>
       </c>
       <c r="B97" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C97" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D97" t="s">
-        <v>34</v>
+        <v>135</v>
       </c>
       <c r="E97" t="s">
         <v>35</v>
@@ -2897,10 +2898,10 @@
         <v>45424</v>
       </c>
       <c r="B98" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C98" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D98" t="s">
         <v>8</v>
@@ -2917,7 +2918,7 @@
         <v>45424</v>
       </c>
       <c r="B99" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C99" t="s">
         <v>11</v>
@@ -2940,7 +2941,7 @@
         <v>13</v>
       </c>
       <c r="C100" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D100" t="s">
         <v>8</v>
@@ -2957,16 +2958,16 @@
         <v>45425</v>
       </c>
       <c r="B101" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C101" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D101" t="s">
         <v>8</v>
       </c>
       <c r="E101" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F101" t="s">
         <v>18</v>
@@ -2977,7 +2978,7 @@
         <v>45425</v>
       </c>
       <c r="B102" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C102" t="s">
         <v>11</v>
@@ -3020,7 +3021,7 @@
         <v>13</v>
       </c>
       <c r="C104" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D104" t="s">
         <v>8</v>
@@ -3060,16 +3061,16 @@
         <v>29</v>
       </c>
       <c r="C106" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D106" t="s">
         <v>8</v>
       </c>
       <c r="E106" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F106" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
@@ -3077,7 +3078,7 @@
         <v>45428</v>
       </c>
       <c r="B107" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C107" t="s">
         <v>11</v>
@@ -3089,7 +3090,7 @@
         <v>27</v>
       </c>
       <c r="F107" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
@@ -3100,7 +3101,7 @@
         <v>13</v>
       </c>
       <c r="C108" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D108" t="s">
         <v>8</v>
@@ -3109,7 +3110,7 @@
         <v>27</v>
       </c>
       <c r="F108" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
@@ -3117,10 +3118,10 @@
         <v>45429</v>
       </c>
       <c r="B109" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C109" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D109" t="s">
         <v>8</v>
@@ -3137,19 +3138,19 @@
         <v>45429</v>
       </c>
       <c r="B110" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C110" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D110" t="s">
         <v>8</v>
       </c>
       <c r="E110" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F110" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
@@ -3157,7 +3158,7 @@
         <v>45429</v>
       </c>
       <c r="B111" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C111" t="s">
         <v>11</v>
@@ -3180,7 +3181,7 @@
         <v>13</v>
       </c>
       <c r="C112" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D112" t="s">
         <v>8</v>
@@ -3197,10 +3198,10 @@
         <v>45430</v>
       </c>
       <c r="B113" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C113" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D113" t="s">
         <v>8</v>
@@ -3209,7 +3210,7 @@
         <v>9</v>
       </c>
       <c r="F113" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
@@ -3217,7 +3218,7 @@
         <v>45430</v>
       </c>
       <c r="B114" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C114" s="4">
         <v>0.97569444444444453</v>
@@ -3240,7 +3241,7 @@
         <v>13</v>
       </c>
       <c r="C115" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D115" t="s">
         <v>8</v>
@@ -3257,19 +3258,19 @@
         <v>45431</v>
       </c>
       <c r="B116" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C116" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D116" t="s">
         <v>8</v>
       </c>
       <c r="E116" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F116" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
@@ -3277,10 +3278,10 @@
         <v>45431</v>
       </c>
       <c r="B117" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C117" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D117" t="s">
         <v>8</v>
@@ -3297,10 +3298,10 @@
         <v>45431</v>
       </c>
       <c r="B118" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C118" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D118" t="s">
         <v>8</v>
@@ -3317,10 +3318,10 @@
         <v>45431</v>
       </c>
       <c r="B119" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C119" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D119" t="s">
         <v>8</v>
@@ -3337,10 +3338,10 @@
         <v>45431</v>
       </c>
       <c r="B120" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C120" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D120" t="s">
         <v>8</v>
@@ -3357,13 +3358,13 @@
         <v>45431</v>
       </c>
       <c r="B121" t="s">
+        <v>133</v>
+      </c>
+      <c r="C121" t="s">
+        <v>134</v>
+      </c>
+      <c r="D121" t="s">
         <v>135</v>
-      </c>
-      <c r="C121" t="s">
-        <v>136</v>
-      </c>
-      <c r="D121" t="s">
-        <v>137</v>
       </c>
       <c r="E121" t="s">
         <v>35</v>
@@ -3377,19 +3378,19 @@
         <v>45431</v>
       </c>
       <c r="B122" t="s">
+        <v>134</v>
+      </c>
+      <c r="C122" t="s">
         <v>136</v>
       </c>
-      <c r="C122" t="s">
-        <v>138</v>
-      </c>
       <c r="D122" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E122" t="s">
         <v>23</v>
       </c>
       <c r="F122" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
@@ -3397,19 +3398,19 @@
         <v>45431</v>
       </c>
       <c r="B123" t="s">
+        <v>136</v>
+      </c>
+      <c r="C123" t="s">
         <v>138</v>
       </c>
-      <c r="C123" t="s">
-        <v>140</v>
-      </c>
       <c r="D123" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E123" t="s">
         <v>23</v>
       </c>
       <c r="F123" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
@@ -3417,13 +3418,13 @@
         <v>45431</v>
       </c>
       <c r="B124" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C124" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D124" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E124" t="s">
         <v>23</v>
@@ -3437,19 +3438,19 @@
         <v>45431</v>
       </c>
       <c r="B125" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C125" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D125" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E125" t="s">
         <v>23</v>
       </c>
       <c r="F125" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
@@ -3457,19 +3458,19 @@
         <v>45431</v>
       </c>
       <c r="B126" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C126" t="s">
         <v>11</v>
       </c>
       <c r="D126" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E126" t="s">
         <v>27</v>
       </c>
       <c r="F126" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
@@ -3480,16 +3481,16 @@
         <v>13</v>
       </c>
       <c r="C127" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D127" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E127" t="s">
         <v>27</v>
       </c>
       <c r="F127" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
@@ -3497,19 +3498,19 @@
         <v>45432</v>
       </c>
       <c r="B128" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C128" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D128" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E128" t="s">
         <v>23</v>
       </c>
       <c r="F128" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.2">
@@ -3517,19 +3518,19 @@
         <v>45432</v>
       </c>
       <c r="B129" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C129" t="s">
         <v>11</v>
       </c>
       <c r="D129" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E129" t="s">
         <v>23</v>
       </c>
       <c r="F129" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.2">
@@ -3540,16 +3541,16 @@
         <v>13</v>
       </c>
       <c r="C130" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D130" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E130" t="s">
         <v>23</v>
       </c>
       <c r="F130" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.2">
@@ -3557,19 +3558,19 @@
         <v>45433</v>
       </c>
       <c r="B131" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C131" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D131" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E131" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F131" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
@@ -3577,19 +3578,19 @@
         <v>45433</v>
       </c>
       <c r="B132" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C132" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D132" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E132" t="s">
         <v>23</v>
       </c>
       <c r="F132" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
@@ -3597,19 +3598,19 @@
         <v>45433</v>
       </c>
       <c r="B133" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C133" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D133" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E133" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F133" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
@@ -3617,13 +3618,13 @@
         <v>45433</v>
       </c>
       <c r="B134" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C134" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D134" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E134" t="s">
         <v>23</v>
@@ -3637,19 +3638,19 @@
         <v>45433</v>
       </c>
       <c r="B135" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C135" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D135" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E135" t="s">
         <v>23</v>
       </c>
       <c r="F135" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.2">
@@ -3657,19 +3658,19 @@
         <v>45433</v>
       </c>
       <c r="B136" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C136" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D136" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E136" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F136" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.2">
@@ -3677,19 +3678,19 @@
         <v>45433</v>
       </c>
       <c r="B137" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C137" t="s">
         <v>11</v>
       </c>
       <c r="D137" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E137" t="s">
         <v>23</v>
       </c>
       <c r="F137" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.2">
@@ -3700,16 +3701,16 @@
         <v>13</v>
       </c>
       <c r="C138" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D138" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E138" t="s">
         <v>23</v>
       </c>
       <c r="F138" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.2">
@@ -3717,19 +3718,19 @@
         <v>45434</v>
       </c>
       <c r="B139" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C139" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D139" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E139" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F139" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.2">
@@ -3737,19 +3738,19 @@
         <v>45434</v>
       </c>
       <c r="B140" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C140" t="s">
         <v>11</v>
       </c>
       <c r="D140" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E140" t="s">
         <v>23</v>
       </c>
       <c r="F140" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.2">
@@ -3760,16 +3761,16 @@
         <v>13</v>
       </c>
       <c r="C141" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D141" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E141" t="s">
         <v>23</v>
       </c>
       <c r="F141" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.2">
@@ -3777,19 +3778,19 @@
         <v>45435</v>
       </c>
       <c r="B142" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C142" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D142" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E142" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F142" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.2">
@@ -3797,19 +3798,19 @@
         <v>45435</v>
       </c>
       <c r="B143" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C143" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D143" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E143" t="s">
         <v>23</v>
       </c>
       <c r="F143" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.2">
@@ -3817,19 +3818,19 @@
         <v>45435</v>
       </c>
       <c r="B144" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C144" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D144" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E144" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F144" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.2">
@@ -3837,19 +3838,19 @@
         <v>45435</v>
       </c>
       <c r="B145" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C145" t="s">
         <v>11</v>
       </c>
       <c r="D145" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E145" t="s">
         <v>23</v>
       </c>
       <c r="F145" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.2">
@@ -3860,16 +3861,16 @@
         <v>13</v>
       </c>
       <c r="C146" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D146" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E146" t="s">
         <v>23</v>
       </c>
       <c r="F146" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.2">
@@ -3877,19 +3878,19 @@
         <v>45436</v>
       </c>
       <c r="B147" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C147" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D147" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E147" t="s">
         <v>23</v>
       </c>
       <c r="F147" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.2">
@@ -3897,19 +3898,19 @@
         <v>45436</v>
       </c>
       <c r="B148" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C148" t="s">
         <v>11</v>
       </c>
       <c r="D148" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E148" t="s">
         <v>23</v>
       </c>
       <c r="F148" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.2">
@@ -3920,16 +3921,16 @@
         <v>13</v>
       </c>
       <c r="C149" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D149" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E149" t="s">
         <v>23</v>
       </c>
       <c r="F149" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.2">
@@ -3937,19 +3938,19 @@
         <v>45437</v>
       </c>
       <c r="B150" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C150" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D150" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E150" t="s">
         <v>23</v>
       </c>
       <c r="F150" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.2">
@@ -3957,19 +3958,19 @@
         <v>45437</v>
       </c>
       <c r="B151" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C151" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D151" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E151" t="s">
         <v>23</v>
       </c>
       <c r="F151" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.2">
@@ -3977,13 +3978,13 @@
         <v>45437</v>
       </c>
       <c r="B152" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C152" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D152" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E152" t="s">
         <v>23</v>
@@ -3997,19 +3998,19 @@
         <v>45437</v>
       </c>
       <c r="B153" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C153" t="s">
         <v>11</v>
       </c>
       <c r="D153" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E153" t="s">
         <v>23</v>
       </c>
       <c r="F153" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.2">
@@ -4020,16 +4021,16 @@
         <v>13</v>
       </c>
       <c r="C154" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D154" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E154" t="s">
         <v>23</v>
       </c>
       <c r="F154" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.2">
@@ -4037,19 +4038,19 @@
         <v>45438</v>
       </c>
       <c r="B155" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C155" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D155" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E155" t="s">
         <v>23</v>
       </c>
       <c r="F155" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.2">
@@ -4057,19 +4058,19 @@
         <v>45438</v>
       </c>
       <c r="B156" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C156" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D156" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E156" t="s">
         <v>23</v>
       </c>
       <c r="F156" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.2">
@@ -4077,19 +4078,19 @@
         <v>45438</v>
       </c>
       <c r="B157" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C157" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D157" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E157" t="s">
         <v>23</v>
       </c>
       <c r="F157" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.2">
@@ -4097,19 +4098,19 @@
         <v>45438</v>
       </c>
       <c r="B158" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C158" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D158" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E158" t="s">
         <v>23</v>
       </c>
       <c r="F158" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.2">
@@ -4117,19 +4118,19 @@
         <v>45438</v>
       </c>
       <c r="B159" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C159" t="s">
         <v>11</v>
       </c>
       <c r="D159" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E159" t="s">
         <v>23</v>
       </c>
       <c r="F159" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.2">
@@ -4140,16 +4141,16 @@
         <v>13</v>
       </c>
       <c r="C160" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D160" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E160" t="s">
         <v>23</v>
       </c>
       <c r="F160" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.2">
@@ -4157,19 +4158,19 @@
         <v>45439</v>
       </c>
       <c r="B161" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C161" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D161" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E161" t="s">
         <v>23</v>
       </c>
       <c r="F161" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.2">
@@ -4177,19 +4178,19 @@
         <v>45439</v>
       </c>
       <c r="B162" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C162" t="s">
         <v>11</v>
       </c>
       <c r="D162" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E162" t="s">
         <v>23</v>
       </c>
       <c r="F162" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.2">
@@ -4200,16 +4201,16 @@
         <v>13</v>
       </c>
       <c r="C163" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D163" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E163" t="s">
         <v>23</v>
       </c>
       <c r="F163" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.2">
@@ -4220,16 +4221,16 @@
         <v>13</v>
       </c>
       <c r="C164" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D164" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E164" t="s">
         <v>23</v>
       </c>
       <c r="F164" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.2">
@@ -4240,16 +4241,16 @@
         <v>13</v>
       </c>
       <c r="C165" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D165" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E165" t="s">
         <v>23</v>
       </c>
       <c r="F165" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.2">
@@ -4257,22 +4258,23 @@
         <v>45440</v>
       </c>
       <c r="B166" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C166" t="s">
         <v>11</v>
       </c>
       <c r="D166" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E166" t="s">
         <v>9</v>
       </c>
       <c r="F166" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F166" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/output.xlsx
+++ b/output.xlsx
@@ -8,22 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\N9635226\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD2852F2-109E-4073-94A9-7CEFDB5FBA6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D76E0A8B-B314-45D9-B2AA-69E02EA57AD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-26475" yWindow="5640" windowWidth="27000" windowHeight="14160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$166</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$202</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="225">
   <si>
     <t>Date</t>
   </si>
@@ -560,12 +560,148 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>CY</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>DAPLD</t>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Client</t>
+  </si>
+  <si>
+    <t>Client</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Debris</t>
+  </si>
+  <si>
+    <t>Debris</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>06:57:00</t>
+  </si>
+  <si>
+    <t>06:25:00</t>
+  </si>
+  <si>
+    <t>16:44:00</t>
+  </si>
+  <si>
+    <t>16:34:00</t>
+  </si>
+  <si>
+    <t>JKWLM</t>
+  </si>
+  <si>
+    <t>Additional_Work</t>
+  </si>
+  <si>
+    <t>04:20:00</t>
+  </si>
+  <si>
+    <t>04:44:00</t>
+  </si>
+  <si>
+    <t>09:45:00</t>
+  </si>
+  <si>
+    <t>10:49:00</t>
+  </si>
+  <si>
+    <t>13:32:00</t>
+  </si>
+  <si>
+    <t>12:22:00</t>
+  </si>
+  <si>
+    <t>13:33:00</t>
+  </si>
+  <si>
+    <t>16:46:00</t>
+  </si>
+  <si>
+    <t>13:42:00</t>
+  </si>
+  <si>
+    <t>19:03:00</t>
+  </si>
+  <si>
+    <t>20:43:00</t>
+  </si>
+  <si>
+    <t>19:11:00</t>
+  </si>
+  <si>
+    <t>23:38:00</t>
+  </si>
+  <si>
+    <t>01:23:00</t>
+  </si>
+  <si>
+    <t>03:21:00</t>
+  </si>
+  <si>
+    <t>05:35:00</t>
+  </si>
+  <si>
+    <t>06:10:00</t>
+  </si>
+  <si>
+    <t>GOPLE</t>
+  </si>
+  <si>
+    <t>08:40:00</t>
+  </si>
+  <si>
+    <t>09:07:00</t>
+  </si>
+  <si>
+    <t>09:57:00</t>
+  </si>
+  <si>
+    <t>11:06:00</t>
+  </si>
+  <si>
+    <t>Sleeper</t>
+  </si>
+  <si>
+    <t>19:53:00</t>
+  </si>
+  <si>
+    <t>20:37:00</t>
+  </si>
+  <si>
+    <t>21:05:00</t>
+  </si>
+  <si>
+    <t>11:13:00</t>
+  </si>
+  <si>
+    <t>11:41:00</t>
+  </si>
+  <si>
+    <t>ERWS</t>
+  </si>
+  <si>
+    <t>11:35:00</t>
+  </si>
+  <si>
+    <t>17:55:00</t>
+  </si>
+  <si>
+    <t>ERWZI</t>
+  </si>
+  <si>
+    <t>DMA recovery</t>
+  </si>
+  <si>
+    <t>13:13:00</t>
+  </si>
+  <si>
+    <t>23:50:00</t>
+  </si>
+  <si>
+    <t>Pre-foold survey</t>
   </si>
 </sst>
 </file>
@@ -942,15 +1078,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F166"/>
+  <dimension ref="A1:F202"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A187" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -1344,7 +1482,7 @@
         <v>37</v>
       </c>
       <c r="D20" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E20" t="s">
         <v>9</v>
@@ -2664,13 +2802,13 @@
         <v>107</v>
       </c>
       <c r="D86" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E86" t="s">
         <v>108</v>
       </c>
       <c r="F86" t="s">
-        <v>18</v>
+        <v>182</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
@@ -2970,7 +3108,7 @@
         <v>108</v>
       </c>
       <c r="F101" t="s">
-        <v>18</v>
+        <v>182</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
@@ -3090,7 +3228,7 @@
         <v>27</v>
       </c>
       <c r="F107" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
@@ -3110,7 +3248,7 @@
         <v>27</v>
       </c>
       <c r="F108" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
@@ -4273,8 +4411,728 @@
         <v>176</v>
       </c>
     </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A167" s="3">
+        <v>45441</v>
+      </c>
+      <c r="B167" t="s">
+        <v>13</v>
+      </c>
+      <c r="C167" t="s">
+        <v>183</v>
+      </c>
+      <c r="D167" t="s">
+        <v>137</v>
+      </c>
+      <c r="E167" t="s">
+        <v>9</v>
+      </c>
+      <c r="F167" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A168" s="3">
+        <v>45441</v>
+      </c>
+      <c r="B168" t="s">
+        <v>184</v>
+      </c>
+      <c r="C168" t="s">
+        <v>185</v>
+      </c>
+      <c r="D168" t="s">
+        <v>137</v>
+      </c>
+      <c r="E168" t="s">
+        <v>9</v>
+      </c>
+      <c r="F168" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A169" s="3">
+        <v>45441</v>
+      </c>
+      <c r="B169" t="s">
+        <v>186</v>
+      </c>
+      <c r="C169" t="s">
+        <v>11</v>
+      </c>
+      <c r="D169" t="s">
+        <v>187</v>
+      </c>
+      <c r="E169" t="s">
+        <v>188</v>
+      </c>
+      <c r="F169" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A170" s="3">
+        <v>45442</v>
+      </c>
+      <c r="B170" t="s">
+        <v>13</v>
+      </c>
+      <c r="C170" t="s">
+        <v>189</v>
+      </c>
+      <c r="D170" t="s">
+        <v>187</v>
+      </c>
+      <c r="E170" t="s">
+        <v>188</v>
+      </c>
+      <c r="F170" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A171" s="3">
+        <v>45442</v>
+      </c>
+      <c r="B171" t="s">
+        <v>189</v>
+      </c>
+      <c r="C171" t="s">
+        <v>190</v>
+      </c>
+      <c r="D171" t="s">
+        <v>137</v>
+      </c>
+      <c r="E171" t="s">
+        <v>23</v>
+      </c>
+      <c r="F171" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A172" s="3">
+        <v>45442</v>
+      </c>
+      <c r="B172" t="s">
+        <v>190</v>
+      </c>
+      <c r="C172" t="s">
+        <v>191</v>
+      </c>
+      <c r="D172" t="s">
+        <v>137</v>
+      </c>
+      <c r="E172" t="s">
+        <v>68</v>
+      </c>
+      <c r="F172" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A173" s="3">
+        <v>45442</v>
+      </c>
+      <c r="B173" t="s">
+        <v>191</v>
+      </c>
+      <c r="C173" t="s">
+        <v>192</v>
+      </c>
+      <c r="D173" t="s">
+        <v>137</v>
+      </c>
+      <c r="E173" t="s">
+        <v>23</v>
+      </c>
+      <c r="F173" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A174" s="3">
+        <v>45442</v>
+      </c>
+      <c r="B174" t="s">
+        <v>192</v>
+      </c>
+      <c r="C174" t="s">
+        <v>193</v>
+      </c>
+      <c r="D174" t="s">
+        <v>137</v>
+      </c>
+      <c r="E174" t="s">
+        <v>23</v>
+      </c>
+      <c r="F174" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A175" s="3">
+        <v>45442</v>
+      </c>
+      <c r="B175" t="s">
+        <v>194</v>
+      </c>
+      <c r="C175" t="s">
+        <v>195</v>
+      </c>
+      <c r="D175" t="s">
+        <v>137</v>
+      </c>
+      <c r="E175" t="s">
+        <v>23</v>
+      </c>
+      <c r="F175" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A176" s="3">
+        <v>45442</v>
+      </c>
+      <c r="B176" t="s">
+        <v>193</v>
+      </c>
+      <c r="C176" t="s">
+        <v>196</v>
+      </c>
+      <c r="D176" t="s">
+        <v>137</v>
+      </c>
+      <c r="E176" t="s">
+        <v>23</v>
+      </c>
+      <c r="F176" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A177" s="3">
+        <v>45442</v>
+      </c>
+      <c r="B177" t="s">
+        <v>197</v>
+      </c>
+      <c r="C177" t="s">
+        <v>196</v>
+      </c>
+      <c r="D177" t="s">
+        <v>137</v>
+      </c>
+      <c r="E177" t="s">
+        <v>23</v>
+      </c>
+      <c r="F177" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A178" s="3">
+        <v>45442</v>
+      </c>
+      <c r="B178" t="s">
+        <v>198</v>
+      </c>
+      <c r="C178" t="s">
+        <v>199</v>
+      </c>
+      <c r="D178" t="s">
+        <v>137</v>
+      </c>
+      <c r="E178" t="s">
+        <v>23</v>
+      </c>
+      <c r="F178" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A179" s="3">
+        <v>45442</v>
+      </c>
+      <c r="B179" t="s">
+        <v>200</v>
+      </c>
+      <c r="C179" t="s">
+        <v>201</v>
+      </c>
+      <c r="D179" t="s">
+        <v>137</v>
+      </c>
+      <c r="E179" t="s">
+        <v>23</v>
+      </c>
+      <c r="F179" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A180" s="3">
+        <v>45442</v>
+      </c>
+      <c r="B180" t="s">
+        <v>201</v>
+      </c>
+      <c r="C180" t="s">
+        <v>11</v>
+      </c>
+      <c r="D180" t="s">
+        <v>137</v>
+      </c>
+      <c r="E180" t="s">
+        <v>23</v>
+      </c>
+      <c r="F180" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A181" s="3">
+        <v>45443</v>
+      </c>
+      <c r="B181" t="s">
+        <v>13</v>
+      </c>
+      <c r="C181" t="s">
+        <v>202</v>
+      </c>
+      <c r="D181" t="s">
+        <v>137</v>
+      </c>
+      <c r="E181" t="s">
+        <v>23</v>
+      </c>
+      <c r="F181" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A182" s="3">
+        <v>45443</v>
+      </c>
+      <c r="B182" t="s">
+        <v>202</v>
+      </c>
+      <c r="C182" t="s">
+        <v>203</v>
+      </c>
+      <c r="D182" t="s">
+        <v>137</v>
+      </c>
+      <c r="E182" t="s">
+        <v>68</v>
+      </c>
+      <c r="F182" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A183" s="3">
+        <v>45443</v>
+      </c>
+      <c r="B183" t="s">
+        <v>203</v>
+      </c>
+      <c r="C183" t="s">
+        <v>204</v>
+      </c>
+      <c r="D183" t="s">
+        <v>135</v>
+      </c>
+      <c r="E183" t="s">
+        <v>35</v>
+      </c>
+      <c r="F183" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A184" s="3">
+        <v>45443</v>
+      </c>
+      <c r="B184" t="s">
+        <v>204</v>
+      </c>
+      <c r="C184" t="s">
+        <v>205</v>
+      </c>
+      <c r="D184" t="s">
+        <v>206</v>
+      </c>
+      <c r="E184" t="s">
+        <v>68</v>
+      </c>
+      <c r="F184" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A185" s="3">
+        <v>45443</v>
+      </c>
+      <c r="B185" t="s">
+        <v>205</v>
+      </c>
+      <c r="C185" t="s">
+        <v>149</v>
+      </c>
+      <c r="D185" t="s">
+        <v>206</v>
+      </c>
+      <c r="E185" t="s">
+        <v>9</v>
+      </c>
+      <c r="F185" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A186" s="3">
+        <v>45443</v>
+      </c>
+      <c r="B186" t="s">
+        <v>149</v>
+      </c>
+      <c r="C186" t="s">
+        <v>207</v>
+      </c>
+      <c r="D186" t="s">
+        <v>206</v>
+      </c>
+      <c r="E186" t="s">
+        <v>9</v>
+      </c>
+      <c r="F186" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A187" s="3">
+        <v>45443</v>
+      </c>
+      <c r="B187" t="s">
+        <v>207</v>
+      </c>
+      <c r="C187" t="s">
+        <v>208</v>
+      </c>
+      <c r="D187" t="s">
+        <v>206</v>
+      </c>
+      <c r="E187" t="s">
+        <v>68</v>
+      </c>
+      <c r="F187" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A188" s="3">
+        <v>45443</v>
+      </c>
+      <c r="B188" t="s">
+        <v>208</v>
+      </c>
+      <c r="C188" t="s">
+        <v>209</v>
+      </c>
+      <c r="D188" t="s">
+        <v>206</v>
+      </c>
+      <c r="E188" t="s">
+        <v>9</v>
+      </c>
+      <c r="F188" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A189" s="3">
+        <v>45443</v>
+      </c>
+      <c r="B189" t="s">
+        <v>209</v>
+      </c>
+      <c r="C189" t="s">
+        <v>210</v>
+      </c>
+      <c r="D189" t="s">
+        <v>206</v>
+      </c>
+      <c r="E189" t="s">
+        <v>9</v>
+      </c>
+      <c r="F189" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A190" s="3">
+        <v>45443</v>
+      </c>
+      <c r="B190" t="s">
+        <v>210</v>
+      </c>
+      <c r="C190" t="s">
+        <v>103</v>
+      </c>
+      <c r="D190" t="s">
+        <v>206</v>
+      </c>
+      <c r="E190" t="s">
+        <v>27</v>
+      </c>
+      <c r="F190" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A191" s="3">
+        <v>45443</v>
+      </c>
+      <c r="B191" t="s">
+        <v>103</v>
+      </c>
+      <c r="C191" t="s">
+        <v>212</v>
+      </c>
+      <c r="D191" t="s">
+        <v>206</v>
+      </c>
+      <c r="E191" t="s">
+        <v>9</v>
+      </c>
+      <c r="F191" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A192" s="3">
+        <v>45443</v>
+      </c>
+      <c r="B192" t="s">
+        <v>212</v>
+      </c>
+      <c r="C192" t="s">
+        <v>213</v>
+      </c>
+      <c r="D192" t="s">
+        <v>206</v>
+      </c>
+      <c r="E192" t="s">
+        <v>68</v>
+      </c>
+      <c r="F192" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A193" s="3">
+        <v>45443</v>
+      </c>
+      <c r="B193" t="s">
+        <v>213</v>
+      </c>
+      <c r="C193" t="s">
+        <v>214</v>
+      </c>
+      <c r="D193" t="s">
+        <v>206</v>
+      </c>
+      <c r="E193" t="s">
+        <v>9</v>
+      </c>
+      <c r="F193" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A194" s="3">
+        <v>45443</v>
+      </c>
+      <c r="B194" t="s">
+        <v>214</v>
+      </c>
+      <c r="C194" t="s">
+        <v>95</v>
+      </c>
+      <c r="D194" t="s">
+        <v>206</v>
+      </c>
+      <c r="E194" t="s">
+        <v>27</v>
+      </c>
+      <c r="F194" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A195" s="3">
+        <v>45443</v>
+      </c>
+      <c r="B195" t="s">
+        <v>95</v>
+      </c>
+      <c r="C195" t="s">
+        <v>11</v>
+      </c>
+      <c r="D195" t="s">
+        <v>206</v>
+      </c>
+      <c r="E195" t="s">
+        <v>9</v>
+      </c>
+      <c r="F195" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A196" s="3">
+        <v>45444</v>
+      </c>
+      <c r="B196" t="s">
+        <v>13</v>
+      </c>
+      <c r="C196" t="s">
+        <v>130</v>
+      </c>
+      <c r="D196" t="s">
+        <v>206</v>
+      </c>
+      <c r="E196" t="s">
+        <v>9</v>
+      </c>
+      <c r="F196" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A197" s="3">
+        <v>45444</v>
+      </c>
+      <c r="B197" t="s">
+        <v>130</v>
+      </c>
+      <c r="C197" t="s">
+        <v>215</v>
+      </c>
+      <c r="D197" t="s">
+        <v>135</v>
+      </c>
+      <c r="E197" t="s">
+        <v>35</v>
+      </c>
+      <c r="F197" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A198" s="3">
+        <v>45444</v>
+      </c>
+      <c r="B198" t="s">
+        <v>215</v>
+      </c>
+      <c r="C198" t="s">
+        <v>216</v>
+      </c>
+      <c r="D198" t="s">
+        <v>217</v>
+      </c>
+      <c r="E198" t="s">
+        <v>27</v>
+      </c>
+      <c r="F198" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A199" s="3">
+        <v>45444</v>
+      </c>
+      <c r="B199" t="s">
+        <v>218</v>
+      </c>
+      <c r="C199" t="s">
+        <v>219</v>
+      </c>
+      <c r="D199" t="s">
+        <v>220</v>
+      </c>
+      <c r="E199" t="s">
+        <v>9</v>
+      </c>
+      <c r="F199" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A200" s="3">
+        <v>45444</v>
+      </c>
+      <c r="B200" t="s">
+        <v>216</v>
+      </c>
+      <c r="C200" t="s">
+        <v>222</v>
+      </c>
+      <c r="D200" t="s">
+        <v>135</v>
+      </c>
+      <c r="E200" t="s">
+        <v>35</v>
+      </c>
+      <c r="F200" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A201" s="3">
+        <v>45444</v>
+      </c>
+      <c r="B201" t="s">
+        <v>219</v>
+      </c>
+      <c r="C201" t="s">
+        <v>223</v>
+      </c>
+      <c r="D201" t="s">
+        <v>220</v>
+      </c>
+      <c r="E201" t="s">
+        <v>9</v>
+      </c>
+      <c r="F201" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A202" s="3">
+        <v>45444</v>
+      </c>
+      <c r="B202" t="s">
+        <v>223</v>
+      </c>
+      <c r="C202" t="s">
+        <v>11</v>
+      </c>
+      <c r="D202" t="s">
+        <v>220</v>
+      </c>
+      <c r="E202" t="s">
+        <v>23</v>
+      </c>
+      <c r="F202" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F166" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:F202" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/output.xlsx
+++ b/output.xlsx
@@ -8,22 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\N9635226\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D76E0A8B-B314-45D9-B2AA-69E02EA57AD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BCB0368-4ECA-487A-9BDA-43395CD585D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26475" yWindow="5640" windowWidth="27000" windowHeight="14160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$202</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$193</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="215">
   <si>
     <t>Date</t>
   </si>
@@ -124,9 +137,6 @@
     <t>02:42:00</t>
   </si>
   <si>
-    <t>23:40:00</t>
-  </si>
-  <si>
     <t>DAWD</t>
   </si>
   <si>
@@ -157,39 +167,21 @@
     <t>07:45:00</t>
   </si>
   <si>
-    <t>12:03:00</t>
-  </si>
-  <si>
     <t>Pile</t>
   </si>
   <si>
     <t>15:50:00</t>
   </si>
   <si>
-    <t>22:36:00</t>
-  </si>
-  <si>
     <t>19:30:00</t>
   </si>
   <si>
     <t>DLB(Hammer)</t>
   </si>
   <si>
-    <t>18:39:00</t>
-  </si>
-  <si>
-    <t>17:18:00</t>
-  </si>
-  <si>
     <t>04:48:00</t>
   </si>
   <si>
-    <t>23:18:00</t>
-  </si>
-  <si>
-    <t>Leveling</t>
-  </si>
-  <si>
     <t>16:02:00</t>
   </si>
   <si>
@@ -226,9 +218,6 @@
     <t>13:38:00</t>
   </si>
   <si>
-    <t>Levelling</t>
-  </si>
-  <si>
     <t>WOW</t>
   </si>
   <si>
@@ -259,9 +248,6 @@
     <t>03:30:00</t>
   </si>
   <si>
-    <t>22:35:00</t>
-  </si>
-  <si>
     <t>06:00:00</t>
   </si>
   <si>
@@ -286,9 +272,6 @@
     <t>07:41:00</t>
   </si>
   <si>
-    <t>19:44:00</t>
-  </si>
-  <si>
     <t>23:55:00</t>
   </si>
   <si>
@@ -347,9 +330,6 @@
   </si>
   <si>
     <t>09:36:00</t>
-  </si>
-  <si>
-    <t>Additional Work</t>
   </si>
   <si>
     <t>21:45:00</t>
@@ -702,6 +682,10 @@
   </si>
   <si>
     <t>Pre-foold survey</t>
+  </si>
+  <si>
+    <t>Leveling</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -731,12 +715,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -766,7 +756,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -775,7 +765,11 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="21" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1078,15 +1072,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F202"/>
+  <dimension ref="A1:H194"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A187" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="8.88671875" style="5"/>
     <col min="5" max="5" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -1095,10 +1090,10 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -1115,10 +1110,10 @@
       <c r="A2" s="3">
         <v>45406</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D2" t="s">
@@ -1135,10 +1130,10 @@
       <c r="A3" s="3">
         <v>45406</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D3" t="s">
@@ -1155,10 +1150,10 @@
       <c r="A4" s="3">
         <v>45407</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D4" t="s">
@@ -1175,10 +1170,10 @@
       <c r="A5" s="3">
         <v>45407</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D5" t="s">
@@ -1195,10 +1190,10 @@
       <c r="A6" s="3">
         <v>45408</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D6" t="s">
@@ -1215,10 +1210,10 @@
       <c r="A7" s="3">
         <v>45408</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D7" t="s">
@@ -1235,10 +1230,10 @@
       <c r="A8" s="3">
         <v>45408</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D8" t="s">
@@ -1255,10 +1250,10 @@
       <c r="A9" s="3">
         <v>45409</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="5" t="s">
         <v>21</v>
       </c>
       <c r="D9" t="s">
@@ -1275,10 +1270,10 @@
       <c r="A10" s="3">
         <v>45409</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="5" t="s">
         <v>22</v>
       </c>
       <c r="D10" t="s">
@@ -1295,10 +1290,10 @@
       <c r="A11" s="3">
         <v>45409</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D11" t="s">
@@ -1315,10 +1310,10 @@
       <c r="A12" s="3">
         <v>45409</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D12" t="s">
@@ -1335,10 +1330,10 @@
       <c r="A13" s="3">
         <v>45409</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="5" t="s">
         <v>26</v>
       </c>
       <c r="D13" t="s">
@@ -1355,10 +1350,10 @@
       <c r="A14" s="3">
         <v>45409</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="5" t="s">
         <v>29</v>
       </c>
       <c r="D14" t="s">
@@ -1375,10 +1370,10 @@
       <c r="A15" s="3">
         <v>45409</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D15" t="s">
@@ -1395,10 +1390,10 @@
       <c r="A16" s="3">
         <v>45410</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D16" t="s">
@@ -1415,17 +1410,17 @@
       <c r="A17" s="3">
         <v>45410</v>
       </c>
-      <c r="B17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" t="s">
-        <v>33</v>
+      <c r="B17" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="D17" t="s">
+        <v>124</v>
+      </c>
+      <c r="E17" t="s">
         <v>34</v>
-      </c>
-      <c r="E17" t="s">
-        <v>18</v>
       </c>
       <c r="F17" t="s">
         <v>18</v>
@@ -1435,17 +1430,17 @@
       <c r="A18" s="3">
         <v>45410</v>
       </c>
-      <c r="B18" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="B18" s="5" t="s">
         <v>22</v>
       </c>
+      <c r="C18" s="5" t="s">
+        <v>35</v>
+      </c>
       <c r="D18" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="E18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F18" t="s">
         <v>18</v>
@@ -1455,37 +1450,37 @@
       <c r="A19" s="3">
         <v>45410</v>
       </c>
-      <c r="B19" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="B19" s="6">
+        <v>0.16319444444444445</v>
+      </c>
+      <c r="C19" s="5" t="s">
         <v>36</v>
       </c>
       <c r="D19" t="s">
-        <v>135</v>
+        <v>167</v>
       </c>
       <c r="E19" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="F19" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>45410</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="5" t="s">
         <v>37</v>
       </c>
       <c r="D20" t="s">
-        <v>178</v>
+        <v>33</v>
       </c>
       <c r="E20" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="F20" t="s">
         <v>10</v>
@@ -1495,34 +1490,34 @@
       <c r="A21" s="3">
         <v>45410</v>
       </c>
-      <c r="B21" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="B21" s="5" t="s">
         <v>38</v>
       </c>
+      <c r="C21" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="D21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E21" t="s">
         <v>23</v>
       </c>
       <c r="F21" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>45410</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C22" t="s">
-        <v>40</v>
+      <c r="C22" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="D22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E22" t="s">
         <v>23</v>
@@ -1533,916 +1528,916 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
-        <v>45410</v>
-      </c>
-      <c r="B23" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23" t="s">
-        <v>11</v>
+        <v>45411</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="D23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E23" t="s">
         <v>23</v>
       </c>
       <c r="F23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>45411</v>
       </c>
-      <c r="B24" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="B24" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24" t="s">
+        <v>23</v>
+      </c>
+      <c r="F24" t="s">
         <v>43</v>
-      </c>
-      <c r="D24" t="s">
-        <v>34</v>
-      </c>
-      <c r="E24" t="s">
-        <v>23</v>
-      </c>
-      <c r="F24" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
-        <v>45411</v>
-      </c>
-      <c r="B25" t="s">
+        <v>45412</v>
+      </c>
+      <c r="B25" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="5" t="s">
         <v>44</v>
       </c>
       <c r="D25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E25" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F25" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
-        <v>45411</v>
-      </c>
-      <c r="B26" t="s">
-        <v>15</v>
-      </c>
-      <c r="C26" t="s">
-        <v>11</v>
+        <v>45412</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="D26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E26" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>45412</v>
       </c>
-      <c r="B27" t="s">
-        <v>13</v>
-      </c>
-      <c r="C27" t="s">
-        <v>46</v>
+      <c r="B27" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="D27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E27" t="s">
         <v>23</v>
       </c>
       <c r="F27" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
-        <v>45412</v>
-      </c>
-      <c r="B28" t="s">
+        <v>45413</v>
+      </c>
+      <c r="B28" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C28" t="s">
-        <v>47</v>
+      <c r="C28" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="D28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E28" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F28" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
-        <v>45412</v>
-      </c>
-      <c r="B29" t="s">
-        <v>46</v>
-      </c>
-      <c r="C29" t="s">
-        <v>48</v>
+        <v>45414</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="D29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E29" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F29" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
-        <v>45412</v>
-      </c>
-      <c r="B30" t="s">
-        <v>48</v>
-      </c>
-      <c r="C30" t="s">
-        <v>11</v>
+        <v>45415</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="D30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E30" t="s">
         <v>23</v>
       </c>
       <c r="F30" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
-        <v>45413</v>
-      </c>
-      <c r="B31" t="s">
-        <v>13</v>
-      </c>
-      <c r="C31" t="s">
-        <v>11</v>
+        <v>45415</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="D31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E31" t="s">
         <v>23</v>
       </c>
       <c r="F31" t="s">
-        <v>45</v>
+        <v>214</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
-        <v>45413</v>
-      </c>
-      <c r="B32" t="s">
-        <v>13</v>
-      </c>
-      <c r="C32" t="s">
-        <v>50</v>
+        <v>45415</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="D32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E32" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F32" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
-        <v>45414</v>
-      </c>
-      <c r="B33" t="s">
-        <v>13</v>
-      </c>
-      <c r="C33" t="s">
-        <v>11</v>
+        <v>45415</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>51</v>
       </c>
       <c r="D33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E33" t="s">
         <v>23</v>
       </c>
       <c r="F33" t="s">
-        <v>45</v>
+        <v>214</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
-        <v>45414</v>
-      </c>
-      <c r="B34" t="s">
-        <v>13</v>
-      </c>
-      <c r="C34" t="s">
-        <v>51</v>
+        <v>45415</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>53</v>
       </c>
       <c r="D34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F34" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>45415</v>
       </c>
-      <c r="B35" t="s">
-        <v>13</v>
-      </c>
-      <c r="C35" t="s">
-        <v>52</v>
+      <c r="B35" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>55</v>
       </c>
       <c r="D35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E35" t="s">
         <v>23</v>
       </c>
       <c r="F35" t="s">
-        <v>45</v>
+        <v>214</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>45415</v>
       </c>
-      <c r="B36" t="s">
-        <v>13</v>
-      </c>
-      <c r="C36" t="s">
-        <v>53</v>
+      <c r="B36" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="D36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E36" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F36" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
-        <v>45415</v>
-      </c>
-      <c r="B37" t="s">
-        <v>52</v>
-      </c>
-      <c r="C37" t="s">
-        <v>46</v>
+        <v>45416</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>56</v>
       </c>
       <c r="D37" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E37" t="s">
         <v>23</v>
       </c>
       <c r="F37" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
-        <v>45415</v>
-      </c>
-      <c r="B38" t="s">
-        <v>55</v>
-      </c>
-      <c r="C38" t="s">
+        <v>45416</v>
+      </c>
+      <c r="B38" s="5" t="s">
         <v>56</v>
       </c>
+      <c r="C38" s="5" t="s">
+        <v>57</v>
+      </c>
       <c r="D38" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E38" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F38" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
-        <v>45415</v>
-      </c>
-      <c r="B39" t="s">
+        <v>45416</v>
+      </c>
+      <c r="B39" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C39" t="s">
-        <v>58</v>
+      <c r="C39" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="D39" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E39" t="s">
         <v>23</v>
       </c>
       <c r="F39" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
-        <v>45415</v>
-      </c>
-      <c r="B40" t="s">
-        <v>59</v>
-      </c>
-      <c r="C40" t="s">
-        <v>60</v>
+        <v>45417</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>58</v>
       </c>
       <c r="D40" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E40" t="s">
         <v>23</v>
       </c>
       <c r="F40" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
-        <v>45415</v>
-      </c>
-      <c r="B41" t="s">
-        <v>61</v>
-      </c>
-      <c r="C41" t="s">
-        <v>62</v>
+        <v>45417</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>59</v>
       </c>
       <c r="D41" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E41" t="s">
         <v>23</v>
       </c>
       <c r="F41" t="s">
-        <v>54</v>
+        <v>214</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
-        <v>45415</v>
-      </c>
-      <c r="B42" t="s">
-        <v>62</v>
-      </c>
-      <c r="C42" t="s">
-        <v>11</v>
+        <v>45417</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>61</v>
       </c>
       <c r="D42" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E42" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="F42" t="s">
-        <v>45</v>
+        <v>166</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
-        <v>45416</v>
-      </c>
-      <c r="B43" t="s">
-        <v>13</v>
-      </c>
-      <c r="C43" t="s">
-        <v>63</v>
+        <v>45417</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>62</v>
       </c>
       <c r="D43" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E43" t="s">
         <v>23</v>
       </c>
       <c r="F43" t="s">
-        <v>45</v>
+        <v>214</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
-        <v>45416</v>
-      </c>
-      <c r="B44" t="s">
-        <v>13</v>
-      </c>
-      <c r="C44" t="s">
+        <v>45417</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C44" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D44" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E44" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F44" t="s">
-        <v>18</v>
+        <v>64</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
-        <v>45416</v>
-      </c>
-      <c r="B45" t="s">
-        <v>63</v>
-      </c>
-      <c r="C45" t="s">
+        <v>45418</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D45" t="s">
+        <v>33</v>
+      </c>
+      <c r="E45" t="s">
+        <v>23</v>
+      </c>
+      <c r="F45" t="s">
         <v>64</v>
-      </c>
-      <c r="D45" t="s">
-        <v>34</v>
-      </c>
-      <c r="E45" t="s">
-        <v>27</v>
-      </c>
-      <c r="F45" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
-        <v>45416</v>
-      </c>
-      <c r="B46" t="s">
-        <v>64</v>
-      </c>
-      <c r="C46" t="s">
-        <v>11</v>
+        <v>45418</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>65</v>
       </c>
       <c r="D46" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E46" t="s">
         <v>23</v>
       </c>
       <c r="F46" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
-        <v>45417</v>
-      </c>
-      <c r="B47" t="s">
-        <v>13</v>
-      </c>
-      <c r="C47" t="s">
-        <v>65</v>
+        <v>45418</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>67</v>
       </c>
       <c r="D47" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E47" t="s">
         <v>23</v>
       </c>
       <c r="F47" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
-        <v>45417</v>
-      </c>
-      <c r="B48" t="s">
-        <v>65</v>
-      </c>
-      <c r="C48" t="s">
-        <v>66</v>
+        <v>45418</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="D48" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E48" t="s">
         <v>23</v>
       </c>
       <c r="F48" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
-        <v>45417</v>
-      </c>
-      <c r="B49" t="s">
-        <v>66</v>
-      </c>
-      <c r="C49" t="s">
+        <v>45419</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C49" s="5" t="s">
         <v>69</v>
       </c>
       <c r="D49" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E49" t="s">
+        <v>23</v>
+      </c>
+      <c r="F49" t="s">
         <v>68</v>
-      </c>
-      <c r="F49" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
-        <v>45417</v>
-      </c>
-      <c r="B50" t="s">
+        <v>45419</v>
+      </c>
+      <c r="B50" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="5" t="s">
         <v>70</v>
       </c>
       <c r="D50" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E50" t="s">
         <v>23</v>
       </c>
       <c r="F50" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
-        <v>45417</v>
-      </c>
-      <c r="B51" t="s">
-        <v>71</v>
-      </c>
-      <c r="C51" t="s">
-        <v>11</v>
+        <v>45419</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>72</v>
       </c>
       <c r="D51" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E51" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="F51" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
-        <v>45418</v>
-      </c>
-      <c r="B52" t="s">
-        <v>13</v>
-      </c>
-      <c r="C52" t="s">
-        <v>6</v>
+        <v>45419</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>74</v>
       </c>
       <c r="D52" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E52" t="s">
         <v>23</v>
       </c>
       <c r="F52" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
-        <v>45418</v>
-      </c>
-      <c r="B53" t="s">
-        <v>6</v>
-      </c>
-      <c r="C53" t="s">
-        <v>73</v>
+        <v>45419</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="D53" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E53" t="s">
         <v>23</v>
       </c>
       <c r="F53" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
-        <v>45418</v>
-      </c>
-      <c r="B54" t="s">
+        <v>45419</v>
+      </c>
+      <c r="B54" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="5" t="s">
         <v>75</v>
       </c>
       <c r="D54" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E54" t="s">
         <v>23</v>
       </c>
       <c r="F54" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
-        <v>45418</v>
-      </c>
-      <c r="B55" t="s">
+        <v>45419</v>
+      </c>
+      <c r="B55" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C55" t="s">
-        <v>11</v>
+      <c r="C55" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="D55" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E55" t="s">
         <v>23</v>
       </c>
       <c r="F55" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
         <v>45419</v>
       </c>
-      <c r="B56" t="s">
-        <v>13</v>
-      </c>
-      <c r="C56" t="s">
-        <v>77</v>
+      <c r="B56" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C56" s="6">
+        <v>0.74305555555555547</v>
       </c>
       <c r="D56" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E56" t="s">
         <v>23</v>
       </c>
       <c r="F56" t="s">
-        <v>76</v>
+        <v>40</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
         <v>45419</v>
       </c>
-      <c r="B57" t="s">
-        <v>13</v>
-      </c>
-      <c r="C57" t="s">
-        <v>78</v>
+      <c r="B57" s="6">
+        <v>0.74305555555555547</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="D57" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E57" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F57" t="s">
-        <v>18</v>
+        <v>76</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
-        <v>45419</v>
-      </c>
-      <c r="B58" t="s">
+        <v>45420</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C58" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C58" t="s">
-        <v>79</v>
-      </c>
       <c r="D58" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E58" t="s">
         <v>23</v>
       </c>
       <c r="F58" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
-        <v>45419</v>
-      </c>
-      <c r="B59" t="s">
+        <v>45420</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D59" t="s">
+        <v>33</v>
+      </c>
+      <c r="E59" t="s">
+        <v>23</v>
+      </c>
+      <c r="F59" t="s">
         <v>79</v>
-      </c>
-      <c r="C59" t="s">
-        <v>81</v>
-      </c>
-      <c r="D59" t="s">
-        <v>34</v>
-      </c>
-      <c r="E59" t="s">
-        <v>68</v>
-      </c>
-      <c r="F59" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
-        <v>45419</v>
-      </c>
-      <c r="B60" t="s">
-        <v>81</v>
-      </c>
-      <c r="C60" t="s">
-        <v>83</v>
+        <v>45421</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>80</v>
       </c>
       <c r="D60" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E60" t="s">
         <v>23</v>
       </c>
       <c r="F60" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
-        <v>45419</v>
-      </c>
-      <c r="B61" t="s">
-        <v>83</v>
-      </c>
-      <c r="C61" t="s">
-        <v>17</v>
+        <v>45421</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>81</v>
       </c>
       <c r="D61" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E61" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="F61" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="3">
-        <v>45419</v>
-      </c>
-      <c r="B62" t="s">
-        <v>83</v>
-      </c>
-      <c r="C62" t="s">
-        <v>84</v>
+        <v>45421</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>82</v>
       </c>
       <c r="D62" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E62" t="s">
         <v>23</v>
       </c>
       <c r="F62" t="s">
-        <v>41</v>
+        <v>79</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="3">
-        <v>45419</v>
-      </c>
-      <c r="B63" t="s">
-        <v>84</v>
-      </c>
-      <c r="C63" t="s">
-        <v>17</v>
+        <v>45421</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>83</v>
       </c>
       <c r="D63" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E63" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="F63" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="3">
-        <v>45419</v>
-      </c>
-      <c r="B64" t="s">
-        <v>17</v>
-      </c>
-      <c r="C64" s="4">
-        <v>0.74305555555555547</v>
+        <v>45421</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>84</v>
       </c>
       <c r="D64" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E64" t="s">
         <v>23</v>
       </c>
       <c r="F64" t="s">
-        <v>41</v>
+        <v>79</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="3">
-        <v>45419</v>
-      </c>
-      <c r="B65" s="4">
-        <v>0.74305555555555547</v>
-      </c>
-      <c r="C65" t="s">
-        <v>11</v>
+        <v>45421</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>65</v>
       </c>
       <c r="D65" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E65" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="F65" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="3">
-        <v>45420</v>
-      </c>
-      <c r="B66" t="s">
-        <v>13</v>
-      </c>
-      <c r="C66" t="s">
-        <v>86</v>
+        <v>45421</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>85</v>
       </c>
       <c r="D66" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E66" t="s">
         <v>23</v>
       </c>
       <c r="F66" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="3">
-        <v>45420</v>
-      </c>
-      <c r="B67" t="s">
+        <v>45422</v>
+      </c>
+      <c r="B67" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C67" t="s">
-        <v>87</v>
+      <c r="C67" s="5" t="s">
+        <v>86</v>
       </c>
       <c r="D67" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E67" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F67" t="s">
-        <v>18</v>
+        <v>79</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="3">
-        <v>45420</v>
-      </c>
-      <c r="B68" t="s">
-        <v>86</v>
-      </c>
-      <c r="C68" t="s">
+        <v>45422</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C68" s="5" t="s">
         <v>88</v>
       </c>
       <c r="D68" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E68" t="s">
         <v>23</v>
@@ -2453,56 +2448,56 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="3">
-        <v>45421</v>
-      </c>
-      <c r="B69" t="s">
-        <v>13</v>
-      </c>
-      <c r="C69" t="s">
-        <v>90</v>
+        <v>45422</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>81</v>
       </c>
       <c r="D69" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E69" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="F69" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="3">
-        <v>45421</v>
-      </c>
-      <c r="B70" t="s">
+        <v>45422</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C70" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C70" t="s">
-        <v>91</v>
-      </c>
       <c r="D70" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E70" t="s">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="F70" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="3">
-        <v>45421</v>
-      </c>
-      <c r="B71" t="s">
+        <v>45422</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C71" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C71" t="s">
-        <v>92</v>
-      </c>
       <c r="D71" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E71" t="s">
         <v>23</v>
@@ -2513,76 +2508,76 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="3">
-        <v>45421</v>
-      </c>
-      <c r="B72" t="s">
+        <v>45422</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C72" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C72" t="s">
-        <v>93</v>
-      </c>
       <c r="D72" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E72" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F72" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="3">
-        <v>45421</v>
-      </c>
-      <c r="B73" t="s">
+        <v>45422</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C73" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="C73" t="s">
+      <c r="D73" t="s">
+        <v>33</v>
+      </c>
+      <c r="E73" t="s">
+        <v>9</v>
+      </c>
+      <c r="F73" t="s">
         <v>94</v>
-      </c>
-      <c r="D73" t="s">
-        <v>34</v>
-      </c>
-      <c r="E73" t="s">
-        <v>23</v>
-      </c>
-      <c r="F73" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="3">
-        <v>45421</v>
-      </c>
-      <c r="B74" t="s">
+        <v>45422</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D74" t="s">
+        <v>33</v>
+      </c>
+      <c r="E74" t="s">
+        <v>9</v>
+      </c>
+      <c r="F74" t="s">
         <v>94</v>
-      </c>
-      <c r="C74" t="s">
-        <v>73</v>
-      </c>
-      <c r="D74" t="s">
-        <v>34</v>
-      </c>
-      <c r="E74" t="s">
-        <v>68</v>
-      </c>
-      <c r="F74" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="3">
-        <v>45421</v>
-      </c>
-      <c r="B75" t="s">
-        <v>73</v>
-      </c>
-      <c r="C75" t="s">
+        <v>45422</v>
+      </c>
+      <c r="B75" s="5" t="s">
         <v>95</v>
       </c>
+      <c r="C75" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="D75" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E75" t="s">
         <v>23</v>
@@ -2593,16 +2588,16 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="3">
-        <v>45422</v>
-      </c>
-      <c r="B76" t="s">
+        <v>45423</v>
+      </c>
+      <c r="B76" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C76" s="5" t="s">
         <v>96</v>
       </c>
       <c r="D76" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E76" t="s">
         <v>23</v>
@@ -2613,473 +2608,477 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="3">
-        <v>45422</v>
-      </c>
-      <c r="B77" t="s">
+        <v>45423</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C77" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="C77" t="s">
-        <v>98</v>
-      </c>
       <c r="D77" t="s">
-        <v>34</v>
+        <v>167</v>
       </c>
       <c r="E77" t="s">
-        <v>23</v>
+        <v>177</v>
       </c>
       <c r="F77" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="3">
-        <v>45422</v>
-      </c>
-      <c r="B78" t="s">
+        <v>45423</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C78" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C78" t="s">
-        <v>91</v>
-      </c>
       <c r="D78" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E78" t="s">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="F78" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="3">
-        <v>45422</v>
-      </c>
-      <c r="B79" t="s">
-        <v>91</v>
-      </c>
-      <c r="C79" t="s">
-        <v>100</v>
+        <v>45423</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="D79" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E79" t="s">
         <v>23</v>
       </c>
       <c r="F79" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="3">
-        <v>45422</v>
-      </c>
-      <c r="B80" t="s">
+        <v>45424</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D80" t="s">
+        <v>33</v>
+      </c>
+      <c r="E80" t="s">
+        <v>23</v>
+      </c>
+      <c r="F80" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A81" s="3">
+        <v>45424</v>
+      </c>
+      <c r="B81" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C81" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D81" t="s">
+        <v>33</v>
+      </c>
+      <c r="E81" t="s">
+        <v>23</v>
+      </c>
+      <c r="F81" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A82" s="3">
+        <v>45424</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C82" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D82" t="s">
+        <v>33</v>
+      </c>
+      <c r="E82" t="s">
+        <v>60</v>
+      </c>
+      <c r="F82" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A83" s="3">
+        <v>45424</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D83" t="s">
+        <v>33</v>
+      </c>
+      <c r="E83" t="s">
+        <v>23</v>
+      </c>
+      <c r="F83" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A84" s="3">
+        <v>45424</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D84" t="s">
+        <v>33</v>
+      </c>
+      <c r="E84" t="s">
+        <v>23</v>
+      </c>
+      <c r="F84" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A85" s="3">
+        <v>45424</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D85" t="s">
+        <v>33</v>
+      </c>
+      <c r="E85" t="s">
+        <v>23</v>
+      </c>
+      <c r="F85" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A86" s="3">
+        <v>45424</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D86" t="s">
+        <v>33</v>
+      </c>
+      <c r="E86" t="s">
+        <v>23</v>
+      </c>
+      <c r="F86" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A87" s="3">
+        <v>45424</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D87" t="s">
+        <v>33</v>
+      </c>
+      <c r="E87" t="s">
+        <v>23</v>
+      </c>
+      <c r="F87" t="s">
+        <v>79</v>
+      </c>
+      <c r="H87">
+        <f>C87-B78</f>
+        <v>0.3118055555555555</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A88" s="3">
+        <v>45424</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D88" t="s">
+        <v>124</v>
+      </c>
+      <c r="E88" t="s">
         <v>34</v>
       </c>
-      <c r="E80" t="s">
-        <v>23</v>
-      </c>
-      <c r="F80" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A81" s="3">
-        <v>45422</v>
-      </c>
-      <c r="B81" t="s">
-        <v>101</v>
-      </c>
-      <c r="C81" t="s">
-        <v>102</v>
-      </c>
-      <c r="D81" t="s">
-        <v>34</v>
-      </c>
-      <c r="E81" t="s">
-        <v>68</v>
-      </c>
-      <c r="F81" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A82" s="3">
-        <v>45422</v>
-      </c>
-      <c r="B82" t="s">
-        <v>102</v>
-      </c>
-      <c r="C82" t="s">
-        <v>103</v>
-      </c>
-      <c r="D82" t="s">
-        <v>34</v>
-      </c>
-      <c r="E82" t="s">
-        <v>23</v>
-      </c>
-      <c r="F82" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A83" s="3">
-        <v>45422</v>
-      </c>
-      <c r="B83" t="s">
-        <v>103</v>
-      </c>
-      <c r="C83" t="s">
-        <v>105</v>
-      </c>
-      <c r="D83" t="s">
-        <v>34</v>
-      </c>
-      <c r="E83" t="s">
-        <v>9</v>
-      </c>
-      <c r="F83" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A84" s="3">
-        <v>45422</v>
-      </c>
-      <c r="B84" t="s">
-        <v>105</v>
-      </c>
-      <c r="C84" t="s">
-        <v>11</v>
-      </c>
-      <c r="D84" t="s">
-        <v>34</v>
-      </c>
-      <c r="E84" t="s">
-        <v>23</v>
-      </c>
-      <c r="F84" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A85" s="3">
-        <v>45423</v>
-      </c>
-      <c r="B85" t="s">
-        <v>13</v>
-      </c>
-      <c r="C85" t="s">
-        <v>106</v>
-      </c>
-      <c r="D85" t="s">
-        <v>34</v>
-      </c>
-      <c r="E85" t="s">
-        <v>23</v>
-      </c>
-      <c r="F85" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A86" s="3">
-        <v>45423</v>
-      </c>
-      <c r="B86" t="s">
-        <v>106</v>
-      </c>
-      <c r="C86" t="s">
-        <v>107</v>
-      </c>
-      <c r="D86" t="s">
-        <v>178</v>
-      </c>
-      <c r="E86" t="s">
-        <v>108</v>
-      </c>
-      <c r="F86" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A87" s="3">
-        <v>45423</v>
-      </c>
-      <c r="B87" t="s">
-        <v>107</v>
-      </c>
-      <c r="C87" t="s">
-        <v>109</v>
-      </c>
-      <c r="D87" t="s">
-        <v>34</v>
-      </c>
-      <c r="E87" t="s">
-        <v>23</v>
-      </c>
-      <c r="F87" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A88" s="3">
-        <v>45423</v>
-      </c>
-      <c r="B88" t="s">
-        <v>109</v>
-      </c>
-      <c r="C88" t="s">
-        <v>11</v>
-      </c>
-      <c r="D88" t="s">
-        <v>34</v>
-      </c>
-      <c r="E88" t="s">
-        <v>23</v>
-      </c>
       <c r="F88" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="3">
         <v>45424</v>
       </c>
-      <c r="B89" t="s">
-        <v>13</v>
-      </c>
-      <c r="C89" t="s">
-        <v>110</v>
+      <c r="B89" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>107</v>
       </c>
       <c r="D89" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="E89" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="F89" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="3">
         <v>45424</v>
       </c>
-      <c r="B90" t="s">
-        <v>111</v>
-      </c>
-      <c r="C90" t="s">
+      <c r="B90" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D90" t="s">
+        <v>8</v>
+      </c>
+      <c r="E90" t="s">
+        <v>9</v>
+      </c>
+      <c r="F90" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A91" s="3">
+        <v>45425</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D91" t="s">
+        <v>8</v>
+      </c>
+      <c r="E91" t="s">
+        <v>9</v>
+      </c>
+      <c r="F91" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A92" s="3">
+        <v>45425</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D92" t="s">
+        <v>8</v>
+      </c>
+      <c r="E92" t="s">
+        <v>177</v>
+      </c>
+      <c r="F92" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A93" s="3">
+        <v>45425</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D93" t="s">
+        <v>8</v>
+      </c>
+      <c r="E93" t="s">
+        <v>9</v>
+      </c>
+      <c r="F93" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A94" s="3">
+        <v>45426</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D94" t="s">
+        <v>8</v>
+      </c>
+      <c r="E94" t="s">
+        <v>9</v>
+      </c>
+      <c r="F94" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A95" s="3">
+        <v>45427</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C95" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="D90" t="s">
-        <v>34</v>
-      </c>
-      <c r="E90" t="s">
-        <v>23</v>
-      </c>
-      <c r="F90" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A91" s="3">
-        <v>45424</v>
-      </c>
-      <c r="B91" t="s">
-        <v>110</v>
-      </c>
-      <c r="C91" t="s">
-        <v>112</v>
-      </c>
-      <c r="D91" t="s">
-        <v>34</v>
-      </c>
-      <c r="E91" t="s">
-        <v>68</v>
-      </c>
-      <c r="F91" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A92" s="3">
-        <v>45424</v>
-      </c>
-      <c r="B92" t="s">
-        <v>112</v>
-      </c>
-      <c r="C92" t="s">
-        <v>113</v>
-      </c>
-      <c r="D92" t="s">
-        <v>34</v>
-      </c>
-      <c r="E92" t="s">
-        <v>23</v>
-      </c>
-      <c r="F92" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A93" s="3">
-        <v>45424</v>
-      </c>
-      <c r="B93" t="s">
-        <v>112</v>
-      </c>
-      <c r="C93" t="s">
-        <v>114</v>
-      </c>
-      <c r="D93" t="s">
-        <v>34</v>
-      </c>
-      <c r="E93" t="s">
-        <v>23</v>
-      </c>
-      <c r="F93" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A94" s="3">
-        <v>45424</v>
-      </c>
-      <c r="B94" t="s">
-        <v>113</v>
-      </c>
-      <c r="C94" t="s">
-        <v>115</v>
-      </c>
-      <c r="D94" t="s">
-        <v>34</v>
-      </c>
-      <c r="E94" t="s">
-        <v>23</v>
-      </c>
-      <c r="F94" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A95" s="3">
-        <v>45424</v>
-      </c>
-      <c r="B95" t="s">
-        <v>114</v>
-      </c>
-      <c r="C95" t="s">
-        <v>46</v>
-      </c>
       <c r="D95" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="E95" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="F95" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" s="3">
-        <v>45424</v>
-      </c>
-      <c r="B96" t="s">
-        <v>46</v>
-      </c>
-      <c r="C96" t="s">
-        <v>116</v>
+        <v>45428</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="D96" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="E96" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="F96" t="s">
-        <v>89</v>
+        <v>20</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" s="3">
-        <v>45424</v>
-      </c>
-      <c r="B97" t="s">
-        <v>116</v>
-      </c>
-      <c r="C97" t="s">
-        <v>117</v>
+        <v>45428</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>111</v>
       </c>
       <c r="D97" t="s">
-        <v>135</v>
+        <v>8</v>
       </c>
       <c r="E97" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="F97" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" s="3">
-        <v>45424</v>
-      </c>
-      <c r="B98" t="s">
-        <v>117</v>
-      </c>
-      <c r="C98" t="s">
-        <v>118</v>
+        <v>45428</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="D98" t="s">
         <v>8</v>
       </c>
       <c r="E98" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="F98" t="s">
-        <v>16</v>
+        <v>169</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" s="3">
-        <v>45424</v>
-      </c>
-      <c r="B99" t="s">
-        <v>118</v>
-      </c>
-      <c r="C99" t="s">
-        <v>11</v>
+        <v>45429</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>70</v>
       </c>
       <c r="D99" t="s">
         <v>8</v>
       </c>
       <c r="E99" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="F99" t="s">
-        <v>12</v>
+        <v>169</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" s="3">
-        <v>45425</v>
-      </c>
-      <c r="B100" t="s">
-        <v>13</v>
-      </c>
-      <c r="C100" t="s">
-        <v>119</v>
+        <v>45429</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>101</v>
       </c>
       <c r="D100" t="s">
         <v>8</v>
@@ -3088,37 +3087,37 @@
         <v>9</v>
       </c>
       <c r="F100" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" s="3">
-        <v>45425</v>
-      </c>
-      <c r="B101" t="s">
-        <v>119</v>
-      </c>
-      <c r="C101" t="s">
-        <v>120</v>
+        <v>45429</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>112</v>
       </c>
       <c r="D101" t="s">
         <v>8</v>
       </c>
       <c r="E101" t="s">
-        <v>108</v>
+        <v>60</v>
       </c>
       <c r="F101" t="s">
-        <v>182</v>
+        <v>73</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" s="3">
-        <v>45425</v>
-      </c>
-      <c r="B102" t="s">
-        <v>120</v>
-      </c>
-      <c r="C102" t="s">
+        <v>45429</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C102" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D102" t="s">
@@ -3128,18 +3127,18 @@
         <v>9</v>
       </c>
       <c r="F102" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" s="3">
-        <v>45426</v>
-      </c>
-      <c r="B103" t="s">
+        <v>45430</v>
+      </c>
+      <c r="B103" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C103" t="s">
-        <v>11</v>
+      <c r="C103" s="5" t="s">
+        <v>113</v>
       </c>
       <c r="D103" t="s">
         <v>8</v>
@@ -3148,18 +3147,18 @@
         <v>9</v>
       </c>
       <c r="F103" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" s="3">
-        <v>45427</v>
-      </c>
-      <c r="B104" t="s">
-        <v>13</v>
-      </c>
-      <c r="C104" t="s">
-        <v>121</v>
+        <v>45430</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>115</v>
       </c>
       <c r="D104" t="s">
         <v>8</v>
@@ -3168,18 +3167,18 @@
         <v>9</v>
       </c>
       <c r="F104" t="s">
-        <v>16</v>
+        <v>94</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" s="3">
-        <v>45428</v>
-      </c>
-      <c r="B105" t="s">
-        <v>13</v>
-      </c>
-      <c r="C105" t="s">
-        <v>29</v>
+        <v>45430</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C105" s="6">
+        <v>0.97569444444444453</v>
       </c>
       <c r="D105" t="s">
         <v>8</v>
@@ -3188,78 +3187,78 @@
         <v>9</v>
       </c>
       <c r="F105" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" s="3">
-        <v>45428</v>
-      </c>
-      <c r="B106" t="s">
-        <v>29</v>
-      </c>
-      <c r="C106" t="s">
-        <v>122</v>
+        <v>45431</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>117</v>
       </c>
       <c r="D106" t="s">
         <v>8</v>
       </c>
       <c r="E106" t="s">
-        <v>68</v>
+        <v>9</v>
       </c>
       <c r="F106" t="s">
-        <v>82</v>
+        <v>12</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" s="3">
-        <v>45428</v>
-      </c>
-      <c r="B107" t="s">
-        <v>122</v>
-      </c>
-      <c r="C107" t="s">
-        <v>11</v>
+        <v>45431</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>118</v>
       </c>
       <c r="D107" t="s">
         <v>8</v>
       </c>
       <c r="E107" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="F107" t="s">
-        <v>180</v>
+        <v>73</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" s="3">
-        <v>45429</v>
-      </c>
-      <c r="B108" t="s">
-        <v>13</v>
-      </c>
-      <c r="C108" t="s">
-        <v>79</v>
+        <v>45431</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>119</v>
       </c>
       <c r="D108" t="s">
         <v>8</v>
       </c>
       <c r="E108" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="F108" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" s="3">
-        <v>45429</v>
-      </c>
-      <c r="B109" t="s">
-        <v>79</v>
-      </c>
-      <c r="C109" t="s">
-        <v>112</v>
+        <v>45431</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>120</v>
       </c>
       <c r="D109" t="s">
         <v>8</v>
@@ -3268,38 +3267,38 @@
         <v>9</v>
       </c>
       <c r="F109" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" s="3">
-        <v>45429</v>
-      </c>
-      <c r="B110" t="s">
-        <v>112</v>
-      </c>
-      <c r="C110" t="s">
-        <v>123</v>
+        <v>45431</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>121</v>
       </c>
       <c r="D110" t="s">
         <v>8</v>
       </c>
       <c r="E110" t="s">
-        <v>68</v>
+        <v>9</v>
       </c>
       <c r="F110" t="s">
-        <v>82</v>
+        <v>30</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" s="3">
-        <v>45429</v>
-      </c>
-      <c r="B111" t="s">
-        <v>123</v>
-      </c>
-      <c r="C111" t="s">
-        <v>11</v>
+        <v>45431</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>122</v>
       </c>
       <c r="D111" t="s">
         <v>8</v>
@@ -3308,1021 +3307,1021 @@
         <v>9</v>
       </c>
       <c r="F111" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" s="3">
-        <v>45430</v>
-      </c>
-      <c r="B112" t="s">
-        <v>13</v>
-      </c>
-      <c r="C112" t="s">
+        <v>45431</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D112" t="s">
         <v>124</v>
       </c>
-      <c r="D112" t="s">
-        <v>8</v>
-      </c>
       <c r="E112" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="F112" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" s="3">
-        <v>45430</v>
-      </c>
-      <c r="B113" t="s">
+        <v>45431</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C113" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="C113" t="s">
-        <v>126</v>
-      </c>
       <c r="D113" t="s">
-        <v>8</v>
+        <v>126</v>
       </c>
       <c r="E113" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="F113" t="s">
-        <v>104</v>
+        <v>40</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" s="3">
-        <v>45430</v>
-      </c>
-      <c r="B114" t="s">
+        <v>45431</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C114" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="C114" s="4">
-        <v>0.97569444444444453</v>
-      </c>
       <c r="D114" t="s">
-        <v>8</v>
+        <v>126</v>
       </c>
       <c r="E114" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="F114" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" s="3">
         <v>45431</v>
       </c>
-      <c r="B115" t="s">
-        <v>13</v>
-      </c>
-      <c r="C115" t="s">
+      <c r="B115" s="5" t="s">
         <v>128</v>
       </c>
+      <c r="C115" s="5" t="s">
+        <v>129</v>
+      </c>
       <c r="D115" t="s">
-        <v>8</v>
+        <v>126</v>
       </c>
       <c r="E115" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="F115" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" s="3">
         <v>45431</v>
       </c>
-      <c r="B116" t="s">
-        <v>128</v>
-      </c>
-      <c r="C116" t="s">
-        <v>129</v>
+      <c r="B116" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>78</v>
       </c>
       <c r="D116" t="s">
-        <v>8</v>
+        <v>126</v>
       </c>
       <c r="E116" t="s">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="F116" t="s">
-        <v>82</v>
+        <v>41</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" s="3">
         <v>45431</v>
       </c>
-      <c r="B117" t="s">
-        <v>129</v>
-      </c>
-      <c r="C117" t="s">
+      <c r="B117" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C117" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D117" t="s">
+        <v>126</v>
+      </c>
+      <c r="E117" t="s">
+        <v>27</v>
+      </c>
+      <c r="F117" t="s">
         <v>130</v>
-      </c>
-      <c r="D117" t="s">
-        <v>8</v>
-      </c>
-      <c r="E117" t="s">
-        <v>9</v>
-      </c>
-      <c r="F117" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" s="3">
-        <v>45431</v>
-      </c>
-      <c r="B118" t="s">
+        <v>45432</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C118" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D118" t="s">
+        <v>126</v>
+      </c>
+      <c r="E118" t="s">
+        <v>27</v>
+      </c>
+      <c r="F118" t="s">
         <v>130</v>
-      </c>
-      <c r="C118" t="s">
-        <v>131</v>
-      </c>
-      <c r="D118" t="s">
-        <v>8</v>
-      </c>
-      <c r="E118" t="s">
-        <v>9</v>
-      </c>
-      <c r="F118" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" s="3">
-        <v>45431</v>
-      </c>
-      <c r="B119" t="s">
+        <v>45432</v>
+      </c>
+      <c r="B119" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="C119" t="s">
+      <c r="C119" s="5" t="s">
         <v>132</v>
       </c>
       <c r="D119" t="s">
-        <v>8</v>
+        <v>126</v>
       </c>
       <c r="E119" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="F119" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" s="3">
-        <v>45431</v>
-      </c>
-      <c r="B120" t="s">
+        <v>45432</v>
+      </c>
+      <c r="B120" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="C120" t="s">
-        <v>133</v>
+      <c r="C120" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="D120" t="s">
-        <v>8</v>
+        <v>126</v>
       </c>
       <c r="E120" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="F120" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" s="3">
-        <v>45431</v>
-      </c>
-      <c r="B121" t="s">
+        <v>45433</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C121" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="C121" t="s">
-        <v>134</v>
-      </c>
       <c r="D121" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="E121" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="F121" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" s="3">
-        <v>45431</v>
-      </c>
-      <c r="B122" t="s">
+        <v>45433</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C122" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="C122" t="s">
-        <v>136</v>
-      </c>
       <c r="D122" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="E122" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="F122" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" s="3">
-        <v>45431</v>
-      </c>
-      <c r="B123" t="s">
-        <v>136</v>
-      </c>
-      <c r="C123" t="s">
-        <v>138</v>
+        <v>45433</v>
+      </c>
+      <c r="B123" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>82</v>
       </c>
       <c r="D123" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="E123" t="s">
         <v>23</v>
       </c>
       <c r="F123" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" s="3">
-        <v>45431</v>
-      </c>
-      <c r="B124" t="s">
-        <v>139</v>
-      </c>
-      <c r="C124" t="s">
-        <v>140</v>
+        <v>45433</v>
+      </c>
+      <c r="B124" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C124" s="5" t="s">
+        <v>135</v>
       </c>
       <c r="D124" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="E124" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="F124" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" s="3">
-        <v>45431</v>
-      </c>
-      <c r="B125" t="s">
-        <v>138</v>
-      </c>
-      <c r="C125" t="s">
-        <v>88</v>
+        <v>45433</v>
+      </c>
+      <c r="B125" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C125" s="5" t="s">
+        <v>136</v>
       </c>
       <c r="D125" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="E125" t="s">
         <v>23</v>
       </c>
       <c r="F125" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" s="3">
-        <v>45431</v>
-      </c>
-      <c r="B126" t="s">
-        <v>88</v>
-      </c>
-      <c r="C126" t="s">
-        <v>11</v>
+        <v>45433</v>
+      </c>
+      <c r="B126" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>137</v>
       </c>
       <c r="D126" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="E126" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F126" t="s">
-        <v>141</v>
+        <v>43</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" s="3">
-        <v>45432</v>
-      </c>
-      <c r="B127" t="s">
-        <v>13</v>
-      </c>
-      <c r="C127" t="s">
-        <v>142</v>
+        <v>45433</v>
+      </c>
+      <c r="B127" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C127" s="5" t="s">
+        <v>54</v>
       </c>
       <c r="D127" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="F127" t="s">
-        <v>141</v>
+        <v>73</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" s="3">
-        <v>45432</v>
-      </c>
-      <c r="B128" t="s">
-        <v>142</v>
-      </c>
-      <c r="C128" t="s">
-        <v>143</v>
+        <v>45433</v>
+      </c>
+      <c r="B128" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C128" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="D128" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="E128" t="s">
         <v>23</v>
       </c>
       <c r="F128" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" s="3">
-        <v>45432</v>
-      </c>
-      <c r="B129" t="s">
-        <v>143</v>
-      </c>
-      <c r="C129" t="s">
-        <v>11</v>
+        <v>45434</v>
+      </c>
+      <c r="B129" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C129" s="5" t="s">
+        <v>138</v>
       </c>
       <c r="D129" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="E129" t="s">
         <v>23</v>
       </c>
       <c r="F129" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" s="3">
-        <v>45433</v>
-      </c>
-      <c r="B130" t="s">
-        <v>13</v>
-      </c>
-      <c r="C130" t="s">
-        <v>144</v>
+        <v>45434</v>
+      </c>
+      <c r="B130" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C130" s="5" t="s">
+        <v>139</v>
       </c>
       <c r="D130" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="E130" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="F130" t="s">
-        <v>45</v>
+        <v>73</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" s="3">
-        <v>45433</v>
-      </c>
-      <c r="B131" t="s">
-        <v>144</v>
-      </c>
-      <c r="C131" t="s">
-        <v>145</v>
+        <v>45434</v>
+      </c>
+      <c r="B131" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C131" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="D131" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="E131" t="s">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="F131" t="s">
-        <v>82</v>
+        <v>43</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" s="3">
-        <v>45433</v>
-      </c>
-      <c r="B132" t="s">
-        <v>145</v>
-      </c>
-      <c r="C132" t="s">
-        <v>92</v>
+        <v>45435</v>
+      </c>
+      <c r="B132" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C132" s="5" t="s">
+        <v>140</v>
       </c>
       <c r="D132" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="E132" t="s">
         <v>23</v>
       </c>
       <c r="F132" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" s="3">
-        <v>45433</v>
-      </c>
-      <c r="B133" t="s">
-        <v>92</v>
-      </c>
-      <c r="C133" t="s">
-        <v>146</v>
+        <v>45435</v>
+      </c>
+      <c r="B133" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C133" s="5" t="s">
+        <v>141</v>
       </c>
       <c r="D133" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="E133" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F133" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" s="3">
-        <v>45433</v>
-      </c>
-      <c r="B134" t="s">
-        <v>146</v>
-      </c>
-      <c r="C134" t="s">
-        <v>147</v>
+        <v>45435</v>
+      </c>
+      <c r="B134" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C134" s="5" t="s">
+        <v>142</v>
       </c>
       <c r="D134" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="E134" t="s">
         <v>23</v>
       </c>
       <c r="F134" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" s="3">
-        <v>45433</v>
-      </c>
-      <c r="B135" t="s">
-        <v>147</v>
-      </c>
-      <c r="C135" t="s">
-        <v>148</v>
+        <v>45435</v>
+      </c>
+      <c r="B135" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C135" s="5" t="s">
+        <v>143</v>
       </c>
       <c r="D135" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="E135" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="F135" t="s">
-        <v>45</v>
+        <v>73</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" s="3">
-        <v>45433</v>
-      </c>
-      <c r="B136" t="s">
-        <v>148</v>
-      </c>
-      <c r="C136" t="s">
-        <v>61</v>
+        <v>45435</v>
+      </c>
+      <c r="B136" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C136" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="D136" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="E136" t="s">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="F136" t="s">
-        <v>82</v>
+        <v>43</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" s="3">
-        <v>45433</v>
-      </c>
-      <c r="B137" t="s">
-        <v>61</v>
-      </c>
-      <c r="C137" t="s">
-        <v>11</v>
+        <v>45436</v>
+      </c>
+      <c r="B137" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C137" s="5" t="s">
+        <v>144</v>
       </c>
       <c r="D137" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="E137" t="s">
         <v>23</v>
       </c>
       <c r="F137" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" s="3">
-        <v>45434</v>
-      </c>
-      <c r="B138" t="s">
-        <v>13</v>
-      </c>
-      <c r="C138" t="s">
-        <v>149</v>
+        <v>45436</v>
+      </c>
+      <c r="B138" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C138" s="5" t="s">
+        <v>146</v>
       </c>
       <c r="D138" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="E138" t="s">
         <v>23</v>
       </c>
       <c r="F138" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" s="3">
-        <v>45434</v>
-      </c>
-      <c r="B139" t="s">
-        <v>149</v>
-      </c>
-      <c r="C139" t="s">
-        <v>150</v>
+        <v>45436</v>
+      </c>
+      <c r="B139" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C139" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="D139" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="E139" t="s">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="F139" t="s">
-        <v>82</v>
+        <v>43</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" s="3">
-        <v>45434</v>
-      </c>
-      <c r="B140" t="s">
-        <v>150</v>
-      </c>
-      <c r="C140" t="s">
-        <v>11</v>
+        <v>45437</v>
+      </c>
+      <c r="B140" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C140" s="5" t="s">
+        <v>148</v>
       </c>
       <c r="D140" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="E140" t="s">
         <v>23</v>
       </c>
       <c r="F140" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" s="3">
-        <v>45435</v>
-      </c>
-      <c r="B141" t="s">
-        <v>13</v>
-      </c>
-      <c r="C141" t="s">
-        <v>151</v>
+        <v>45437</v>
+      </c>
+      <c r="B141" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C141" s="5" t="s">
+        <v>150</v>
       </c>
       <c r="D141" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="E141" t="s">
         <v>23</v>
       </c>
       <c r="F141" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142" s="3">
-        <v>45435</v>
-      </c>
-      <c r="B142" t="s">
+        <v>45437</v>
+      </c>
+      <c r="B142" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C142" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="C142" t="s">
-        <v>152</v>
-      </c>
       <c r="D142" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="E142" t="s">
+        <v>23</v>
+      </c>
+      <c r="F142" t="s">
         <v>68</v>
-      </c>
-      <c r="F142" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" s="3">
-        <v>45435</v>
-      </c>
-      <c r="B143" t="s">
+        <v>45437</v>
+      </c>
+      <c r="B143" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="C143" t="s">
+      <c r="C143" s="5" t="s">
         <v>153</v>
       </c>
       <c r="D143" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="E143" t="s">
         <v>23</v>
       </c>
       <c r="F143" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" s="3">
-        <v>45435</v>
-      </c>
-      <c r="B144" t="s">
+        <v>45437</v>
+      </c>
+      <c r="B144" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="C144" t="s">
-        <v>154</v>
+      <c r="C144" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="D144" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="E144" t="s">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="F144" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" s="3">
-        <v>45435</v>
-      </c>
-      <c r="B145" t="s">
+        <v>45438</v>
+      </c>
+      <c r="B145" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C145" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="C145" t="s">
-        <v>11</v>
-      </c>
       <c r="D145" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="E145" t="s">
         <v>23</v>
       </c>
       <c r="F145" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" s="3">
-        <v>45436</v>
-      </c>
-      <c r="B146" t="s">
-        <v>13</v>
-      </c>
-      <c r="C146" t="s">
+        <v>45438</v>
+      </c>
+      <c r="B146" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C146" s="5" t="s">
         <v>155</v>
       </c>
       <c r="D146" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="E146" t="s">
         <v>23</v>
       </c>
       <c r="F146" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" s="3">
-        <v>45436</v>
-      </c>
-      <c r="B147" t="s">
+        <v>45438</v>
+      </c>
+      <c r="B147" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C147" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="C147" t="s">
-        <v>157</v>
-      </c>
       <c r="D147" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="E147" t="s">
         <v>23</v>
       </c>
       <c r="F147" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" s="3">
-        <v>45436</v>
-      </c>
-      <c r="B148" t="s">
-        <v>158</v>
-      </c>
-      <c r="C148" t="s">
-        <v>11</v>
+        <v>45438</v>
+      </c>
+      <c r="B148" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C148" s="5" t="s">
+        <v>157</v>
       </c>
       <c r="D148" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="E148" t="s">
         <v>23</v>
       </c>
       <c r="F148" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" s="3">
-        <v>45437</v>
-      </c>
-      <c r="B149" t="s">
-        <v>13</v>
-      </c>
-      <c r="C149" t="s">
-        <v>159</v>
+        <v>45438</v>
+      </c>
+      <c r="B149" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C149" s="5" t="s">
+        <v>158</v>
       </c>
       <c r="D149" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="E149" t="s">
         <v>23</v>
       </c>
       <c r="F149" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" s="3">
-        <v>45437</v>
-      </c>
-      <c r="B150" t="s">
-        <v>160</v>
-      </c>
-      <c r="C150" t="s">
-        <v>161</v>
+        <v>45438</v>
+      </c>
+      <c r="B150" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C150" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="D150" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="E150" t="s">
         <v>23</v>
       </c>
       <c r="F150" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" s="3">
-        <v>45437</v>
-      </c>
-      <c r="B151" t="s">
-        <v>161</v>
-      </c>
-      <c r="C151" t="s">
-        <v>162</v>
+        <v>45439</v>
+      </c>
+      <c r="B151" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C151" s="5" t="s">
+        <v>159</v>
       </c>
       <c r="D151" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="E151" t="s">
         <v>23</v>
       </c>
       <c r="F151" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152" s="3">
-        <v>45437</v>
-      </c>
-      <c r="B152" t="s">
-        <v>163</v>
-      </c>
-      <c r="C152" t="s">
-        <v>164</v>
+        <v>45439</v>
+      </c>
+      <c r="B152" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C152" s="5" t="s">
+        <v>160</v>
       </c>
       <c r="D152" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="E152" t="s">
         <v>23</v>
       </c>
       <c r="F152" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153" s="3">
-        <v>45437</v>
-      </c>
-      <c r="B153" t="s">
-        <v>164</v>
-      </c>
-      <c r="C153" t="s">
+        <v>45439</v>
+      </c>
+      <c r="B153" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C153" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D153" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="E153" t="s">
         <v>23</v>
       </c>
       <c r="F153" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154" s="3">
-        <v>45438</v>
-      </c>
-      <c r="B154" t="s">
+        <v>45440</v>
+      </c>
+      <c r="B154" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C154" t="s">
-        <v>165</v>
+      <c r="C154" s="5" t="s">
+        <v>140</v>
       </c>
       <c r="D154" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="E154" t="s">
         <v>23</v>
       </c>
       <c r="F154" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155" s="3">
-        <v>45438</v>
-      </c>
-      <c r="B155" t="s">
-        <v>165</v>
-      </c>
-      <c r="C155" t="s">
-        <v>166</v>
+        <v>45440</v>
+      </c>
+      <c r="B155" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C155" s="5" t="s">
+        <v>162</v>
       </c>
       <c r="D155" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="E155" t="s">
         <v>23</v>
       </c>
       <c r="F155" t="s">
-        <v>41</v>
+        <v>76</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156" s="3">
-        <v>45438</v>
-      </c>
-      <c r="B156" t="s">
-        <v>166</v>
-      </c>
-      <c r="C156" t="s">
-        <v>167</v>
+        <v>45440</v>
+      </c>
+      <c r="B156" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C156" s="5" t="s">
+        <v>163</v>
       </c>
       <c r="D156" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="E156" t="s">
         <v>23</v>
       </c>
       <c r="F156" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157" s="3">
-        <v>45438</v>
-      </c>
-      <c r="B157" t="s">
-        <v>167</v>
-      </c>
-      <c r="C157" t="s">
-        <v>168</v>
+        <v>45440</v>
+      </c>
+      <c r="B157" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C157" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="D157" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="E157" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="F157" t="s">
-        <v>41</v>
+        <v>165</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158" s="3">
-        <v>45438</v>
-      </c>
-      <c r="B158" t="s">
-        <v>92</v>
-      </c>
-      <c r="C158" t="s">
-        <v>169</v>
+        <v>45441</v>
+      </c>
+      <c r="B158" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C158" s="5" t="s">
+        <v>172</v>
       </c>
       <c r="D158" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="E158" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="F158" t="s">
-        <v>85</v>
+        <v>165</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159" s="3">
-        <v>45438</v>
-      </c>
-      <c r="B159" t="s">
-        <v>169</v>
-      </c>
-      <c r="C159" t="s">
-        <v>11</v>
+        <v>45441</v>
+      </c>
+      <c r="B159" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C159" s="5" t="s">
+        <v>174</v>
       </c>
       <c r="D159" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="E159" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="F159" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160" s="3">
-        <v>45439</v>
-      </c>
-      <c r="B160" t="s">
-        <v>13</v>
-      </c>
-      <c r="C160" t="s">
+        <v>45441</v>
+      </c>
+      <c r="B160" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C160" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D160" t="s">
+        <v>176</v>
+      </c>
+      <c r="E160" t="s">
+        <v>177</v>
+      </c>
+      <c r="F160" t="s">
         <v>170</v>
-      </c>
-      <c r="D160" t="s">
-        <v>137</v>
-      </c>
-      <c r="E160" t="s">
-        <v>23</v>
-      </c>
-      <c r="F160" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161" s="3">
-        <v>45439</v>
-      </c>
-      <c r="B161" t="s">
+        <v>45442</v>
+      </c>
+      <c r="B161" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C161" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D161" t="s">
+        <v>176</v>
+      </c>
+      <c r="E161" t="s">
+        <v>177</v>
+      </c>
+      <c r="F161" t="s">
         <v>170</v>
-      </c>
-      <c r="C161" t="s">
-        <v>171</v>
-      </c>
-      <c r="D161" t="s">
-        <v>137</v>
-      </c>
-      <c r="E161" t="s">
-        <v>23</v>
-      </c>
-      <c r="F161" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162" s="3">
-        <v>45439</v>
-      </c>
-      <c r="B162" t="s">
-        <v>172</v>
-      </c>
-      <c r="C162" t="s">
-        <v>11</v>
+        <v>45442</v>
+      </c>
+      <c r="B162" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C162" s="5" t="s">
+        <v>179</v>
       </c>
       <c r="D162" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="E162" t="s">
         <v>23</v>
@@ -4333,56 +4332,56 @@
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163" s="3">
-        <v>45440</v>
-      </c>
-      <c r="B163" t="s">
-        <v>13</v>
-      </c>
-      <c r="C163" t="s">
-        <v>151</v>
+        <v>45442</v>
+      </c>
+      <c r="B163" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C163" s="5" t="s">
+        <v>180</v>
       </c>
       <c r="D163" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="E163" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="F163" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A164" s="3">
-        <v>45440</v>
-      </c>
-      <c r="B164" t="s">
-        <v>13</v>
-      </c>
-      <c r="C164" t="s">
-        <v>173</v>
+        <v>45442</v>
+      </c>
+      <c r="B164" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="C164" s="5" t="s">
+        <v>181</v>
       </c>
       <c r="D164" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="E164" t="s">
         <v>23</v>
       </c>
       <c r="F164" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A165" s="3">
-        <v>45440</v>
-      </c>
-      <c r="B165" t="s">
-        <v>13</v>
-      </c>
-      <c r="C165" t="s">
-        <v>174</v>
+        <v>45442</v>
+      </c>
+      <c r="B165" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C165" s="5" t="s">
+        <v>182</v>
       </c>
       <c r="D165" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="E165" t="s">
         <v>23</v>
@@ -4393,746 +4392,571 @@
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A166" s="3">
-        <v>45440</v>
-      </c>
-      <c r="B166" t="s">
-        <v>175</v>
-      </c>
-      <c r="C166" t="s">
-        <v>11</v>
+        <v>45442</v>
+      </c>
+      <c r="B166" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="C166" s="5" t="s">
+        <v>184</v>
       </c>
       <c r="D166" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="E166" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="F166" t="s">
-        <v>176</v>
+        <v>79</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A167" s="3">
-        <v>45441</v>
-      </c>
-      <c r="B167" t="s">
-        <v>13</v>
-      </c>
-      <c r="C167" t="s">
-        <v>183</v>
+        <v>45442</v>
+      </c>
+      <c r="B167" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C167" s="5" t="s">
+        <v>185</v>
       </c>
       <c r="D167" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="E167" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="F167" t="s">
-        <v>176</v>
+        <v>89</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A168" s="3">
-        <v>45441</v>
-      </c>
-      <c r="B168" t="s">
-        <v>184</v>
-      </c>
-      <c r="C168" t="s">
+        <v>45442</v>
+      </c>
+      <c r="B168" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C168" s="5" t="s">
         <v>185</v>
       </c>
       <c r="D168" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="E168" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="F168" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A169" s="3">
-        <v>45441</v>
-      </c>
-      <c r="B169" t="s">
-        <v>186</v>
-      </c>
-      <c r="C169" t="s">
-        <v>11</v>
+        <v>45442</v>
+      </c>
+      <c r="B169" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C169" s="5" t="s">
+        <v>188</v>
       </c>
       <c r="D169" t="s">
-        <v>187</v>
+        <v>126</v>
       </c>
       <c r="E169" t="s">
-        <v>188</v>
+        <v>23</v>
       </c>
       <c r="F169" t="s">
-        <v>181</v>
+        <v>10</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A170" s="3">
         <v>45442</v>
       </c>
-      <c r="B170" t="s">
-        <v>13</v>
-      </c>
-      <c r="C170" t="s">
+      <c r="B170" s="5" t="s">
         <v>189</v>
       </c>
+      <c r="C170" s="5" t="s">
+        <v>190</v>
+      </c>
       <c r="D170" t="s">
-        <v>187</v>
+        <v>126</v>
       </c>
       <c r="E170" t="s">
-        <v>188</v>
+        <v>23</v>
       </c>
       <c r="F170" t="s">
-        <v>181</v>
+        <v>79</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A171" s="3">
         <v>45442</v>
       </c>
-      <c r="B171" t="s">
-        <v>189</v>
-      </c>
-      <c r="C171" t="s">
+      <c r="B171" s="5" t="s">
         <v>190</v>
       </c>
+      <c r="C171" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="D171" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="E171" t="s">
         <v>23</v>
       </c>
       <c r="F171" t="s">
-        <v>99</v>
+        <v>10</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A172" s="3">
-        <v>45442</v>
-      </c>
-      <c r="B172" t="s">
-        <v>190</v>
-      </c>
-      <c r="C172" t="s">
+        <v>45443</v>
+      </c>
+      <c r="B172" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C172" s="5" t="s">
         <v>191</v>
       </c>
       <c r="D172" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="E172" t="s">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="F172" t="s">
-        <v>82</v>
+        <v>10</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A173" s="3">
-        <v>45442</v>
-      </c>
-      <c r="B173" t="s">
+        <v>45443</v>
+      </c>
+      <c r="B173" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="C173" t="s">
+      <c r="C173" s="5" t="s">
         <v>192</v>
       </c>
       <c r="D173" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="E173" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="F173" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A174" s="3">
-        <v>45442</v>
-      </c>
-      <c r="B174" t="s">
+        <v>45443</v>
+      </c>
+      <c r="B174" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="C174" t="s">
+      <c r="C174" s="5" t="s">
         <v>193</v>
       </c>
       <c r="D174" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="E174" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="F174" t="s">
-        <v>99</v>
+        <v>18</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A175" s="3">
-        <v>45442</v>
-      </c>
-      <c r="B175" t="s">
+        <v>45443</v>
+      </c>
+      <c r="B175" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C175" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="C175" t="s">
+      <c r="D175" t="s">
         <v>195</v>
       </c>
-      <c r="D175" t="s">
-        <v>137</v>
-      </c>
       <c r="E175" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="F175" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A176" s="3">
-        <v>45442</v>
-      </c>
-      <c r="B176" t="s">
-        <v>193</v>
-      </c>
-      <c r="C176" t="s">
-        <v>196</v>
+        <v>45443</v>
+      </c>
+      <c r="B176" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C176" s="5" t="s">
+        <v>138</v>
       </c>
       <c r="D176" t="s">
-        <v>137</v>
+        <v>195</v>
       </c>
       <c r="E176" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="F176" t="s">
-        <v>99</v>
+        <v>40</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A177" s="3">
-        <v>45442</v>
-      </c>
-      <c r="B177" t="s">
-        <v>197</v>
-      </c>
-      <c r="C177" t="s">
+        <v>45443</v>
+      </c>
+      <c r="B177" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C177" s="5" t="s">
         <v>196</v>
       </c>
       <c r="D177" t="s">
-        <v>137</v>
+        <v>195</v>
       </c>
       <c r="E177" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="F177" t="s">
-        <v>89</v>
+        <v>10</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A178" s="3">
-        <v>45442</v>
-      </c>
-      <c r="B178" t="s">
-        <v>198</v>
-      </c>
-      <c r="C178" t="s">
-        <v>199</v>
+        <v>45443</v>
+      </c>
+      <c r="B178" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="C178" s="5" t="s">
+        <v>197</v>
       </c>
       <c r="D178" t="s">
-        <v>137</v>
+        <v>195</v>
       </c>
       <c r="E178" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="F178" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A179" s="3">
-        <v>45442</v>
-      </c>
-      <c r="B179" t="s">
-        <v>200</v>
-      </c>
-      <c r="C179" t="s">
-        <v>201</v>
+        <v>45443</v>
+      </c>
+      <c r="B179" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C179" s="5" t="s">
+        <v>198</v>
       </c>
       <c r="D179" t="s">
-        <v>137</v>
+        <v>195</v>
       </c>
       <c r="E179" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="F179" t="s">
-        <v>89</v>
+        <v>10</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A180" s="3">
-        <v>45442</v>
-      </c>
-      <c r="B180" t="s">
-        <v>201</v>
-      </c>
-      <c r="C180" t="s">
-        <v>11</v>
+        <v>45443</v>
+      </c>
+      <c r="B180" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="C180" s="5" t="s">
+        <v>199</v>
       </c>
       <c r="D180" t="s">
-        <v>137</v>
+        <v>195</v>
       </c>
       <c r="E180" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="F180" t="s">
-        <v>10</v>
+        <v>200</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A181" s="3">
         <v>45443</v>
       </c>
-      <c r="B181" t="s">
-        <v>13</v>
-      </c>
-      <c r="C181" t="s">
-        <v>202</v>
+      <c r="B181" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="C181" s="5" t="s">
+        <v>93</v>
       </c>
       <c r="D181" t="s">
-        <v>137</v>
+        <v>195</v>
       </c>
       <c r="E181" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F181" t="s">
-        <v>10</v>
+        <v>130</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A182" s="3">
         <v>45443</v>
       </c>
-      <c r="B182" t="s">
-        <v>202</v>
-      </c>
-      <c r="C182" t="s">
-        <v>203</v>
+      <c r="B182" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C182" s="5" t="s">
+        <v>201</v>
       </c>
       <c r="D182" t="s">
-        <v>137</v>
+        <v>195</v>
       </c>
       <c r="E182" t="s">
-        <v>68</v>
+        <v>9</v>
       </c>
       <c r="F182" t="s">
-        <v>82</v>
+        <v>200</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A183" s="3">
         <v>45443</v>
       </c>
-      <c r="B183" t="s">
-        <v>203</v>
-      </c>
-      <c r="C183" t="s">
-        <v>204</v>
+      <c r="B183" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="C183" s="5" t="s">
+        <v>202</v>
       </c>
       <c r="D183" t="s">
-        <v>135</v>
+        <v>195</v>
       </c>
       <c r="E183" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="F183" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A184" s="3">
         <v>45443</v>
       </c>
-      <c r="B184" t="s">
-        <v>204</v>
-      </c>
-      <c r="C184" t="s">
-        <v>205</v>
+      <c r="B184" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C184" s="5" t="s">
+        <v>203</v>
       </c>
       <c r="D184" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="E184" t="s">
-        <v>68</v>
+        <v>9</v>
       </c>
       <c r="F184" t="s">
-        <v>82</v>
+        <v>200</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A185" s="3">
         <v>45443</v>
       </c>
-      <c r="B185" t="s">
-        <v>205</v>
-      </c>
-      <c r="C185" t="s">
-        <v>149</v>
+      <c r="B185" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C185" s="5" t="s">
+        <v>85</v>
       </c>
       <c r="D185" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="E185" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="F185" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A186" s="3">
         <v>45443</v>
       </c>
-      <c r="B186" t="s">
-        <v>149</v>
-      </c>
-      <c r="C186" t="s">
-        <v>207</v>
+      <c r="B186" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C186" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="D186" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="E186" t="s">
         <v>9</v>
       </c>
       <c r="F186" t="s">
-        <v>10</v>
+        <v>200</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A187" s="3">
-        <v>45443</v>
-      </c>
-      <c r="B187" t="s">
-        <v>207</v>
-      </c>
-      <c r="C187" t="s">
-        <v>208</v>
+        <v>45444</v>
+      </c>
+      <c r="B187" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C187" s="5" t="s">
+        <v>119</v>
       </c>
       <c r="D187" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="E187" t="s">
-        <v>68</v>
+        <v>9</v>
       </c>
       <c r="F187" t="s">
-        <v>82</v>
+        <v>200</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A188" s="3">
-        <v>45443</v>
-      </c>
-      <c r="B188" t="s">
-        <v>208</v>
-      </c>
-      <c r="C188" t="s">
-        <v>209</v>
+        <v>45444</v>
+      </c>
+      <c r="B188" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C188" s="5" t="s">
+        <v>204</v>
       </c>
       <c r="D188" t="s">
-        <v>206</v>
+        <v>124</v>
       </c>
       <c r="E188" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="F188" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A189" s="3">
-        <v>45443</v>
-      </c>
-      <c r="B189" t="s">
-        <v>209</v>
-      </c>
-      <c r="C189" t="s">
-        <v>210</v>
+        <v>45444</v>
+      </c>
+      <c r="B189" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="C189" s="5" t="s">
+        <v>205</v>
       </c>
       <c r="D189" t="s">
         <v>206</v>
       </c>
       <c r="E189" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="F189" t="s">
-        <v>211</v>
+        <v>168</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A190" s="3">
-        <v>45443</v>
-      </c>
-      <c r="B190" t="s">
+        <v>45444</v>
+      </c>
+      <c r="B190" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="C190" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="D190" t="s">
+        <v>209</v>
+      </c>
+      <c r="E190" t="s">
+        <v>9</v>
+      </c>
+      <c r="F190" t="s">
         <v>210</v>
-      </c>
-      <c r="C190" t="s">
-        <v>103</v>
-      </c>
-      <c r="D190" t="s">
-        <v>206</v>
-      </c>
-      <c r="E190" t="s">
-        <v>27</v>
-      </c>
-      <c r="F190" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A191" s="3">
-        <v>45443</v>
-      </c>
-      <c r="B191" t="s">
-        <v>103</v>
-      </c>
-      <c r="C191" t="s">
-        <v>212</v>
+        <v>45444</v>
+      </c>
+      <c r="B191" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="C191" s="5" t="s">
+        <v>211</v>
       </c>
       <c r="D191" t="s">
-        <v>206</v>
+        <v>124</v>
       </c>
       <c r="E191" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="F191" t="s">
-        <v>211</v>
+        <v>18</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A192" s="3">
-        <v>45443</v>
-      </c>
-      <c r="B192" t="s">
+        <v>45444</v>
+      </c>
+      <c r="B192" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="C192" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="C192" t="s">
+      <c r="D192" t="s">
+        <v>209</v>
+      </c>
+      <c r="E192" t="s">
+        <v>9</v>
+      </c>
+      <c r="F192" t="s">
         <v>213</v>
       </c>
-      <c r="D192" t="s">
-        <v>206</v>
-      </c>
-      <c r="E192" t="s">
-        <v>68</v>
-      </c>
-      <c r="F192" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A193" s="3">
-        <v>45443</v>
-      </c>
-      <c r="B193" t="s">
-        <v>213</v>
-      </c>
-      <c r="C193" t="s">
-        <v>214</v>
+        <v>45444</v>
+      </c>
+      <c r="B193" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="C193" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="D193" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="E193" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="F193" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A194" s="3">
-        <v>45443</v>
-      </c>
-      <c r="B194" t="s">
-        <v>214</v>
-      </c>
-      <c r="C194" t="s">
-        <v>95</v>
-      </c>
-      <c r="D194" t="s">
-        <v>206</v>
-      </c>
-      <c r="E194" t="s">
-        <v>27</v>
-      </c>
-      <c r="F194" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A195" s="3">
-        <v>45443</v>
-      </c>
-      <c r="B195" t="s">
-        <v>95</v>
-      </c>
-      <c r="C195" t="s">
-        <v>11</v>
-      </c>
-      <c r="D195" t="s">
-        <v>206</v>
-      </c>
-      <c r="E195" t="s">
-        <v>9</v>
-      </c>
-      <c r="F195" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A196" s="3">
-        <v>45444</v>
-      </c>
-      <c r="B196" t="s">
-        <v>13</v>
-      </c>
-      <c r="C196" t="s">
-        <v>130</v>
-      </c>
-      <c r="D196" t="s">
-        <v>206</v>
-      </c>
-      <c r="E196" t="s">
-        <v>9</v>
-      </c>
-      <c r="F196" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A197" s="3">
-        <v>45444</v>
-      </c>
-      <c r="B197" t="s">
-        <v>130</v>
-      </c>
-      <c r="C197" t="s">
-        <v>215</v>
-      </c>
-      <c r="D197" t="s">
-        <v>135</v>
-      </c>
-      <c r="E197" t="s">
-        <v>35</v>
-      </c>
-      <c r="F197" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A198" s="3">
-        <v>45444</v>
-      </c>
-      <c r="B198" t="s">
-        <v>215</v>
-      </c>
-      <c r="C198" t="s">
-        <v>216</v>
-      </c>
-      <c r="D198" t="s">
-        <v>217</v>
-      </c>
-      <c r="E198" t="s">
-        <v>27</v>
-      </c>
-      <c r="F198" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A199" s="3">
-        <v>45444</v>
-      </c>
-      <c r="B199" t="s">
-        <v>218</v>
-      </c>
-      <c r="C199" t="s">
-        <v>219</v>
-      </c>
-      <c r="D199" t="s">
-        <v>220</v>
-      </c>
-      <c r="E199" t="s">
-        <v>9</v>
-      </c>
-      <c r="F199" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A200" s="3">
-        <v>45444</v>
-      </c>
-      <c r="B200" t="s">
-        <v>216</v>
-      </c>
-      <c r="C200" t="s">
-        <v>222</v>
-      </c>
-      <c r="D200" t="s">
-        <v>135</v>
-      </c>
-      <c r="E200" t="s">
-        <v>35</v>
-      </c>
-      <c r="F200" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A201" s="3">
-        <v>45444</v>
-      </c>
-      <c r="B201" t="s">
-        <v>219</v>
-      </c>
-      <c r="C201" t="s">
-        <v>223</v>
-      </c>
-      <c r="D201" t="s">
-        <v>220</v>
-      </c>
-      <c r="E201" t="s">
-        <v>9</v>
-      </c>
-      <c r="F201" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A202" s="3">
-        <v>45444</v>
-      </c>
-      <c r="B202" t="s">
-        <v>223</v>
-      </c>
-      <c r="C202" t="s">
-        <v>11</v>
-      </c>
-      <c r="D202" t="s">
-        <v>220</v>
-      </c>
-      <c r="E202" t="s">
-        <v>23</v>
-      </c>
-      <c r="F202" t="s">
-        <v>41</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H194">
+        <v>1.31</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F202" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:F193" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/output.xlsx
+++ b/output.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\N9635226\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BCB0368-4ECA-487A-9BDA-43395CD585D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CE79126-6D9C-4269-A367-856C4135D6C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="240" windowWidth="27000" windowHeight="14160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1072,10 +1072,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H194"/>
+  <dimension ref="A1:F193"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -2686,7 +2686,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="3">
         <v>45424</v>
       </c>
@@ -2706,7 +2706,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="3">
         <v>45424</v>
       </c>
@@ -2726,7 +2726,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="3">
         <v>45424</v>
       </c>
@@ -2746,7 +2746,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="3">
         <v>45424</v>
       </c>
@@ -2766,7 +2766,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="3">
         <v>45424</v>
       </c>
@@ -2786,7 +2786,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="3">
         <v>45424</v>
       </c>
@@ -2806,7 +2806,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="3">
         <v>45424</v>
       </c>
@@ -2825,12 +2825,8 @@
       <c r="F87" t="s">
         <v>79</v>
       </c>
-      <c r="H87">
-        <f>C87-B78</f>
-        <v>0.3118055555555555</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="3">
         <v>45424</v>
       </c>
@@ -2850,7 +2846,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="3">
         <v>45424</v>
       </c>
@@ -2870,7 +2866,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="3">
         <v>45424</v>
       </c>
@@ -2890,7 +2886,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" s="3">
         <v>45425</v>
       </c>
@@ -2910,7 +2906,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" s="3">
         <v>45425</v>
       </c>
@@ -2930,7 +2926,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="3">
         <v>45425</v>
       </c>
@@ -2950,7 +2946,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" s="3">
         <v>45426</v>
       </c>
@@ -2970,7 +2966,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" s="3">
         <v>45427</v>
       </c>
@@ -2990,7 +2986,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" s="3">
         <v>45428</v>
       </c>
@@ -4930,7 +4926,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A193" s="3">
         <v>45444</v>
       </c>
@@ -4948,11 +4944,6 @@
       </c>
       <c r="F193" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H194">
-        <v>1.31</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\N9635226\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CE79126-6D9C-4269-A367-856C4135D6C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D7321C4-B83C-4D85-BC63-78677A8F9A0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="240" windowWidth="27000" windowHeight="14160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="1500" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="278">
   <si>
     <t>Date</t>
   </si>
@@ -62,9 +62,6 @@
     <t>20:10:00</t>
   </si>
   <si>
-    <t>ERWN</t>
-  </si>
-  <si>
     <t>PL</t>
   </si>
   <si>
@@ -137,9 +134,6 @@
     <t>02:42:00</t>
   </si>
   <si>
-    <t>DAWD</t>
-  </si>
-  <si>
     <t>Field_Move</t>
   </si>
   <si>
@@ -414,9 +408,6 @@
   </si>
   <si>
     <t>14:35:00</t>
-  </si>
-  <si>
-    <t>GOWE</t>
   </si>
   <si>
     <t>19:32:00</t>
@@ -660,16 +651,10 @@
     <t>11:41:00</t>
   </si>
   <si>
-    <t>ERWS</t>
-  </si>
-  <si>
     <t>11:35:00</t>
   </si>
   <si>
     <t>17:55:00</t>
-  </si>
-  <si>
-    <t>ERWZI</t>
   </si>
   <si>
     <t>DMA recovery</t>
@@ -686,6 +671,212 @@
   <si>
     <t>Leveling</t>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ERWN Riser</t>
+  </si>
+  <si>
+    <t>ERWS DL</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>01:30:00</t>
+  </si>
+  <si>
+    <t>02:45:00</t>
+  </si>
+  <si>
+    <t>02:35:00</t>
+  </si>
+  <si>
+    <t>02:47:00</t>
+  </si>
+  <si>
+    <t>03:29:00</t>
+  </si>
+  <si>
+    <t>06:16:00</t>
+  </si>
+  <si>
+    <t>22:48:00</t>
+  </si>
+  <si>
+    <t>20:58:00</t>
+  </si>
+  <si>
+    <t>21:26:00</t>
+  </si>
+  <si>
+    <t>15:43:00</t>
+  </si>
+  <si>
+    <t>15:05:00</t>
+  </si>
+  <si>
+    <t>16:14:00</t>
+  </si>
+  <si>
+    <t>23:40:00</t>
+  </si>
+  <si>
+    <t>Leveling</t>
+  </si>
+  <si>
+    <t>02:08:00</t>
+  </si>
+  <si>
+    <t>02:43:00</t>
+  </si>
+  <si>
+    <t>04:05:00</t>
+  </si>
+  <si>
+    <t>Spool fab</t>
+  </si>
+  <si>
+    <t>05:29:00</t>
+  </si>
+  <si>
+    <t>03:52:00</t>
+  </si>
+  <si>
+    <t>05:12:00</t>
+  </si>
+  <si>
+    <t>Net Recovery</t>
+  </si>
+  <si>
+    <t>13:00:00</t>
+  </si>
+  <si>
+    <t>19:15:00</t>
+  </si>
+  <si>
+    <t>22:00:00</t>
+  </si>
+  <si>
+    <t>13:35:00</t>
+  </si>
+  <si>
+    <t>13:55:00</t>
+  </si>
+  <si>
+    <t>05:49:00</t>
+  </si>
+  <si>
+    <t>06:35:00</t>
+  </si>
+  <si>
+    <t>07:25:00</t>
+  </si>
+  <si>
+    <t>10:52:00</t>
+  </si>
+  <si>
+    <t>Metrology</t>
+  </si>
+  <si>
+    <t>21:33:00</t>
+  </si>
+  <si>
+    <t>04:36:00</t>
+  </si>
+  <si>
+    <t>09:02:00</t>
+  </si>
+  <si>
+    <t>17:45:00</t>
+  </si>
+  <si>
+    <t>00:41:00</t>
+  </si>
+  <si>
+    <t>02:15:00</t>
+  </si>
+  <si>
+    <t>10:34:00</t>
+  </si>
+  <si>
+    <t>11:02:00</t>
+  </si>
+  <si>
+    <t>02:00:00</t>
+  </si>
+  <si>
+    <t>07:00:00</t>
+  </si>
+  <si>
+    <t>09:48:00</t>
+  </si>
+  <si>
+    <t>18:08:00</t>
+  </si>
+  <si>
+    <t>20:55:00</t>
+  </si>
+  <si>
+    <t>20:19:00</t>
+  </si>
+  <si>
+    <t>Flooding</t>
+  </si>
+  <si>
+    <t>02:29:00</t>
+  </si>
+  <si>
+    <t>02:33:00</t>
+  </si>
+  <si>
+    <t>10:24:00</t>
+  </si>
+  <si>
+    <t>10:11:00</t>
+  </si>
+  <si>
+    <t>11:42:00</t>
+  </si>
+  <si>
+    <t>Recover P/H</t>
+  </si>
+  <si>
+    <t>11:19:00</t>
+  </si>
+  <si>
+    <t>10:14:00</t>
+  </si>
+  <si>
+    <t>09:55:00</t>
+  </si>
+  <si>
+    <t>08:00:00</t>
+  </si>
+  <si>
+    <t>10:20:00</t>
+  </si>
+  <si>
+    <t>17:22:00</t>
+  </si>
+  <si>
+    <t>17:26:00</t>
+  </si>
+  <si>
+    <t>22:37:00</t>
+  </si>
+  <si>
+    <t>Pigging</t>
+  </si>
+  <si>
+    <t>ERWN Riser</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DAWD PF</t>
+  </si>
+  <si>
+    <t>GOWE PF</t>
+  </si>
+  <si>
+    <t>ERWZI PF</t>
   </si>
 </sst>
 </file>
@@ -1072,16 +1263,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F193"/>
+  <dimension ref="A1:F259"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="A242" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C249" sqref="C249"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="8.88671875" style="5"/>
+    <col min="4" max="4" width="14.33203125" customWidth="1"/>
     <col min="5" max="5" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -1117,13 +1309,13 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -1134,16 +1326,16 @@
         <v>7</v>
       </c>
       <c r="C3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>210</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
         <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -1151,19 +1343,19 @@
         <v>45407</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>14</v>
-      </c>
       <c r="D4" t="s">
+        <v>210</v>
+      </c>
+      <c r="E4" t="s">
         <v>8</v>
       </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -1171,19 +1363,19 @@
         <v>45407</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>210</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
         <v>15</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -1191,19 +1383,19 @@
         <v>45408</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
+        <v>210</v>
+      </c>
+      <c r="E6" t="s">
         <v>8</v>
       </c>
-      <c r="E6" t="s">
-        <v>9</v>
-      </c>
       <c r="F6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -1211,19 +1403,19 @@
         <v>45408</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>210</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" t="s">
         <v>19</v>
-      </c>
-      <c r="D7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -1231,19 +1423,19 @@
         <v>45408</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
+        <v>210</v>
+      </c>
+      <c r="E8" t="s">
         <v>8</v>
       </c>
-      <c r="E8" t="s">
-        <v>9</v>
-      </c>
       <c r="F8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -1251,19 +1443,19 @@
         <v>45409</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
+        <v>274</v>
+      </c>
+      <c r="E9" t="s">
         <v>8</v>
       </c>
-      <c r="E9" t="s">
-        <v>9</v>
-      </c>
       <c r="F9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -1271,19 +1463,19 @@
         <v>45409</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>22</v>
-      </c>
       <c r="D10" t="s">
-        <v>8</v>
+        <v>210</v>
       </c>
       <c r="E10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -1291,19 +1483,19 @@
         <v>45409</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D11" t="s">
+        <v>210</v>
+      </c>
+      <c r="E11" t="s">
         <v>8</v>
       </c>
-      <c r="E11" t="s">
-        <v>9</v>
-      </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -1311,19 +1503,19 @@
         <v>45409</v>
       </c>
       <c r="B12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>25</v>
-      </c>
       <c r="D12" t="s">
-        <v>8</v>
+        <v>210</v>
       </c>
       <c r="E12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -1331,19 +1523,19 @@
         <v>45409</v>
       </c>
       <c r="B13" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="D13" t="s">
+        <v>210</v>
+      </c>
+      <c r="E13" t="s">
         <v>26</v>
       </c>
-      <c r="D13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>27</v>
-      </c>
-      <c r="F13" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -1351,19 +1543,19 @@
         <v>45409</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D14" t="s">
+        <v>210</v>
+      </c>
+      <c r="E14" t="s">
         <v>8</v>
       </c>
-      <c r="E14" t="s">
-        <v>9</v>
-      </c>
       <c r="F14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -1371,19 +1563,19 @@
         <v>45409</v>
       </c>
       <c r="B15" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" t="s">
+        <v>210</v>
+      </c>
+      <c r="E15" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>30</v>
-      </c>
-      <c r="F15" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -1391,19 +1583,19 @@
         <v>45410</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D16" t="s">
-        <v>8</v>
+        <v>210</v>
       </c>
       <c r="E16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" t="s">
         <v>30</v>
-      </c>
-      <c r="F16" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -1411,19 +1603,19 @@
         <v>45410</v>
       </c>
       <c r="B17" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" t="s">
+        <v>122</v>
+      </c>
+      <c r="E17" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" t="s">
-        <v>124</v>
-      </c>
-      <c r="E17" t="s">
-        <v>34</v>
-      </c>
       <c r="F17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -1431,19 +1623,19 @@
         <v>45410</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D18" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E18" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -1454,16 +1646,16 @@
         <v>0.16319444444444445</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D19" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" t="s">
         <v>9</v>
-      </c>
-      <c r="F19" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -1471,19 +1663,19 @@
         <v>45410</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D20" t="s">
-        <v>33</v>
+        <v>275</v>
       </c>
       <c r="E20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -1491,19 +1683,19 @@
         <v>45410</v>
       </c>
       <c r="B21" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" t="s">
+        <v>275</v>
+      </c>
+      <c r="E21" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" t="s">
         <v>38</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D21" t="s">
-        <v>33</v>
-      </c>
-      <c r="E21" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -1511,19 +1703,19 @@
         <v>45410</v>
       </c>
       <c r="B22" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" t="s">
+        <v>275</v>
+      </c>
+      <c r="E22" t="s">
+        <v>22</v>
+      </c>
+      <c r="F22" t="s">
         <v>39</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" t="s">
-        <v>33</v>
-      </c>
-      <c r="E22" t="s">
-        <v>23</v>
-      </c>
-      <c r="F22" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -1531,19 +1723,19 @@
         <v>45411</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D23" t="s">
-        <v>33</v>
+        <v>275</v>
       </c>
       <c r="E23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F23" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -1551,19 +1743,19 @@
         <v>45411</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>33</v>
+        <v>275</v>
       </c>
       <c r="E24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F24" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -1571,19 +1763,19 @@
         <v>45412</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D25" t="s">
-        <v>33</v>
+        <v>275</v>
       </c>
       <c r="E25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F25" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -1591,19 +1783,19 @@
         <v>45412</v>
       </c>
       <c r="B26" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" t="s">
+        <v>275</v>
+      </c>
+      <c r="E26" t="s">
+        <v>26</v>
+      </c>
+      <c r="F26" t="s">
         <v>44</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D26" t="s">
-        <v>33</v>
-      </c>
-      <c r="E26" t="s">
-        <v>27</v>
-      </c>
-      <c r="F26" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -1611,19 +1803,19 @@
         <v>45412</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>33</v>
+        <v>275</v>
       </c>
       <c r="E27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F27" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -1631,19 +1823,19 @@
         <v>45413</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>33</v>
+        <v>275</v>
       </c>
       <c r="E28" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F28" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -1651,19 +1843,19 @@
         <v>45414</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>33</v>
+        <v>275</v>
       </c>
       <c r="E29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F29" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -1671,19 +1863,19 @@
         <v>45415</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D30" t="s">
-        <v>33</v>
+        <v>275</v>
       </c>
       <c r="E30" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F30" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -1691,19 +1883,19 @@
         <v>45415</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D31" t="s">
-        <v>33</v>
+        <v>275</v>
       </c>
       <c r="E31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F31" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -1711,19 +1903,19 @@
         <v>45415</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D32" t="s">
-        <v>33</v>
+        <v>275</v>
       </c>
       <c r="E32" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F32" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
@@ -1731,19 +1923,19 @@
         <v>45415</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D33" t="s">
-        <v>33</v>
+        <v>275</v>
       </c>
       <c r="E33" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F33" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
@@ -1751,19 +1943,19 @@
         <v>45415</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D34" t="s">
-        <v>33</v>
+        <v>275</v>
       </c>
       <c r="E34" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F34" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
@@ -1771,19 +1963,19 @@
         <v>45415</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D35" t="s">
-        <v>33</v>
+        <v>275</v>
       </c>
       <c r="E35" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F35" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
@@ -1791,19 +1983,19 @@
         <v>45415</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>33</v>
+        <v>275</v>
       </c>
       <c r="E36" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F36" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
@@ -1811,19 +2003,19 @@
         <v>45416</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D37" t="s">
-        <v>33</v>
+        <v>275</v>
       </c>
       <c r="E37" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F37" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
@@ -1831,19 +2023,19 @@
         <v>45416</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D38" t="s">
-        <v>33</v>
+        <v>275</v>
       </c>
       <c r="E38" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F38" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
@@ -1851,19 +2043,19 @@
         <v>45416</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>33</v>
+        <v>275</v>
       </c>
       <c r="E39" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F39" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
@@ -1871,19 +2063,19 @@
         <v>45417</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D40" t="s">
-        <v>33</v>
+        <v>275</v>
       </c>
       <c r="E40" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F40" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
@@ -1891,19 +2083,19 @@
         <v>45417</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D41" t="s">
-        <v>33</v>
+        <v>275</v>
       </c>
       <c r="E41" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F41" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
@@ -1911,19 +2103,19 @@
         <v>45417</v>
       </c>
       <c r="B42" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C42" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C42" s="5" t="s">
-        <v>61</v>
-      </c>
       <c r="D42" t="s">
-        <v>33</v>
+        <v>275</v>
       </c>
       <c r="E42" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F42" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
@@ -1931,19 +2123,19 @@
         <v>45417</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D43" t="s">
-        <v>33</v>
+        <v>275</v>
       </c>
       <c r="E43" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F43" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
@@ -1951,19 +2143,19 @@
         <v>45417</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>33</v>
+        <v>275</v>
       </c>
       <c r="E44" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F44" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
@@ -1971,19 +2163,19 @@
         <v>45418</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D45" t="s">
-        <v>33</v>
+        <v>275</v>
       </c>
       <c r="E45" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F45" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
@@ -1994,16 +2186,16 @@
         <v>6</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D46" t="s">
-        <v>33</v>
+        <v>275</v>
       </c>
       <c r="E46" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F46" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
@@ -2011,19 +2203,19 @@
         <v>45418</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D47" t="s">
-        <v>33</v>
+        <v>275</v>
       </c>
       <c r="E47" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F47" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
@@ -2031,19 +2223,19 @@
         <v>45418</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>33</v>
+        <v>275</v>
       </c>
       <c r="E48" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F48" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
@@ -2051,19 +2243,19 @@
         <v>45419</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D49" t="s">
-        <v>33</v>
+        <v>275</v>
       </c>
       <c r="E49" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F49" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
@@ -2071,19 +2263,19 @@
         <v>45419</v>
       </c>
       <c r="B50" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D50" t="s">
+        <v>275</v>
+      </c>
+      <c r="E50" t="s">
+        <v>22</v>
+      </c>
+      <c r="F50" t="s">
         <v>69</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D50" t="s">
-        <v>33</v>
-      </c>
-      <c r="E50" t="s">
-        <v>23</v>
-      </c>
-      <c r="F50" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
@@ -2091,19 +2283,19 @@
         <v>45419</v>
       </c>
       <c r="B51" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C51" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C51" s="5" t="s">
-        <v>72</v>
-      </c>
       <c r="D51" t="s">
-        <v>33</v>
+        <v>275</v>
       </c>
       <c r="E51" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F51" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
@@ -2111,19 +2303,19 @@
         <v>45419</v>
       </c>
       <c r="B52" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C52" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C52" s="5" t="s">
-        <v>74</v>
-      </c>
       <c r="D52" t="s">
-        <v>33</v>
+        <v>275</v>
       </c>
       <c r="E52" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F52" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
@@ -2131,19 +2323,19 @@
         <v>45419</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D53" t="s">
-        <v>33</v>
+        <v>275</v>
       </c>
       <c r="E53" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F53" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
@@ -2151,19 +2343,19 @@
         <v>45419</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D54" t="s">
-        <v>33</v>
+        <v>275</v>
       </c>
       <c r="E54" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F54" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
@@ -2171,19 +2363,19 @@
         <v>45419</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D55" t="s">
-        <v>33</v>
+        <v>275</v>
       </c>
       <c r="E55" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F55" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
@@ -2191,19 +2383,19 @@
         <v>45419</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C56" s="6">
         <v>0.74305555555555547</v>
       </c>
       <c r="D56" t="s">
-        <v>33</v>
+        <v>275</v>
       </c>
       <c r="E56" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F56" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
@@ -2214,16 +2406,16 @@
         <v>0.74305555555555547</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>33</v>
+        <v>275</v>
       </c>
       <c r="E57" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F57" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
@@ -2231,19 +2423,19 @@
         <v>45420</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D58" t="s">
-        <v>33</v>
+        <v>275</v>
       </c>
       <c r="E58" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F58" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
@@ -2251,19 +2443,19 @@
         <v>45420</v>
       </c>
       <c r="B59" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D59" t="s">
+        <v>275</v>
+      </c>
+      <c r="E59" t="s">
+        <v>22</v>
+      </c>
+      <c r="F59" t="s">
         <v>77</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D59" t="s">
-        <v>33</v>
-      </c>
-      <c r="E59" t="s">
-        <v>23</v>
-      </c>
-      <c r="F59" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
@@ -2271,19 +2463,19 @@
         <v>45421</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D60" t="s">
-        <v>33</v>
+        <v>275</v>
       </c>
       <c r="E60" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F60" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
@@ -2291,19 +2483,19 @@
         <v>45421</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D61" t="s">
-        <v>33</v>
+        <v>275</v>
       </c>
       <c r="E61" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F61" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
@@ -2311,19 +2503,19 @@
         <v>45421</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D62" t="s">
-        <v>33</v>
+        <v>275</v>
       </c>
       <c r="E62" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F62" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
@@ -2331,19 +2523,19 @@
         <v>45421</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D63" t="s">
-        <v>33</v>
+        <v>275</v>
       </c>
       <c r="E63" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F63" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
@@ -2351,19 +2543,19 @@
         <v>45421</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D64" t="s">
-        <v>33</v>
+        <v>275</v>
       </c>
       <c r="E64" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F64" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
@@ -2371,19 +2563,19 @@
         <v>45421</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D65" t="s">
-        <v>33</v>
+        <v>275</v>
       </c>
       <c r="E65" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F65" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
@@ -2391,19 +2583,19 @@
         <v>45421</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D66" t="s">
-        <v>33</v>
+        <v>275</v>
       </c>
       <c r="E66" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F66" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
@@ -2411,19 +2603,19 @@
         <v>45422</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D67" t="s">
-        <v>33</v>
+        <v>275</v>
       </c>
       <c r="E67" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F67" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
@@ -2431,19 +2623,19 @@
         <v>45422</v>
       </c>
       <c r="B68" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D68" t="s">
+        <v>275</v>
+      </c>
+      <c r="E68" t="s">
+        <v>22</v>
+      </c>
+      <c r="F68" t="s">
         <v>87</v>
-      </c>
-      <c r="C68" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="D68" t="s">
-        <v>33</v>
-      </c>
-      <c r="E68" t="s">
-        <v>23</v>
-      </c>
-      <c r="F68" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
@@ -2451,19 +2643,19 @@
         <v>45422</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D69" t="s">
-        <v>33</v>
+        <v>275</v>
       </c>
       <c r="E69" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F69" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
@@ -2471,19 +2663,19 @@
         <v>45422</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D70" t="s">
-        <v>33</v>
+        <v>275</v>
       </c>
       <c r="E70" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F70" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
@@ -2491,19 +2683,19 @@
         <v>45422</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D71" t="s">
-        <v>33</v>
+        <v>275</v>
       </c>
       <c r="E71" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F71" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
@@ -2511,19 +2703,19 @@
         <v>45422</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D72" t="s">
-        <v>33</v>
+        <v>275</v>
       </c>
       <c r="E72" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F72" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
@@ -2531,19 +2723,19 @@
         <v>45422</v>
       </c>
       <c r="B73" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D73" t="s">
+        <v>275</v>
+      </c>
+      <c r="E73" t="s">
+        <v>8</v>
+      </c>
+      <c r="F73" t="s">
         <v>92</v>
-      </c>
-      <c r="C73" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="D73" t="s">
-        <v>33</v>
-      </c>
-      <c r="E73" t="s">
-        <v>9</v>
-      </c>
-      <c r="F73" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
@@ -2551,19 +2743,19 @@
         <v>45422</v>
       </c>
       <c r="B74" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C74" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="C74" s="5" t="s">
-        <v>95</v>
-      </c>
       <c r="D74" t="s">
-        <v>33</v>
+        <v>275</v>
       </c>
       <c r="E74" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F74" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
@@ -2571,19 +2763,19 @@
         <v>45422</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>33</v>
+        <v>275</v>
       </c>
       <c r="E75" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F75" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
@@ -2591,19 +2783,19 @@
         <v>45423</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D76" t="s">
-        <v>33</v>
+        <v>275</v>
       </c>
       <c r="E76" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F76" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
@@ -2611,19 +2803,19 @@
         <v>45423</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D77" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E77" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F77" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
@@ -2631,19 +2823,19 @@
         <v>45423</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D78" t="s">
-        <v>33</v>
+        <v>275</v>
       </c>
       <c r="E78" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F78" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
@@ -2651,19 +2843,19 @@
         <v>45423</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>33</v>
+        <v>275</v>
       </c>
       <c r="E79" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F79" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
@@ -2671,19 +2863,19 @@
         <v>45424</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D80" t="s">
-        <v>33</v>
+        <v>275</v>
       </c>
       <c r="E80" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F80" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
@@ -2691,19 +2883,19 @@
         <v>45424</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D81" t="s">
-        <v>33</v>
+        <v>275</v>
       </c>
       <c r="E81" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F81" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
@@ -2711,19 +2903,19 @@
         <v>45424</v>
       </c>
       <c r="B82" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C82" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="C82" s="5" t="s">
-        <v>101</v>
-      </c>
       <c r="D82" t="s">
-        <v>33</v>
+        <v>275</v>
       </c>
       <c r="E82" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F82" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
@@ -2731,19 +2923,19 @@
         <v>45424</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D83" t="s">
-        <v>33</v>
+        <v>275</v>
       </c>
       <c r="E83" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F83" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
@@ -2751,19 +2943,19 @@
         <v>45424</v>
       </c>
       <c r="B84" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C84" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="C84" s="5" t="s">
-        <v>103</v>
-      </c>
       <c r="D84" t="s">
-        <v>33</v>
+        <v>275</v>
       </c>
       <c r="E84" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F84" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
@@ -2771,19 +2963,19 @@
         <v>45424</v>
       </c>
       <c r="B85" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C85" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="C85" s="5" t="s">
-        <v>104</v>
-      </c>
       <c r="D85" t="s">
-        <v>33</v>
+        <v>275</v>
       </c>
       <c r="E85" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F85" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
@@ -2791,19 +2983,19 @@
         <v>45424</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D86" t="s">
-        <v>33</v>
+        <v>275</v>
       </c>
       <c r="E86" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F86" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
@@ -2811,19 +3003,19 @@
         <v>45424</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D87" t="s">
-        <v>33</v>
+        <v>275</v>
       </c>
       <c r="E87" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F87" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
@@ -2831,19 +3023,19 @@
         <v>45424</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D88" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E88" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F88" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
@@ -2851,19 +3043,19 @@
         <v>45424</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D89" t="s">
+        <v>210</v>
+      </c>
+      <c r="E89" t="s">
         <v>8</v>
       </c>
-      <c r="E89" t="s">
-        <v>9</v>
-      </c>
       <c r="F89" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
@@ -2871,19 +3063,19 @@
         <v>45424</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C90" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D90" t="s">
+        <v>210</v>
+      </c>
+      <c r="E90" t="s">
+        <v>8</v>
+      </c>
+      <c r="F90" t="s">
         <v>11</v>
-      </c>
-      <c r="D90" t="s">
-        <v>8</v>
-      </c>
-      <c r="E90" t="s">
-        <v>9</v>
-      </c>
-      <c r="F90" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
@@ -2891,19 +3083,19 @@
         <v>45425</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D91" t="s">
+        <v>210</v>
+      </c>
+      <c r="E91" t="s">
         <v>8</v>
       </c>
-      <c r="E91" t="s">
-        <v>9</v>
-      </c>
       <c r="F91" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -2911,19 +3103,19 @@
         <v>45425</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D92" t="s">
-        <v>8</v>
+        <v>210</v>
       </c>
       <c r="E92" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F92" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
@@ -2931,19 +3123,19 @@
         <v>45425</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
+        <v>210</v>
+      </c>
+      <c r="E93" t="s">
         <v>8</v>
       </c>
-      <c r="E93" t="s">
-        <v>9</v>
-      </c>
       <c r="F93" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
@@ -2951,19 +3143,19 @@
         <v>45426</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
+        <v>210</v>
+      </c>
+      <c r="E94" t="s">
         <v>8</v>
       </c>
-      <c r="E94" t="s">
-        <v>9</v>
-      </c>
       <c r="F94" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
@@ -2971,19 +3163,19 @@
         <v>45427</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D95" t="s">
+        <v>210</v>
+      </c>
+      <c r="E95" t="s">
         <v>8</v>
       </c>
-      <c r="E95" t="s">
-        <v>9</v>
-      </c>
       <c r="F95" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
@@ -2991,19 +3183,19 @@
         <v>45428</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D96" t="s">
+        <v>210</v>
+      </c>
+      <c r="E96" t="s">
         <v>8</v>
       </c>
-      <c r="E96" t="s">
-        <v>9</v>
-      </c>
       <c r="F96" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
@@ -3011,19 +3203,19 @@
         <v>45428</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D97" t="s">
-        <v>8</v>
+        <v>210</v>
       </c>
       <c r="E97" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F97" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
@@ -3031,19 +3223,19 @@
         <v>45428</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>8</v>
+        <v>210</v>
       </c>
       <c r="E98" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F98" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
@@ -3051,19 +3243,19 @@
         <v>45429</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D99" t="s">
-        <v>8</v>
+        <v>210</v>
       </c>
       <c r="E99" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F99" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
@@ -3071,19 +3263,19 @@
         <v>45429</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D100" t="s">
+        <v>210</v>
+      </c>
+      <c r="E100" t="s">
         <v>8</v>
       </c>
-      <c r="E100" t="s">
-        <v>9</v>
-      </c>
       <c r="F100" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
@@ -3091,19 +3283,19 @@
         <v>45429</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D101" t="s">
-        <v>8</v>
+        <v>210</v>
       </c>
       <c r="E101" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F101" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
@@ -3111,19 +3303,19 @@
         <v>45429</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
+        <v>210</v>
+      </c>
+      <c r="E102" t="s">
         <v>8</v>
       </c>
-      <c r="E102" t="s">
-        <v>9</v>
-      </c>
       <c r="F102" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
@@ -3131,19 +3323,19 @@
         <v>45430</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D103" t="s">
+        <v>210</v>
+      </c>
+      <c r="E103" t="s">
         <v>8</v>
       </c>
-      <c r="E103" t="s">
-        <v>9</v>
-      </c>
       <c r="F103" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
@@ -3151,19 +3343,19 @@
         <v>45430</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D104" t="s">
+        <v>210</v>
+      </c>
+      <c r="E104" t="s">
         <v>8</v>
       </c>
-      <c r="E104" t="s">
-        <v>9</v>
-      </c>
       <c r="F104" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
@@ -3171,19 +3363,19 @@
         <v>45430</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C105" s="6">
         <v>0.97569444444444453</v>
       </c>
       <c r="D105" t="s">
+        <v>210</v>
+      </c>
+      <c r="E105" t="s">
         <v>8</v>
       </c>
-      <c r="E105" t="s">
-        <v>9</v>
-      </c>
       <c r="F105" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
@@ -3191,19 +3383,19 @@
         <v>45431</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D106" t="s">
+        <v>210</v>
+      </c>
+      <c r="E106" t="s">
         <v>8</v>
       </c>
-      <c r="E106" t="s">
-        <v>9</v>
-      </c>
       <c r="F106" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
@@ -3211,19 +3403,19 @@
         <v>45431</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D107" t="s">
-        <v>8</v>
+        <v>210</v>
       </c>
       <c r="E107" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F107" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
@@ -3231,19 +3423,19 @@
         <v>45431</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D108" t="s">
+        <v>210</v>
+      </c>
+      <c r="E108" t="s">
         <v>8</v>
       </c>
-      <c r="E108" t="s">
-        <v>9</v>
-      </c>
       <c r="F108" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
@@ -3251,19 +3443,19 @@
         <v>45431</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D109" t="s">
+        <v>210</v>
+      </c>
+      <c r="E109" t="s">
         <v>8</v>
       </c>
-      <c r="E109" t="s">
-        <v>9</v>
-      </c>
       <c r="F109" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
@@ -3271,19 +3463,19 @@
         <v>45431</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D110" t="s">
+        <v>210</v>
+      </c>
+      <c r="E110" t="s">
         <v>8</v>
       </c>
-      <c r="E110" t="s">
-        <v>9</v>
-      </c>
       <c r="F110" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
@@ -3291,19 +3483,19 @@
         <v>45431</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D111" t="s">
+        <v>210</v>
+      </c>
+      <c r="E111" t="s">
         <v>8</v>
       </c>
-      <c r="E111" t="s">
+      <c r="F111" t="s">
         <v>9</v>
-      </c>
-      <c r="F111" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
@@ -3311,19 +3503,19 @@
         <v>45431</v>
       </c>
       <c r="B112" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D112" t="s">
         <v>122</v>
       </c>
-      <c r="C112" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="D112" t="s">
-        <v>124</v>
-      </c>
       <c r="E112" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F112" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
@@ -3331,19 +3523,19 @@
         <v>45431</v>
       </c>
       <c r="B113" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C113" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="C113" s="5" t="s">
-        <v>125</v>
-      </c>
       <c r="D113" t="s">
-        <v>126</v>
+        <v>276</v>
       </c>
       <c r="E113" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F113" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
@@ -3351,19 +3543,19 @@
         <v>45431</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D114" t="s">
-        <v>126</v>
+        <v>276</v>
       </c>
       <c r="E114" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F114" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
@@ -3371,19 +3563,19 @@
         <v>45431</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D115" t="s">
-        <v>126</v>
+        <v>276</v>
       </c>
       <c r="E115" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F115" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
@@ -3391,19 +3583,19 @@
         <v>45431</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D116" t="s">
-        <v>126</v>
+        <v>276</v>
       </c>
       <c r="E116" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F116" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
@@ -3411,19 +3603,19 @@
         <v>45431</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D117" t="s">
-        <v>126</v>
+        <v>276</v>
       </c>
       <c r="E117" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F117" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.2">
@@ -3431,19 +3623,19 @@
         <v>45432</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D118" t="s">
-        <v>126</v>
+        <v>276</v>
       </c>
       <c r="E118" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F118" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
@@ -3451,19 +3643,19 @@
         <v>45432</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D119" t="s">
-        <v>126</v>
+        <v>276</v>
       </c>
       <c r="E119" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F119" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
@@ -3471,19 +3663,19 @@
         <v>45432</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D120" t="s">
-        <v>126</v>
+        <v>276</v>
       </c>
       <c r="E120" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F120" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
@@ -3491,19 +3683,19 @@
         <v>45433</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D121" t="s">
-        <v>126</v>
+        <v>276</v>
       </c>
       <c r="E121" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F121" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
@@ -3511,19 +3703,19 @@
         <v>45433</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D122" t="s">
-        <v>126</v>
+        <v>276</v>
       </c>
       <c r="E122" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F122" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
@@ -3531,19 +3723,19 @@
         <v>45433</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D123" t="s">
-        <v>126</v>
+        <v>276</v>
       </c>
       <c r="E123" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F123" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
@@ -3551,19 +3743,19 @@
         <v>45433</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D124" t="s">
-        <v>126</v>
+        <v>276</v>
       </c>
       <c r="E124" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F124" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
@@ -3571,19 +3763,19 @@
         <v>45433</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D125" t="s">
-        <v>126</v>
+        <v>276</v>
       </c>
       <c r="E125" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F125" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
@@ -3591,19 +3783,19 @@
         <v>45433</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D126" t="s">
-        <v>126</v>
+        <v>276</v>
       </c>
       <c r="E126" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F126" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
@@ -3611,19 +3803,19 @@
         <v>45433</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D127" t="s">
-        <v>126</v>
+        <v>276</v>
       </c>
       <c r="E127" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F127" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
@@ -3631,19 +3823,19 @@
         <v>45433</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D128" t="s">
-        <v>126</v>
+        <v>276</v>
       </c>
       <c r="E128" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F128" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.2">
@@ -3651,19 +3843,19 @@
         <v>45434</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D129" t="s">
-        <v>126</v>
+        <v>276</v>
       </c>
       <c r="E129" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F129" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.2">
@@ -3671,19 +3863,19 @@
         <v>45434</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D130" t="s">
-        <v>126</v>
+        <v>276</v>
       </c>
       <c r="E130" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F130" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.2">
@@ -3691,19 +3883,19 @@
         <v>45434</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D131" t="s">
-        <v>126</v>
+        <v>276</v>
       </c>
       <c r="E131" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F131" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
@@ -3711,19 +3903,19 @@
         <v>45435</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D132" t="s">
-        <v>126</v>
+        <v>276</v>
       </c>
       <c r="E132" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F132" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
@@ -3731,19 +3923,19 @@
         <v>45435</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D133" t="s">
-        <v>126</v>
+        <v>276</v>
       </c>
       <c r="E133" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F133" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
@@ -3751,19 +3943,19 @@
         <v>45435</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D134" t="s">
-        <v>126</v>
+        <v>276</v>
       </c>
       <c r="E134" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F134" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.2">
@@ -3771,19 +3963,19 @@
         <v>45435</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D135" t="s">
-        <v>126</v>
+        <v>276</v>
       </c>
       <c r="E135" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F135" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.2">
@@ -3791,19 +3983,19 @@
         <v>45435</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D136" t="s">
-        <v>126</v>
+        <v>276</v>
       </c>
       <c r="E136" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F136" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.2">
@@ -3811,19 +4003,19 @@
         <v>45436</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D137" t="s">
-        <v>126</v>
+        <v>276</v>
       </c>
       <c r="E137" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F137" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.2">
@@ -3831,19 +4023,19 @@
         <v>45436</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C138" s="5" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D138" t="s">
-        <v>126</v>
+        <v>276</v>
       </c>
       <c r="E138" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F138" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.2">
@@ -3851,19 +4043,19 @@
         <v>45436</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D139" t="s">
-        <v>126</v>
+        <v>276</v>
       </c>
       <c r="E139" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F139" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.2">
@@ -3871,19 +4063,19 @@
         <v>45437</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D140" t="s">
-        <v>126</v>
+        <v>276</v>
       </c>
       <c r="E140" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F140" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.2">
@@ -3891,19 +4083,19 @@
         <v>45437</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D141" t="s">
-        <v>126</v>
+        <v>276</v>
       </c>
       <c r="E141" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F141" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.2">
@@ -3911,19 +4103,19 @@
         <v>45437</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D142" t="s">
-        <v>126</v>
+        <v>276</v>
       </c>
       <c r="E142" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F142" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.2">
@@ -3931,19 +4123,19 @@
         <v>45437</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D143" t="s">
-        <v>126</v>
+        <v>276</v>
       </c>
       <c r="E143" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F143" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.2">
@@ -3951,19 +4143,19 @@
         <v>45437</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D144" t="s">
-        <v>126</v>
+        <v>276</v>
       </c>
       <c r="E144" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F144" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.2">
@@ -3971,19 +4163,19 @@
         <v>45438</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D145" t="s">
-        <v>126</v>
+        <v>276</v>
       </c>
       <c r="E145" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F145" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.2">
@@ -3991,19 +4183,19 @@
         <v>45438</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D146" t="s">
-        <v>126</v>
+        <v>276</v>
       </c>
       <c r="E146" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F146" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.2">
@@ -4011,19 +4203,19 @@
         <v>45438</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D147" t="s">
-        <v>126</v>
+        <v>276</v>
       </c>
       <c r="E147" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F147" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.2">
@@ -4031,19 +4223,19 @@
         <v>45438</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D148" t="s">
-        <v>126</v>
+        <v>276</v>
       </c>
       <c r="E148" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F148" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.2">
@@ -4051,19 +4243,19 @@
         <v>45438</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D149" t="s">
-        <v>126</v>
+        <v>276</v>
       </c>
       <c r="E149" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F149" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.2">
@@ -4071,19 +4263,19 @@
         <v>45438</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D150" t="s">
-        <v>126</v>
+        <v>276</v>
       </c>
       <c r="E150" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F150" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.2">
@@ -4091,19 +4283,19 @@
         <v>45439</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D151" t="s">
-        <v>126</v>
+        <v>276</v>
       </c>
       <c r="E151" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F151" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.2">
@@ -4111,19 +4303,19 @@
         <v>45439</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D152" t="s">
-        <v>126</v>
+        <v>276</v>
       </c>
       <c r="E152" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F152" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.2">
@@ -4131,19 +4323,19 @@
         <v>45439</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D153" t="s">
-        <v>126</v>
+        <v>276</v>
       </c>
       <c r="E153" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F153" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.2">
@@ -4151,19 +4343,19 @@
         <v>45440</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D154" t="s">
-        <v>126</v>
+        <v>276</v>
       </c>
       <c r="E154" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F154" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.2">
@@ -4171,19 +4363,19 @@
         <v>45440</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D155" t="s">
-        <v>126</v>
+        <v>276</v>
       </c>
       <c r="E155" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F155" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.2">
@@ -4191,19 +4383,19 @@
         <v>45440</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D156" t="s">
-        <v>126</v>
+        <v>276</v>
       </c>
       <c r="E156" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F156" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.2">
@@ -4211,19 +4403,19 @@
         <v>45440</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D157" t="s">
-        <v>126</v>
+        <v>276</v>
       </c>
       <c r="E157" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F157" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.2">
@@ -4231,19 +4423,19 @@
         <v>45441</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D158" t="s">
-        <v>126</v>
+        <v>276</v>
       </c>
       <c r="E158" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F158" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.2">
@@ -4251,19 +4443,19 @@
         <v>45441</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D159" t="s">
-        <v>126</v>
+        <v>276</v>
       </c>
       <c r="E159" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F159" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.2">
@@ -4271,19 +4463,19 @@
         <v>45441</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D160" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E160" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F160" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.2">
@@ -4291,19 +4483,19 @@
         <v>45442</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D161" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E161" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F161" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.2">
@@ -4311,19 +4503,19 @@
         <v>45442</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D162" t="s">
-        <v>126</v>
+        <v>276</v>
       </c>
       <c r="E162" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F162" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.2">
@@ -4331,19 +4523,19 @@
         <v>45442</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D163" t="s">
-        <v>126</v>
+        <v>276</v>
       </c>
       <c r="E163" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F163" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.2">
@@ -4351,19 +4543,19 @@
         <v>45442</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D164" t="s">
-        <v>126</v>
+        <v>276</v>
       </c>
       <c r="E164" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F164" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.2">
@@ -4371,19 +4563,19 @@
         <v>45442</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D165" t="s">
-        <v>126</v>
+        <v>276</v>
       </c>
       <c r="E165" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F165" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.2">
@@ -4391,19 +4583,19 @@
         <v>45442</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D166" t="s">
-        <v>126</v>
+        <v>276</v>
       </c>
       <c r="E166" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F166" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.2">
@@ -4411,19 +4603,19 @@
         <v>45442</v>
       </c>
       <c r="B167" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C167" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="C167" s="5" t="s">
-        <v>185</v>
-      </c>
       <c r="D167" t="s">
-        <v>126</v>
+        <v>276</v>
       </c>
       <c r="E167" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F167" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.2">
@@ -4431,19 +4623,19 @@
         <v>45442</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C168" s="5" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D168" t="s">
-        <v>126</v>
+        <v>276</v>
       </c>
       <c r="E168" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F168" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.2">
@@ -4451,19 +4643,19 @@
         <v>45442</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C169" s="5" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D169" t="s">
-        <v>126</v>
+        <v>276</v>
       </c>
       <c r="E169" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F169" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.2">
@@ -4471,19 +4663,19 @@
         <v>45442</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C170" s="5" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D170" t="s">
-        <v>126</v>
+        <v>276</v>
       </c>
       <c r="E170" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F170" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.2">
@@ -4491,19 +4683,19 @@
         <v>45442</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D171" t="s">
-        <v>126</v>
+        <v>276</v>
       </c>
       <c r="E171" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F171" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.2">
@@ -4511,19 +4703,19 @@
         <v>45443</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C172" s="5" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D172" t="s">
-        <v>126</v>
+        <v>276</v>
       </c>
       <c r="E172" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F172" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.2">
@@ -4531,19 +4723,19 @@
         <v>45443</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C173" s="5" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D173" t="s">
-        <v>126</v>
+        <v>276</v>
       </c>
       <c r="E173" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F173" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.2">
@@ -4551,19 +4743,19 @@
         <v>45443</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D174" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E174" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F174" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.2">
@@ -4571,19 +4763,19 @@
         <v>45443</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C175" s="5" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D175" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E175" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F175" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.2">
@@ -4591,19 +4783,19 @@
         <v>45443</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C176" s="5" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D176" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E176" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F176" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.2">
@@ -4611,19 +4803,19 @@
         <v>45443</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C177" s="5" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D177" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E177" t="s">
+        <v>8</v>
+      </c>
+      <c r="F177" t="s">
         <v>9</v>
-      </c>
-      <c r="F177" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.2">
@@ -4631,19 +4823,19 @@
         <v>45443</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C178" s="5" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D178" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E178" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F178" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.2">
@@ -4651,19 +4843,19 @@
         <v>45443</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C179" s="5" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D179" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E179" t="s">
+        <v>8</v>
+      </c>
+      <c r="F179" t="s">
         <v>9</v>
-      </c>
-      <c r="F179" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.2">
@@ -4671,19 +4863,19 @@
         <v>45443</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C180" s="5" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D180" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E180" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F180" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.2">
@@ -4691,19 +4883,19 @@
         <v>45443</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C181" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D181" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E181" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F181" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.2">
@@ -4711,19 +4903,19 @@
         <v>45443</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C182" s="5" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D182" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E182" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F182" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.2">
@@ -4731,19 +4923,19 @@
         <v>45443</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C183" s="5" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D183" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E183" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F183" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.2">
@@ -4751,19 +4943,19 @@
         <v>45443</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C184" s="5" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D184" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E184" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F184" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.2">
@@ -4771,19 +4963,19 @@
         <v>45443</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C185" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D185" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E185" t="s">
+        <v>26</v>
+      </c>
+      <c r="F185" t="s">
         <v>27</v>
-      </c>
-      <c r="F185" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.2">
@@ -4791,19 +4983,19 @@
         <v>45443</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C186" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D186" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E186" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F186" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.2">
@@ -4811,19 +5003,19 @@
         <v>45444</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C187" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D187" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E187" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F187" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.2">
@@ -4831,19 +5023,19 @@
         <v>45444</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C188" s="5" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D188" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E188" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F188" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.2">
@@ -4851,19 +5043,19 @@
         <v>45444</v>
       </c>
       <c r="B189" s="5" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C189" s="5" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D189" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="E189" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F189" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.2">
@@ -4871,19 +5063,19 @@
         <v>45444</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C190" s="5" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D190" t="s">
-        <v>209</v>
+        <v>277</v>
       </c>
       <c r="E190" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F190" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.2">
@@ -4891,19 +5083,19 @@
         <v>45444</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C191" s="5" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D191" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E191" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F191" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.2">
@@ -4911,19 +5103,19 @@
         <v>45444</v>
       </c>
       <c r="B192" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="C192" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="D192" t="s">
+        <v>277</v>
+      </c>
+      <c r="E192" t="s">
+        <v>8</v>
+      </c>
+      <c r="F192" t="s">
         <v>208</v>
-      </c>
-      <c r="C192" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="D192" t="s">
-        <v>209</v>
-      </c>
-      <c r="E192" t="s">
-        <v>9</v>
-      </c>
-      <c r="F192" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.2">
@@ -4931,19 +5123,1339 @@
         <v>45444</v>
       </c>
       <c r="B193" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="C193" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D193" t="s">
+        <v>277</v>
+      </c>
+      <c r="E193" t="s">
+        <v>22</v>
+      </c>
+      <c r="F193" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A194" s="3">
+        <v>45445</v>
+      </c>
+      <c r="B194" t="s">
+        <v>12</v>
+      </c>
+      <c r="C194" t="s">
         <v>212</v>
       </c>
-      <c r="C193" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D193" t="s">
-        <v>209</v>
-      </c>
-      <c r="E193" t="s">
-        <v>23</v>
-      </c>
-      <c r="F193" t="s">
-        <v>40</v>
+      <c r="D194" t="s">
+        <v>277</v>
+      </c>
+      <c r="E194" t="s">
+        <v>22</v>
+      </c>
+      <c r="F194" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A195" s="3">
+        <v>45445</v>
+      </c>
+      <c r="B195" t="s">
+        <v>212</v>
+      </c>
+      <c r="C195" t="s">
+        <v>213</v>
+      </c>
+      <c r="D195" t="s">
+        <v>277</v>
+      </c>
+      <c r="E195" t="s">
+        <v>22</v>
+      </c>
+      <c r="F195" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A196" s="3">
+        <v>45445</v>
+      </c>
+      <c r="B196" t="s">
+        <v>214</v>
+      </c>
+      <c r="C196" t="s">
+        <v>145</v>
+      </c>
+      <c r="D196" t="s">
+        <v>277</v>
+      </c>
+      <c r="E196" t="s">
+        <v>22</v>
+      </c>
+      <c r="F196" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A197" s="3">
+        <v>45445</v>
+      </c>
+      <c r="B197" t="s">
+        <v>215</v>
+      </c>
+      <c r="C197" t="s">
+        <v>216</v>
+      </c>
+      <c r="D197" t="s">
+        <v>277</v>
+      </c>
+      <c r="E197" t="s">
+        <v>58</v>
+      </c>
+      <c r="F197" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A198" s="3">
+        <v>45445</v>
+      </c>
+      <c r="B198" t="s">
+        <v>217</v>
+      </c>
+      <c r="C198" t="s">
+        <v>218</v>
+      </c>
+      <c r="D198" t="s">
+        <v>277</v>
+      </c>
+      <c r="E198" t="s">
+        <v>22</v>
+      </c>
+      <c r="F198" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A199" s="3">
+        <v>45445</v>
+      </c>
+      <c r="B199" t="s">
+        <v>218</v>
+      </c>
+      <c r="C199" t="s">
+        <v>10</v>
+      </c>
+      <c r="D199" t="s">
+        <v>277</v>
+      </c>
+      <c r="E199" t="s">
+        <v>22</v>
+      </c>
+      <c r="F199" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A200" s="3">
+        <v>45446</v>
+      </c>
+      <c r="B200" t="s">
+        <v>12</v>
+      </c>
+      <c r="C200" t="s">
+        <v>10</v>
+      </c>
+      <c r="D200" t="s">
+        <v>277</v>
+      </c>
+      <c r="E200" t="s">
+        <v>22</v>
+      </c>
+      <c r="F200" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A201" s="3">
+        <v>45447</v>
+      </c>
+      <c r="B201" t="s">
+        <v>12</v>
+      </c>
+      <c r="C201" t="s">
+        <v>10</v>
+      </c>
+      <c r="D201" t="s">
+        <v>277</v>
+      </c>
+      <c r="E201" t="s">
+        <v>22</v>
+      </c>
+      <c r="F201" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A202" s="3">
+        <v>45448</v>
+      </c>
+      <c r="B202" t="s">
+        <v>12</v>
+      </c>
+      <c r="C202" t="s">
+        <v>219</v>
+      </c>
+      <c r="D202" t="s">
+        <v>277</v>
+      </c>
+      <c r="E202" t="s">
+        <v>22</v>
+      </c>
+      <c r="F202" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A203" s="3">
+        <v>45448</v>
+      </c>
+      <c r="B203" t="s">
+        <v>219</v>
+      </c>
+      <c r="C203" t="s">
+        <v>220</v>
+      </c>
+      <c r="D203" t="s">
+        <v>277</v>
+      </c>
+      <c r="E203" t="s">
+        <v>26</v>
+      </c>
+      <c r="F203" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A204" s="3">
+        <v>45448</v>
+      </c>
+      <c r="B204" t="s">
+        <v>220</v>
+      </c>
+      <c r="C204" t="s">
+        <v>10</v>
+      </c>
+      <c r="D204" t="s">
+        <v>277</v>
+      </c>
+      <c r="E204" t="s">
+        <v>22</v>
+      </c>
+      <c r="F204" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A205" s="3">
+        <v>45449</v>
+      </c>
+      <c r="B205" t="s">
+        <v>12</v>
+      </c>
+      <c r="C205" t="s">
+        <v>221</v>
+      </c>
+      <c r="D205" t="s">
+        <v>277</v>
+      </c>
+      <c r="E205" t="s">
+        <v>22</v>
+      </c>
+      <c r="F205" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A206" s="3">
+        <v>45449</v>
+      </c>
+      <c r="B206" t="s">
+        <v>222</v>
+      </c>
+      <c r="C206" t="s">
+        <v>223</v>
+      </c>
+      <c r="D206" t="s">
+        <v>277</v>
+      </c>
+      <c r="E206" t="s">
+        <v>22</v>
+      </c>
+      <c r="F206" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A207" s="3">
+        <v>45449</v>
+      </c>
+      <c r="B207" t="s">
+        <v>223</v>
+      </c>
+      <c r="C207" t="s">
+        <v>224</v>
+      </c>
+      <c r="D207" t="s">
+        <v>277</v>
+      </c>
+      <c r="E207" t="s">
+        <v>22</v>
+      </c>
+      <c r="F207" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A208" s="3">
+        <v>45450</v>
+      </c>
+      <c r="B208" t="s">
+        <v>12</v>
+      </c>
+      <c r="C208" t="s">
+        <v>100</v>
+      </c>
+      <c r="D208" t="s">
+        <v>277</v>
+      </c>
+      <c r="E208" t="s">
+        <v>22</v>
+      </c>
+      <c r="F208" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A209" s="3">
+        <v>45450</v>
+      </c>
+      <c r="B209" t="s">
+        <v>80</v>
+      </c>
+      <c r="C209" t="s">
+        <v>10</v>
+      </c>
+      <c r="D209" t="s">
+        <v>277</v>
+      </c>
+      <c r="E209" t="s">
+        <v>22</v>
+      </c>
+      <c r="F209" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A210" s="3">
+        <v>45451</v>
+      </c>
+      <c r="B210" t="s">
+        <v>12</v>
+      </c>
+      <c r="C210" t="s">
+        <v>226</v>
+      </c>
+      <c r="D210" t="s">
+        <v>277</v>
+      </c>
+      <c r="E210" t="s">
+        <v>22</v>
+      </c>
+      <c r="F210" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A211" s="3">
+        <v>45451</v>
+      </c>
+      <c r="B211" t="s">
+        <v>226</v>
+      </c>
+      <c r="C211" t="s">
+        <v>227</v>
+      </c>
+      <c r="D211" t="s">
+        <v>277</v>
+      </c>
+      <c r="E211" t="s">
+        <v>58</v>
+      </c>
+      <c r="F211" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A212" s="3">
+        <v>45451</v>
+      </c>
+      <c r="B212" t="s">
+        <v>227</v>
+      </c>
+      <c r="C212" t="s">
+        <v>228</v>
+      </c>
+      <c r="D212" t="s">
+        <v>277</v>
+      </c>
+      <c r="E212" t="s">
+        <v>22</v>
+      </c>
+      <c r="F212" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A213" s="3">
+        <v>45451</v>
+      </c>
+      <c r="B213" t="s">
+        <v>118</v>
+      </c>
+      <c r="C213" t="s">
+        <v>10</v>
+      </c>
+      <c r="D213" t="s">
+        <v>277</v>
+      </c>
+      <c r="E213" t="s">
+        <v>22</v>
+      </c>
+      <c r="F213" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A214" s="3">
+        <v>45452</v>
+      </c>
+      <c r="B214" t="s">
+        <v>12</v>
+      </c>
+      <c r="C214" t="s">
+        <v>67</v>
+      </c>
+      <c r="D214" t="s">
+        <v>277</v>
+      </c>
+      <c r="E214" t="s">
+        <v>22</v>
+      </c>
+      <c r="F214" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A215" s="3">
+        <v>45452</v>
+      </c>
+      <c r="B215" t="s">
+        <v>12</v>
+      </c>
+      <c r="C215" t="s">
+        <v>96</v>
+      </c>
+      <c r="D215" t="s">
+        <v>277</v>
+      </c>
+      <c r="E215" t="s">
+        <v>8</v>
+      </c>
+      <c r="F215" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A216" s="3">
+        <v>45452</v>
+      </c>
+      <c r="B216" t="s">
+        <v>67</v>
+      </c>
+      <c r="C216" t="s">
+        <v>230</v>
+      </c>
+      <c r="D216" t="s">
+        <v>277</v>
+      </c>
+      <c r="E216" t="s">
+        <v>22</v>
+      </c>
+      <c r="F216" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A217" s="3">
+        <v>45452</v>
+      </c>
+      <c r="B217" t="s">
+        <v>231</v>
+      </c>
+      <c r="C217" t="s">
+        <v>232</v>
+      </c>
+      <c r="D217" t="s">
+        <v>277</v>
+      </c>
+      <c r="E217" t="s">
+        <v>22</v>
+      </c>
+      <c r="F217" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A218" s="3">
+        <v>45452</v>
+      </c>
+      <c r="B218" t="s">
+        <v>230</v>
+      </c>
+      <c r="C218" t="s">
+        <v>234</v>
+      </c>
+      <c r="D218" t="s">
+        <v>277</v>
+      </c>
+      <c r="E218" t="s">
+        <v>22</v>
+      </c>
+      <c r="F218" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A219" s="3">
+        <v>45452</v>
+      </c>
+      <c r="B219" t="s">
+        <v>235</v>
+      </c>
+      <c r="C219" t="s">
+        <v>236</v>
+      </c>
+      <c r="D219" t="s">
+        <v>277</v>
+      </c>
+      <c r="E219" t="s">
+        <v>22</v>
+      </c>
+      <c r="F219" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A220" s="3">
+        <v>45452</v>
+      </c>
+      <c r="B220" t="s">
+        <v>236</v>
+      </c>
+      <c r="C220" t="s">
+        <v>10</v>
+      </c>
+      <c r="D220" t="s">
+        <v>277</v>
+      </c>
+      <c r="E220" t="s">
+        <v>8</v>
+      </c>
+      <c r="F220" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A221" s="3">
+        <v>45453</v>
+      </c>
+      <c r="B221" t="s">
+        <v>12</v>
+      </c>
+      <c r="C221" t="s">
+        <v>237</v>
+      </c>
+      <c r="D221" t="s">
+        <v>277</v>
+      </c>
+      <c r="E221" t="s">
+        <v>8</v>
+      </c>
+      <c r="F221" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A222" s="3">
+        <v>45453</v>
+      </c>
+      <c r="B222" t="s">
+        <v>237</v>
+      </c>
+      <c r="C222" t="s">
+        <v>109</v>
+      </c>
+      <c r="D222" t="s">
+        <v>277</v>
+      </c>
+      <c r="E222" t="s">
+        <v>58</v>
+      </c>
+      <c r="F222" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A223" s="3">
+        <v>45453</v>
+      </c>
+      <c r="B223" t="s">
+        <v>238</v>
+      </c>
+      <c r="C223" t="s">
+        <v>10</v>
+      </c>
+      <c r="D223" t="s">
+        <v>277</v>
+      </c>
+      <c r="E223" t="s">
+        <v>8</v>
+      </c>
+      <c r="F223" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A224" s="3">
+        <v>45454</v>
+      </c>
+      <c r="B224" t="s">
+        <v>12</v>
+      </c>
+      <c r="C224" t="s">
+        <v>239</v>
+      </c>
+      <c r="D224" t="s">
+        <v>277</v>
+      </c>
+      <c r="E224" t="s">
+        <v>8</v>
+      </c>
+      <c r="F224" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A225" s="3">
+        <v>45454</v>
+      </c>
+      <c r="B225" t="s">
+        <v>239</v>
+      </c>
+      <c r="C225" t="s">
+        <v>240</v>
+      </c>
+      <c r="D225" t="s">
+        <v>277</v>
+      </c>
+      <c r="E225" t="s">
+        <v>58</v>
+      </c>
+      <c r="F225" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A226" s="3">
+        <v>45454</v>
+      </c>
+      <c r="B226" t="s">
+        <v>240</v>
+      </c>
+      <c r="C226" t="s">
+        <v>241</v>
+      </c>
+      <c r="D226" t="s">
+        <v>277</v>
+      </c>
+      <c r="E226" t="s">
+        <v>8</v>
+      </c>
+      <c r="F226" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A227" s="3">
+        <v>45454</v>
+      </c>
+      <c r="B227" t="s">
+        <v>241</v>
+      </c>
+      <c r="C227" t="s">
+        <v>242</v>
+      </c>
+      <c r="D227" t="s">
+        <v>277</v>
+      </c>
+      <c r="E227" t="s">
+        <v>8</v>
+      </c>
+      <c r="F227" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A228" s="3">
+        <v>45454</v>
+      </c>
+      <c r="B228" t="s">
+        <v>242</v>
+      </c>
+      <c r="C228" t="s">
+        <v>244</v>
+      </c>
+      <c r="D228" t="s">
+        <v>277</v>
+      </c>
+      <c r="E228" t="s">
+        <v>8</v>
+      </c>
+      <c r="F228" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A229" s="3">
+        <v>45454</v>
+      </c>
+      <c r="B229" t="s">
+        <v>244</v>
+      </c>
+      <c r="C229" t="s">
+        <v>10</v>
+      </c>
+      <c r="D229" t="s">
+        <v>277</v>
+      </c>
+      <c r="E229" t="s">
+        <v>8</v>
+      </c>
+      <c r="F229" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A230" s="3">
+        <v>45455</v>
+      </c>
+      <c r="B230" t="s">
+        <v>12</v>
+      </c>
+      <c r="C230" t="s">
+        <v>245</v>
+      </c>
+      <c r="D230" t="s">
+        <v>277</v>
+      </c>
+      <c r="E230" t="s">
+        <v>8</v>
+      </c>
+      <c r="F230" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A231" s="3">
+        <v>45455</v>
+      </c>
+      <c r="B231" t="s">
+        <v>245</v>
+      </c>
+      <c r="C231" t="s">
+        <v>246</v>
+      </c>
+      <c r="D231" t="s">
+        <v>277</v>
+      </c>
+      <c r="E231" t="s">
+        <v>22</v>
+      </c>
+      <c r="F231" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A232" s="3">
+        <v>45455</v>
+      </c>
+      <c r="B232" t="s">
+        <v>246</v>
+      </c>
+      <c r="C232" t="s">
+        <v>56</v>
+      </c>
+      <c r="D232" t="s">
+        <v>277</v>
+      </c>
+      <c r="E232" t="s">
+        <v>22</v>
+      </c>
+      <c r="F232" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A233" s="3">
+        <v>45455</v>
+      </c>
+      <c r="B233" t="s">
+        <v>56</v>
+      </c>
+      <c r="C233" t="s">
+        <v>247</v>
+      </c>
+      <c r="D233" t="s">
+        <v>277</v>
+      </c>
+      <c r="E233" t="s">
+        <v>22</v>
+      </c>
+      <c r="F233" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A234" s="3">
+        <v>45455</v>
+      </c>
+      <c r="B234" t="s">
+        <v>63</v>
+      </c>
+      <c r="C234" t="s">
+        <v>10</v>
+      </c>
+      <c r="D234" t="s">
+        <v>277</v>
+      </c>
+      <c r="E234" t="s">
+        <v>22</v>
+      </c>
+      <c r="F234" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A235" s="3">
+        <v>45456</v>
+      </c>
+      <c r="B235" t="s">
+        <v>12</v>
+      </c>
+      <c r="C235" t="s">
+        <v>248</v>
+      </c>
+      <c r="D235" t="s">
+        <v>277</v>
+      </c>
+      <c r="E235" t="s">
+        <v>22</v>
+      </c>
+      <c r="F235" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A236" s="3">
+        <v>45456</v>
+      </c>
+      <c r="B236" t="s">
+        <v>248</v>
+      </c>
+      <c r="C236" t="s">
+        <v>249</v>
+      </c>
+      <c r="D236" t="s">
+        <v>277</v>
+      </c>
+      <c r="E236" t="s">
+        <v>58</v>
+      </c>
+      <c r="F236" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A237" s="3">
+        <v>45456</v>
+      </c>
+      <c r="B237" t="s">
+        <v>249</v>
+      </c>
+      <c r="C237" t="s">
+        <v>250</v>
+      </c>
+      <c r="D237" t="s">
+        <v>277</v>
+      </c>
+      <c r="E237" t="s">
+        <v>22</v>
+      </c>
+      <c r="F237" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A238" s="3">
+        <v>45456</v>
+      </c>
+      <c r="B238" t="s">
+        <v>250</v>
+      </c>
+      <c r="C238" t="s">
+        <v>251</v>
+      </c>
+      <c r="D238" t="s">
+        <v>277</v>
+      </c>
+      <c r="E238" t="s">
+        <v>22</v>
+      </c>
+      <c r="F238" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A239" s="3">
+        <v>45456</v>
+      </c>
+      <c r="B239" t="s">
+        <v>251</v>
+      </c>
+      <c r="C239" t="s">
+        <v>10</v>
+      </c>
+      <c r="D239" t="s">
+        <v>277</v>
+      </c>
+      <c r="E239" t="s">
+        <v>22</v>
+      </c>
+      <c r="F239" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A240" s="3">
+        <v>45457</v>
+      </c>
+      <c r="B240" t="s">
+        <v>12</v>
+      </c>
+      <c r="C240" t="s">
+        <v>10</v>
+      </c>
+      <c r="D240" t="s">
+        <v>277</v>
+      </c>
+      <c r="E240" t="s">
+        <v>22</v>
+      </c>
+      <c r="F240" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A241" s="3">
+        <v>45458</v>
+      </c>
+      <c r="B241" t="s">
+        <v>12</v>
+      </c>
+      <c r="C241" t="s">
+        <v>137</v>
+      </c>
+      <c r="D241" t="s">
+        <v>277</v>
+      </c>
+      <c r="E241" t="s">
+        <v>22</v>
+      </c>
+      <c r="F241" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A242" s="3">
+        <v>45458</v>
+      </c>
+      <c r="B242" t="s">
+        <v>137</v>
+      </c>
+      <c r="C242" t="s">
+        <v>252</v>
+      </c>
+      <c r="D242" t="s">
+        <v>277</v>
+      </c>
+      <c r="E242" t="s">
+        <v>58</v>
+      </c>
+      <c r="F242" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A243" s="3">
+        <v>45458</v>
+      </c>
+      <c r="B243" t="s">
+        <v>252</v>
+      </c>
+      <c r="C243" t="s">
+        <v>253</v>
+      </c>
+      <c r="D243" t="s">
+        <v>277</v>
+      </c>
+      <c r="E243" t="s">
+        <v>22</v>
+      </c>
+      <c r="F243" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A244" s="3">
+        <v>45458</v>
+      </c>
+      <c r="B244" t="s">
+        <v>253</v>
+      </c>
+      <c r="C244" t="s">
+        <v>136</v>
+      </c>
+      <c r="D244" t="s">
+        <v>122</v>
+      </c>
+      <c r="E244" t="s">
+        <v>32</v>
+      </c>
+      <c r="F244" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A245" s="3">
+        <v>45458</v>
+      </c>
+      <c r="B245" t="s">
+        <v>254</v>
+      </c>
+      <c r="C245" t="s">
+        <v>255</v>
+      </c>
+      <c r="D245" t="s">
+        <v>275</v>
+      </c>
+      <c r="E245" t="s">
+        <v>8</v>
+      </c>
+      <c r="F245" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A246" s="3">
+        <v>45458</v>
+      </c>
+      <c r="B246" t="s">
+        <v>255</v>
+      </c>
+      <c r="C246" t="s">
+        <v>256</v>
+      </c>
+      <c r="D246" t="s">
+        <v>275</v>
+      </c>
+      <c r="E246" t="s">
+        <v>8</v>
+      </c>
+      <c r="F246" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A247" s="3">
+        <v>45458</v>
+      </c>
+      <c r="B247" t="s">
+        <v>257</v>
+      </c>
+      <c r="C247" t="s">
+        <v>10</v>
+      </c>
+      <c r="D247" t="s">
+        <v>275</v>
+      </c>
+      <c r="E247" t="s">
+        <v>8</v>
+      </c>
+      <c r="F247" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A248" s="3">
+        <v>45459</v>
+      </c>
+      <c r="B248" t="s">
+        <v>12</v>
+      </c>
+      <c r="C248" t="s">
+        <v>259</v>
+      </c>
+      <c r="D248" t="s">
+        <v>275</v>
+      </c>
+      <c r="E248" t="s">
+        <v>8</v>
+      </c>
+      <c r="F248" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A249" s="3">
+        <v>45459</v>
+      </c>
+      <c r="B249" t="s">
+        <v>260</v>
+      </c>
+      <c r="C249" t="s">
+        <v>24</v>
+      </c>
+      <c r="D249" t="s">
+        <v>275</v>
+      </c>
+      <c r="E249" t="s">
+        <v>58</v>
+      </c>
+      <c r="F249" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A250" s="3">
+        <v>45459</v>
+      </c>
+      <c r="B250" t="s">
+        <v>24</v>
+      </c>
+      <c r="C250" t="s">
+        <v>261</v>
+      </c>
+      <c r="D250" t="s">
+        <v>275</v>
+      </c>
+      <c r="E250" t="s">
+        <v>8</v>
+      </c>
+      <c r="F250" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A251" s="3">
+        <v>45459</v>
+      </c>
+      <c r="B251" t="s">
+        <v>262</v>
+      </c>
+      <c r="C251" t="s">
+        <v>263</v>
+      </c>
+      <c r="D251" t="s">
+        <v>275</v>
+      </c>
+      <c r="E251" t="s">
+        <v>8</v>
+      </c>
+      <c r="F251" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A252" s="3">
+        <v>45459</v>
+      </c>
+      <c r="B252" t="s">
+        <v>265</v>
+      </c>
+      <c r="C252" t="s">
+        <v>10</v>
+      </c>
+      <c r="D252" t="s">
+        <v>275</v>
+      </c>
+      <c r="E252" t="s">
+        <v>8</v>
+      </c>
+      <c r="F252" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A253" s="3">
+        <v>45460</v>
+      </c>
+      <c r="B253" t="s">
+        <v>12</v>
+      </c>
+      <c r="C253" t="s">
+        <v>266</v>
+      </c>
+      <c r="D253" t="s">
+        <v>275</v>
+      </c>
+      <c r="E253" t="s">
+        <v>8</v>
+      </c>
+      <c r="F253" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A254" s="3">
+        <v>45460</v>
+      </c>
+      <c r="B254" t="s">
+        <v>267</v>
+      </c>
+      <c r="C254" t="s">
+        <v>10</v>
+      </c>
+      <c r="D254" t="s">
+        <v>275</v>
+      </c>
+      <c r="E254" t="s">
+        <v>8</v>
+      </c>
+      <c r="F254" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A255" s="3">
+        <v>45461</v>
+      </c>
+      <c r="B255" t="s">
+        <v>12</v>
+      </c>
+      <c r="C255" t="s">
+        <v>268</v>
+      </c>
+      <c r="D255" t="s">
+        <v>275</v>
+      </c>
+      <c r="E255" t="s">
+        <v>8</v>
+      </c>
+      <c r="F255" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A256" s="3">
+        <v>45461</v>
+      </c>
+      <c r="B256" t="s">
+        <v>268</v>
+      </c>
+      <c r="C256" t="s">
+        <v>269</v>
+      </c>
+      <c r="D256" t="s">
+        <v>122</v>
+      </c>
+      <c r="E256" t="s">
+        <v>32</v>
+      </c>
+      <c r="F256" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A257" s="3">
+        <v>45461</v>
+      </c>
+      <c r="B257" t="s">
+        <v>269</v>
+      </c>
+      <c r="C257" t="s">
+        <v>270</v>
+      </c>
+      <c r="D257" t="s">
+        <v>210</v>
+      </c>
+      <c r="E257" t="s">
+        <v>22</v>
+      </c>
+      <c r="F257" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A258" s="3">
+        <v>45461</v>
+      </c>
+      <c r="B258" t="s">
+        <v>271</v>
+      </c>
+      <c r="C258" t="s">
+        <v>272</v>
+      </c>
+      <c r="D258" t="s">
+        <v>210</v>
+      </c>
+      <c r="E258" t="s">
+        <v>8</v>
+      </c>
+      <c r="F258" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A259" s="3">
+        <v>45461</v>
+      </c>
+      <c r="B259" t="s">
+        <v>272</v>
+      </c>
+      <c r="C259" t="s">
+        <v>10</v>
+      </c>
+      <c r="D259" t="s">
+        <v>210</v>
+      </c>
+      <c r="E259" t="s">
+        <v>8</v>
+      </c>
+      <c r="F259" t="s">
+        <v>273</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\N9635226\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D7321C4-B83C-4D85-BC63-78677A8F9A0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A84C8637-42C6-43B2-9701-E02913836C90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1500" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-1740" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$193</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$358</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1785" uniqueCount="367">
   <si>
     <t>Date</t>
   </si>
@@ -877,6 +877,273 @@
   </si>
   <si>
     <t>ERWZI PF</t>
+  </si>
+  <si>
+    <t>02:20:00</t>
+  </si>
+  <si>
+    <t>03:28:00</t>
+  </si>
+  <si>
+    <t>08:27:00</t>
+  </si>
+  <si>
+    <t>10:43:00</t>
+  </si>
+  <si>
+    <t>14:02:00</t>
+  </si>
+  <si>
+    <t>14:01:00</t>
+  </si>
+  <si>
+    <t>19:33:00</t>
+  </si>
+  <si>
+    <t>23:01:00</t>
+  </si>
+  <si>
+    <t>22:50:00</t>
+  </si>
+  <si>
+    <t>DAPLD</t>
+  </si>
+  <si>
+    <t>Span Rectify</t>
+  </si>
+  <si>
+    <t>10:06:00</t>
+  </si>
+  <si>
+    <t>10:00:00</t>
+  </si>
+  <si>
+    <t>12:37:00</t>
+  </si>
+  <si>
+    <t>08:10:00</t>
+  </si>
+  <si>
+    <t>11:12:00</t>
+  </si>
+  <si>
+    <t>11:26:00</t>
+  </si>
+  <si>
+    <t>13:49:00</t>
+  </si>
+  <si>
+    <t>Hs &gt;2m</t>
+  </si>
+  <si>
+    <t>15:08:00</t>
+  </si>
+  <si>
+    <t>16:54:00</t>
+  </si>
+  <si>
+    <t>07:58:00</t>
+  </si>
+  <si>
+    <t>02:09:00</t>
+  </si>
+  <si>
+    <t>05:30:00</t>
+  </si>
+  <si>
+    <t>09:50:00</t>
+  </si>
+  <si>
+    <t>15:15:00</t>
+  </si>
+  <si>
+    <t>13:28:00</t>
+  </si>
+  <si>
+    <t>21:20:00</t>
+  </si>
+  <si>
+    <t>22:44:00</t>
+  </si>
+  <si>
+    <t>22:25:00</t>
+  </si>
+  <si>
+    <t>06:58:00</t>
+  </si>
+  <si>
+    <t>08:15:00</t>
+  </si>
+  <si>
+    <t>20:30:00</t>
+  </si>
+  <si>
+    <t>03:32:00</t>
+  </si>
+  <si>
+    <t>03:20:00</t>
+  </si>
+  <si>
+    <t>02:46:00</t>
+  </si>
+  <si>
+    <t>13:45:00</t>
+  </si>
+  <si>
+    <t>16:00:00</t>
+  </si>
+  <si>
+    <t>19:31:00</t>
+  </si>
+  <si>
+    <t>00:25:00</t>
+  </si>
+  <si>
+    <t>01:04:00</t>
+  </si>
+  <si>
+    <t>13:59:00</t>
+  </si>
+  <si>
+    <t>16:15:00</t>
+  </si>
+  <si>
+    <t>18:19:00</t>
+  </si>
+  <si>
+    <t>21:10:00</t>
+  </si>
+  <si>
+    <t>ERPLS2</t>
+  </si>
+  <si>
+    <t>23:28:00</t>
+  </si>
+  <si>
+    <t>Temp.sleeper</t>
+  </si>
+  <si>
+    <t>01:03:00</t>
+  </si>
+  <si>
+    <t>09:14:00</t>
+  </si>
+  <si>
+    <t>11:34:00</t>
+  </si>
+  <si>
+    <t>12:35:00</t>
+  </si>
+  <si>
+    <t>14:03:00</t>
+  </si>
+  <si>
+    <t>16:42:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ERPLR2-Y1 </t>
+  </si>
+  <si>
+    <t>ERPLZI</t>
+  </si>
+  <si>
+    <t>08:07:00</t>
+  </si>
+  <si>
+    <t>Sub(OCS)</t>
+  </si>
+  <si>
+    <t>08:03:00</t>
+  </si>
+  <si>
+    <t>15:24:00</t>
+  </si>
+  <si>
+    <t>15:11:00</t>
+  </si>
+  <si>
+    <t>23:02:00</t>
+  </si>
+  <si>
+    <t>Post-flood survey</t>
+  </si>
+  <si>
+    <t>00:15:00</t>
+  </si>
+  <si>
+    <t>13:05:00</t>
+  </si>
+  <si>
+    <t>00:20:00</t>
+  </si>
+  <si>
+    <t>01:13:00</t>
+  </si>
+  <si>
+    <t>04:45:00</t>
+  </si>
+  <si>
+    <t>06:56:00</t>
+  </si>
+  <si>
+    <t>08:37:00</t>
+  </si>
+  <si>
+    <t>17:08:00</t>
+  </si>
+  <si>
+    <t>07:55:00</t>
+  </si>
+  <si>
+    <t>16:31:00</t>
+  </si>
+  <si>
+    <t>09:20:00</t>
+  </si>
+  <si>
+    <t>07:35:00</t>
+  </si>
+  <si>
+    <t>11:07:00</t>
+  </si>
+  <si>
+    <t>12:27:00</t>
+  </si>
+  <si>
+    <t>22:28:00</t>
+  </si>
+  <si>
+    <t>23:15:00</t>
+  </si>
+  <si>
+    <t>00:44:00</t>
+  </si>
+  <si>
+    <t>03:11:00</t>
+  </si>
+  <si>
+    <t>05:10:00</t>
+  </si>
+  <si>
+    <t>12:54:00</t>
+  </si>
+  <si>
+    <t>15:32:00</t>
+  </si>
+  <si>
+    <t>15:56:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ERWN Riser </t>
+  </si>
+  <si>
+    <t>ERWS DL</t>
+  </si>
+  <si>
+    <t>GOWA Riser</t>
+  </si>
+  <si>
+    <t>PLWQ PF</t>
   </si>
 </sst>
 </file>
@@ -947,7 +1214,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -961,6 +1228,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="21" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1263,10 +1534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F259"/>
+  <dimension ref="A1:F358"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A242" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C249" sqref="C249"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -6458,8 +6729,1988 @@
         <v>273</v>
       </c>
     </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A260" s="3">
+        <v>45462</v>
+      </c>
+      <c r="B260" t="s">
+        <v>12</v>
+      </c>
+      <c r="C260" t="s">
+        <v>278</v>
+      </c>
+      <c r="D260" t="s">
+        <v>363</v>
+      </c>
+      <c r="E260" t="s">
+        <v>8</v>
+      </c>
+      <c r="F260" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A261" s="3">
+        <v>45462</v>
+      </c>
+      <c r="B261" t="s">
+        <v>278</v>
+      </c>
+      <c r="C261" t="s">
+        <v>279</v>
+      </c>
+      <c r="D261" t="s">
+        <v>363</v>
+      </c>
+      <c r="E261" t="s">
+        <v>58</v>
+      </c>
+      <c r="F261" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A262" s="3">
+        <v>45462</v>
+      </c>
+      <c r="B262" t="s">
+        <v>279</v>
+      </c>
+      <c r="C262" t="s">
+        <v>280</v>
+      </c>
+      <c r="D262" t="s">
+        <v>363</v>
+      </c>
+      <c r="E262" t="s">
+        <v>8</v>
+      </c>
+      <c r="F262" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A263" s="3">
+        <v>45462</v>
+      </c>
+      <c r="B263" t="s">
+        <v>280</v>
+      </c>
+      <c r="C263" t="s">
+        <v>281</v>
+      </c>
+      <c r="D263" t="s">
+        <v>363</v>
+      </c>
+      <c r="E263" t="s">
+        <v>8</v>
+      </c>
+      <c r="F263" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A264" s="3">
+        <v>45462</v>
+      </c>
+      <c r="B264" t="s">
+        <v>281</v>
+      </c>
+      <c r="C264" t="s">
+        <v>282</v>
+      </c>
+      <c r="D264" t="s">
+        <v>363</v>
+      </c>
+      <c r="E264" t="s">
+        <v>8</v>
+      </c>
+      <c r="F264" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A265" s="3">
+        <v>45462</v>
+      </c>
+      <c r="B265" t="s">
+        <v>283</v>
+      </c>
+      <c r="C265" t="s">
+        <v>284</v>
+      </c>
+      <c r="D265" t="s">
+        <v>210</v>
+      </c>
+      <c r="E265" t="s">
+        <v>8</v>
+      </c>
+      <c r="F265" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A266" s="3">
+        <v>45462</v>
+      </c>
+      <c r="B266" t="s">
+        <v>284</v>
+      </c>
+      <c r="C266" t="s">
+        <v>96</v>
+      </c>
+      <c r="D266" t="s">
+        <v>210</v>
+      </c>
+      <c r="E266" t="s">
+        <v>58</v>
+      </c>
+      <c r="F266" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A267" s="3">
+        <v>45462</v>
+      </c>
+      <c r="B267" t="s">
+        <v>96</v>
+      </c>
+      <c r="C267" t="s">
+        <v>285</v>
+      </c>
+      <c r="D267" t="s">
+        <v>210</v>
+      </c>
+      <c r="E267" t="s">
+        <v>8</v>
+      </c>
+      <c r="F267" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A268" s="3">
+        <v>45462</v>
+      </c>
+      <c r="B268" t="s">
+        <v>286</v>
+      </c>
+      <c r="C268" t="s">
+        <v>10</v>
+      </c>
+      <c r="D268" t="s">
+        <v>287</v>
+      </c>
+      <c r="E268" t="s">
+        <v>29</v>
+      </c>
+      <c r="F268" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A269" s="3">
+        <v>45463</v>
+      </c>
+      <c r="B269" t="s">
+        <v>12</v>
+      </c>
+      <c r="C269" t="s">
+        <v>289</v>
+      </c>
+      <c r="D269" t="s">
+        <v>287</v>
+      </c>
+      <c r="E269" t="s">
+        <v>29</v>
+      </c>
+      <c r="F269" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A270" s="3">
+        <v>45463</v>
+      </c>
+      <c r="B270" t="s">
+        <v>290</v>
+      </c>
+      <c r="C270" t="s">
+        <v>291</v>
+      </c>
+      <c r="D270" t="s">
+        <v>122</v>
+      </c>
+      <c r="E270" t="s">
+        <v>32</v>
+      </c>
+      <c r="F270" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A271" s="3">
+        <v>45463</v>
+      </c>
+      <c r="B271" t="s">
+        <v>291</v>
+      </c>
+      <c r="C271" t="s">
+        <v>10</v>
+      </c>
+      <c r="D271" t="s">
+        <v>275</v>
+      </c>
+      <c r="E271" t="s">
+        <v>8</v>
+      </c>
+      <c r="F271" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A272" s="3">
+        <v>45464</v>
+      </c>
+      <c r="B272" t="s">
+        <v>12</v>
+      </c>
+      <c r="C272" t="s">
+        <v>10</v>
+      </c>
+      <c r="D272" t="s">
+        <v>275</v>
+      </c>
+      <c r="E272" t="s">
+        <v>8</v>
+      </c>
+      <c r="F272" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A273" s="3">
+        <v>45465</v>
+      </c>
+      <c r="B273" t="s">
+        <v>12</v>
+      </c>
+      <c r="C273" t="s">
+        <v>292</v>
+      </c>
+      <c r="D273" t="s">
+        <v>275</v>
+      </c>
+      <c r="E273" t="s">
+        <v>8</v>
+      </c>
+      <c r="F273" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A274" s="3">
+        <v>45465</v>
+      </c>
+      <c r="B274" t="s">
+        <v>292</v>
+      </c>
+      <c r="C274" t="s">
+        <v>293</v>
+      </c>
+      <c r="D274" t="s">
+        <v>122</v>
+      </c>
+      <c r="E274" t="s">
+        <v>32</v>
+      </c>
+      <c r="F274" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A275" s="3">
+        <v>45465</v>
+      </c>
+      <c r="B275" t="s">
+        <v>293</v>
+      </c>
+      <c r="C275" t="s">
+        <v>294</v>
+      </c>
+      <c r="D275" t="s">
+        <v>210</v>
+      </c>
+      <c r="E275" t="s">
+        <v>8</v>
+      </c>
+      <c r="F275" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A276" s="3">
+        <v>45465</v>
+      </c>
+      <c r="B276" t="s">
+        <v>294</v>
+      </c>
+      <c r="C276" t="s">
+        <v>234</v>
+      </c>
+      <c r="D276" t="s">
+        <v>210</v>
+      </c>
+      <c r="E276" t="s">
+        <v>26</v>
+      </c>
+      <c r="F276" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A277" s="3">
+        <v>45465</v>
+      </c>
+      <c r="B277" t="s">
+        <v>294</v>
+      </c>
+      <c r="C277" t="s">
+        <v>295</v>
+      </c>
+      <c r="D277" t="s">
+        <v>210</v>
+      </c>
+      <c r="E277" t="s">
+        <v>22</v>
+      </c>
+      <c r="F277" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A278" s="3">
+        <v>45465</v>
+      </c>
+      <c r="B278" s="7">
+        <v>0.5756944444444444</v>
+      </c>
+      <c r="C278" s="8">
+        <v>0.63055555555555554</v>
+      </c>
+      <c r="D278" t="s">
+        <v>210</v>
+      </c>
+      <c r="E278" t="s">
+        <v>58</v>
+      </c>
+      <c r="F278" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A279" s="3">
+        <v>45465</v>
+      </c>
+      <c r="B279" t="s">
+        <v>297</v>
+      </c>
+      <c r="C279" t="s">
+        <v>298</v>
+      </c>
+      <c r="D279" t="s">
+        <v>210</v>
+      </c>
+      <c r="E279" t="s">
+        <v>22</v>
+      </c>
+      <c r="F279" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A280" s="3">
+        <v>45465</v>
+      </c>
+      <c r="B280" t="s">
+        <v>298</v>
+      </c>
+      <c r="C280" t="s">
+        <v>10</v>
+      </c>
+      <c r="D280" t="s">
+        <v>210</v>
+      </c>
+      <c r="E280" t="s">
+        <v>8</v>
+      </c>
+      <c r="F280" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A281" s="3">
+        <v>45466</v>
+      </c>
+      <c r="B281" t="s">
+        <v>12</v>
+      </c>
+      <c r="C281" t="s">
+        <v>299</v>
+      </c>
+      <c r="D281" t="s">
+        <v>210</v>
+      </c>
+      <c r="E281" t="s">
+        <v>58</v>
+      </c>
+      <c r="F281" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A282" s="3">
+        <v>45466</v>
+      </c>
+      <c r="B282" t="s">
+        <v>299</v>
+      </c>
+      <c r="C282" t="s">
+        <v>10</v>
+      </c>
+      <c r="D282" t="s">
+        <v>210</v>
+      </c>
+      <c r="E282" t="s">
+        <v>8</v>
+      </c>
+      <c r="F282" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A283" s="3">
+        <v>45467</v>
+      </c>
+      <c r="B283" t="s">
+        <v>12</v>
+      </c>
+      <c r="C283" t="s">
+        <v>300</v>
+      </c>
+      <c r="D283" t="s">
+        <v>210</v>
+      </c>
+      <c r="E283" t="s">
+        <v>8</v>
+      </c>
+      <c r="F283" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A284" s="3">
+        <v>45467</v>
+      </c>
+      <c r="B284" t="s">
+        <v>300</v>
+      </c>
+      <c r="C284" t="s">
+        <v>301</v>
+      </c>
+      <c r="D284" t="s">
+        <v>210</v>
+      </c>
+      <c r="E284" t="s">
+        <v>8</v>
+      </c>
+      <c r="F284" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A285" s="3">
+        <v>45467</v>
+      </c>
+      <c r="B285" t="s">
+        <v>301</v>
+      </c>
+      <c r="C285" t="s">
+        <v>302</v>
+      </c>
+      <c r="D285" t="s">
+        <v>122</v>
+      </c>
+      <c r="E285" t="s">
+        <v>32</v>
+      </c>
+      <c r="F285" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A286" s="3">
+        <v>45467</v>
+      </c>
+      <c r="B286" t="s">
+        <v>302</v>
+      </c>
+      <c r="C286" t="s">
+        <v>303</v>
+      </c>
+      <c r="D286" t="s">
+        <v>277</v>
+      </c>
+      <c r="E286" t="s">
+        <v>22</v>
+      </c>
+      <c r="F286" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A287" s="3">
+        <v>45467</v>
+      </c>
+      <c r="B287" t="s">
+        <v>304</v>
+      </c>
+      <c r="C287" t="s">
+        <v>298</v>
+      </c>
+      <c r="D287" t="s">
+        <v>277</v>
+      </c>
+      <c r="E287" t="s">
+        <v>8</v>
+      </c>
+      <c r="F287" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A288" s="3">
+        <v>45467</v>
+      </c>
+      <c r="B288" t="s">
+        <v>298</v>
+      </c>
+      <c r="C288" t="s">
+        <v>305</v>
+      </c>
+      <c r="D288" t="s">
+        <v>277</v>
+      </c>
+      <c r="E288" t="s">
+        <v>58</v>
+      </c>
+      <c r="F288" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A289" s="3">
+        <v>45467</v>
+      </c>
+      <c r="B289" t="s">
+        <v>305</v>
+      </c>
+      <c r="C289" t="s">
+        <v>306</v>
+      </c>
+      <c r="D289" t="s">
+        <v>277</v>
+      </c>
+      <c r="E289" t="s">
+        <v>22</v>
+      </c>
+      <c r="F289" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A290" s="3">
+        <v>45467</v>
+      </c>
+      <c r="B290" t="s">
+        <v>307</v>
+      </c>
+      <c r="C290" t="s">
+        <v>10</v>
+      </c>
+      <c r="D290" t="s">
+        <v>277</v>
+      </c>
+      <c r="E290" t="s">
+        <v>8</v>
+      </c>
+      <c r="F290" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A291" s="3">
+        <v>45468</v>
+      </c>
+      <c r="B291" t="s">
+        <v>12</v>
+      </c>
+      <c r="C291" t="s">
+        <v>308</v>
+      </c>
+      <c r="D291" t="s">
+        <v>277</v>
+      </c>
+      <c r="E291" t="s">
+        <v>8</v>
+      </c>
+      <c r="F291" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A292" s="3">
+        <v>45468</v>
+      </c>
+      <c r="B292" t="s">
+        <v>308</v>
+      </c>
+      <c r="C292" t="s">
+        <v>309</v>
+      </c>
+      <c r="D292" t="s">
+        <v>277</v>
+      </c>
+      <c r="E292" t="s">
+        <v>8</v>
+      </c>
+      <c r="F292" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A293" s="3">
+        <v>45468</v>
+      </c>
+      <c r="B293" t="s">
+        <v>309</v>
+      </c>
+      <c r="C293" t="s">
+        <v>310</v>
+      </c>
+      <c r="D293" t="s">
+        <v>277</v>
+      </c>
+      <c r="E293" t="s">
+        <v>22</v>
+      </c>
+      <c r="F293" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A294" s="3">
+        <v>45468</v>
+      </c>
+      <c r="B294" t="s">
+        <v>310</v>
+      </c>
+      <c r="C294" t="s">
+        <v>10</v>
+      </c>
+      <c r="D294" t="s">
+        <v>277</v>
+      </c>
+      <c r="E294" t="s">
+        <v>58</v>
+      </c>
+      <c r="F294" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A295" s="3">
+        <v>45469</v>
+      </c>
+      <c r="B295" t="s">
+        <v>12</v>
+      </c>
+      <c r="C295" t="s">
+        <v>159</v>
+      </c>
+      <c r="D295" t="s">
+        <v>277</v>
+      </c>
+      <c r="E295" t="s">
+        <v>58</v>
+      </c>
+      <c r="F295" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A296" s="3">
+        <v>45469</v>
+      </c>
+      <c r="B296" t="s">
+        <v>159</v>
+      </c>
+      <c r="C296" t="s">
+        <v>311</v>
+      </c>
+      <c r="D296" t="s">
+        <v>277</v>
+      </c>
+      <c r="E296" t="s">
+        <v>22</v>
+      </c>
+      <c r="F296" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A297" s="3">
+        <v>45469</v>
+      </c>
+      <c r="B297" t="s">
+        <v>312</v>
+      </c>
+      <c r="C297" t="s">
+        <v>10</v>
+      </c>
+      <c r="D297" t="s">
+        <v>277</v>
+      </c>
+      <c r="E297" t="s">
+        <v>8</v>
+      </c>
+      <c r="F297" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A298" s="3">
+        <v>45470</v>
+      </c>
+      <c r="B298" t="s">
+        <v>12</v>
+      </c>
+      <c r="C298" t="s">
+        <v>23</v>
+      </c>
+      <c r="D298" t="s">
+        <v>277</v>
+      </c>
+      <c r="E298" t="s">
+        <v>22</v>
+      </c>
+      <c r="F298" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A299" s="3">
+        <v>45470</v>
+      </c>
+      <c r="B299" t="s">
+        <v>313</v>
+      </c>
+      <c r="C299" t="s">
+        <v>314</v>
+      </c>
+      <c r="D299" t="s">
+        <v>277</v>
+      </c>
+      <c r="E299" t="s">
+        <v>8</v>
+      </c>
+      <c r="F299" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A300" s="3">
+        <v>45470</v>
+      </c>
+      <c r="B300" t="s">
+        <v>302</v>
+      </c>
+      <c r="C300" t="s">
+        <v>315</v>
+      </c>
+      <c r="D300" t="s">
+        <v>277</v>
+      </c>
+      <c r="E300" t="s">
+        <v>22</v>
+      </c>
+      <c r="F300" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A301" s="3">
+        <v>45470</v>
+      </c>
+      <c r="B301" t="s">
+        <v>314</v>
+      </c>
+      <c r="C301" t="s">
+        <v>43</v>
+      </c>
+      <c r="D301" t="s">
+        <v>277</v>
+      </c>
+      <c r="E301" t="s">
+        <v>8</v>
+      </c>
+      <c r="F301" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A302" s="3">
+        <v>45470</v>
+      </c>
+      <c r="B302" t="s">
+        <v>316</v>
+      </c>
+      <c r="C302" t="s">
+        <v>10</v>
+      </c>
+      <c r="D302" t="s">
+        <v>277</v>
+      </c>
+      <c r="E302" t="s">
+        <v>8</v>
+      </c>
+      <c r="F302" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A303" s="3">
+        <v>45471</v>
+      </c>
+      <c r="B303" t="s">
+        <v>12</v>
+      </c>
+      <c r="C303" t="s">
+        <v>317</v>
+      </c>
+      <c r="D303" t="s">
+        <v>277</v>
+      </c>
+      <c r="E303" t="s">
+        <v>8</v>
+      </c>
+      <c r="F303" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A304" s="3">
+        <v>45471</v>
+      </c>
+      <c r="B304" t="s">
+        <v>317</v>
+      </c>
+      <c r="C304" t="s">
+        <v>318</v>
+      </c>
+      <c r="D304" t="s">
+        <v>277</v>
+      </c>
+      <c r="E304" t="s">
+        <v>58</v>
+      </c>
+      <c r="F304" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A305" s="3">
+        <v>45471</v>
+      </c>
+      <c r="B305" t="s">
+        <v>318</v>
+      </c>
+      <c r="C305" t="s">
+        <v>319</v>
+      </c>
+      <c r="D305" t="s">
+        <v>277</v>
+      </c>
+      <c r="E305" t="s">
+        <v>8</v>
+      </c>
+      <c r="F305" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A306" s="3">
+        <v>45471</v>
+      </c>
+      <c r="B306" t="s">
+        <v>304</v>
+      </c>
+      <c r="C306" t="s">
+        <v>320</v>
+      </c>
+      <c r="D306" t="s">
+        <v>122</v>
+      </c>
+      <c r="E306" t="s">
+        <v>32</v>
+      </c>
+      <c r="F306" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A307" s="3">
+        <v>45471</v>
+      </c>
+      <c r="B307" t="s">
+        <v>320</v>
+      </c>
+      <c r="C307" t="s">
+        <v>321</v>
+      </c>
+      <c r="D307" t="s">
+        <v>364</v>
+      </c>
+      <c r="E307" t="s">
+        <v>8</v>
+      </c>
+      <c r="F307" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A308" s="3">
+        <v>45471</v>
+      </c>
+      <c r="B308" t="s">
+        <v>321</v>
+      </c>
+      <c r="C308" t="s">
+        <v>322</v>
+      </c>
+      <c r="D308" t="s">
+        <v>323</v>
+      </c>
+      <c r="E308" t="s">
+        <v>8</v>
+      </c>
+      <c r="F308" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A309" s="3">
+        <v>45471</v>
+      </c>
+      <c r="B309" t="s">
+        <v>322</v>
+      </c>
+      <c r="C309" t="s">
+        <v>324</v>
+      </c>
+      <c r="D309" t="s">
+        <v>364</v>
+      </c>
+      <c r="E309" t="s">
+        <v>8</v>
+      </c>
+      <c r="F309" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A310" s="3">
+        <v>45471</v>
+      </c>
+      <c r="B310" t="s">
+        <v>324</v>
+      </c>
+      <c r="C310" t="s">
+        <v>10</v>
+      </c>
+      <c r="D310" t="s">
+        <v>364</v>
+      </c>
+      <c r="E310" t="s">
+        <v>8</v>
+      </c>
+      <c r="F310" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A311" s="3">
+        <v>45472</v>
+      </c>
+      <c r="B311" t="s">
+        <v>12</v>
+      </c>
+      <c r="C311" t="s">
+        <v>326</v>
+      </c>
+      <c r="D311" t="s">
+        <v>364</v>
+      </c>
+      <c r="E311" t="s">
+        <v>8</v>
+      </c>
+      <c r="F311" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A312" s="3">
+        <v>45472</v>
+      </c>
+      <c r="B312" t="s">
+        <v>326</v>
+      </c>
+      <c r="C312" t="s">
+        <v>327</v>
+      </c>
+      <c r="D312" t="s">
+        <v>364</v>
+      </c>
+      <c r="E312" t="s">
+        <v>8</v>
+      </c>
+      <c r="F312" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A313" s="3">
+        <v>45472</v>
+      </c>
+      <c r="B313" t="s">
+        <v>327</v>
+      </c>
+      <c r="C313" t="s">
+        <v>328</v>
+      </c>
+      <c r="D313" t="s">
+        <v>364</v>
+      </c>
+      <c r="E313" t="s">
+        <v>8</v>
+      </c>
+      <c r="F313" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A314" s="3">
+        <v>45472</v>
+      </c>
+      <c r="B314" t="s">
+        <v>328</v>
+      </c>
+      <c r="C314" t="s">
+        <v>329</v>
+      </c>
+      <c r="D314" t="s">
+        <v>364</v>
+      </c>
+      <c r="E314" t="s">
+        <v>58</v>
+      </c>
+      <c r="F314" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A315" s="3">
+        <v>45472</v>
+      </c>
+      <c r="B315" t="s">
+        <v>329</v>
+      </c>
+      <c r="C315" t="s">
+        <v>330</v>
+      </c>
+      <c r="D315" t="s">
+        <v>364</v>
+      </c>
+      <c r="E315" t="s">
+        <v>8</v>
+      </c>
+      <c r="F315" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A316" s="3">
+        <v>45472</v>
+      </c>
+      <c r="B316" t="s">
+        <v>330</v>
+      </c>
+      <c r="C316" t="s">
+        <v>331</v>
+      </c>
+      <c r="D316" t="s">
+        <v>122</v>
+      </c>
+      <c r="E316" t="s">
+        <v>32</v>
+      </c>
+      <c r="F316" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A317" s="3">
+        <v>45472</v>
+      </c>
+      <c r="B317" t="s">
+        <v>331</v>
+      </c>
+      <c r="C317" t="s">
+        <v>126</v>
+      </c>
+      <c r="D317" t="s">
+        <v>332</v>
+      </c>
+      <c r="E317" t="s">
+        <v>8</v>
+      </c>
+      <c r="F317" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A318" s="3">
+        <v>45472</v>
+      </c>
+      <c r="B318" t="s">
+        <v>126</v>
+      </c>
+      <c r="C318" t="s">
+        <v>10</v>
+      </c>
+      <c r="D318" t="s">
+        <v>333</v>
+      </c>
+      <c r="E318" t="s">
+        <v>8</v>
+      </c>
+      <c r="F318" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A319" s="3">
+        <v>45473</v>
+      </c>
+      <c r="B319" t="s">
+        <v>12</v>
+      </c>
+      <c r="C319" t="s">
+        <v>175</v>
+      </c>
+      <c r="D319" t="s">
+        <v>333</v>
+      </c>
+      <c r="E319" t="s">
+        <v>8</v>
+      </c>
+      <c r="F319" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A320" s="3">
+        <v>45473</v>
+      </c>
+      <c r="B320" t="s">
+        <v>175</v>
+      </c>
+      <c r="C320" t="s">
+        <v>334</v>
+      </c>
+      <c r="D320" t="s">
+        <v>333</v>
+      </c>
+      <c r="E320" t="s">
+        <v>26</v>
+      </c>
+      <c r="F320" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A321" s="3">
+        <v>45473</v>
+      </c>
+      <c r="B321" t="s">
+        <v>336</v>
+      </c>
+      <c r="C321" t="s">
+        <v>178</v>
+      </c>
+      <c r="D321" t="s">
+        <v>333</v>
+      </c>
+      <c r="E321" t="s">
+        <v>8</v>
+      </c>
+      <c r="F321" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A322" s="3">
+        <v>45473</v>
+      </c>
+      <c r="B322" t="s">
+        <v>178</v>
+      </c>
+      <c r="C322" t="s">
+        <v>337</v>
+      </c>
+      <c r="D322" t="s">
+        <v>333</v>
+      </c>
+      <c r="E322" t="s">
+        <v>8</v>
+      </c>
+      <c r="F322" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A323" s="3">
+        <v>45473</v>
+      </c>
+      <c r="B323" t="s">
+        <v>338</v>
+      </c>
+      <c r="C323" t="s">
+        <v>339</v>
+      </c>
+      <c r="D323" t="s">
+        <v>323</v>
+      </c>
+      <c r="E323" t="s">
+        <v>8</v>
+      </c>
+      <c r="F323" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A324" s="3">
+        <v>45473</v>
+      </c>
+      <c r="B324" t="s">
+        <v>339</v>
+      </c>
+      <c r="C324" t="s">
+        <v>10</v>
+      </c>
+      <c r="D324" t="s">
+        <v>122</v>
+      </c>
+      <c r="E324" t="s">
+        <v>32</v>
+      </c>
+      <c r="F324" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A325" s="3">
+        <v>45474</v>
+      </c>
+      <c r="B325" t="s">
+        <v>12</v>
+      </c>
+      <c r="C325" t="s">
+        <v>341</v>
+      </c>
+      <c r="D325" t="s">
+        <v>122</v>
+      </c>
+      <c r="E325" t="s">
+        <v>32</v>
+      </c>
+      <c r="F325" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A326" s="3">
+        <v>45474</v>
+      </c>
+      <c r="B326" t="s">
+        <v>341</v>
+      </c>
+      <c r="C326" t="s">
+        <v>10</v>
+      </c>
+      <c r="D326" t="s">
+        <v>277</v>
+      </c>
+      <c r="E326" t="s">
+        <v>8</v>
+      </c>
+      <c r="F326" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A327" s="3">
+        <v>45475</v>
+      </c>
+      <c r="B327" t="s">
+        <v>12</v>
+      </c>
+      <c r="C327" t="s">
+        <v>10</v>
+      </c>
+      <c r="D327" t="s">
+        <v>277</v>
+      </c>
+      <c r="E327" t="s">
+        <v>8</v>
+      </c>
+      <c r="F327" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A328" s="3">
+        <v>45476</v>
+      </c>
+      <c r="B328" t="s">
+        <v>12</v>
+      </c>
+      <c r="C328" t="s">
+        <v>269</v>
+      </c>
+      <c r="D328" t="s">
+        <v>277</v>
+      </c>
+      <c r="E328" t="s">
+        <v>8</v>
+      </c>
+      <c r="F328" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A329" s="3">
+        <v>45476</v>
+      </c>
+      <c r="B329" t="s">
+        <v>269</v>
+      </c>
+      <c r="C329" t="s">
+        <v>342</v>
+      </c>
+      <c r="D329" t="s">
+        <v>277</v>
+      </c>
+      <c r="E329" t="s">
+        <v>8</v>
+      </c>
+      <c r="F329" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A330" s="3">
+        <v>45476</v>
+      </c>
+      <c r="B330" t="s">
+        <v>342</v>
+      </c>
+      <c r="C330" t="s">
+        <v>10</v>
+      </c>
+      <c r="D330" t="s">
+        <v>122</v>
+      </c>
+      <c r="E330" t="s">
+        <v>32</v>
+      </c>
+      <c r="F330" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A331" s="3">
+        <v>45477</v>
+      </c>
+      <c r="B331" t="s">
+        <v>12</v>
+      </c>
+      <c r="C331" t="s">
+        <v>343</v>
+      </c>
+      <c r="D331" t="s">
+        <v>122</v>
+      </c>
+      <c r="E331" t="s">
+        <v>32</v>
+      </c>
+      <c r="F331" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A332" s="3">
+        <v>45477</v>
+      </c>
+      <c r="B332" t="s">
+        <v>343</v>
+      </c>
+      <c r="C332" t="s">
+        <v>344</v>
+      </c>
+      <c r="D332" t="s">
+        <v>276</v>
+      </c>
+      <c r="E332" t="s">
+        <v>8</v>
+      </c>
+      <c r="F332" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A333" s="3">
+        <v>45477</v>
+      </c>
+      <c r="B333" t="s">
+        <v>344</v>
+      </c>
+      <c r="C333" t="s">
+        <v>345</v>
+      </c>
+      <c r="D333" t="s">
+        <v>276</v>
+      </c>
+      <c r="E333" t="s">
+        <v>8</v>
+      </c>
+      <c r="F333" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A334" s="3">
+        <v>45477</v>
+      </c>
+      <c r="B334" t="s">
+        <v>345</v>
+      </c>
+      <c r="C334" t="s">
+        <v>346</v>
+      </c>
+      <c r="D334" t="s">
+        <v>276</v>
+      </c>
+      <c r="E334" t="s">
+        <v>8</v>
+      </c>
+      <c r="F334" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A335" s="3">
+        <v>45477</v>
+      </c>
+      <c r="B335" t="s">
+        <v>346</v>
+      </c>
+      <c r="C335" t="s">
+        <v>347</v>
+      </c>
+      <c r="D335" t="s">
+        <v>122</v>
+      </c>
+      <c r="E335" t="s">
+        <v>32</v>
+      </c>
+      <c r="F335" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A336" s="3">
+        <v>45477</v>
+      </c>
+      <c r="B336" t="s">
+        <v>347</v>
+      </c>
+      <c r="C336" t="s">
+        <v>348</v>
+      </c>
+      <c r="D336" t="s">
+        <v>192</v>
+      </c>
+      <c r="E336" t="s">
+        <v>8</v>
+      </c>
+      <c r="F336" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A337" s="3">
+        <v>45477</v>
+      </c>
+      <c r="B337" t="s">
+        <v>348</v>
+      </c>
+      <c r="C337" t="s">
+        <v>186</v>
+      </c>
+      <c r="D337" t="s">
+        <v>122</v>
+      </c>
+      <c r="E337" t="s">
+        <v>32</v>
+      </c>
+      <c r="F337" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A338" s="3">
+        <v>45477</v>
+      </c>
+      <c r="B338" t="s">
+        <v>186</v>
+      </c>
+      <c r="C338" t="s">
+        <v>10</v>
+      </c>
+      <c r="D338" t="s">
+        <v>276</v>
+      </c>
+      <c r="E338" t="s">
+        <v>22</v>
+      </c>
+      <c r="F338" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A339" s="3">
+        <v>45478</v>
+      </c>
+      <c r="B339" t="s">
+        <v>12</v>
+      </c>
+      <c r="C339" t="s">
+        <v>349</v>
+      </c>
+      <c r="D339" t="s">
+        <v>276</v>
+      </c>
+      <c r="E339" t="s">
+        <v>22</v>
+      </c>
+      <c r="F339" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A340" s="3">
+        <v>45478</v>
+      </c>
+      <c r="B340" t="s">
+        <v>349</v>
+      </c>
+      <c r="C340" t="s">
+        <v>350</v>
+      </c>
+      <c r="D340" t="s">
+        <v>276</v>
+      </c>
+      <c r="E340" t="s">
+        <v>8</v>
+      </c>
+      <c r="F340" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A341" s="3">
+        <v>45478</v>
+      </c>
+      <c r="B341" t="s">
+        <v>350</v>
+      </c>
+      <c r="C341" t="s">
+        <v>10</v>
+      </c>
+      <c r="D341" t="s">
+        <v>276</v>
+      </c>
+      <c r="E341" t="s">
+        <v>8</v>
+      </c>
+      <c r="F341" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A342" s="3">
+        <v>45479</v>
+      </c>
+      <c r="B342" t="s">
+        <v>12</v>
+      </c>
+      <c r="C342" t="s">
+        <v>327</v>
+      </c>
+      <c r="D342" t="s">
+        <v>276</v>
+      </c>
+      <c r="E342" t="s">
+        <v>8</v>
+      </c>
+      <c r="F342" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A343" s="3">
+        <v>45479</v>
+      </c>
+      <c r="B343" t="s">
+        <v>351</v>
+      </c>
+      <c r="C343" t="s">
+        <v>330</v>
+      </c>
+      <c r="D343" t="s">
+        <v>122</v>
+      </c>
+      <c r="E343" t="s">
+        <v>32</v>
+      </c>
+      <c r="F343" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A344" s="3">
+        <v>45479</v>
+      </c>
+      <c r="B344" t="s">
+        <v>330</v>
+      </c>
+      <c r="C344" t="s">
+        <v>101</v>
+      </c>
+      <c r="D344" t="s">
+        <v>365</v>
+      </c>
+      <c r="E344" t="s">
+        <v>8</v>
+      </c>
+      <c r="F344" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A345" s="3">
+        <v>45479</v>
+      </c>
+      <c r="B345" t="s">
+        <v>101</v>
+      </c>
+      <c r="C345" t="s">
+        <v>10</v>
+      </c>
+      <c r="D345" t="s">
+        <v>365</v>
+      </c>
+      <c r="E345" t="s">
+        <v>8</v>
+      </c>
+      <c r="F345" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A346" s="3">
+        <v>45480</v>
+      </c>
+      <c r="B346" t="s">
+        <v>12</v>
+      </c>
+      <c r="C346" t="s">
+        <v>352</v>
+      </c>
+      <c r="D346" t="s">
+        <v>365</v>
+      </c>
+      <c r="E346" t="s">
+        <v>8</v>
+      </c>
+      <c r="F346" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A347" s="3">
+        <v>45480</v>
+      </c>
+      <c r="B347" t="s">
+        <v>352</v>
+      </c>
+      <c r="C347" t="s">
+        <v>353</v>
+      </c>
+      <c r="D347" t="s">
+        <v>192</v>
+      </c>
+      <c r="E347" t="s">
+        <v>8</v>
+      </c>
+      <c r="F347" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A348" s="3">
+        <v>45480</v>
+      </c>
+      <c r="B348" t="s">
+        <v>36</v>
+      </c>
+      <c r="C348" t="s">
+        <v>10</v>
+      </c>
+      <c r="D348" t="s">
+        <v>276</v>
+      </c>
+      <c r="E348" t="s">
+        <v>22</v>
+      </c>
+      <c r="F348" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A349" s="3">
+        <v>45480</v>
+      </c>
+      <c r="B349" t="s">
+        <v>353</v>
+      </c>
+      <c r="C349" t="s">
+        <v>354</v>
+      </c>
+      <c r="D349" t="s">
+        <v>122</v>
+      </c>
+      <c r="E349" t="s">
+        <v>32</v>
+      </c>
+      <c r="F349" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A350" s="3">
+        <v>45480</v>
+      </c>
+      <c r="B350" t="s">
+        <v>355</v>
+      </c>
+      <c r="C350" t="s">
+        <v>356</v>
+      </c>
+      <c r="D350" t="s">
+        <v>276</v>
+      </c>
+      <c r="E350" t="s">
+        <v>22</v>
+      </c>
+      <c r="F350" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A351" s="3">
+        <v>45480</v>
+      </c>
+      <c r="B351" t="s">
+        <v>356</v>
+      </c>
+      <c r="C351" t="s">
+        <v>10</v>
+      </c>
+      <c r="D351" t="s">
+        <v>276</v>
+      </c>
+      <c r="E351" t="s">
+        <v>22</v>
+      </c>
+      <c r="F351" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A352" s="3">
+        <v>45481</v>
+      </c>
+      <c r="B352" t="s">
+        <v>12</v>
+      </c>
+      <c r="C352" t="s">
+        <v>357</v>
+      </c>
+      <c r="D352" t="s">
+        <v>276</v>
+      </c>
+      <c r="E352" t="s">
+        <v>22</v>
+      </c>
+      <c r="F352" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A353" s="3">
+        <v>45481</v>
+      </c>
+      <c r="B353" t="s">
+        <v>12</v>
+      </c>
+      <c r="C353" t="s">
+        <v>358</v>
+      </c>
+      <c r="D353" t="s">
+        <v>276</v>
+      </c>
+      <c r="E353" t="s">
+        <v>22</v>
+      </c>
+      <c r="F353" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A354" s="3">
+        <v>45481</v>
+      </c>
+      <c r="B354" t="s">
+        <v>358</v>
+      </c>
+      <c r="C354" t="s">
+        <v>359</v>
+      </c>
+      <c r="D354" t="s">
+        <v>276</v>
+      </c>
+      <c r="E354" t="s">
+        <v>22</v>
+      </c>
+      <c r="F354" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A355" s="3">
+        <v>45481</v>
+      </c>
+      <c r="B355" t="s">
+        <v>359</v>
+      </c>
+      <c r="C355" t="s">
+        <v>360</v>
+      </c>
+      <c r="D355" t="s">
+        <v>122</v>
+      </c>
+      <c r="E355" t="s">
+        <v>32</v>
+      </c>
+      <c r="F355" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A356" s="3">
+        <v>45481</v>
+      </c>
+      <c r="B356" t="s">
+        <v>360</v>
+      </c>
+      <c r="C356" t="s">
+        <v>361</v>
+      </c>
+      <c r="D356" t="s">
+        <v>366</v>
+      </c>
+      <c r="E356" t="s">
+        <v>22</v>
+      </c>
+      <c r="F356" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A357" s="3">
+        <v>45481</v>
+      </c>
+      <c r="B357" t="s">
+        <v>361</v>
+      </c>
+      <c r="C357" t="s">
+        <v>362</v>
+      </c>
+      <c r="D357" t="s">
+        <v>366</v>
+      </c>
+      <c r="E357" t="s">
+        <v>22</v>
+      </c>
+      <c r="F357" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A358" s="3">
+        <v>45481</v>
+      </c>
+      <c r="B358" t="s">
+        <v>362</v>
+      </c>
+      <c r="C358" t="s">
+        <v>10</v>
+      </c>
+      <c r="D358" t="s">
+        <v>366</v>
+      </c>
+      <c r="E358" t="s">
+        <v>22</v>
+      </c>
+      <c r="F358" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F193" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:F358" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/output.xlsx
+++ b/output.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\N9635226\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A84C8637-42C6-43B2-9701-E02913836C90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E818BC03-B0CB-4586-8F4D-98043E40FC1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-1740" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1785" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1785" uniqueCount="365">
   <si>
     <t>Date</t>
   </si>
@@ -866,10 +866,6 @@
     <t>Pigging</t>
   </si>
   <si>
-    <t>ERWN Riser</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>DAWD PF</t>
   </si>
   <si>
@@ -1132,9 +1128,6 @@
   </si>
   <si>
     <t>15:56:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ERWN Riser </t>
   </si>
   <si>
     <t>ERWS DL</t>
@@ -1536,8 +1529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F358"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A241" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="E264" sqref="E264"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1720,7 +1713,7 @@
         <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>274</v>
+        <v>210</v>
       </c>
       <c r="E9" t="s">
         <v>8</v>
@@ -1940,7 +1933,7 @@
         <v>35</v>
       </c>
       <c r="D20" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E20" t="s">
         <v>22</v>
@@ -1960,7 +1953,7 @@
         <v>37</v>
       </c>
       <c r="D21" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E21" t="s">
         <v>22</v>
@@ -1980,7 +1973,7 @@
         <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E22" t="s">
         <v>22</v>
@@ -2000,7 +1993,7 @@
         <v>40</v>
       </c>
       <c r="D23" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E23" t="s">
         <v>22</v>
@@ -2020,7 +2013,7 @@
         <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E24" t="s">
         <v>22</v>
@@ -2040,7 +2033,7 @@
         <v>42</v>
       </c>
       <c r="D25" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E25" t="s">
         <v>22</v>
@@ -2060,7 +2053,7 @@
         <v>43</v>
       </c>
       <c r="D26" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E26" t="s">
         <v>26</v>
@@ -2080,7 +2073,7 @@
         <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E27" t="s">
         <v>22</v>
@@ -2100,7 +2093,7 @@
         <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E28" t="s">
         <v>22</v>
@@ -2120,7 +2113,7 @@
         <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E29" t="s">
         <v>22</v>
@@ -2140,7 +2133,7 @@
         <v>45</v>
       </c>
       <c r="D30" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E30" t="s">
         <v>22</v>
@@ -2160,7 +2153,7 @@
         <v>42</v>
       </c>
       <c r="D31" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E31" t="s">
         <v>22</v>
@@ -2180,7 +2173,7 @@
         <v>47</v>
       </c>
       <c r="D32" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E32" t="s">
         <v>22</v>
@@ -2200,7 +2193,7 @@
         <v>49</v>
       </c>
       <c r="D33" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E33" t="s">
         <v>22</v>
@@ -2220,7 +2213,7 @@
         <v>51</v>
       </c>
       <c r="D34" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E34" t="s">
         <v>22</v>
@@ -2240,7 +2233,7 @@
         <v>53</v>
       </c>
       <c r="D35" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E35" t="s">
         <v>22</v>
@@ -2260,7 +2253,7 @@
         <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E36" t="s">
         <v>22</v>
@@ -2280,7 +2273,7 @@
         <v>54</v>
       </c>
       <c r="D37" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E37" t="s">
         <v>22</v>
@@ -2300,7 +2293,7 @@
         <v>55</v>
       </c>
       <c r="D38" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E38" t="s">
         <v>26</v>
@@ -2320,7 +2313,7 @@
         <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E39" t="s">
         <v>22</v>
@@ -2340,7 +2333,7 @@
         <v>56</v>
       </c>
       <c r="D40" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E40" t="s">
         <v>22</v>
@@ -2360,7 +2353,7 @@
         <v>57</v>
       </c>
       <c r="D41" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E41" t="s">
         <v>22</v>
@@ -2380,7 +2373,7 @@
         <v>59</v>
       </c>
       <c r="D42" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E42" t="s">
         <v>58</v>
@@ -2400,7 +2393,7 @@
         <v>60</v>
       </c>
       <c r="D43" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E43" t="s">
         <v>22</v>
@@ -2420,7 +2413,7 @@
         <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E44" t="s">
         <v>22</v>
@@ -2440,7 +2433,7 @@
         <v>6</v>
       </c>
       <c r="D45" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E45" t="s">
         <v>22</v>
@@ -2460,7 +2453,7 @@
         <v>63</v>
       </c>
       <c r="D46" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E46" t="s">
         <v>22</v>
@@ -2480,7 +2473,7 @@
         <v>65</v>
       </c>
       <c r="D47" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E47" t="s">
         <v>22</v>
@@ -2500,7 +2493,7 @@
         <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E48" t="s">
         <v>22</v>
@@ -2520,7 +2513,7 @@
         <v>67</v>
       </c>
       <c r="D49" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E49" t="s">
         <v>22</v>
@@ -2540,7 +2533,7 @@
         <v>68</v>
       </c>
       <c r="D50" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E50" t="s">
         <v>22</v>
@@ -2560,7 +2553,7 @@
         <v>70</v>
       </c>
       <c r="D51" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E51" t="s">
         <v>58</v>
@@ -2580,7 +2573,7 @@
         <v>72</v>
       </c>
       <c r="D52" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E52" t="s">
         <v>22</v>
@@ -2600,7 +2593,7 @@
         <v>16</v>
       </c>
       <c r="D53" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E53" t="s">
         <v>22</v>
@@ -2620,7 +2613,7 @@
         <v>73</v>
       </c>
       <c r="D54" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E54" t="s">
         <v>22</v>
@@ -2640,7 +2633,7 @@
         <v>16</v>
       </c>
       <c r="D55" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E55" t="s">
         <v>22</v>
@@ -2660,7 +2653,7 @@
         <v>0.74305555555555547</v>
       </c>
       <c r="D56" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E56" t="s">
         <v>22</v>
@@ -2680,7 +2673,7 @@
         <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E57" t="s">
         <v>22</v>
@@ -2700,7 +2693,7 @@
         <v>75</v>
       </c>
       <c r="D58" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E58" t="s">
         <v>22</v>
@@ -2720,7 +2713,7 @@
         <v>76</v>
       </c>
       <c r="D59" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E59" t="s">
         <v>22</v>
@@ -2740,7 +2733,7 @@
         <v>78</v>
       </c>
       <c r="D60" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E60" t="s">
         <v>22</v>
@@ -2760,7 +2753,7 @@
         <v>79</v>
       </c>
       <c r="D61" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E61" t="s">
         <v>58</v>
@@ -2780,7 +2773,7 @@
         <v>80</v>
       </c>
       <c r="D62" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E62" t="s">
         <v>22</v>
@@ -2800,7 +2793,7 @@
         <v>81</v>
       </c>
       <c r="D63" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E63" t="s">
         <v>58</v>
@@ -2820,7 +2813,7 @@
         <v>82</v>
       </c>
       <c r="D64" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E64" t="s">
         <v>22</v>
@@ -2840,7 +2833,7 @@
         <v>63</v>
       </c>
       <c r="D65" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E65" t="s">
         <v>58</v>
@@ -2860,7 +2853,7 @@
         <v>83</v>
       </c>
       <c r="D66" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E66" t="s">
         <v>22</v>
@@ -2880,7 +2873,7 @@
         <v>84</v>
       </c>
       <c r="D67" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E67" t="s">
         <v>22</v>
@@ -2900,7 +2893,7 @@
         <v>86</v>
       </c>
       <c r="D68" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E68" t="s">
         <v>22</v>
@@ -2920,7 +2913,7 @@
         <v>79</v>
       </c>
       <c r="D69" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E69" t="s">
         <v>58</v>
@@ -2940,7 +2933,7 @@
         <v>88</v>
       </c>
       <c r="D70" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E70" t="s">
         <v>22</v>
@@ -2960,7 +2953,7 @@
         <v>89</v>
       </c>
       <c r="D71" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E71" t="s">
         <v>22</v>
@@ -2980,7 +2973,7 @@
         <v>90</v>
       </c>
       <c r="D72" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E72" t="s">
         <v>58</v>
@@ -3000,7 +2993,7 @@
         <v>91</v>
       </c>
       <c r="D73" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E73" t="s">
         <v>8</v>
@@ -3020,7 +3013,7 @@
         <v>93</v>
       </c>
       <c r="D74" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E74" t="s">
         <v>8</v>
@@ -3040,7 +3033,7 @@
         <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E75" t="s">
         <v>22</v>
@@ -3060,7 +3053,7 @@
         <v>94</v>
       </c>
       <c r="D76" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E76" t="s">
         <v>22</v>
@@ -3100,7 +3093,7 @@
         <v>96</v>
       </c>
       <c r="D78" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E78" t="s">
         <v>22</v>
@@ -3120,7 +3113,7 @@
         <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E79" t="s">
         <v>22</v>
@@ -3140,7 +3133,7 @@
         <v>97</v>
       </c>
       <c r="D80" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E80" t="s">
         <v>22</v>
@@ -3160,7 +3153,7 @@
         <v>97</v>
       </c>
       <c r="D81" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E81" t="s">
         <v>22</v>
@@ -3180,7 +3173,7 @@
         <v>99</v>
       </c>
       <c r="D82" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E82" t="s">
         <v>58</v>
@@ -3200,7 +3193,7 @@
         <v>100</v>
       </c>
       <c r="D83" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E83" t="s">
         <v>22</v>
@@ -3220,7 +3213,7 @@
         <v>101</v>
       </c>
       <c r="D84" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E84" t="s">
         <v>22</v>
@@ -3240,7 +3233,7 @@
         <v>102</v>
       </c>
       <c r="D85" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E85" t="s">
         <v>22</v>
@@ -3260,7 +3253,7 @@
         <v>42</v>
       </c>
       <c r="D86" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E86" t="s">
         <v>22</v>
@@ -3280,7 +3273,7 @@
         <v>103</v>
       </c>
       <c r="D87" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E87" t="s">
         <v>22</v>
@@ -3800,7 +3793,7 @@
         <v>123</v>
       </c>
       <c r="D113" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E113" t="s">
         <v>22</v>
@@ -3820,7 +3813,7 @@
         <v>124</v>
       </c>
       <c r="D114" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E114" t="s">
         <v>22</v>
@@ -3840,7 +3833,7 @@
         <v>126</v>
       </c>
       <c r="D115" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E115" t="s">
         <v>22</v>
@@ -3860,7 +3853,7 @@
         <v>76</v>
       </c>
       <c r="D116" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E116" t="s">
         <v>22</v>
@@ -3880,7 +3873,7 @@
         <v>10</v>
       </c>
       <c r="D117" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E117" t="s">
         <v>26</v>
@@ -3900,7 +3893,7 @@
         <v>128</v>
       </c>
       <c r="D118" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E118" t="s">
         <v>26</v>
@@ -3920,7 +3913,7 @@
         <v>129</v>
       </c>
       <c r="D119" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E119" t="s">
         <v>22</v>
@@ -3940,7 +3933,7 @@
         <v>10</v>
       </c>
       <c r="D120" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E120" t="s">
         <v>22</v>
@@ -3960,7 +3953,7 @@
         <v>130</v>
       </c>
       <c r="D121" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E121" t="s">
         <v>22</v>
@@ -3980,7 +3973,7 @@
         <v>131</v>
       </c>
       <c r="D122" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E122" t="s">
         <v>58</v>
@@ -4000,7 +3993,7 @@
         <v>80</v>
       </c>
       <c r="D123" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E123" t="s">
         <v>22</v>
@@ -4020,7 +4013,7 @@
         <v>132</v>
       </c>
       <c r="D124" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E124" t="s">
         <v>58</v>
@@ -4040,7 +4033,7 @@
         <v>133</v>
       </c>
       <c r="D125" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E125" t="s">
         <v>22</v>
@@ -4060,7 +4053,7 @@
         <v>134</v>
       </c>
       <c r="D126" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E126" t="s">
         <v>22</v>
@@ -4080,7 +4073,7 @@
         <v>52</v>
       </c>
       <c r="D127" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E127" t="s">
         <v>58</v>
@@ -4100,7 +4093,7 @@
         <v>10</v>
       </c>
       <c r="D128" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E128" t="s">
         <v>22</v>
@@ -4120,7 +4113,7 @@
         <v>135</v>
       </c>
       <c r="D129" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E129" t="s">
         <v>22</v>
@@ -4140,7 +4133,7 @@
         <v>136</v>
       </c>
       <c r="D130" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E130" t="s">
         <v>58</v>
@@ -4160,7 +4153,7 @@
         <v>10</v>
       </c>
       <c r="D131" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E131" t="s">
         <v>22</v>
@@ -4180,7 +4173,7 @@
         <v>137</v>
       </c>
       <c r="D132" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E132" t="s">
         <v>22</v>
@@ -4200,7 +4193,7 @@
         <v>138</v>
       </c>
       <c r="D133" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E133" t="s">
         <v>58</v>
@@ -4220,7 +4213,7 @@
         <v>139</v>
       </c>
       <c r="D134" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E134" t="s">
         <v>22</v>
@@ -4240,7 +4233,7 @@
         <v>140</v>
       </c>
       <c r="D135" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E135" t="s">
         <v>58</v>
@@ -4260,7 +4253,7 @@
         <v>10</v>
       </c>
       <c r="D136" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E136" t="s">
         <v>22</v>
@@ -4280,7 +4273,7 @@
         <v>141</v>
       </c>
       <c r="D137" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E137" t="s">
         <v>22</v>
@@ -4300,7 +4293,7 @@
         <v>143</v>
       </c>
       <c r="D138" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E138" t="s">
         <v>22</v>
@@ -4320,7 +4313,7 @@
         <v>10</v>
       </c>
       <c r="D139" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E139" t="s">
         <v>22</v>
@@ -4340,7 +4333,7 @@
         <v>145</v>
       </c>
       <c r="D140" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E140" t="s">
         <v>22</v>
@@ -4360,7 +4353,7 @@
         <v>147</v>
       </c>
       <c r="D141" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E141" t="s">
         <v>22</v>
@@ -4380,7 +4373,7 @@
         <v>148</v>
       </c>
       <c r="D142" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E142" t="s">
         <v>22</v>
@@ -4400,7 +4393,7 @@
         <v>150</v>
       </c>
       <c r="D143" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E143" t="s">
         <v>22</v>
@@ -4420,7 +4413,7 @@
         <v>10</v>
       </c>
       <c r="D144" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E144" t="s">
         <v>22</v>
@@ -4440,7 +4433,7 @@
         <v>151</v>
       </c>
       <c r="D145" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E145" t="s">
         <v>22</v>
@@ -4460,7 +4453,7 @@
         <v>152</v>
       </c>
       <c r="D146" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E146" t="s">
         <v>22</v>
@@ -4480,7 +4473,7 @@
         <v>153</v>
       </c>
       <c r="D147" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E147" t="s">
         <v>22</v>
@@ -4500,7 +4493,7 @@
         <v>154</v>
       </c>
       <c r="D148" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E148" t="s">
         <v>22</v>
@@ -4520,7 +4513,7 @@
         <v>155</v>
       </c>
       <c r="D149" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E149" t="s">
         <v>22</v>
@@ -4540,7 +4533,7 @@
         <v>10</v>
       </c>
       <c r="D150" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E150" t="s">
         <v>22</v>
@@ -4560,7 +4553,7 @@
         <v>156</v>
       </c>
       <c r="D151" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E151" t="s">
         <v>22</v>
@@ -4580,7 +4573,7 @@
         <v>157</v>
       </c>
       <c r="D152" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E152" t="s">
         <v>22</v>
@@ -4600,7 +4593,7 @@
         <v>10</v>
       </c>
       <c r="D153" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E153" t="s">
         <v>22</v>
@@ -4620,7 +4613,7 @@
         <v>137</v>
       </c>
       <c r="D154" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E154" t="s">
         <v>22</v>
@@ -4640,7 +4633,7 @@
         <v>159</v>
       </c>
       <c r="D155" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E155" t="s">
         <v>22</v>
@@ -4660,7 +4653,7 @@
         <v>160</v>
       </c>
       <c r="D156" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E156" t="s">
         <v>22</v>
@@ -4680,7 +4673,7 @@
         <v>10</v>
       </c>
       <c r="D157" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E157" t="s">
         <v>8</v>
@@ -4700,7 +4693,7 @@
         <v>169</v>
       </c>
       <c r="D158" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E158" t="s">
         <v>8</v>
@@ -4720,7 +4713,7 @@
         <v>171</v>
       </c>
       <c r="D159" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E159" t="s">
         <v>8</v>
@@ -4780,7 +4773,7 @@
         <v>176</v>
       </c>
       <c r="D162" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E162" t="s">
         <v>22</v>
@@ -4800,7 +4793,7 @@
         <v>177</v>
       </c>
       <c r="D163" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E163" t="s">
         <v>58</v>
@@ -4820,7 +4813,7 @@
         <v>178</v>
       </c>
       <c r="D164" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E164" t="s">
         <v>22</v>
@@ -4840,7 +4833,7 @@
         <v>179</v>
       </c>
       <c r="D165" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E165" t="s">
         <v>22</v>
@@ -4860,7 +4853,7 @@
         <v>181</v>
       </c>
       <c r="D166" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E166" t="s">
         <v>22</v>
@@ -4880,7 +4873,7 @@
         <v>182</v>
       </c>
       <c r="D167" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E167" t="s">
         <v>22</v>
@@ -4900,7 +4893,7 @@
         <v>182</v>
       </c>
       <c r="D168" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E168" t="s">
         <v>22</v>
@@ -4920,7 +4913,7 @@
         <v>185</v>
       </c>
       <c r="D169" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E169" t="s">
         <v>22</v>
@@ -4940,7 +4933,7 @@
         <v>187</v>
       </c>
       <c r="D170" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E170" t="s">
         <v>22</v>
@@ -4960,7 +4953,7 @@
         <v>10</v>
       </c>
       <c r="D171" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E171" t="s">
         <v>22</v>
@@ -4980,7 +4973,7 @@
         <v>188</v>
       </c>
       <c r="D172" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E172" t="s">
         <v>22</v>
@@ -5000,7 +4993,7 @@
         <v>189</v>
       </c>
       <c r="D173" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E173" t="s">
         <v>58</v>
@@ -5340,7 +5333,7 @@
         <v>204</v>
       </c>
       <c r="D190" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E190" t="s">
         <v>8</v>
@@ -5380,7 +5373,7 @@
         <v>207</v>
       </c>
       <c r="D192" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E192" t="s">
         <v>8</v>
@@ -5400,7 +5393,7 @@
         <v>10</v>
       </c>
       <c r="D193" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E193" t="s">
         <v>22</v>
@@ -5420,7 +5413,7 @@
         <v>212</v>
       </c>
       <c r="D194" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E194" t="s">
         <v>22</v>
@@ -5440,7 +5433,7 @@
         <v>213</v>
       </c>
       <c r="D195" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E195" t="s">
         <v>22</v>
@@ -5460,7 +5453,7 @@
         <v>145</v>
       </c>
       <c r="D196" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E196" t="s">
         <v>22</v>
@@ -5480,7 +5473,7 @@
         <v>216</v>
       </c>
       <c r="D197" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E197" t="s">
         <v>58</v>
@@ -5500,7 +5493,7 @@
         <v>218</v>
       </c>
       <c r="D198" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E198" t="s">
         <v>22</v>
@@ -5520,7 +5513,7 @@
         <v>10</v>
       </c>
       <c r="D199" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E199" t="s">
         <v>22</v>
@@ -5540,7 +5533,7 @@
         <v>10</v>
       </c>
       <c r="D200" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E200" t="s">
         <v>22</v>
@@ -5560,7 +5553,7 @@
         <v>10</v>
       </c>
       <c r="D201" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E201" t="s">
         <v>22</v>
@@ -5580,7 +5573,7 @@
         <v>219</v>
       </c>
       <c r="D202" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E202" t="s">
         <v>22</v>
@@ -5600,7 +5593,7 @@
         <v>220</v>
       </c>
       <c r="D203" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E203" t="s">
         <v>26</v>
@@ -5620,7 +5613,7 @@
         <v>10</v>
       </c>
       <c r="D204" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E204" t="s">
         <v>22</v>
@@ -5640,7 +5633,7 @@
         <v>221</v>
       </c>
       <c r="D205" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E205" t="s">
         <v>22</v>
@@ -5660,7 +5653,7 @@
         <v>223</v>
       </c>
       <c r="D206" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E206" t="s">
         <v>22</v>
@@ -5680,7 +5673,7 @@
         <v>224</v>
       </c>
       <c r="D207" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E207" t="s">
         <v>22</v>
@@ -5700,7 +5693,7 @@
         <v>100</v>
       </c>
       <c r="D208" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E208" t="s">
         <v>22</v>
@@ -5720,7 +5713,7 @@
         <v>10</v>
       </c>
       <c r="D209" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E209" t="s">
         <v>22</v>
@@ -5740,7 +5733,7 @@
         <v>226</v>
       </c>
       <c r="D210" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E210" t="s">
         <v>22</v>
@@ -5760,7 +5753,7 @@
         <v>227</v>
       </c>
       <c r="D211" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E211" t="s">
         <v>58</v>
@@ -5780,7 +5773,7 @@
         <v>228</v>
       </c>
       <c r="D212" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E212" t="s">
         <v>22</v>
@@ -5800,7 +5793,7 @@
         <v>10</v>
       </c>
       <c r="D213" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E213" t="s">
         <v>22</v>
@@ -5820,7 +5813,7 @@
         <v>67</v>
       </c>
       <c r="D214" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E214" t="s">
         <v>22</v>
@@ -5840,7 +5833,7 @@
         <v>96</v>
       </c>
       <c r="D215" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E215" t="s">
         <v>8</v>
@@ -5860,7 +5853,7 @@
         <v>230</v>
       </c>
       <c r="D216" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E216" t="s">
         <v>22</v>
@@ -5880,7 +5873,7 @@
         <v>232</v>
       </c>
       <c r="D217" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E217" t="s">
         <v>22</v>
@@ -5900,7 +5893,7 @@
         <v>234</v>
       </c>
       <c r="D218" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E218" t="s">
         <v>22</v>
@@ -5920,7 +5913,7 @@
         <v>236</v>
       </c>
       <c r="D219" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E219" t="s">
         <v>22</v>
@@ -5940,7 +5933,7 @@
         <v>10</v>
       </c>
       <c r="D220" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E220" t="s">
         <v>8</v>
@@ -5960,7 +5953,7 @@
         <v>237</v>
       </c>
       <c r="D221" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E221" t="s">
         <v>8</v>
@@ -5980,7 +5973,7 @@
         <v>109</v>
       </c>
       <c r="D222" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E222" t="s">
         <v>58</v>
@@ -6000,7 +5993,7 @@
         <v>10</v>
       </c>
       <c r="D223" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E223" t="s">
         <v>8</v>
@@ -6020,7 +6013,7 @@
         <v>239</v>
       </c>
       <c r="D224" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E224" t="s">
         <v>8</v>
@@ -6040,7 +6033,7 @@
         <v>240</v>
       </c>
       <c r="D225" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E225" t="s">
         <v>58</v>
@@ -6060,7 +6053,7 @@
         <v>241</v>
       </c>
       <c r="D226" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E226" t="s">
         <v>8</v>
@@ -6080,7 +6073,7 @@
         <v>242</v>
       </c>
       <c r="D227" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E227" t="s">
         <v>8</v>
@@ -6100,7 +6093,7 @@
         <v>244</v>
       </c>
       <c r="D228" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E228" t="s">
         <v>8</v>
@@ -6120,7 +6113,7 @@
         <v>10</v>
       </c>
       <c r="D229" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E229" t="s">
         <v>8</v>
@@ -6140,7 +6133,7 @@
         <v>245</v>
       </c>
       <c r="D230" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E230" t="s">
         <v>8</v>
@@ -6160,7 +6153,7 @@
         <v>246</v>
       </c>
       <c r="D231" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E231" t="s">
         <v>22</v>
@@ -6180,7 +6173,7 @@
         <v>56</v>
       </c>
       <c r="D232" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E232" t="s">
         <v>22</v>
@@ -6200,7 +6193,7 @@
         <v>247</v>
       </c>
       <c r="D233" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E233" t="s">
         <v>22</v>
@@ -6220,7 +6213,7 @@
         <v>10</v>
       </c>
       <c r="D234" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E234" t="s">
         <v>22</v>
@@ -6240,7 +6233,7 @@
         <v>248</v>
       </c>
       <c r="D235" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E235" t="s">
         <v>22</v>
@@ -6260,7 +6253,7 @@
         <v>249</v>
       </c>
       <c r="D236" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E236" t="s">
         <v>58</v>
@@ -6280,7 +6273,7 @@
         <v>250</v>
       </c>
       <c r="D237" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E237" t="s">
         <v>22</v>
@@ -6300,7 +6293,7 @@
         <v>251</v>
       </c>
       <c r="D238" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E238" t="s">
         <v>22</v>
@@ -6320,7 +6313,7 @@
         <v>10</v>
       </c>
       <c r="D239" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E239" t="s">
         <v>22</v>
@@ -6340,7 +6333,7 @@
         <v>10</v>
       </c>
       <c r="D240" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E240" t="s">
         <v>22</v>
@@ -6360,7 +6353,7 @@
         <v>137</v>
       </c>
       <c r="D241" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E241" t="s">
         <v>22</v>
@@ -6380,7 +6373,7 @@
         <v>252</v>
       </c>
       <c r="D242" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E242" t="s">
         <v>58</v>
@@ -6400,7 +6393,7 @@
         <v>253</v>
       </c>
       <c r="D243" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E243" t="s">
         <v>22</v>
@@ -6440,7 +6433,7 @@
         <v>255</v>
       </c>
       <c r="D245" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E245" t="s">
         <v>8</v>
@@ -6460,7 +6453,7 @@
         <v>256</v>
       </c>
       <c r="D246" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E246" t="s">
         <v>8</v>
@@ -6480,7 +6473,7 @@
         <v>10</v>
       </c>
       <c r="D247" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E247" t="s">
         <v>8</v>
@@ -6500,7 +6493,7 @@
         <v>259</v>
       </c>
       <c r="D248" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E248" t="s">
         <v>8</v>
@@ -6520,7 +6513,7 @@
         <v>24</v>
       </c>
       <c r="D249" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E249" t="s">
         <v>58</v>
@@ -6540,7 +6533,7 @@
         <v>261</v>
       </c>
       <c r="D250" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E250" t="s">
         <v>8</v>
@@ -6560,7 +6553,7 @@
         <v>263</v>
       </c>
       <c r="D251" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E251" t="s">
         <v>8</v>
@@ -6580,7 +6573,7 @@
         <v>10</v>
       </c>
       <c r="D252" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E252" t="s">
         <v>8</v>
@@ -6600,7 +6593,7 @@
         <v>266</v>
       </c>
       <c r="D253" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E253" t="s">
         <v>8</v>
@@ -6620,7 +6613,7 @@
         <v>10</v>
       </c>
       <c r="D254" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E254" t="s">
         <v>8</v>
@@ -6640,7 +6633,7 @@
         <v>268</v>
       </c>
       <c r="D255" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E255" t="s">
         <v>8</v>
@@ -6737,10 +6730,10 @@
         <v>12</v>
       </c>
       <c r="C260" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D260" t="s">
-        <v>363</v>
+        <v>210</v>
       </c>
       <c r="E260" t="s">
         <v>8</v>
@@ -6754,13 +6747,13 @@
         <v>45462</v>
       </c>
       <c r="B261" t="s">
+        <v>277</v>
+      </c>
+      <c r="C261" t="s">
         <v>278</v>
       </c>
-      <c r="C261" t="s">
-        <v>279</v>
-      </c>
       <c r="D261" t="s">
-        <v>363</v>
+        <v>210</v>
       </c>
       <c r="E261" t="s">
         <v>58</v>
@@ -6774,13 +6767,13 @@
         <v>45462</v>
       </c>
       <c r="B262" t="s">
+        <v>278</v>
+      </c>
+      <c r="C262" t="s">
         <v>279</v>
       </c>
-      <c r="C262" t="s">
-        <v>280</v>
-      </c>
       <c r="D262" t="s">
-        <v>363</v>
+        <v>210</v>
       </c>
       <c r="E262" t="s">
         <v>8</v>
@@ -6794,13 +6787,13 @@
         <v>45462</v>
       </c>
       <c r="B263" t="s">
+        <v>279</v>
+      </c>
+      <c r="C263" t="s">
         <v>280</v>
       </c>
-      <c r="C263" t="s">
-        <v>281</v>
-      </c>
       <c r="D263" t="s">
-        <v>363</v>
+        <v>210</v>
       </c>
       <c r="E263" t="s">
         <v>8</v>
@@ -6814,13 +6807,13 @@
         <v>45462</v>
       </c>
       <c r="B264" t="s">
+        <v>280</v>
+      </c>
+      <c r="C264" t="s">
         <v>281</v>
       </c>
-      <c r="C264" t="s">
-        <v>282</v>
-      </c>
       <c r="D264" t="s">
-        <v>363</v>
+        <v>210</v>
       </c>
       <c r="E264" t="s">
         <v>8</v>
@@ -6834,10 +6827,10 @@
         <v>45462</v>
       </c>
       <c r="B265" t="s">
+        <v>282</v>
+      </c>
+      <c r="C265" t="s">
         <v>283</v>
-      </c>
-      <c r="C265" t="s">
-        <v>284</v>
       </c>
       <c r="D265" t="s">
         <v>210</v>
@@ -6854,7 +6847,7 @@
         <v>45462</v>
       </c>
       <c r="B266" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C266" t="s">
         <v>96</v>
@@ -6877,7 +6870,7 @@
         <v>96</v>
       </c>
       <c r="C267" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D267" t="s">
         <v>210</v>
@@ -6894,19 +6887,19 @@
         <v>45462</v>
       </c>
       <c r="B268" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C268" t="s">
         <v>10</v>
       </c>
       <c r="D268" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E268" t="s">
         <v>29</v>
       </c>
       <c r="F268" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.2">
@@ -6917,16 +6910,16 @@
         <v>12</v>
       </c>
       <c r="C269" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D269" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E269" t="s">
         <v>29</v>
       </c>
       <c r="F269" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.2">
@@ -6934,10 +6927,10 @@
         <v>45463</v>
       </c>
       <c r="B270" t="s">
+        <v>289</v>
+      </c>
+      <c r="C270" t="s">
         <v>290</v>
-      </c>
-      <c r="C270" t="s">
-        <v>291</v>
       </c>
       <c r="D270" t="s">
         <v>122</v>
@@ -6954,13 +6947,13 @@
         <v>45463</v>
       </c>
       <c r="B271" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C271" t="s">
         <v>10</v>
       </c>
       <c r="D271" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E271" t="s">
         <v>8</v>
@@ -6980,7 +6973,7 @@
         <v>10</v>
       </c>
       <c r="D272" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E272" t="s">
         <v>8</v>
@@ -6997,10 +6990,10 @@
         <v>12</v>
       </c>
       <c r="C273" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D273" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E273" t="s">
         <v>8</v>
@@ -7014,10 +7007,10 @@
         <v>45465</v>
       </c>
       <c r="B274" t="s">
+        <v>291</v>
+      </c>
+      <c r="C274" t="s">
         <v>292</v>
-      </c>
-      <c r="C274" t="s">
-        <v>293</v>
       </c>
       <c r="D274" t="s">
         <v>122</v>
@@ -7034,10 +7027,10 @@
         <v>45465</v>
       </c>
       <c r="B275" t="s">
+        <v>292</v>
+      </c>
+      <c r="C275" t="s">
         <v>293</v>
-      </c>
-      <c r="C275" t="s">
-        <v>294</v>
       </c>
       <c r="D275" t="s">
         <v>210</v>
@@ -7054,7 +7047,7 @@
         <v>45465</v>
       </c>
       <c r="B276" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C276" t="s">
         <v>234</v>
@@ -7074,10 +7067,10 @@
         <v>45465</v>
       </c>
       <c r="B277" t="s">
+        <v>293</v>
+      </c>
+      <c r="C277" t="s">
         <v>294</v>
-      </c>
-      <c r="C277" t="s">
-        <v>295</v>
       </c>
       <c r="D277" t="s">
         <v>210</v>
@@ -7106,7 +7099,7 @@
         <v>58</v>
       </c>
       <c r="F278" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.2">
@@ -7114,10 +7107,10 @@
         <v>45465</v>
       </c>
       <c r="B279" t="s">
+        <v>296</v>
+      </c>
+      <c r="C279" t="s">
         <v>297</v>
-      </c>
-      <c r="C279" t="s">
-        <v>298</v>
       </c>
       <c r="D279" t="s">
         <v>210</v>
@@ -7134,7 +7127,7 @@
         <v>45465</v>
       </c>
       <c r="B280" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C280" t="s">
         <v>10</v>
@@ -7157,7 +7150,7 @@
         <v>12</v>
       </c>
       <c r="C281" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D281" t="s">
         <v>210</v>
@@ -7166,7 +7159,7 @@
         <v>58</v>
       </c>
       <c r="F281" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.2">
@@ -7174,7 +7167,7 @@
         <v>45466</v>
       </c>
       <c r="B282" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C282" t="s">
         <v>10</v>
@@ -7197,7 +7190,7 @@
         <v>12</v>
       </c>
       <c r="C283" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D283" t="s">
         <v>210</v>
@@ -7214,10 +7207,10 @@
         <v>45467</v>
       </c>
       <c r="B284" t="s">
+        <v>299</v>
+      </c>
+      <c r="C284" t="s">
         <v>300</v>
-      </c>
-      <c r="C284" t="s">
-        <v>301</v>
       </c>
       <c r="D284" t="s">
         <v>210</v>
@@ -7234,10 +7227,10 @@
         <v>45467</v>
       </c>
       <c r="B285" t="s">
+        <v>300</v>
+      </c>
+      <c r="C285" t="s">
         <v>301</v>
-      </c>
-      <c r="C285" t="s">
-        <v>302</v>
       </c>
       <c r="D285" t="s">
         <v>122</v>
@@ -7254,13 +7247,13 @@
         <v>45467</v>
       </c>
       <c r="B286" t="s">
+        <v>301</v>
+      </c>
+      <c r="C286" t="s">
         <v>302</v>
       </c>
-      <c r="C286" t="s">
-        <v>303</v>
-      </c>
       <c r="D286" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E286" t="s">
         <v>22</v>
@@ -7274,13 +7267,13 @@
         <v>45467</v>
       </c>
       <c r="B287" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C287" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D287" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E287" t="s">
         <v>8</v>
@@ -7294,19 +7287,19 @@
         <v>45467</v>
       </c>
       <c r="B288" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C288" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D288" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E288" t="s">
         <v>58</v>
       </c>
       <c r="F288" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.2">
@@ -7314,13 +7307,13 @@
         <v>45467</v>
       </c>
       <c r="B289" t="s">
+        <v>304</v>
+      </c>
+      <c r="C289" t="s">
         <v>305</v>
       </c>
-      <c r="C289" t="s">
-        <v>306</v>
-      </c>
       <c r="D289" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E289" t="s">
         <v>22</v>
@@ -7334,13 +7327,13 @@
         <v>45467</v>
       </c>
       <c r="B290" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C290" t="s">
         <v>10</v>
       </c>
       <c r="D290" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E290" t="s">
         <v>8</v>
@@ -7357,10 +7350,10 @@
         <v>12</v>
       </c>
       <c r="C291" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D291" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E291" t="s">
         <v>8</v>
@@ -7374,13 +7367,13 @@
         <v>45468</v>
       </c>
       <c r="B292" t="s">
+        <v>307</v>
+      </c>
+      <c r="C292" t="s">
         <v>308</v>
       </c>
-      <c r="C292" t="s">
-        <v>309</v>
-      </c>
       <c r="D292" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E292" t="s">
         <v>8</v>
@@ -7394,13 +7387,13 @@
         <v>45468</v>
       </c>
       <c r="B293" t="s">
+        <v>308</v>
+      </c>
+      <c r="C293" t="s">
         <v>309</v>
       </c>
-      <c r="C293" t="s">
-        <v>310</v>
-      </c>
       <c r="D293" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E293" t="s">
         <v>22</v>
@@ -7414,19 +7407,19 @@
         <v>45468</v>
       </c>
       <c r="B294" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C294" t="s">
         <v>10</v>
       </c>
       <c r="D294" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E294" t="s">
         <v>58</v>
       </c>
       <c r="F294" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.2">
@@ -7440,7 +7433,7 @@
         <v>159</v>
       </c>
       <c r="D295" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E295" t="s">
         <v>58</v>
@@ -7457,10 +7450,10 @@
         <v>159</v>
       </c>
       <c r="C296" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D296" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E296" t="s">
         <v>22</v>
@@ -7474,13 +7467,13 @@
         <v>45469</v>
       </c>
       <c r="B297" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C297" t="s">
         <v>10</v>
       </c>
       <c r="D297" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E297" t="s">
         <v>8</v>
@@ -7500,7 +7493,7 @@
         <v>23</v>
       </c>
       <c r="D298" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E298" t="s">
         <v>22</v>
@@ -7514,13 +7507,13 @@
         <v>45470</v>
       </c>
       <c r="B299" t="s">
+        <v>312</v>
+      </c>
+      <c r="C299" t="s">
         <v>313</v>
       </c>
-      <c r="C299" t="s">
-        <v>314</v>
-      </c>
       <c r="D299" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E299" t="s">
         <v>8</v>
@@ -7534,13 +7527,13 @@
         <v>45470</v>
       </c>
       <c r="B300" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C300" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D300" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E300" t="s">
         <v>22</v>
@@ -7554,13 +7547,13 @@
         <v>45470</v>
       </c>
       <c r="B301" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C301" t="s">
         <v>43</v>
       </c>
       <c r="D301" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E301" t="s">
         <v>8</v>
@@ -7574,13 +7567,13 @@
         <v>45470</v>
       </c>
       <c r="B302" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C302" t="s">
         <v>10</v>
       </c>
       <c r="D302" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E302" t="s">
         <v>8</v>
@@ -7597,10 +7590,10 @@
         <v>12</v>
       </c>
       <c r="C303" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D303" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E303" t="s">
         <v>8</v>
@@ -7614,13 +7607,13 @@
         <v>45471</v>
       </c>
       <c r="B304" t="s">
+        <v>316</v>
+      </c>
+      <c r="C304" t="s">
         <v>317</v>
       </c>
-      <c r="C304" t="s">
-        <v>318</v>
-      </c>
       <c r="D304" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E304" t="s">
         <v>58</v>
@@ -7634,13 +7627,13 @@
         <v>45471</v>
       </c>
       <c r="B305" t="s">
+        <v>317</v>
+      </c>
+      <c r="C305" t="s">
         <v>318</v>
       </c>
-      <c r="C305" t="s">
-        <v>319</v>
-      </c>
       <c r="D305" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E305" t="s">
         <v>8</v>
@@ -7654,10 +7647,10 @@
         <v>45471</v>
       </c>
       <c r="B306" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C306" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D306" t="s">
         <v>122</v>
@@ -7674,13 +7667,13 @@
         <v>45471</v>
       </c>
       <c r="B307" t="s">
+        <v>319</v>
+      </c>
+      <c r="C307" t="s">
         <v>320</v>
       </c>
-      <c r="C307" t="s">
-        <v>321</v>
-      </c>
       <c r="D307" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E307" t="s">
         <v>8</v>
@@ -7694,13 +7687,13 @@
         <v>45471</v>
       </c>
       <c r="B308" t="s">
+        <v>320</v>
+      </c>
+      <c r="C308" t="s">
         <v>321</v>
       </c>
-      <c r="C308" t="s">
+      <c r="D308" t="s">
         <v>322</v>
-      </c>
-      <c r="D308" t="s">
-        <v>323</v>
       </c>
       <c r="E308" t="s">
         <v>8</v>
@@ -7714,19 +7707,19 @@
         <v>45471</v>
       </c>
       <c r="B309" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C309" t="s">
+        <v>323</v>
+      </c>
+      <c r="D309" t="s">
+        <v>362</v>
+      </c>
+      <c r="E309" t="s">
+        <v>8</v>
+      </c>
+      <c r="F309" t="s">
         <v>324</v>
-      </c>
-      <c r="D309" t="s">
-        <v>364</v>
-      </c>
-      <c r="E309" t="s">
-        <v>8</v>
-      </c>
-      <c r="F309" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.2">
@@ -7734,13 +7727,13 @@
         <v>45471</v>
       </c>
       <c r="B310" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C310" t="s">
         <v>10</v>
       </c>
       <c r="D310" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E310" t="s">
         <v>8</v>
@@ -7757,10 +7750,10 @@
         <v>12</v>
       </c>
       <c r="C311" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D311" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E311" t="s">
         <v>8</v>
@@ -7774,13 +7767,13 @@
         <v>45472</v>
       </c>
       <c r="B312" t="s">
+        <v>325</v>
+      </c>
+      <c r="C312" t="s">
         <v>326</v>
       </c>
-      <c r="C312" t="s">
-        <v>327</v>
-      </c>
       <c r="D312" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E312" t="s">
         <v>8</v>
@@ -7794,13 +7787,13 @@
         <v>45472</v>
       </c>
       <c r="B313" t="s">
+        <v>326</v>
+      </c>
+      <c r="C313" t="s">
         <v>327</v>
       </c>
-      <c r="C313" t="s">
-        <v>328</v>
-      </c>
       <c r="D313" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E313" t="s">
         <v>8</v>
@@ -7814,13 +7807,13 @@
         <v>45472</v>
       </c>
       <c r="B314" t="s">
+        <v>327</v>
+      </c>
+      <c r="C314" t="s">
         <v>328</v>
       </c>
-      <c r="C314" t="s">
-        <v>329</v>
-      </c>
       <c r="D314" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E314" t="s">
         <v>58</v>
@@ -7834,13 +7827,13 @@
         <v>45472</v>
       </c>
       <c r="B315" t="s">
+        <v>328</v>
+      </c>
+      <c r="C315" t="s">
         <v>329</v>
       </c>
-      <c r="C315" t="s">
-        <v>330</v>
-      </c>
       <c r="D315" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E315" t="s">
         <v>8</v>
@@ -7854,10 +7847,10 @@
         <v>45472</v>
       </c>
       <c r="B316" t="s">
+        <v>329</v>
+      </c>
+      <c r="C316" t="s">
         <v>330</v>
-      </c>
-      <c r="C316" t="s">
-        <v>331</v>
       </c>
       <c r="D316" t="s">
         <v>122</v>
@@ -7874,13 +7867,13 @@
         <v>45472</v>
       </c>
       <c r="B317" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C317" t="s">
         <v>126</v>
       </c>
       <c r="D317" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E317" t="s">
         <v>8</v>
@@ -7900,7 +7893,7 @@
         <v>10</v>
       </c>
       <c r="D318" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E318" t="s">
         <v>8</v>
@@ -7920,7 +7913,7 @@
         <v>175</v>
       </c>
       <c r="D319" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E319" t="s">
         <v>8</v>
@@ -7937,16 +7930,16 @@
         <v>175</v>
       </c>
       <c r="C320" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D320" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E320" t="s">
         <v>26</v>
       </c>
       <c r="F320" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.2">
@@ -7954,13 +7947,13 @@
         <v>45473</v>
       </c>
       <c r="B321" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C321" t="s">
         <v>178</v>
       </c>
       <c r="D321" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E321" t="s">
         <v>8</v>
@@ -7977,10 +7970,10 @@
         <v>178</v>
       </c>
       <c r="C322" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D322" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E322" t="s">
         <v>8</v>
@@ -7994,19 +7987,19 @@
         <v>45473</v>
       </c>
       <c r="B323" t="s">
+        <v>337</v>
+      </c>
+      <c r="C323" t="s">
         <v>338</v>
       </c>
-      <c r="C323" t="s">
+      <c r="D323" t="s">
+        <v>322</v>
+      </c>
+      <c r="E323" t="s">
+        <v>8</v>
+      </c>
+      <c r="F323" t="s">
         <v>339</v>
-      </c>
-      <c r="D323" t="s">
-        <v>323</v>
-      </c>
-      <c r="E323" t="s">
-        <v>8</v>
-      </c>
-      <c r="F323" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.2">
@@ -8014,7 +8007,7 @@
         <v>45473</v>
       </c>
       <c r="B324" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C324" t="s">
         <v>10</v>
@@ -8037,7 +8030,7 @@
         <v>12</v>
       </c>
       <c r="C325" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D325" t="s">
         <v>122</v>
@@ -8054,13 +8047,13 @@
         <v>45474</v>
       </c>
       <c r="B326" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C326" t="s">
         <v>10</v>
       </c>
       <c r="D326" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E326" t="s">
         <v>8</v>
@@ -8080,7 +8073,7 @@
         <v>10</v>
       </c>
       <c r="D327" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E327" t="s">
         <v>8</v>
@@ -8100,7 +8093,7 @@
         <v>269</v>
       </c>
       <c r="D328" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E328" t="s">
         <v>8</v>
@@ -8117,10 +8110,10 @@
         <v>269</v>
       </c>
       <c r="C329" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D329" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E329" t="s">
         <v>8</v>
@@ -8134,7 +8127,7 @@
         <v>45476</v>
       </c>
       <c r="B330" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C330" t="s">
         <v>10</v>
@@ -8157,7 +8150,7 @@
         <v>12</v>
       </c>
       <c r="C331" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D331" t="s">
         <v>122</v>
@@ -8174,13 +8167,13 @@
         <v>45477</v>
       </c>
       <c r="B332" t="s">
+        <v>342</v>
+      </c>
+      <c r="C332" t="s">
         <v>343</v>
       </c>
-      <c r="C332" t="s">
-        <v>344</v>
-      </c>
       <c r="D332" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E332" t="s">
         <v>8</v>
@@ -8194,13 +8187,13 @@
         <v>45477</v>
       </c>
       <c r="B333" t="s">
+        <v>343</v>
+      </c>
+      <c r="C333" t="s">
         <v>344</v>
       </c>
-      <c r="C333" t="s">
-        <v>345</v>
-      </c>
       <c r="D333" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E333" t="s">
         <v>8</v>
@@ -8214,13 +8207,13 @@
         <v>45477</v>
       </c>
       <c r="B334" t="s">
+        <v>344</v>
+      </c>
+      <c r="C334" t="s">
         <v>345</v>
       </c>
-      <c r="C334" t="s">
-        <v>346</v>
-      </c>
       <c r="D334" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E334" t="s">
         <v>8</v>
@@ -8234,10 +8227,10 @@
         <v>45477</v>
       </c>
       <c r="B335" t="s">
+        <v>345</v>
+      </c>
+      <c r="C335" t="s">
         <v>346</v>
-      </c>
-      <c r="C335" t="s">
-        <v>347</v>
       </c>
       <c r="D335" t="s">
         <v>122</v>
@@ -8254,10 +8247,10 @@
         <v>45477</v>
       </c>
       <c r="B336" t="s">
+        <v>346</v>
+      </c>
+      <c r="C336" t="s">
         <v>347</v>
-      </c>
-      <c r="C336" t="s">
-        <v>348</v>
       </c>
       <c r="D336" t="s">
         <v>192</v>
@@ -8274,7 +8267,7 @@
         <v>45477</v>
       </c>
       <c r="B337" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C337" t="s">
         <v>186</v>
@@ -8300,7 +8293,7 @@
         <v>10</v>
       </c>
       <c r="D338" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E338" t="s">
         <v>22</v>
@@ -8317,10 +8310,10 @@
         <v>12</v>
       </c>
       <c r="C339" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D339" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E339" t="s">
         <v>22</v>
@@ -8334,13 +8327,13 @@
         <v>45478</v>
       </c>
       <c r="B340" t="s">
+        <v>348</v>
+      </c>
+      <c r="C340" t="s">
         <v>349</v>
       </c>
-      <c r="C340" t="s">
-        <v>350</v>
-      </c>
       <c r="D340" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E340" t="s">
         <v>8</v>
@@ -8354,13 +8347,13 @@
         <v>45478</v>
       </c>
       <c r="B341" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C341" t="s">
         <v>10</v>
       </c>
       <c r="D341" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E341" t="s">
         <v>8</v>
@@ -8377,10 +8370,10 @@
         <v>12</v>
       </c>
       <c r="C342" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D342" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E342" t="s">
         <v>8</v>
@@ -8394,10 +8387,10 @@
         <v>45479</v>
       </c>
       <c r="B343" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C343" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D343" t="s">
         <v>122</v>
@@ -8414,13 +8407,13 @@
         <v>45479</v>
       </c>
       <c r="B344" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C344" t="s">
         <v>101</v>
       </c>
       <c r="D344" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E344" t="s">
         <v>8</v>
@@ -8440,7 +8433,7 @@
         <v>10</v>
       </c>
       <c r="D345" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E345" t="s">
         <v>8</v>
@@ -8457,10 +8450,10 @@
         <v>12</v>
       </c>
       <c r="C346" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D346" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E346" t="s">
         <v>8</v>
@@ -8474,10 +8467,10 @@
         <v>45480</v>
       </c>
       <c r="B347" t="s">
+        <v>351</v>
+      </c>
+      <c r="C347" t="s">
         <v>352</v>
-      </c>
-      <c r="C347" t="s">
-        <v>353</v>
       </c>
       <c r="D347" t="s">
         <v>192</v>
@@ -8486,7 +8479,7 @@
         <v>8</v>
       </c>
       <c r="F347" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.2">
@@ -8500,7 +8493,7 @@
         <v>10</v>
       </c>
       <c r="D348" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E348" t="s">
         <v>22</v>
@@ -8514,10 +8507,10 @@
         <v>45480</v>
       </c>
       <c r="B349" t="s">
+        <v>352</v>
+      </c>
+      <c r="C349" t="s">
         <v>353</v>
-      </c>
-      <c r="C349" t="s">
-        <v>354</v>
       </c>
       <c r="D349" t="s">
         <v>122</v>
@@ -8534,13 +8527,13 @@
         <v>45480</v>
       </c>
       <c r="B350" t="s">
+        <v>354</v>
+      </c>
+      <c r="C350" t="s">
         <v>355</v>
       </c>
-      <c r="C350" t="s">
-        <v>356</v>
-      </c>
       <c r="D350" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E350" t="s">
         <v>22</v>
@@ -8554,13 +8547,13 @@
         <v>45480</v>
       </c>
       <c r="B351" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C351" t="s">
         <v>10</v>
       </c>
       <c r="D351" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E351" t="s">
         <v>22</v>
@@ -8577,10 +8570,10 @@
         <v>12</v>
       </c>
       <c r="C352" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D352" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E352" t="s">
         <v>22</v>
@@ -8597,10 +8590,10 @@
         <v>12</v>
       </c>
       <c r="C353" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D353" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E353" t="s">
         <v>22</v>
@@ -8614,13 +8607,13 @@
         <v>45481</v>
       </c>
       <c r="B354" t="s">
+        <v>357</v>
+      </c>
+      <c r="C354" t="s">
         <v>358</v>
       </c>
-      <c r="C354" t="s">
-        <v>359</v>
-      </c>
       <c r="D354" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E354" t="s">
         <v>22</v>
@@ -8634,10 +8627,10 @@
         <v>45481</v>
       </c>
       <c r="B355" t="s">
+        <v>358</v>
+      </c>
+      <c r="C355" t="s">
         <v>359</v>
-      </c>
-      <c r="C355" t="s">
-        <v>360</v>
       </c>
       <c r="D355" t="s">
         <v>122</v>
@@ -8654,13 +8647,13 @@
         <v>45481</v>
       </c>
       <c r="B356" t="s">
+        <v>359</v>
+      </c>
+      <c r="C356" t="s">
         <v>360</v>
       </c>
-      <c r="C356" t="s">
-        <v>361</v>
-      </c>
       <c r="D356" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E356" t="s">
         <v>22</v>
@@ -8674,13 +8667,13 @@
         <v>45481</v>
       </c>
       <c r="B357" t="s">
+        <v>360</v>
+      </c>
+      <c r="C357" t="s">
         <v>361</v>
       </c>
-      <c r="C357" t="s">
-        <v>362</v>
-      </c>
       <c r="D357" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E357" t="s">
         <v>22</v>
@@ -8694,13 +8687,13 @@
         <v>45481</v>
       </c>
       <c r="B358" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C358" t="s">
         <v>10</v>
       </c>
       <c r="D358" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E358" t="s">
         <v>22</v>

--- a/output.xlsx
+++ b/output.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\N9635226\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E818BC03-B0CB-4586-8F4D-98043E40FC1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38D5228E-8C64-4C50-A030-CEE314DA867E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1740" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1785" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2160" uniqueCount="413">
   <si>
     <t>Date</t>
   </si>
@@ -743,9 +743,6 @@
     <t>05:12:00</t>
   </si>
   <si>
-    <t>Net Recovery</t>
-  </si>
-  <si>
     <t>13:00:00</t>
   </si>
   <si>
@@ -1137,6 +1134,155 @@
   </si>
   <si>
     <t>PLWQ PF</t>
+  </si>
+  <si>
+    <t>GOPLE</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>PLWQ PF</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>03:05:00</t>
+  </si>
+  <si>
+    <t>02:50:00</t>
+  </si>
+  <si>
+    <t>05:38:00</t>
+  </si>
+  <si>
+    <t>21:00:00</t>
+  </si>
+  <si>
+    <t>14:51:00</t>
+  </si>
+  <si>
+    <t>03:50:00</t>
+  </si>
+  <si>
+    <t>05:37:00</t>
+  </si>
+  <si>
+    <t>16:43:00</t>
+  </si>
+  <si>
+    <t>PLPLQ</t>
+  </si>
+  <si>
+    <t>21:04:00</t>
+  </si>
+  <si>
+    <t>22:55:00</t>
+  </si>
+  <si>
+    <t>01:24:00</t>
+  </si>
+  <si>
+    <t>07:49:00</t>
+  </si>
+  <si>
+    <t>11:30:00</t>
+  </si>
+  <si>
+    <t>13:15:00</t>
+  </si>
+  <si>
+    <t>16:30:00</t>
+  </si>
+  <si>
+    <t>21:40:00</t>
+  </si>
+  <si>
+    <t>22:10:00</t>
+  </si>
+  <si>
+    <t>16:03:00</t>
+  </si>
+  <si>
+    <t>SGPLI PL</t>
+  </si>
+  <si>
+    <t>Pre-flood survey</t>
+  </si>
+  <si>
+    <t>19:10:00</t>
+  </si>
+  <si>
+    <t>JKPLP PL</t>
+  </si>
+  <si>
+    <t>21:25:00</t>
+  </si>
+  <si>
+    <t>04:25:00</t>
+  </si>
+  <si>
+    <t>12:30:00</t>
+  </si>
+  <si>
+    <t>14:06:00</t>
+  </si>
+  <si>
+    <t>PKPLH PL</t>
+  </si>
+  <si>
+    <t>16:07:00</t>
+  </si>
+  <si>
+    <t>12:25:00</t>
+  </si>
+  <si>
+    <t>17:00:00</t>
+  </si>
+  <si>
+    <t>Levelling</t>
+  </si>
+  <si>
+    <t>03:25:00</t>
+  </si>
+  <si>
+    <t>21:35:00</t>
+  </si>
+  <si>
+    <t>01:38:00</t>
+  </si>
+  <si>
+    <t>04:59:00</t>
+  </si>
+  <si>
+    <t>14:40:00</t>
+  </si>
+  <si>
+    <t>23:45:00</t>
+  </si>
+  <si>
+    <t>03:39:00</t>
+  </si>
+  <si>
+    <t>16:25:00</t>
+  </si>
+  <si>
+    <t>16:52:00</t>
+  </si>
+  <si>
+    <t>20:08:00</t>
+  </si>
+  <si>
+    <t>12:29:00</t>
+  </si>
+  <si>
+    <t>13:40:00</t>
+  </si>
+  <si>
+    <t>13:20:00</t>
+  </si>
+  <si>
+    <t>12:58:00</t>
+  </si>
+  <si>
+    <t>17:52:00</t>
   </si>
 </sst>
 </file>
@@ -1527,22 +1673,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F358"/>
+  <dimension ref="A1:F433"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A241" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E264" sqref="E264"/>
+    <sheetView tabSelected="1" topLeftCell="A412" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="F217" sqref="F217"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="8.88671875" style="5"/>
-    <col min="4" max="4" width="14.33203125" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="8.875" style="5"/>
+    <col min="4" max="4" width="14.375" customWidth="1"/>
+    <col min="5" max="5" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1562,7 +1708,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
         <v>45406</v>
       </c>
@@ -1582,7 +1728,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
         <v>45406</v>
       </c>
@@ -1602,7 +1748,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>45407</v>
       </c>
@@ -1622,7 +1768,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
         <v>45407</v>
       </c>
@@ -1642,7 +1788,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>45408</v>
       </c>
@@ -1662,7 +1808,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
         <v>45408</v>
       </c>
@@ -1682,7 +1828,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
         <v>45408</v>
       </c>
@@ -1702,7 +1848,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
         <v>45409</v>
       </c>
@@ -1722,7 +1868,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>45409</v>
       </c>
@@ -1742,7 +1888,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>45409</v>
       </c>
@@ -1762,7 +1908,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>45409</v>
       </c>
@@ -1782,7 +1928,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>45409</v>
       </c>
@@ -1802,7 +1948,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>45409</v>
       </c>
@@ -1822,7 +1968,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>45409</v>
       </c>
@@ -1842,7 +1988,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>45410</v>
       </c>
@@ -1862,7 +2008,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>45410</v>
       </c>
@@ -1882,7 +2028,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>45410</v>
       </c>
@@ -1902,7 +2048,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
         <v>45410</v>
       </c>
@@ -1922,7 +2068,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <v>45410</v>
       </c>
@@ -1933,7 +2079,7 @@
         <v>35</v>
       </c>
       <c r="D20" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E20" t="s">
         <v>22</v>
@@ -1942,7 +2088,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
         <v>45410</v>
       </c>
@@ -1953,7 +2099,7 @@
         <v>37</v>
       </c>
       <c r="D21" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E21" t="s">
         <v>22</v>
@@ -1962,7 +2108,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
         <v>45410</v>
       </c>
@@ -1973,7 +2119,7 @@
         <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E22" t="s">
         <v>22</v>
@@ -1982,7 +2128,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
         <v>45411</v>
       </c>
@@ -1993,7 +2139,7 @@
         <v>40</v>
       </c>
       <c r="D23" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E23" t="s">
         <v>22</v>
@@ -2002,7 +2148,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
         <v>45411</v>
       </c>
@@ -2013,7 +2159,7 @@
         <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E24" t="s">
         <v>22</v>
@@ -2022,7 +2168,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" s="3">
         <v>45412</v>
       </c>
@@ -2033,7 +2179,7 @@
         <v>42</v>
       </c>
       <c r="D25" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E25" t="s">
         <v>22</v>
@@ -2042,7 +2188,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" s="3">
         <v>45412</v>
       </c>
@@ -2053,7 +2199,7 @@
         <v>43</v>
       </c>
       <c r="D26" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E26" t="s">
         <v>26</v>
@@ -2062,7 +2208,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" s="3">
         <v>45412</v>
       </c>
@@ -2073,7 +2219,7 @@
         <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E27" t="s">
         <v>22</v>
@@ -2082,7 +2228,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28" s="3">
         <v>45413</v>
       </c>
@@ -2093,7 +2239,7 @@
         <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E28" t="s">
         <v>22</v>
@@ -2102,7 +2248,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" s="3">
         <v>45414</v>
       </c>
@@ -2113,7 +2259,7 @@
         <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E29" t="s">
         <v>22</v>
@@ -2122,7 +2268,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30" s="3">
         <v>45415</v>
       </c>
@@ -2133,7 +2279,7 @@
         <v>45</v>
       </c>
       <c r="D30" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E30" t="s">
         <v>22</v>
@@ -2142,7 +2288,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31" s="3">
         <v>45415</v>
       </c>
@@ -2153,7 +2299,7 @@
         <v>42</v>
       </c>
       <c r="D31" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E31" t="s">
         <v>22</v>
@@ -2162,7 +2308,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A32" s="3">
         <v>45415</v>
       </c>
@@ -2173,7 +2319,7 @@
         <v>47</v>
       </c>
       <c r="D32" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E32" t="s">
         <v>22</v>
@@ -2182,7 +2328,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" s="3">
         <v>45415</v>
       </c>
@@ -2193,7 +2339,7 @@
         <v>49</v>
       </c>
       <c r="D33" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E33" t="s">
         <v>22</v>
@@ -2202,7 +2348,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34" s="3">
         <v>45415</v>
       </c>
@@ -2213,7 +2359,7 @@
         <v>51</v>
       </c>
       <c r="D34" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E34" t="s">
         <v>22</v>
@@ -2222,7 +2368,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35" s="3">
         <v>45415</v>
       </c>
@@ -2233,7 +2379,7 @@
         <v>53</v>
       </c>
       <c r="D35" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E35" t="s">
         <v>22</v>
@@ -2242,7 +2388,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A36" s="3">
         <v>45415</v>
       </c>
@@ -2253,7 +2399,7 @@
         <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E36" t="s">
         <v>22</v>
@@ -2262,7 +2408,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A37" s="3">
         <v>45416</v>
       </c>
@@ -2273,7 +2419,7 @@
         <v>54</v>
       </c>
       <c r="D37" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E37" t="s">
         <v>22</v>
@@ -2282,7 +2428,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A38" s="3">
         <v>45416</v>
       </c>
@@ -2293,7 +2439,7 @@
         <v>55</v>
       </c>
       <c r="D38" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E38" t="s">
         <v>26</v>
@@ -2302,7 +2448,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A39" s="3">
         <v>45416</v>
       </c>
@@ -2313,7 +2459,7 @@
         <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E39" t="s">
         <v>22</v>
@@ -2322,7 +2468,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A40" s="3">
         <v>45417</v>
       </c>
@@ -2333,7 +2479,7 @@
         <v>56</v>
       </c>
       <c r="D40" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E40" t="s">
         <v>22</v>
@@ -2342,7 +2488,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A41" s="3">
         <v>45417</v>
       </c>
@@ -2353,7 +2499,7 @@
         <v>57</v>
       </c>
       <c r="D41" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E41" t="s">
         <v>22</v>
@@ -2362,7 +2508,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A42" s="3">
         <v>45417</v>
       </c>
@@ -2373,7 +2519,7 @@
         <v>59</v>
       </c>
       <c r="D42" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E42" t="s">
         <v>58</v>
@@ -2382,7 +2528,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A43" s="3">
         <v>45417</v>
       </c>
@@ -2393,7 +2539,7 @@
         <v>60</v>
       </c>
       <c r="D43" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E43" t="s">
         <v>22</v>
@@ -2402,7 +2548,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A44" s="3">
         <v>45417</v>
       </c>
@@ -2413,7 +2559,7 @@
         <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E44" t="s">
         <v>22</v>
@@ -2422,7 +2568,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A45" s="3">
         <v>45418</v>
       </c>
@@ -2433,7 +2579,7 @@
         <v>6</v>
       </c>
       <c r="D45" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E45" t="s">
         <v>22</v>
@@ -2442,7 +2588,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A46" s="3">
         <v>45418</v>
       </c>
@@ -2453,7 +2599,7 @@
         <v>63</v>
       </c>
       <c r="D46" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E46" t="s">
         <v>22</v>
@@ -2462,7 +2608,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A47" s="3">
         <v>45418</v>
       </c>
@@ -2473,16 +2619,16 @@
         <v>65</v>
       </c>
       <c r="D47" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E47" t="s">
         <v>22</v>
       </c>
       <c r="F47" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A48" s="3">
         <v>45418</v>
       </c>
@@ -2493,7 +2639,7 @@
         <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E48" t="s">
         <v>22</v>
@@ -2502,7 +2648,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A49" s="3">
         <v>45419</v>
       </c>
@@ -2513,7 +2659,7 @@
         <v>67</v>
       </c>
       <c r="D49" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E49" t="s">
         <v>22</v>
@@ -2522,7 +2668,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A50" s="3">
         <v>45419</v>
       </c>
@@ -2533,7 +2679,7 @@
         <v>68</v>
       </c>
       <c r="D50" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E50" t="s">
         <v>22</v>
@@ -2542,7 +2688,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A51" s="3">
         <v>45419</v>
       </c>
@@ -2553,7 +2699,7 @@
         <v>70</v>
       </c>
       <c r="D51" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E51" t="s">
         <v>58</v>
@@ -2562,7 +2708,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A52" s="3">
         <v>45419</v>
       </c>
@@ -2573,7 +2719,7 @@
         <v>72</v>
       </c>
       <c r="D52" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E52" t="s">
         <v>22</v>
@@ -2582,7 +2728,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A53" s="3">
         <v>45419</v>
       </c>
@@ -2593,7 +2739,7 @@
         <v>16</v>
       </c>
       <c r="D53" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E53" t="s">
         <v>22</v>
@@ -2602,7 +2748,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A54" s="3">
         <v>45419</v>
       </c>
@@ -2613,7 +2759,7 @@
         <v>73</v>
       </c>
       <c r="D54" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E54" t="s">
         <v>22</v>
@@ -2622,7 +2768,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A55" s="3">
         <v>45419</v>
       </c>
@@ -2633,7 +2779,7 @@
         <v>16</v>
       </c>
       <c r="D55" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E55" t="s">
         <v>22</v>
@@ -2642,7 +2788,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A56" s="3">
         <v>45419</v>
       </c>
@@ -2653,7 +2799,7 @@
         <v>0.74305555555555547</v>
       </c>
       <c r="D56" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E56" t="s">
         <v>22</v>
@@ -2662,7 +2808,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A57" s="3">
         <v>45419</v>
       </c>
@@ -2673,7 +2819,7 @@
         <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E57" t="s">
         <v>22</v>
@@ -2682,7 +2828,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A58" s="3">
         <v>45420</v>
       </c>
@@ -2693,7 +2839,7 @@
         <v>75</v>
       </c>
       <c r="D58" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E58" t="s">
         <v>22</v>
@@ -2702,7 +2848,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A59" s="3">
         <v>45420</v>
       </c>
@@ -2713,7 +2859,7 @@
         <v>76</v>
       </c>
       <c r="D59" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E59" t="s">
         <v>22</v>
@@ -2722,7 +2868,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A60" s="3">
         <v>45421</v>
       </c>
@@ -2733,7 +2879,7 @@
         <v>78</v>
       </c>
       <c r="D60" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E60" t="s">
         <v>22</v>
@@ -2742,7 +2888,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A61" s="3">
         <v>45421</v>
       </c>
@@ -2753,7 +2899,7 @@
         <v>79</v>
       </c>
       <c r="D61" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E61" t="s">
         <v>58</v>
@@ -2762,7 +2908,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A62" s="3">
         <v>45421</v>
       </c>
@@ -2773,7 +2919,7 @@
         <v>80</v>
       </c>
       <c r="D62" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E62" t="s">
         <v>22</v>
@@ -2782,7 +2928,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A63" s="3">
         <v>45421</v>
       </c>
@@ -2793,7 +2939,7 @@
         <v>81</v>
       </c>
       <c r="D63" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E63" t="s">
         <v>58</v>
@@ -2802,7 +2948,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A64" s="3">
         <v>45421</v>
       </c>
@@ -2813,7 +2959,7 @@
         <v>82</v>
       </c>
       <c r="D64" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E64" t="s">
         <v>22</v>
@@ -2822,7 +2968,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A65" s="3">
         <v>45421</v>
       </c>
@@ -2833,7 +2979,7 @@
         <v>63</v>
       </c>
       <c r="D65" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E65" t="s">
         <v>58</v>
@@ -2842,7 +2988,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A66" s="3">
         <v>45421</v>
       </c>
@@ -2853,7 +2999,7 @@
         <v>83</v>
       </c>
       <c r="D66" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E66" t="s">
         <v>22</v>
@@ -2862,7 +3008,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A67" s="3">
         <v>45422</v>
       </c>
@@ -2873,7 +3019,7 @@
         <v>84</v>
       </c>
       <c r="D67" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E67" t="s">
         <v>22</v>
@@ -2882,7 +3028,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A68" s="3">
         <v>45422</v>
       </c>
@@ -2893,7 +3039,7 @@
         <v>86</v>
       </c>
       <c r="D68" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E68" t="s">
         <v>22</v>
@@ -2902,7 +3048,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A69" s="3">
         <v>45422</v>
       </c>
@@ -2913,7 +3059,7 @@
         <v>79</v>
       </c>
       <c r="D69" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E69" t="s">
         <v>58</v>
@@ -2922,7 +3068,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A70" s="3">
         <v>45422</v>
       </c>
@@ -2933,7 +3079,7 @@
         <v>88</v>
       </c>
       <c r="D70" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E70" t="s">
         <v>22</v>
@@ -2942,7 +3088,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A71" s="3">
         <v>45422</v>
       </c>
@@ -2953,7 +3099,7 @@
         <v>89</v>
       </c>
       <c r="D71" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E71" t="s">
         <v>22</v>
@@ -2962,7 +3108,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A72" s="3">
         <v>45422</v>
       </c>
@@ -2973,7 +3119,7 @@
         <v>90</v>
       </c>
       <c r="D72" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E72" t="s">
         <v>58</v>
@@ -2982,7 +3128,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A73" s="3">
         <v>45422</v>
       </c>
@@ -2993,7 +3139,7 @@
         <v>91</v>
       </c>
       <c r="D73" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E73" t="s">
         <v>8</v>
@@ -3002,7 +3148,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A74" s="3">
         <v>45422</v>
       </c>
@@ -3013,7 +3159,7 @@
         <v>93</v>
       </c>
       <c r="D74" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E74" t="s">
         <v>8</v>
@@ -3022,7 +3168,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A75" s="3">
         <v>45422</v>
       </c>
@@ -3033,7 +3179,7 @@
         <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E75" t="s">
         <v>22</v>
@@ -3042,7 +3188,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A76" s="3">
         <v>45423</v>
       </c>
@@ -3053,7 +3199,7 @@
         <v>94</v>
       </c>
       <c r="D76" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E76" t="s">
         <v>22</v>
@@ -3062,7 +3208,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A77" s="3">
         <v>45423</v>
       </c>
@@ -3082,7 +3228,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A78" s="3">
         <v>45423</v>
       </c>
@@ -3093,7 +3239,7 @@
         <v>96</v>
       </c>
       <c r="D78" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E78" t="s">
         <v>22</v>
@@ -3102,7 +3248,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A79" s="3">
         <v>45423</v>
       </c>
@@ -3113,7 +3259,7 @@
         <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E79" t="s">
         <v>22</v>
@@ -3122,7 +3268,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A80" s="3">
         <v>45424</v>
       </c>
@@ -3133,7 +3279,7 @@
         <v>97</v>
       </c>
       <c r="D80" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E80" t="s">
         <v>22</v>
@@ -3142,7 +3288,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A81" s="3">
         <v>45424</v>
       </c>
@@ -3153,7 +3299,7 @@
         <v>97</v>
       </c>
       <c r="D81" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E81" t="s">
         <v>22</v>
@@ -3162,7 +3308,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A82" s="3">
         <v>45424</v>
       </c>
@@ -3173,7 +3319,7 @@
         <v>99</v>
       </c>
       <c r="D82" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E82" t="s">
         <v>58</v>
@@ -3182,7 +3328,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A83" s="3">
         <v>45424</v>
       </c>
@@ -3193,7 +3339,7 @@
         <v>100</v>
       </c>
       <c r="D83" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E83" t="s">
         <v>22</v>
@@ -3202,7 +3348,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A84" s="3">
         <v>45424</v>
       </c>
@@ -3213,7 +3359,7 @@
         <v>101</v>
       </c>
       <c r="D84" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E84" t="s">
         <v>22</v>
@@ -3222,7 +3368,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A85" s="3">
         <v>45424</v>
       </c>
@@ -3233,7 +3379,7 @@
         <v>102</v>
       </c>
       <c r="D85" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E85" t="s">
         <v>22</v>
@@ -3242,7 +3388,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A86" s="3">
         <v>45424</v>
       </c>
@@ -3253,7 +3399,7 @@
         <v>42</v>
       </c>
       <c r="D86" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E86" t="s">
         <v>22</v>
@@ -3262,7 +3408,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A87" s="3">
         <v>45424</v>
       </c>
@@ -3273,7 +3419,7 @@
         <v>103</v>
       </c>
       <c r="D87" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E87" t="s">
         <v>22</v>
@@ -3282,7 +3428,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A88" s="3">
         <v>45424</v>
       </c>
@@ -3302,7 +3448,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A89" s="3">
         <v>45424</v>
       </c>
@@ -3322,7 +3468,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A90" s="3">
         <v>45424</v>
       </c>
@@ -3342,7 +3488,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A91" s="3">
         <v>45425</v>
       </c>
@@ -3362,7 +3508,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A92" s="3">
         <v>45425</v>
       </c>
@@ -3382,7 +3528,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A93" s="3">
         <v>45425</v>
       </c>
@@ -3402,7 +3548,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A94" s="3">
         <v>45426</v>
       </c>
@@ -3422,7 +3568,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A95" s="3">
         <v>45427</v>
       </c>
@@ -3442,7 +3588,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A96" s="3">
         <v>45428</v>
       </c>
@@ -3462,7 +3608,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A97" s="3">
         <v>45428</v>
       </c>
@@ -3482,7 +3628,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A98" s="3">
         <v>45428</v>
       </c>
@@ -3502,7 +3648,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A99" s="3">
         <v>45429</v>
       </c>
@@ -3522,7 +3668,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A100" s="3">
         <v>45429</v>
       </c>
@@ -3542,7 +3688,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A101" s="3">
         <v>45429</v>
       </c>
@@ -3562,7 +3708,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A102" s="3">
         <v>45429</v>
       </c>
@@ -3582,7 +3728,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A103" s="3">
         <v>45430</v>
       </c>
@@ -3602,7 +3748,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A104" s="3">
         <v>45430</v>
       </c>
@@ -3622,7 +3768,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A105" s="3">
         <v>45430</v>
       </c>
@@ -3642,7 +3788,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A106" s="3">
         <v>45431</v>
       </c>
@@ -3662,7 +3808,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A107" s="3">
         <v>45431</v>
       </c>
@@ -3682,7 +3828,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A108" s="3">
         <v>45431</v>
       </c>
@@ -3702,7 +3848,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A109" s="3">
         <v>45431</v>
       </c>
@@ -3722,7 +3868,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A110" s="3">
         <v>45431</v>
       </c>
@@ -3742,7 +3888,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A111" s="3">
         <v>45431</v>
       </c>
@@ -3762,7 +3908,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A112" s="3">
         <v>45431</v>
       </c>
@@ -3782,7 +3928,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A113" s="3">
         <v>45431</v>
       </c>
@@ -3793,7 +3939,7 @@
         <v>123</v>
       </c>
       <c r="D113" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E113" t="s">
         <v>22</v>
@@ -3802,7 +3948,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A114" s="3">
         <v>45431</v>
       </c>
@@ -3813,7 +3959,7 @@
         <v>124</v>
       </c>
       <c r="D114" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E114" t="s">
         <v>22</v>
@@ -3822,7 +3968,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A115" s="3">
         <v>45431</v>
       </c>
@@ -3833,7 +3979,7 @@
         <v>126</v>
       </c>
       <c r="D115" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E115" t="s">
         <v>22</v>
@@ -3842,7 +3988,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A116" s="3">
         <v>45431</v>
       </c>
@@ -3853,7 +3999,7 @@
         <v>76</v>
       </c>
       <c r="D116" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E116" t="s">
         <v>22</v>
@@ -3862,7 +4008,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A117" s="3">
         <v>45431</v>
       </c>
@@ -3873,7 +4019,7 @@
         <v>10</v>
       </c>
       <c r="D117" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E117" t="s">
         <v>26</v>
@@ -3882,7 +4028,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A118" s="3">
         <v>45432</v>
       </c>
@@ -3893,7 +4039,7 @@
         <v>128</v>
       </c>
       <c r="D118" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E118" t="s">
         <v>26</v>
@@ -3902,7 +4048,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A119" s="3">
         <v>45432</v>
       </c>
@@ -3913,7 +4059,7 @@
         <v>129</v>
       </c>
       <c r="D119" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E119" t="s">
         <v>22</v>
@@ -3922,7 +4068,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A120" s="3">
         <v>45432</v>
       </c>
@@ -3933,7 +4079,7 @@
         <v>10</v>
       </c>
       <c r="D120" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E120" t="s">
         <v>22</v>
@@ -3942,7 +4088,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A121" s="3">
         <v>45433</v>
       </c>
@@ -3953,7 +4099,7 @@
         <v>130</v>
       </c>
       <c r="D121" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E121" t="s">
         <v>22</v>
@@ -3962,7 +4108,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A122" s="3">
         <v>45433</v>
       </c>
@@ -3973,7 +4119,7 @@
         <v>131</v>
       </c>
       <c r="D122" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E122" t="s">
         <v>58</v>
@@ -3982,7 +4128,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A123" s="3">
         <v>45433</v>
       </c>
@@ -3993,7 +4139,7 @@
         <v>80</v>
       </c>
       <c r="D123" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E123" t="s">
         <v>22</v>
@@ -4002,7 +4148,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A124" s="3">
         <v>45433</v>
       </c>
@@ -4013,7 +4159,7 @@
         <v>132</v>
       </c>
       <c r="D124" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E124" t="s">
         <v>58</v>
@@ -4022,7 +4168,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A125" s="3">
         <v>45433</v>
       </c>
@@ -4033,7 +4179,7 @@
         <v>133</v>
       </c>
       <c r="D125" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E125" t="s">
         <v>22</v>
@@ -4042,7 +4188,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A126" s="3">
         <v>45433</v>
       </c>
@@ -4053,7 +4199,7 @@
         <v>134</v>
       </c>
       <c r="D126" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E126" t="s">
         <v>22</v>
@@ -4062,7 +4208,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A127" s="3">
         <v>45433</v>
       </c>
@@ -4073,7 +4219,7 @@
         <v>52</v>
       </c>
       <c r="D127" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E127" t="s">
         <v>58</v>
@@ -4082,7 +4228,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A128" s="3">
         <v>45433</v>
       </c>
@@ -4093,7 +4239,7 @@
         <v>10</v>
       </c>
       <c r="D128" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E128" t="s">
         <v>22</v>
@@ -4102,7 +4248,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A129" s="3">
         <v>45434</v>
       </c>
@@ -4113,7 +4259,7 @@
         <v>135</v>
       </c>
       <c r="D129" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E129" t="s">
         <v>22</v>
@@ -4122,7 +4268,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A130" s="3">
         <v>45434</v>
       </c>
@@ -4133,7 +4279,7 @@
         <v>136</v>
       </c>
       <c r="D130" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E130" t="s">
         <v>58</v>
@@ -4142,7 +4288,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A131" s="3">
         <v>45434</v>
       </c>
@@ -4153,7 +4299,7 @@
         <v>10</v>
       </c>
       <c r="D131" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E131" t="s">
         <v>22</v>
@@ -4162,7 +4308,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A132" s="3">
         <v>45435</v>
       </c>
@@ -4173,7 +4319,7 @@
         <v>137</v>
       </c>
       <c r="D132" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E132" t="s">
         <v>22</v>
@@ -4182,7 +4328,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A133" s="3">
         <v>45435</v>
       </c>
@@ -4193,7 +4339,7 @@
         <v>138</v>
       </c>
       <c r="D133" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E133" t="s">
         <v>58</v>
@@ -4202,7 +4348,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A134" s="3">
         <v>45435</v>
       </c>
@@ -4213,7 +4359,7 @@
         <v>139</v>
       </c>
       <c r="D134" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E134" t="s">
         <v>22</v>
@@ -4222,7 +4368,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A135" s="3">
         <v>45435</v>
       </c>
@@ -4233,7 +4379,7 @@
         <v>140</v>
       </c>
       <c r="D135" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E135" t="s">
         <v>58</v>
@@ -4242,7 +4388,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A136" s="3">
         <v>45435</v>
       </c>
@@ -4253,7 +4399,7 @@
         <v>10</v>
       </c>
       <c r="D136" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E136" t="s">
         <v>22</v>
@@ -4262,7 +4408,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A137" s="3">
         <v>45436</v>
       </c>
@@ -4273,7 +4419,7 @@
         <v>141</v>
       </c>
       <c r="D137" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E137" t="s">
         <v>22</v>
@@ -4282,7 +4428,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A138" s="3">
         <v>45436</v>
       </c>
@@ -4293,7 +4439,7 @@
         <v>143</v>
       </c>
       <c r="D138" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E138" t="s">
         <v>22</v>
@@ -4302,7 +4448,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A139" s="3">
         <v>45436</v>
       </c>
@@ -4313,7 +4459,7 @@
         <v>10</v>
       </c>
       <c r="D139" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E139" t="s">
         <v>22</v>
@@ -4322,7 +4468,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A140" s="3">
         <v>45437</v>
       </c>
@@ -4333,7 +4479,7 @@
         <v>145</v>
       </c>
       <c r="D140" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E140" t="s">
         <v>22</v>
@@ -4342,7 +4488,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A141" s="3">
         <v>45437</v>
       </c>
@@ -4353,7 +4499,7 @@
         <v>147</v>
       </c>
       <c r="D141" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E141" t="s">
         <v>22</v>
@@ -4362,7 +4508,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A142" s="3">
         <v>45437</v>
       </c>
@@ -4373,7 +4519,7 @@
         <v>148</v>
       </c>
       <c r="D142" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E142" t="s">
         <v>22</v>
@@ -4382,7 +4528,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A143" s="3">
         <v>45437</v>
       </c>
@@ -4393,16 +4539,16 @@
         <v>150</v>
       </c>
       <c r="D143" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E143" t="s">
         <v>22</v>
       </c>
       <c r="F143" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A144" s="3">
         <v>45437</v>
       </c>
@@ -4413,7 +4559,7 @@
         <v>10</v>
       </c>
       <c r="D144" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E144" t="s">
         <v>22</v>
@@ -4422,7 +4568,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A145" s="3">
         <v>45438</v>
       </c>
@@ -4433,7 +4579,7 @@
         <v>151</v>
       </c>
       <c r="D145" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E145" t="s">
         <v>22</v>
@@ -4442,7 +4588,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A146" s="3">
         <v>45438</v>
       </c>
@@ -4453,7 +4599,7 @@
         <v>152</v>
       </c>
       <c r="D146" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E146" t="s">
         <v>22</v>
@@ -4462,7 +4608,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A147" s="3">
         <v>45438</v>
       </c>
@@ -4473,7 +4619,7 @@
         <v>153</v>
       </c>
       <c r="D147" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E147" t="s">
         <v>22</v>
@@ -4482,7 +4628,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A148" s="3">
         <v>45438</v>
       </c>
@@ -4493,7 +4639,7 @@
         <v>154</v>
       </c>
       <c r="D148" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E148" t="s">
         <v>22</v>
@@ -4502,7 +4648,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A149" s="3">
         <v>45438</v>
       </c>
@@ -4513,7 +4659,7 @@
         <v>155</v>
       </c>
       <c r="D149" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E149" t="s">
         <v>22</v>
@@ -4522,7 +4668,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A150" s="3">
         <v>45438</v>
       </c>
@@ -4533,7 +4679,7 @@
         <v>10</v>
       </c>
       <c r="D150" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E150" t="s">
         <v>22</v>
@@ -4542,7 +4688,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A151" s="3">
         <v>45439</v>
       </c>
@@ -4553,7 +4699,7 @@
         <v>156</v>
       </c>
       <c r="D151" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E151" t="s">
         <v>22</v>
@@ -4562,7 +4708,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A152" s="3">
         <v>45439</v>
       </c>
@@ -4573,7 +4719,7 @@
         <v>157</v>
       </c>
       <c r="D152" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E152" t="s">
         <v>22</v>
@@ -4582,7 +4728,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A153" s="3">
         <v>45439</v>
       </c>
@@ -4593,7 +4739,7 @@
         <v>10</v>
       </c>
       <c r="D153" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E153" t="s">
         <v>22</v>
@@ -4602,7 +4748,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A154" s="3">
         <v>45440</v>
       </c>
@@ -4613,7 +4759,7 @@
         <v>137</v>
       </c>
       <c r="D154" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E154" t="s">
         <v>22</v>
@@ -4622,7 +4768,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A155" s="3">
         <v>45440</v>
       </c>
@@ -4633,7 +4779,7 @@
         <v>159</v>
       </c>
       <c r="D155" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E155" t="s">
         <v>22</v>
@@ -4642,7 +4788,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A156" s="3">
         <v>45440</v>
       </c>
@@ -4653,7 +4799,7 @@
         <v>160</v>
       </c>
       <c r="D156" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E156" t="s">
         <v>22</v>
@@ -4662,7 +4808,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A157" s="3">
         <v>45440</v>
       </c>
@@ -4673,7 +4819,7 @@
         <v>10</v>
       </c>
       <c r="D157" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E157" t="s">
         <v>8</v>
@@ -4682,7 +4828,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A158" s="3">
         <v>45441</v>
       </c>
@@ -4693,7 +4839,7 @@
         <v>169</v>
       </c>
       <c r="D158" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E158" t="s">
         <v>8</v>
@@ -4702,7 +4848,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A159" s="3">
         <v>45441</v>
       </c>
@@ -4713,7 +4859,7 @@
         <v>171</v>
       </c>
       <c r="D159" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E159" t="s">
         <v>8</v>
@@ -4722,7 +4868,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A160" s="3">
         <v>45441</v>
       </c>
@@ -4742,7 +4888,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A161" s="3">
         <v>45442</v>
       </c>
@@ -4762,7 +4908,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A162" s="3">
         <v>45442</v>
       </c>
@@ -4773,7 +4919,7 @@
         <v>176</v>
       </c>
       <c r="D162" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E162" t="s">
         <v>22</v>
@@ -4782,7 +4928,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A163" s="3">
         <v>45442</v>
       </c>
@@ -4793,7 +4939,7 @@
         <v>177</v>
       </c>
       <c r="D163" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E163" t="s">
         <v>58</v>
@@ -4802,7 +4948,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A164" s="3">
         <v>45442</v>
       </c>
@@ -4813,7 +4959,7 @@
         <v>178</v>
       </c>
       <c r="D164" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E164" t="s">
         <v>22</v>
@@ -4822,7 +4968,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A165" s="3">
         <v>45442</v>
       </c>
@@ -4833,7 +4979,7 @@
         <v>179</v>
       </c>
       <c r="D165" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E165" t="s">
         <v>22</v>
@@ -4842,7 +4988,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A166" s="3">
         <v>45442</v>
       </c>
@@ -4853,7 +4999,7 @@
         <v>181</v>
       </c>
       <c r="D166" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E166" t="s">
         <v>22</v>
@@ -4862,7 +5008,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A167" s="3">
         <v>45442</v>
       </c>
@@ -4873,7 +5019,7 @@
         <v>182</v>
       </c>
       <c r="D167" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E167" t="s">
         <v>22</v>
@@ -4882,7 +5028,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A168" s="3">
         <v>45442</v>
       </c>
@@ -4893,7 +5039,7 @@
         <v>182</v>
       </c>
       <c r="D168" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E168" t="s">
         <v>22</v>
@@ -4902,7 +5048,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A169" s="3">
         <v>45442</v>
       </c>
@@ -4913,7 +5059,7 @@
         <v>185</v>
       </c>
       <c r="D169" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E169" t="s">
         <v>22</v>
@@ -4922,7 +5068,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A170" s="3">
         <v>45442</v>
       </c>
@@ -4933,7 +5079,7 @@
         <v>187</v>
       </c>
       <c r="D170" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E170" t="s">
         <v>22</v>
@@ -4942,7 +5088,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A171" s="3">
         <v>45442</v>
       </c>
@@ -4953,7 +5099,7 @@
         <v>10</v>
       </c>
       <c r="D171" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E171" t="s">
         <v>22</v>
@@ -4962,7 +5108,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A172" s="3">
         <v>45443</v>
       </c>
@@ -4973,7 +5119,7 @@
         <v>188</v>
       </c>
       <c r="D172" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E172" t="s">
         <v>22</v>
@@ -4982,7 +5128,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A173" s="3">
         <v>45443</v>
       </c>
@@ -4993,7 +5139,7 @@
         <v>189</v>
       </c>
       <c r="D173" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E173" t="s">
         <v>58</v>
@@ -5002,7 +5148,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A174" s="3">
         <v>45443</v>
       </c>
@@ -5022,7 +5168,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A175" s="3">
         <v>45443</v>
       </c>
@@ -5033,7 +5179,7 @@
         <v>191</v>
       </c>
       <c r="D175" t="s">
-        <v>192</v>
+        <v>364</v>
       </c>
       <c r="E175" t="s">
         <v>58</v>
@@ -5042,7 +5188,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A176" s="3">
         <v>45443</v>
       </c>
@@ -5062,7 +5208,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A177" s="3">
         <v>45443</v>
       </c>
@@ -5082,7 +5228,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A178" s="3">
         <v>45443</v>
       </c>
@@ -5102,7 +5248,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A179" s="3">
         <v>45443</v>
       </c>
@@ -5122,7 +5268,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A180" s="3">
         <v>45443</v>
       </c>
@@ -5142,7 +5288,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A181" s="3">
         <v>45443</v>
       </c>
@@ -5162,7 +5308,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A182" s="3">
         <v>45443</v>
       </c>
@@ -5182,7 +5328,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A183" s="3">
         <v>45443</v>
       </c>
@@ -5202,7 +5348,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A184" s="3">
         <v>45443</v>
       </c>
@@ -5222,7 +5368,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A185" s="3">
         <v>45443</v>
       </c>
@@ -5242,7 +5388,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A186" s="3">
         <v>45443</v>
       </c>
@@ -5262,7 +5408,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A187" s="3">
         <v>45444</v>
       </c>
@@ -5282,7 +5428,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A188" s="3">
         <v>45444</v>
       </c>
@@ -5302,7 +5448,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A189" s="3">
         <v>45444</v>
       </c>
@@ -5322,7 +5468,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A190" s="3">
         <v>45444</v>
       </c>
@@ -5333,7 +5479,7 @@
         <v>204</v>
       </c>
       <c r="D190" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E190" t="s">
         <v>8</v>
@@ -5342,7 +5488,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A191" s="3">
         <v>45444</v>
       </c>
@@ -5362,7 +5508,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A192" s="3">
         <v>45444</v>
       </c>
@@ -5373,7 +5519,7 @@
         <v>207</v>
       </c>
       <c r="D192" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E192" t="s">
         <v>8</v>
@@ -5382,7 +5528,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A193" s="3">
         <v>45444</v>
       </c>
@@ -5393,7 +5539,7 @@
         <v>10</v>
       </c>
       <c r="D193" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E193" t="s">
         <v>22</v>
@@ -5402,7 +5548,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A194" s="3">
         <v>45445</v>
       </c>
@@ -5413,7 +5559,7 @@
         <v>212</v>
       </c>
       <c r="D194" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E194" t="s">
         <v>22</v>
@@ -5422,7 +5568,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A195" s="3">
         <v>45445</v>
       </c>
@@ -5433,7 +5579,7 @@
         <v>213</v>
       </c>
       <c r="D195" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E195" t="s">
         <v>22</v>
@@ -5442,7 +5588,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A196" s="3">
         <v>45445</v>
       </c>
@@ -5453,7 +5599,7 @@
         <v>145</v>
       </c>
       <c r="D196" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E196" t="s">
         <v>22</v>
@@ -5462,7 +5608,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A197" s="3">
         <v>45445</v>
       </c>
@@ -5473,7 +5619,7 @@
         <v>216</v>
       </c>
       <c r="D197" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E197" t="s">
         <v>58</v>
@@ -5482,7 +5628,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A198" s="3">
         <v>45445</v>
       </c>
@@ -5493,7 +5639,7 @@
         <v>218</v>
       </c>
       <c r="D198" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E198" t="s">
         <v>22</v>
@@ -5502,7 +5648,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A199" s="3">
         <v>45445</v>
       </c>
@@ -5513,7 +5659,7 @@
         <v>10</v>
       </c>
       <c r="D199" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E199" t="s">
         <v>22</v>
@@ -5522,7 +5668,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A200" s="3">
         <v>45446</v>
       </c>
@@ -5533,7 +5679,7 @@
         <v>10</v>
       </c>
       <c r="D200" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E200" t="s">
         <v>22</v>
@@ -5542,7 +5688,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A201" s="3">
         <v>45447</v>
       </c>
@@ -5553,7 +5699,7 @@
         <v>10</v>
       </c>
       <c r="D201" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E201" t="s">
         <v>22</v>
@@ -5562,7 +5708,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A202" s="3">
         <v>45448</v>
       </c>
@@ -5573,7 +5719,7 @@
         <v>219</v>
       </c>
       <c r="D202" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E202" t="s">
         <v>22</v>
@@ -5582,7 +5728,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A203" s="3">
         <v>45448</v>
       </c>
@@ -5593,7 +5739,7 @@
         <v>220</v>
       </c>
       <c r="D203" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E203" t="s">
         <v>26</v>
@@ -5602,7 +5748,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A204" s="3">
         <v>45448</v>
       </c>
@@ -5613,7 +5759,7 @@
         <v>10</v>
       </c>
       <c r="D204" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E204" t="s">
         <v>22</v>
@@ -5622,7 +5768,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A205" s="3">
         <v>45449</v>
       </c>
@@ -5633,7 +5779,7 @@
         <v>221</v>
       </c>
       <c r="D205" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E205" t="s">
         <v>22</v>
@@ -5642,7 +5788,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A206" s="3">
         <v>45449</v>
       </c>
@@ -5653,7 +5799,7 @@
         <v>223</v>
       </c>
       <c r="D206" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E206" t="s">
         <v>22</v>
@@ -5662,7 +5808,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A207" s="3">
         <v>45449</v>
       </c>
@@ -5673,7 +5819,7 @@
         <v>224</v>
       </c>
       <c r="D207" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E207" t="s">
         <v>22</v>
@@ -5682,7 +5828,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A208" s="3">
         <v>45450</v>
       </c>
@@ -5693,7 +5839,7 @@
         <v>100</v>
       </c>
       <c r="D208" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E208" t="s">
         <v>22</v>
@@ -5702,7 +5848,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A209" s="3">
         <v>45450</v>
       </c>
@@ -5713,7 +5859,7 @@
         <v>10</v>
       </c>
       <c r="D209" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E209" t="s">
         <v>22</v>
@@ -5722,7 +5868,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A210" s="3">
         <v>45451</v>
       </c>
@@ -5733,7 +5879,7 @@
         <v>226</v>
       </c>
       <c r="D210" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E210" t="s">
         <v>22</v>
@@ -5742,7 +5888,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A211" s="3">
         <v>45451</v>
       </c>
@@ -5753,7 +5899,7 @@
         <v>227</v>
       </c>
       <c r="D211" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E211" t="s">
         <v>58</v>
@@ -5762,7 +5908,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A212" s="3">
         <v>45451</v>
       </c>
@@ -5773,7 +5919,7 @@
         <v>228</v>
       </c>
       <c r="D212" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E212" t="s">
         <v>22</v>
@@ -5782,7 +5928,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A213" s="3">
         <v>45451</v>
       </c>
@@ -5793,7 +5939,7 @@
         <v>10</v>
       </c>
       <c r="D213" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E213" t="s">
         <v>22</v>
@@ -5802,7 +5948,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A214" s="3">
         <v>45452</v>
       </c>
@@ -5813,7 +5959,7 @@
         <v>67</v>
       </c>
       <c r="D214" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E214" t="s">
         <v>22</v>
@@ -5822,7 +5968,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A215" s="3">
         <v>45452</v>
       </c>
@@ -5833,7 +5979,7 @@
         <v>96</v>
       </c>
       <c r="D215" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E215" t="s">
         <v>8</v>
@@ -5842,7 +5988,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A216" s="3">
         <v>45452</v>
       </c>
@@ -5853,7 +5999,7 @@
         <v>230</v>
       </c>
       <c r="D216" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E216" t="s">
         <v>22</v>
@@ -5862,7 +6008,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A217" s="3">
         <v>45452</v>
       </c>
@@ -5873,16 +6019,16 @@
         <v>232</v>
       </c>
       <c r="D217" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E217" t="s">
         <v>22</v>
       </c>
       <c r="F217" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A218" s="3">
         <v>45452</v>
       </c>
@@ -5890,10 +6036,10 @@
         <v>230</v>
       </c>
       <c r="C218" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D218" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E218" t="s">
         <v>22</v>
@@ -5902,18 +6048,18 @@
         <v>66</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A219" s="3">
         <v>45452</v>
       </c>
       <c r="B219" t="s">
+        <v>234</v>
+      </c>
+      <c r="C219" t="s">
         <v>235</v>
       </c>
-      <c r="C219" t="s">
-        <v>236</v>
-      </c>
       <c r="D219" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E219" t="s">
         <v>22</v>
@@ -5922,18 +6068,18 @@
         <v>69</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A220" s="3">
         <v>45452</v>
       </c>
       <c r="B220" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C220" t="s">
         <v>10</v>
       </c>
       <c r="D220" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E220" t="s">
         <v>8</v>
@@ -5942,7 +6088,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A221" s="3">
         <v>45453</v>
       </c>
@@ -5950,10 +6096,10 @@
         <v>12</v>
       </c>
       <c r="C221" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D221" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E221" t="s">
         <v>8</v>
@@ -5962,18 +6108,18 @@
         <v>229</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A222" s="3">
         <v>45453</v>
       </c>
       <c r="B222" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C222" t="s">
         <v>109</v>
       </c>
       <c r="D222" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E222" t="s">
         <v>58</v>
@@ -5982,18 +6128,18 @@
         <v>71</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A223" s="3">
         <v>45453</v>
       </c>
       <c r="B223" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C223" t="s">
         <v>10</v>
       </c>
       <c r="D223" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E223" t="s">
         <v>8</v>
@@ -6002,7 +6148,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A224" s="3">
         <v>45454</v>
       </c>
@@ -6010,10 +6156,10 @@
         <v>12</v>
       </c>
       <c r="C224" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D224" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E224" t="s">
         <v>8</v>
@@ -6022,18 +6168,18 @@
         <v>92</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A225" s="3">
         <v>45454</v>
       </c>
       <c r="B225" t="s">
+        <v>238</v>
+      </c>
+      <c r="C225" t="s">
         <v>239</v>
       </c>
-      <c r="C225" t="s">
-        <v>240</v>
-      </c>
       <c r="D225" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E225" t="s">
         <v>58</v>
@@ -6042,18 +6188,18 @@
         <v>71</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A226" s="3">
         <v>45454</v>
       </c>
       <c r="B226" t="s">
+        <v>239</v>
+      </c>
+      <c r="C226" t="s">
         <v>240</v>
       </c>
-      <c r="C226" t="s">
-        <v>241</v>
-      </c>
       <c r="D226" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E226" t="s">
         <v>8</v>
@@ -6062,38 +6208,38 @@
         <v>92</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A227" s="3">
         <v>45454</v>
       </c>
       <c r="B227" t="s">
+        <v>240</v>
+      </c>
+      <c r="C227" t="s">
         <v>241</v>
       </c>
-      <c r="C227" t="s">
+      <c r="D227" t="s">
+        <v>275</v>
+      </c>
+      <c r="E227" t="s">
+        <v>8</v>
+      </c>
+      <c r="F227" t="s">
         <v>242</v>
       </c>
-      <c r="D227" t="s">
-        <v>276</v>
-      </c>
-      <c r="E227" t="s">
-        <v>8</v>
-      </c>
-      <c r="F227" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A228" s="3">
         <v>45454</v>
       </c>
       <c r="B228" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C228" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D228" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E228" t="s">
         <v>8</v>
@@ -6102,27 +6248,27 @@
         <v>92</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A229" s="3">
         <v>45454</v>
       </c>
       <c r="B229" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C229" t="s">
         <v>10</v>
       </c>
       <c r="D229" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E229" t="s">
         <v>8</v>
       </c>
       <c r="F229" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A230" s="3">
         <v>45455</v>
       </c>
@@ -6130,30 +6276,30 @@
         <v>12</v>
       </c>
       <c r="C230" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D230" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E230" t="s">
         <v>8</v>
       </c>
       <c r="F230" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A231" s="3">
         <v>45455</v>
       </c>
       <c r="B231" t="s">
+        <v>244</v>
+      </c>
+      <c r="C231" t="s">
         <v>245</v>
       </c>
-      <c r="C231" t="s">
-        <v>246</v>
-      </c>
       <c r="D231" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E231" t="s">
         <v>22</v>
@@ -6162,18 +6308,18 @@
         <v>66</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A232" s="3">
         <v>45455</v>
       </c>
       <c r="B232" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C232" t="s">
         <v>56</v>
       </c>
       <c r="D232" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E232" t="s">
         <v>22</v>
@@ -6182,7 +6328,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A233" s="3">
         <v>45455</v>
       </c>
@@ -6190,10 +6336,10 @@
         <v>56</v>
       </c>
       <c r="C233" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D233" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E233" t="s">
         <v>22</v>
@@ -6202,7 +6348,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A234" s="3">
         <v>45455</v>
       </c>
@@ -6213,7 +6359,7 @@
         <v>10</v>
       </c>
       <c r="D234" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E234" t="s">
         <v>22</v>
@@ -6222,7 +6368,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A235" s="3">
         <v>45456</v>
       </c>
@@ -6230,10 +6376,10 @@
         <v>12</v>
       </c>
       <c r="C235" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D235" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E235" t="s">
         <v>22</v>
@@ -6242,18 +6388,18 @@
         <v>77</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A236" s="3">
         <v>45456</v>
       </c>
       <c r="B236" t="s">
+        <v>247</v>
+      </c>
+      <c r="C236" t="s">
         <v>248</v>
       </c>
-      <c r="C236" t="s">
-        <v>249</v>
-      </c>
       <c r="D236" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E236" t="s">
         <v>58</v>
@@ -6262,18 +6408,18 @@
         <v>71</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A237" s="3">
         <v>45456</v>
       </c>
       <c r="B237" t="s">
+        <v>248</v>
+      </c>
+      <c r="C237" t="s">
         <v>249</v>
       </c>
-      <c r="C237" t="s">
-        <v>250</v>
-      </c>
       <c r="D237" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E237" t="s">
         <v>22</v>
@@ -6282,18 +6428,18 @@
         <v>77</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A238" s="3">
         <v>45456</v>
       </c>
       <c r="B238" t="s">
+        <v>249</v>
+      </c>
+      <c r="C238" t="s">
         <v>250</v>
       </c>
-      <c r="C238" t="s">
-        <v>251</v>
-      </c>
       <c r="D238" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E238" t="s">
         <v>22</v>
@@ -6302,18 +6448,18 @@
         <v>38</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A239" s="3">
         <v>45456</v>
       </c>
       <c r="B239" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C239" t="s">
         <v>10</v>
       </c>
       <c r="D239" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E239" t="s">
         <v>22</v>
@@ -6322,7 +6468,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A240" s="3">
         <v>45457</v>
       </c>
@@ -6333,7 +6479,7 @@
         <v>10</v>
       </c>
       <c r="D240" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E240" t="s">
         <v>22</v>
@@ -6342,7 +6488,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A241" s="3">
         <v>45458</v>
       </c>
@@ -6353,7 +6499,7 @@
         <v>137</v>
       </c>
       <c r="D241" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E241" t="s">
         <v>22</v>
@@ -6362,7 +6508,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A242" s="3">
         <v>45458</v>
       </c>
@@ -6370,10 +6516,10 @@
         <v>137</v>
       </c>
       <c r="C242" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D242" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E242" t="s">
         <v>58</v>
@@ -6382,18 +6528,18 @@
         <v>71</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A243" s="3">
         <v>45458</v>
       </c>
       <c r="B243" t="s">
+        <v>251</v>
+      </c>
+      <c r="C243" t="s">
         <v>252</v>
       </c>
-      <c r="C243" t="s">
-        <v>253</v>
-      </c>
       <c r="D243" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E243" t="s">
         <v>22</v>
@@ -6402,12 +6548,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A244" s="3">
         <v>45458</v>
       </c>
       <c r="B244" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C244" t="s">
         <v>136</v>
@@ -6422,38 +6568,38 @@
         <v>17</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A245" s="3">
         <v>45458</v>
       </c>
       <c r="B245" t="s">
+        <v>253</v>
+      </c>
+      <c r="C245" t="s">
         <v>254</v>
       </c>
-      <c r="C245" t="s">
-        <v>255</v>
-      </c>
       <c r="D245" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E245" t="s">
         <v>8</v>
       </c>
       <c r="F245" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.2">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A246" s="3">
         <v>45458</v>
       </c>
       <c r="B246" t="s">
+        <v>254</v>
+      </c>
+      <c r="C246" t="s">
         <v>255</v>
       </c>
-      <c r="C246" t="s">
-        <v>256</v>
-      </c>
       <c r="D246" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E246" t="s">
         <v>8</v>
@@ -6462,27 +6608,27 @@
         <v>205</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A247" s="3">
         <v>45458</v>
       </c>
       <c r="B247" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C247" t="s">
         <v>10</v>
       </c>
       <c r="D247" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E247" t="s">
         <v>8</v>
       </c>
       <c r="F247" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.2">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A248" s="3">
         <v>45459</v>
       </c>
@@ -6490,30 +6636,30 @@
         <v>12</v>
       </c>
       <c r="C248" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D248" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E248" t="s">
         <v>8</v>
       </c>
       <c r="F248" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.2">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A249" s="3">
         <v>45459</v>
       </c>
       <c r="B249" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C249" t="s">
         <v>24</v>
       </c>
       <c r="D249" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E249" t="s">
         <v>58</v>
@@ -6522,7 +6668,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A250" s="3">
         <v>45459</v>
       </c>
@@ -6530,50 +6676,50 @@
         <v>24</v>
       </c>
       <c r="C250" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D250" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E250" t="s">
         <v>8</v>
       </c>
       <c r="F250" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.2">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A251" s="3">
         <v>45459</v>
       </c>
       <c r="B251" t="s">
+        <v>261</v>
+      </c>
+      <c r="C251" t="s">
         <v>262</v>
       </c>
-      <c r="C251" t="s">
+      <c r="D251" t="s">
+        <v>273</v>
+      </c>
+      <c r="E251" t="s">
+        <v>8</v>
+      </c>
+      <c r="F251" t="s">
         <v>263</v>
       </c>
-      <c r="D251" t="s">
-        <v>274</v>
-      </c>
-      <c r="E251" t="s">
-        <v>8</v>
-      </c>
-      <c r="F251" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A252" s="3">
         <v>45459</v>
       </c>
       <c r="B252" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C252" t="s">
         <v>10</v>
       </c>
       <c r="D252" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E252" t="s">
         <v>8</v>
@@ -6582,7 +6728,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A253" s="3">
         <v>45460</v>
       </c>
@@ -6590,10 +6736,10 @@
         <v>12</v>
       </c>
       <c r="C253" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D253" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E253" t="s">
         <v>8</v>
@@ -6602,18 +6748,18 @@
         <v>229</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A254" s="3">
         <v>45460</v>
       </c>
       <c r="B254" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C254" t="s">
         <v>10</v>
       </c>
       <c r="D254" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E254" t="s">
         <v>8</v>
@@ -6622,7 +6768,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A255" s="3">
         <v>45461</v>
       </c>
@@ -6630,10 +6776,10 @@
         <v>12</v>
       </c>
       <c r="C255" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D255" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E255" t="s">
         <v>8</v>
@@ -6642,15 +6788,15 @@
         <v>92</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A256" s="3">
         <v>45461</v>
       </c>
       <c r="B256" t="s">
+        <v>267</v>
+      </c>
+      <c r="C256" t="s">
         <v>268</v>
-      </c>
-      <c r="C256" t="s">
-        <v>269</v>
       </c>
       <c r="D256" t="s">
         <v>122</v>
@@ -6662,15 +6808,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A257" s="3">
         <v>45461</v>
       </c>
       <c r="B257" t="s">
+        <v>268</v>
+      </c>
+      <c r="C257" t="s">
         <v>269</v>
-      </c>
-      <c r="C257" t="s">
-        <v>270</v>
       </c>
       <c r="D257" t="s">
         <v>210</v>
@@ -6682,15 +6828,15 @@
         <v>87</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A258" s="3">
         <v>45461</v>
       </c>
       <c r="B258" t="s">
+        <v>270</v>
+      </c>
+      <c r="C258" t="s">
         <v>271</v>
-      </c>
-      <c r="C258" t="s">
-        <v>272</v>
       </c>
       <c r="D258" t="s">
         <v>210</v>
@@ -6699,15 +6845,15 @@
         <v>8</v>
       </c>
       <c r="F258" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.2">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A259" s="3">
         <v>45461</v>
       </c>
       <c r="B259" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C259" t="s">
         <v>10</v>
@@ -6719,10 +6865,10 @@
         <v>8</v>
       </c>
       <c r="F259" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.2">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A260" s="3">
         <v>45462</v>
       </c>
@@ -6730,7 +6876,7 @@
         <v>12</v>
       </c>
       <c r="C260" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D260" t="s">
         <v>210</v>
@@ -6739,18 +6885,18 @@
         <v>8</v>
       </c>
       <c r="F260" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.2">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A261" s="3">
         <v>45462</v>
       </c>
       <c r="B261" t="s">
+        <v>276</v>
+      </c>
+      <c r="C261" t="s">
         <v>277</v>
-      </c>
-      <c r="C261" t="s">
-        <v>278</v>
       </c>
       <c r="D261" t="s">
         <v>210</v>
@@ -6762,15 +6908,15 @@
         <v>71</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A262" s="3">
         <v>45462</v>
       </c>
       <c r="B262" t="s">
+        <v>277</v>
+      </c>
+      <c r="C262" t="s">
         <v>278</v>
-      </c>
-      <c r="C262" t="s">
-        <v>279</v>
       </c>
       <c r="D262" t="s">
         <v>210</v>
@@ -6779,18 +6925,18 @@
         <v>8</v>
       </c>
       <c r="F262" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.2">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A263" s="3">
         <v>45462</v>
       </c>
       <c r="B263" t="s">
+        <v>278</v>
+      </c>
+      <c r="C263" t="s">
         <v>279</v>
-      </c>
-      <c r="C263" t="s">
-        <v>280</v>
       </c>
       <c r="D263" t="s">
         <v>210</v>
@@ -6799,18 +6945,18 @@
         <v>8</v>
       </c>
       <c r="F263" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.2">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A264" s="3">
         <v>45462</v>
       </c>
       <c r="B264" t="s">
+        <v>279</v>
+      </c>
+      <c r="C264" t="s">
         <v>280</v>
-      </c>
-      <c r="C264" t="s">
-        <v>281</v>
       </c>
       <c r="D264" t="s">
         <v>210</v>
@@ -6822,15 +6968,15 @@
         <v>162</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A265" s="3">
         <v>45462</v>
       </c>
       <c r="B265" t="s">
+        <v>281</v>
+      </c>
+      <c r="C265" t="s">
         <v>282</v>
-      </c>
-      <c r="C265" t="s">
-        <v>283</v>
       </c>
       <c r="D265" t="s">
         <v>210</v>
@@ -6842,12 +6988,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A266" s="3">
         <v>45462</v>
       </c>
       <c r="B266" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C266" t="s">
         <v>96</v>
@@ -6862,7 +7008,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A267" s="3">
         <v>45462</v>
       </c>
@@ -6870,7 +7016,7 @@
         <v>96</v>
       </c>
       <c r="C267" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D267" t="s">
         <v>210</v>
@@ -6882,27 +7028,27 @@
         <v>11</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A268" s="3">
         <v>45462</v>
       </c>
       <c r="B268" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C268" t="s">
         <v>10</v>
       </c>
       <c r="D268" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E268" t="s">
         <v>29</v>
       </c>
       <c r="F268" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.2">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A269" s="3">
         <v>45463</v>
       </c>
@@ -6910,27 +7056,27 @@
         <v>12</v>
       </c>
       <c r="C269" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D269" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E269" t="s">
         <v>29</v>
       </c>
       <c r="F269" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.2">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A270" s="3">
         <v>45463</v>
       </c>
       <c r="B270" t="s">
+        <v>288</v>
+      </c>
+      <c r="C270" t="s">
         <v>289</v>
-      </c>
-      <c r="C270" t="s">
-        <v>290</v>
       </c>
       <c r="D270" t="s">
         <v>122</v>
@@ -6942,18 +7088,18 @@
         <v>17</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A271" s="3">
         <v>45463</v>
       </c>
       <c r="B271" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C271" t="s">
         <v>10</v>
       </c>
       <c r="D271" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E271" t="s">
         <v>8</v>
@@ -6962,7 +7108,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A272" s="3">
         <v>45464</v>
       </c>
@@ -6973,7 +7119,7 @@
         <v>10</v>
       </c>
       <c r="D272" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E272" t="s">
         <v>8</v>
@@ -6982,7 +7128,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A273" s="3">
         <v>45465</v>
       </c>
@@ -6990,10 +7136,10 @@
         <v>12</v>
       </c>
       <c r="C273" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D273" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E273" t="s">
         <v>8</v>
@@ -7002,15 +7148,15 @@
         <v>162</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A274" s="3">
         <v>45465</v>
       </c>
       <c r="B274" t="s">
+        <v>290</v>
+      </c>
+      <c r="C274" t="s">
         <v>291</v>
-      </c>
-      <c r="C274" t="s">
-        <v>292</v>
       </c>
       <c r="D274" t="s">
         <v>122</v>
@@ -7022,15 +7168,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A275" s="3">
         <v>45465</v>
       </c>
       <c r="B275" t="s">
+        <v>291</v>
+      </c>
+      <c r="C275" t="s">
         <v>292</v>
-      </c>
-      <c r="C275" t="s">
-        <v>293</v>
       </c>
       <c r="D275" t="s">
         <v>210</v>
@@ -7042,15 +7188,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A276" s="3">
         <v>45465</v>
       </c>
       <c r="B276" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C276" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D276" t="s">
         <v>210</v>
@@ -7062,15 +7208,15 @@
         <v>27</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A277" s="3">
         <v>45465</v>
       </c>
       <c r="B277" t="s">
+        <v>292</v>
+      </c>
+      <c r="C277" t="s">
         <v>293</v>
-      </c>
-      <c r="C277" t="s">
-        <v>294</v>
       </c>
       <c r="D277" t="s">
         <v>210</v>
@@ -7082,7 +7228,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A278" s="3">
         <v>45465</v>
       </c>
@@ -7099,18 +7245,18 @@
         <v>58</v>
       </c>
       <c r="F278" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.2">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A279" s="3">
         <v>45465</v>
       </c>
       <c r="B279" t="s">
+        <v>295</v>
+      </c>
+      <c r="C279" t="s">
         <v>296</v>
-      </c>
-      <c r="C279" t="s">
-        <v>297</v>
       </c>
       <c r="D279" t="s">
         <v>210</v>
@@ -7122,12 +7268,12 @@
         <v>87</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A280" s="3">
         <v>45465</v>
       </c>
       <c r="B280" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C280" t="s">
         <v>10</v>
@@ -7142,7 +7288,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A281" s="3">
         <v>45466</v>
       </c>
@@ -7150,7 +7296,7 @@
         <v>12</v>
       </c>
       <c r="C281" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D281" t="s">
         <v>210</v>
@@ -7159,15 +7305,15 @@
         <v>58</v>
       </c>
       <c r="F281" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.2">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A282" s="3">
         <v>45466</v>
       </c>
       <c r="B282" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C282" t="s">
         <v>10</v>
@@ -7182,7 +7328,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A283" s="3">
         <v>45467</v>
       </c>
@@ -7190,7 +7336,7 @@
         <v>12</v>
       </c>
       <c r="C283" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D283" t="s">
         <v>210</v>
@@ -7202,15 +7348,15 @@
         <v>92</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A284" s="3">
         <v>45467</v>
       </c>
       <c r="B284" t="s">
+        <v>298</v>
+      </c>
+      <c r="C284" t="s">
         <v>299</v>
-      </c>
-      <c r="C284" t="s">
-        <v>300</v>
       </c>
       <c r="D284" t="s">
         <v>210</v>
@@ -7222,15 +7368,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A285" s="3">
         <v>45467</v>
       </c>
       <c r="B285" t="s">
+        <v>299</v>
+      </c>
+      <c r="C285" t="s">
         <v>300</v>
-      </c>
-      <c r="C285" t="s">
-        <v>301</v>
       </c>
       <c r="D285" t="s">
         <v>122</v>
@@ -7242,18 +7388,18 @@
         <v>17</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A286" s="3">
         <v>45467</v>
       </c>
       <c r="B286" t="s">
+        <v>300</v>
+      </c>
+      <c r="C286" t="s">
         <v>301</v>
       </c>
-      <c r="C286" t="s">
-        <v>302</v>
-      </c>
       <c r="D286" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E286" t="s">
         <v>22</v>
@@ -7262,18 +7408,18 @@
         <v>77</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A287" s="3">
         <v>45467</v>
       </c>
       <c r="B287" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C287" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D287" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E287" t="s">
         <v>8</v>
@@ -7282,38 +7428,38 @@
         <v>9</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A288" s="3">
         <v>45467</v>
       </c>
       <c r="B288" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C288" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D288" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E288" t="s">
         <v>58</v>
       </c>
       <c r="F288" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.2">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A289" s="3">
         <v>45467</v>
       </c>
       <c r="B289" t="s">
+        <v>303</v>
+      </c>
+      <c r="C289" t="s">
         <v>304</v>
       </c>
-      <c r="C289" t="s">
-        <v>305</v>
-      </c>
       <c r="D289" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E289" t="s">
         <v>22</v>
@@ -7322,27 +7468,27 @@
         <v>77</v>
       </c>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A290" s="3">
         <v>45467</v>
       </c>
       <c r="B290" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C290" t="s">
         <v>10</v>
       </c>
       <c r="D290" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E290" t="s">
         <v>8</v>
       </c>
       <c r="F290" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.2">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A291" s="3">
         <v>45468</v>
       </c>
@@ -7350,30 +7496,30 @@
         <v>12</v>
       </c>
       <c r="C291" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D291" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E291" t="s">
         <v>8</v>
       </c>
       <c r="F291" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.2">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A292" s="3">
         <v>45468</v>
       </c>
       <c r="B292" t="s">
+        <v>306</v>
+      </c>
+      <c r="C292" t="s">
         <v>307</v>
       </c>
-      <c r="C292" t="s">
-        <v>308</v>
-      </c>
       <c r="D292" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E292" t="s">
         <v>8</v>
@@ -7382,18 +7528,18 @@
         <v>92</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A293" s="3">
         <v>45468</v>
       </c>
       <c r="B293" t="s">
+        <v>307</v>
+      </c>
+      <c r="C293" t="s">
         <v>308</v>
       </c>
-      <c r="C293" t="s">
-        <v>309</v>
-      </c>
       <c r="D293" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E293" t="s">
         <v>22</v>
@@ -7402,27 +7548,27 @@
         <v>77</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A294" s="3">
         <v>45468</v>
       </c>
       <c r="B294" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C294" t="s">
         <v>10</v>
       </c>
       <c r="D294" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E294" t="s">
         <v>58</v>
       </c>
       <c r="F294" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.2">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A295" s="3">
         <v>45469</v>
       </c>
@@ -7433,7 +7579,7 @@
         <v>159</v>
       </c>
       <c r="D295" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E295" t="s">
         <v>58</v>
@@ -7442,7 +7588,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A296" s="3">
         <v>45469</v>
       </c>
@@ -7450,10 +7596,10 @@
         <v>159</v>
       </c>
       <c r="C296" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D296" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E296" t="s">
         <v>22</v>
@@ -7462,18 +7608,18 @@
         <v>77</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A297" s="3">
         <v>45469</v>
       </c>
       <c r="B297" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C297" t="s">
         <v>10</v>
       </c>
       <c r="D297" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E297" t="s">
         <v>8</v>
@@ -7482,7 +7628,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A298" s="3">
         <v>45470</v>
       </c>
@@ -7493,7 +7639,7 @@
         <v>23</v>
       </c>
       <c r="D298" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E298" t="s">
         <v>22</v>
@@ -7502,38 +7648,38 @@
         <v>77</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A299" s="3">
         <v>45470</v>
       </c>
       <c r="B299" t="s">
+        <v>311</v>
+      </c>
+      <c r="C299" t="s">
         <v>312</v>
       </c>
-      <c r="C299" t="s">
-        <v>313</v>
-      </c>
       <c r="D299" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E299" t="s">
         <v>8</v>
       </c>
       <c r="F299" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.2">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A300" s="3">
         <v>45470</v>
       </c>
       <c r="B300" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C300" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D300" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E300" t="s">
         <v>22</v>
@@ -7542,18 +7688,18 @@
         <v>87</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A301" s="3">
         <v>45470</v>
       </c>
       <c r="B301" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C301" t="s">
         <v>43</v>
       </c>
       <c r="D301" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E301" t="s">
         <v>8</v>
@@ -7562,18 +7708,18 @@
         <v>229</v>
       </c>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A302" s="3">
         <v>45470</v>
       </c>
       <c r="B302" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C302" t="s">
         <v>10</v>
       </c>
       <c r="D302" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E302" t="s">
         <v>8</v>
@@ -7582,7 +7728,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A303" s="3">
         <v>45471</v>
       </c>
@@ -7590,10 +7736,10 @@
         <v>12</v>
       </c>
       <c r="C303" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D303" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E303" t="s">
         <v>8</v>
@@ -7602,18 +7748,18 @@
         <v>92</v>
       </c>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A304" s="3">
         <v>45471</v>
       </c>
       <c r="B304" t="s">
+        <v>315</v>
+      </c>
+      <c r="C304" t="s">
         <v>316</v>
       </c>
-      <c r="C304" t="s">
-        <v>317</v>
-      </c>
       <c r="D304" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E304" t="s">
         <v>58</v>
@@ -7622,18 +7768,18 @@
         <v>71</v>
       </c>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A305" s="3">
         <v>45471</v>
       </c>
       <c r="B305" t="s">
+        <v>316</v>
+      </c>
+      <c r="C305" t="s">
         <v>317</v>
       </c>
-      <c r="C305" t="s">
-        <v>318</v>
-      </c>
       <c r="D305" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E305" t="s">
         <v>8</v>
@@ -7642,15 +7788,15 @@
         <v>92</v>
       </c>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A306" s="3">
         <v>45471</v>
       </c>
       <c r="B306" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C306" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D306" t="s">
         <v>122</v>
@@ -7662,18 +7808,18 @@
         <v>17</v>
       </c>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A307" s="3">
         <v>45471</v>
       </c>
       <c r="B307" t="s">
+        <v>318</v>
+      </c>
+      <c r="C307" t="s">
         <v>319</v>
       </c>
-      <c r="C307" t="s">
-        <v>320</v>
-      </c>
       <c r="D307" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E307" t="s">
         <v>8</v>
@@ -7682,18 +7828,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A308" s="3">
         <v>45471</v>
       </c>
       <c r="B308" t="s">
+        <v>319</v>
+      </c>
+      <c r="C308" t="s">
         <v>320</v>
       </c>
-      <c r="C308" t="s">
+      <c r="D308" t="s">
         <v>321</v>
-      </c>
-      <c r="D308" t="s">
-        <v>322</v>
       </c>
       <c r="E308" t="s">
         <v>8</v>
@@ -7702,47 +7848,47 @@
         <v>205</v>
       </c>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A309" s="3">
         <v>45471</v>
       </c>
       <c r="B309" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C309" t="s">
+        <v>322</v>
+      </c>
+      <c r="D309" t="s">
+        <v>361</v>
+      </c>
+      <c r="E309" t="s">
+        <v>8</v>
+      </c>
+      <c r="F309" t="s">
         <v>323</v>
       </c>
-      <c r="D309" t="s">
-        <v>362</v>
-      </c>
-      <c r="E309" t="s">
-        <v>8</v>
-      </c>
-      <c r="F309" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="310" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A310" s="3">
         <v>45471</v>
       </c>
       <c r="B310" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C310" t="s">
         <v>10</v>
       </c>
       <c r="D310" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E310" t="s">
         <v>8</v>
       </c>
       <c r="F310" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.2">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A311" s="3">
         <v>45472</v>
       </c>
@@ -7750,50 +7896,50 @@
         <v>12</v>
       </c>
       <c r="C311" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D311" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E311" t="s">
         <v>8</v>
       </c>
       <c r="F311" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.2">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A312" s="3">
         <v>45472</v>
       </c>
       <c r="B312" t="s">
+        <v>324</v>
+      </c>
+      <c r="C312" t="s">
         <v>325</v>
       </c>
-      <c r="C312" t="s">
-        <v>326</v>
-      </c>
       <c r="D312" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E312" t="s">
         <v>8</v>
       </c>
       <c r="F312" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.2">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A313" s="3">
         <v>45472</v>
       </c>
       <c r="B313" t="s">
+        <v>325</v>
+      </c>
+      <c r="C313" t="s">
         <v>326</v>
       </c>
-      <c r="C313" t="s">
-        <v>327</v>
-      </c>
       <c r="D313" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E313" t="s">
         <v>8</v>
@@ -7802,18 +7948,18 @@
         <v>162</v>
       </c>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A314" s="3">
         <v>45472</v>
       </c>
       <c r="B314" t="s">
+        <v>326</v>
+      </c>
+      <c r="C314" t="s">
         <v>327</v>
       </c>
-      <c r="C314" t="s">
-        <v>328</v>
-      </c>
       <c r="D314" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E314" t="s">
         <v>58</v>
@@ -7822,18 +7968,18 @@
         <v>71</v>
       </c>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A315" s="3">
         <v>45472</v>
       </c>
       <c r="B315" t="s">
+        <v>327</v>
+      </c>
+      <c r="C315" t="s">
         <v>328</v>
       </c>
-      <c r="C315" t="s">
-        <v>329</v>
-      </c>
       <c r="D315" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E315" t="s">
         <v>8</v>
@@ -7842,15 +7988,15 @@
         <v>162</v>
       </c>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A316" s="3">
         <v>45472</v>
       </c>
       <c r="B316" t="s">
+        <v>328</v>
+      </c>
+      <c r="C316" t="s">
         <v>329</v>
-      </c>
-      <c r="C316" t="s">
-        <v>330</v>
       </c>
       <c r="D316" t="s">
         <v>122</v>
@@ -7862,18 +8008,18 @@
         <v>17</v>
       </c>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A317" s="3">
         <v>45472</v>
       </c>
       <c r="B317" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C317" t="s">
         <v>126</v>
       </c>
       <c r="D317" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E317" t="s">
         <v>8</v>
@@ -7882,7 +8028,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A318" s="3">
         <v>45472</v>
       </c>
@@ -7893,16 +8039,16 @@
         <v>10</v>
       </c>
       <c r="D318" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E318" t="s">
         <v>8</v>
       </c>
       <c r="F318" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.2">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A319" s="3">
         <v>45473</v>
       </c>
@@ -7913,16 +8059,16 @@
         <v>175</v>
       </c>
       <c r="D319" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E319" t="s">
         <v>8</v>
       </c>
       <c r="F319" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.2">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A320" s="3">
         <v>45473</v>
       </c>
@@ -7930,39 +8076,39 @@
         <v>175</v>
       </c>
       <c r="C320" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D320" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E320" t="s">
         <v>26</v>
       </c>
       <c r="F320" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.2">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A321" s="3">
         <v>45473</v>
       </c>
       <c r="B321" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C321" t="s">
         <v>178</v>
       </c>
       <c r="D321" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E321" t="s">
         <v>8</v>
       </c>
       <c r="F321" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.2">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A322" s="3">
         <v>45473</v>
       </c>
@@ -7970,10 +8116,10 @@
         <v>178</v>
       </c>
       <c r="C322" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D322" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E322" t="s">
         <v>8</v>
@@ -7982,32 +8128,32 @@
         <v>162</v>
       </c>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A323" s="3">
         <v>45473</v>
       </c>
       <c r="B323" t="s">
+        <v>336</v>
+      </c>
+      <c r="C323" t="s">
         <v>337</v>
       </c>
-      <c r="C323" t="s">
+      <c r="D323" t="s">
+        <v>321</v>
+      </c>
+      <c r="E323" t="s">
+        <v>8</v>
+      </c>
+      <c r="F323" t="s">
         <v>338</v>
       </c>
-      <c r="D323" t="s">
-        <v>322</v>
-      </c>
-      <c r="E323" t="s">
-        <v>8</v>
-      </c>
-      <c r="F323" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="324" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A324" s="3">
         <v>45473</v>
       </c>
       <c r="B324" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C324" t="s">
         <v>10</v>
@@ -8022,7 +8168,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A325" s="3">
         <v>45474</v>
       </c>
@@ -8030,7 +8176,7 @@
         <v>12</v>
       </c>
       <c r="C325" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D325" t="s">
         <v>122</v>
@@ -8042,18 +8188,18 @@
         <v>17</v>
       </c>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A326" s="3">
         <v>45474</v>
       </c>
       <c r="B326" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C326" t="s">
         <v>10</v>
       </c>
       <c r="D326" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E326" t="s">
         <v>8</v>
@@ -8062,7 +8208,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A327" s="3">
         <v>45475</v>
       </c>
@@ -8073,7 +8219,7 @@
         <v>10</v>
       </c>
       <c r="D327" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E327" t="s">
         <v>8</v>
@@ -8082,7 +8228,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A328" s="3">
         <v>45476</v>
       </c>
@@ -8090,10 +8236,10 @@
         <v>12</v>
       </c>
       <c r="C328" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D328" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E328" t="s">
         <v>8</v>
@@ -8102,18 +8248,18 @@
         <v>162</v>
       </c>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A329" s="3">
         <v>45476</v>
       </c>
       <c r="B329" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C329" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D329" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E329" t="s">
         <v>8</v>
@@ -8122,12 +8268,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A330" s="3">
         <v>45476</v>
       </c>
       <c r="B330" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C330" t="s">
         <v>10</v>
@@ -8142,7 +8288,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A331" s="3">
         <v>45477</v>
       </c>
@@ -8150,7 +8296,7 @@
         <v>12</v>
       </c>
       <c r="C331" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D331" t="s">
         <v>122</v>
@@ -8162,18 +8308,18 @@
         <v>17</v>
       </c>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A332" s="3">
         <v>45477</v>
       </c>
       <c r="B332" t="s">
+        <v>341</v>
+      </c>
+      <c r="C332" t="s">
         <v>342</v>
       </c>
-      <c r="C332" t="s">
-        <v>343</v>
-      </c>
       <c r="D332" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E332" t="s">
         <v>8</v>
@@ -8182,18 +8328,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A333" s="3">
         <v>45477</v>
       </c>
       <c r="B333" t="s">
+        <v>342</v>
+      </c>
+      <c r="C333" t="s">
         <v>343</v>
       </c>
-      <c r="C333" t="s">
-        <v>344</v>
-      </c>
       <c r="D333" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E333" t="s">
         <v>8</v>
@@ -8202,35 +8348,35 @@
         <v>205</v>
       </c>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A334" s="3">
         <v>45477</v>
       </c>
       <c r="B334" t="s">
+        <v>343</v>
+      </c>
+      <c r="C334" t="s">
         <v>344</v>
       </c>
-      <c r="C334" t="s">
-        <v>345</v>
-      </c>
       <c r="D334" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E334" t="s">
         <v>8</v>
       </c>
       <c r="F334" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.2">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A335" s="3">
         <v>45477</v>
       </c>
       <c r="B335" t="s">
+        <v>344</v>
+      </c>
+      <c r="C335" t="s">
         <v>345</v>
-      </c>
-      <c r="C335" t="s">
-        <v>346</v>
       </c>
       <c r="D335" t="s">
         <v>122</v>
@@ -8242,15 +8388,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A336" s="3">
         <v>45477</v>
       </c>
       <c r="B336" t="s">
+        <v>345</v>
+      </c>
+      <c r="C336" t="s">
         <v>346</v>
-      </c>
-      <c r="C336" t="s">
-        <v>347</v>
       </c>
       <c r="D336" t="s">
         <v>192</v>
@@ -8262,12 +8408,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A337" s="3">
         <v>45477</v>
       </c>
       <c r="B337" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C337" t="s">
         <v>186</v>
@@ -8282,7 +8428,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A338" s="3">
         <v>45477</v>
       </c>
@@ -8293,7 +8439,7 @@
         <v>10</v>
       </c>
       <c r="D338" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E338" t="s">
         <v>22</v>
@@ -8302,7 +8448,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A339" s="3">
         <v>45478</v>
       </c>
@@ -8310,10 +8456,10 @@
         <v>12</v>
       </c>
       <c r="C339" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D339" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E339" t="s">
         <v>22</v>
@@ -8322,38 +8468,38 @@
         <v>87</v>
       </c>
     </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A340" s="3">
         <v>45478</v>
       </c>
       <c r="B340" t="s">
+        <v>347</v>
+      </c>
+      <c r="C340" t="s">
         <v>348</v>
       </c>
-      <c r="C340" t="s">
-        <v>349</v>
-      </c>
       <c r="D340" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E340" t="s">
         <v>8</v>
       </c>
       <c r="F340" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.2">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A341" s="3">
         <v>45478</v>
       </c>
       <c r="B341" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C341" t="s">
         <v>10</v>
       </c>
       <c r="D341" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E341" t="s">
         <v>8</v>
@@ -8362,7 +8508,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A342" s="3">
         <v>45479</v>
       </c>
@@ -8370,10 +8516,10 @@
         <v>12</v>
       </c>
       <c r="C342" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D342" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E342" t="s">
         <v>8</v>
@@ -8382,15 +8528,15 @@
         <v>92</v>
       </c>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A343" s="3">
         <v>45479</v>
       </c>
       <c r="B343" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C343" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D343" t="s">
         <v>122</v>
@@ -8402,18 +8548,18 @@
         <v>17</v>
       </c>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A344" s="3">
         <v>45479</v>
       </c>
       <c r="B344" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C344" t="s">
         <v>101</v>
       </c>
       <c r="D344" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E344" t="s">
         <v>8</v>
@@ -8422,7 +8568,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A345" s="3">
         <v>45479</v>
       </c>
@@ -8433,16 +8579,16 @@
         <v>10</v>
       </c>
       <c r="D345" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E345" t="s">
         <v>8</v>
       </c>
       <c r="F345" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.2">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A346" s="3">
         <v>45480</v>
       </c>
@@ -8450,27 +8596,27 @@
         <v>12</v>
       </c>
       <c r="C346" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D346" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E346" t="s">
         <v>8</v>
       </c>
       <c r="F346" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.2">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A347" s="3">
         <v>45480</v>
       </c>
       <c r="B347" t="s">
+        <v>350</v>
+      </c>
+      <c r="C347" t="s">
         <v>351</v>
-      </c>
-      <c r="C347" t="s">
-        <v>352</v>
       </c>
       <c r="D347" t="s">
         <v>192</v>
@@ -8479,10 +8625,10 @@
         <v>8</v>
       </c>
       <c r="F347" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.2">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A348" s="3">
         <v>45480</v>
       </c>
@@ -8493,7 +8639,7 @@
         <v>10</v>
       </c>
       <c r="D348" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E348" t="s">
         <v>22</v>
@@ -8502,15 +8648,15 @@
         <v>87</v>
       </c>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A349" s="3">
         <v>45480</v>
       </c>
       <c r="B349" t="s">
+        <v>351</v>
+      </c>
+      <c r="C349" t="s">
         <v>352</v>
-      </c>
-      <c r="C349" t="s">
-        <v>353</v>
       </c>
       <c r="D349" t="s">
         <v>122</v>
@@ -8522,18 +8668,18 @@
         <v>17</v>
       </c>
     </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A350" s="3">
         <v>45480</v>
       </c>
       <c r="B350" t="s">
+        <v>353</v>
+      </c>
+      <c r="C350" t="s">
         <v>354</v>
       </c>
-      <c r="C350" t="s">
-        <v>355</v>
-      </c>
       <c r="D350" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E350" t="s">
         <v>22</v>
@@ -8542,18 +8688,18 @@
         <v>77</v>
       </c>
     </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A351" s="3">
         <v>45480</v>
       </c>
       <c r="B351" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C351" t="s">
         <v>10</v>
       </c>
       <c r="D351" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E351" t="s">
         <v>22</v>
@@ -8562,7 +8708,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A352" s="3">
         <v>45481</v>
       </c>
@@ -8570,10 +8716,10 @@
         <v>12</v>
       </c>
       <c r="C352" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D352" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E352" t="s">
         <v>22</v>
@@ -8582,7 +8728,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A353" s="3">
         <v>45481</v>
       </c>
@@ -8590,10 +8736,10 @@
         <v>12</v>
       </c>
       <c r="C353" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D353" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E353" t="s">
         <v>22</v>
@@ -8602,18 +8748,18 @@
         <v>87</v>
       </c>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A354" s="3">
         <v>45481</v>
       </c>
       <c r="B354" t="s">
+        <v>356</v>
+      </c>
+      <c r="C354" t="s">
         <v>357</v>
       </c>
-      <c r="C354" t="s">
-        <v>358</v>
-      </c>
       <c r="D354" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E354" t="s">
         <v>22</v>
@@ -8622,15 +8768,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A355" s="3">
         <v>45481</v>
       </c>
       <c r="B355" t="s">
+        <v>357</v>
+      </c>
+      <c r="C355" t="s">
         <v>358</v>
-      </c>
-      <c r="C355" t="s">
-        <v>359</v>
       </c>
       <c r="D355" t="s">
         <v>122</v>
@@ -8642,18 +8788,18 @@
         <v>17</v>
       </c>
     </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A356" s="3">
         <v>45481</v>
       </c>
       <c r="B356" t="s">
+        <v>358</v>
+      </c>
+      <c r="C356" t="s">
         <v>359</v>
       </c>
-      <c r="C356" t="s">
-        <v>360</v>
-      </c>
       <c r="D356" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E356" t="s">
         <v>22</v>
@@ -8662,18 +8808,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A357" s="3">
         <v>45481</v>
       </c>
       <c r="B357" t="s">
+        <v>359</v>
+      </c>
+      <c r="C357" t="s">
         <v>360</v>
       </c>
-      <c r="C357" t="s">
-        <v>361</v>
-      </c>
       <c r="D357" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E357" t="s">
         <v>22</v>
@@ -8682,24 +8828,1524 @@
         <v>38</v>
       </c>
     </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A358" s="3">
         <v>45481</v>
       </c>
       <c r="B358" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C358" t="s">
         <v>10</v>
       </c>
       <c r="D358" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E358" t="s">
         <v>22</v>
       </c>
       <c r="F358" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A359" s="3">
+        <v>45482</v>
+      </c>
+      <c r="B359" t="s">
+        <v>12</v>
+      </c>
+      <c r="C359" t="s">
+        <v>349</v>
+      </c>
+      <c r="D359" t="s">
+        <v>363</v>
+      </c>
+      <c r="E359" t="s">
+        <v>22</v>
+      </c>
+      <c r="F359" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A360" s="3">
+        <v>45482</v>
+      </c>
+      <c r="B360" t="s">
+        <v>349</v>
+      </c>
+      <c r="C360" t="s">
+        <v>10</v>
+      </c>
+      <c r="D360" t="s">
+        <v>363</v>
+      </c>
+      <c r="E360" t="s">
+        <v>22</v>
+      </c>
+      <c r="F360" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A361" s="3">
+        <v>45483</v>
+      </c>
+      <c r="B361" t="s">
+        <v>12</v>
+      </c>
+      <c r="C361" t="s">
+        <v>366</v>
+      </c>
+      <c r="D361" t="s">
+        <v>363</v>
+      </c>
+      <c r="E361" t="s">
+        <v>22</v>
+      </c>
+      <c r="F361" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A362" s="3">
+        <v>45483</v>
+      </c>
+      <c r="B362" t="s">
+        <v>367</v>
+      </c>
+      <c r="C362" t="s">
+        <v>368</v>
+      </c>
+      <c r="D362" t="s">
+        <v>363</v>
+      </c>
+      <c r="E362" t="s">
+        <v>58</v>
+      </c>
+      <c r="F362" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A363" s="3">
+        <v>45483</v>
+      </c>
+      <c r="B363" t="s">
+        <v>368</v>
+      </c>
+      <c r="C363" t="s">
+        <v>369</v>
+      </c>
+      <c r="D363" t="s">
+        <v>363</v>
+      </c>
+      <c r="E363" t="s">
+        <v>22</v>
+      </c>
+      <c r="F363" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A364" s="3">
+        <v>45483</v>
+      </c>
+      <c r="B364" t="s">
+        <v>369</v>
+      </c>
+      <c r="C364" t="s">
+        <v>354</v>
+      </c>
+      <c r="D364" t="s">
+        <v>363</v>
+      </c>
+      <c r="E364" t="s">
+        <v>58</v>
+      </c>
+      <c r="F364" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A365" s="3">
+        <v>45483</v>
+      </c>
+      <c r="B365" t="s">
+        <v>354</v>
+      </c>
+      <c r="C365" t="s">
+        <v>10</v>
+      </c>
+      <c r="D365" t="s">
+        <v>363</v>
+      </c>
+      <c r="E365" t="s">
+        <v>22</v>
+      </c>
+      <c r="F365" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A366" s="3">
+        <v>45484</v>
+      </c>
+      <c r="B366" t="s">
+        <v>12</v>
+      </c>
+      <c r="C366" t="s">
+        <v>10</v>
+      </c>
+      <c r="D366" t="s">
+        <v>363</v>
+      </c>
+      <c r="E366" t="s">
+        <v>22</v>
+      </c>
+      <c r="F366" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A367" s="3">
+        <v>45485</v>
+      </c>
+      <c r="B367" t="s">
+        <v>12</v>
+      </c>
+      <c r="C367" t="s">
+        <v>370</v>
+      </c>
+      <c r="D367" t="s">
+        <v>363</v>
+      </c>
+      <c r="E367" t="s">
+        <v>22</v>
+      </c>
+      <c r="F367" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="368" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A368" s="3">
+        <v>45485</v>
+      </c>
+      <c r="B368" t="s">
+        <v>370</v>
+      </c>
+      <c r="C368" t="s">
+        <v>64</v>
+      </c>
+      <c r="D368" t="s">
+        <v>363</v>
+      </c>
+      <c r="E368" t="s">
+        <v>58</v>
+      </c>
+      <c r="F368" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="369" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A369" s="3">
+        <v>45485</v>
+      </c>
+      <c r="B369" t="s">
+        <v>64</v>
+      </c>
+      <c r="C369" t="s">
+        <v>10</v>
+      </c>
+      <c r="D369" t="s">
+        <v>363</v>
+      </c>
+      <c r="E369" t="s">
+        <v>22</v>
+      </c>
+      <c r="F369" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="370" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A370" s="3">
+        <v>45486</v>
+      </c>
+      <c r="B370" t="s">
+        <v>12</v>
+      </c>
+      <c r="C370" t="s">
+        <v>137</v>
+      </c>
+      <c r="D370" t="s">
+        <v>363</v>
+      </c>
+      <c r="E370" t="s">
+        <v>22</v>
+      </c>
+      <c r="F370" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="371" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A371" s="3">
+        <v>45486</v>
+      </c>
+      <c r="B371" t="s">
+        <v>137</v>
+      </c>
+      <c r="C371" t="s">
+        <v>371</v>
+      </c>
+      <c r="D371" t="s">
+        <v>363</v>
+      </c>
+      <c r="E371" t="s">
+        <v>22</v>
+      </c>
+      <c r="F371" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="372" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A372" s="3">
+        <v>45486</v>
+      </c>
+      <c r="B372" t="s">
+        <v>371</v>
+      </c>
+      <c r="C372" t="s">
+        <v>372</v>
+      </c>
+      <c r="D372" t="s">
+        <v>363</v>
+      </c>
+      <c r="E372" t="s">
+        <v>22</v>
+      </c>
+      <c r="F372" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="373" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A373" s="3">
+        <v>45486</v>
+      </c>
+      <c r="B373" t="s">
+        <v>372</v>
+      </c>
+      <c r="C373" t="s">
+        <v>34</v>
+      </c>
+      <c r="D373" t="s">
+        <v>363</v>
+      </c>
+      <c r="E373" t="s">
+        <v>8</v>
+      </c>
+      <c r="F373" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="374" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A374" s="3">
+        <v>45486</v>
+      </c>
+      <c r="B374" t="s">
+        <v>34</v>
+      </c>
+      <c r="C374" t="s">
+        <v>373</v>
+      </c>
+      <c r="D374" t="s">
+        <v>374</v>
+      </c>
+      <c r="E374" t="s">
+        <v>8</v>
+      </c>
+      <c r="F374" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="375" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A375" s="3">
+        <v>45486</v>
+      </c>
+      <c r="B375" t="s">
+        <v>373</v>
+      </c>
+      <c r="C375" t="s">
+        <v>375</v>
+      </c>
+      <c r="D375" t="s">
+        <v>363</v>
+      </c>
+      <c r="E375" t="s">
+        <v>22</v>
+      </c>
+      <c r="F375" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="376" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A376" s="3">
+        <v>45486</v>
+      </c>
+      <c r="B376" t="s">
+        <v>375</v>
+      </c>
+      <c r="C376" t="s">
+        <v>376</v>
+      </c>
+      <c r="D376" t="s">
+        <v>363</v>
+      </c>
+      <c r="E376" t="s">
+        <v>58</v>
+      </c>
+      <c r="F376" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="377" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A377" s="3">
+        <v>45486</v>
+      </c>
+      <c r="B377" t="s">
+        <v>376</v>
+      </c>
+      <c r="C377" t="s">
+        <v>10</v>
+      </c>
+      <c r="D377" t="s">
+        <v>363</v>
+      </c>
+      <c r="E377" t="s">
+        <v>22</v>
+      </c>
+      <c r="F377" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="378" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A378" s="3">
+        <v>45487</v>
+      </c>
+      <c r="B378" t="s">
+        <v>12</v>
+      </c>
+      <c r="C378" t="s">
+        <v>377</v>
+      </c>
+      <c r="D378" t="s">
+        <v>363</v>
+      </c>
+      <c r="E378" t="s">
+        <v>22</v>
+      </c>
+      <c r="F378" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="379" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A379" s="3">
+        <v>45487</v>
+      </c>
+      <c r="B379" t="s">
+        <v>377</v>
+      </c>
+      <c r="C379" t="s">
+        <v>214</v>
+      </c>
+      <c r="D379" t="s">
+        <v>363</v>
+      </c>
+      <c r="E379" t="s">
+        <v>58</v>
+      </c>
+      <c r="F379" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="380" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A380" s="3">
+        <v>45487</v>
+      </c>
+      <c r="B380" t="s">
+        <v>214</v>
+      </c>
+      <c r="C380" t="s">
+        <v>10</v>
+      </c>
+      <c r="D380" t="s">
+        <v>363</v>
+      </c>
+      <c r="E380" t="s">
+        <v>22</v>
+      </c>
+      <c r="F380" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="381" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A381" s="3">
+        <v>45488</v>
+      </c>
+      <c r="B381" t="s">
+        <v>12</v>
+      </c>
+      <c r="C381" t="s">
+        <v>239</v>
+      </c>
+      <c r="D381" t="s">
+        <v>363</v>
+      </c>
+      <c r="E381" t="s">
+        <v>22</v>
+      </c>
+      <c r="F381" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="382" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A382" s="3">
+        <v>45488</v>
+      </c>
+      <c r="B382" t="s">
+        <v>239</v>
+      </c>
+      <c r="C382" t="s">
+        <v>378</v>
+      </c>
+      <c r="D382" t="s">
+        <v>363</v>
+      </c>
+      <c r="E382" t="s">
+        <v>26</v>
+      </c>
+      <c r="F382" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="383" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A383" s="3">
+        <v>45488</v>
+      </c>
+      <c r="B383" t="s">
+        <v>378</v>
+      </c>
+      <c r="C383" t="s">
+        <v>379</v>
+      </c>
+      <c r="D383" t="s">
+        <v>363</v>
+      </c>
+      <c r="E383" t="s">
+        <v>22</v>
+      </c>
+      <c r="F383" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="384" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A384" s="3">
+        <v>45488</v>
+      </c>
+      <c r="B384" t="s">
+        <v>379</v>
+      </c>
+      <c r="C384" t="s">
+        <v>380</v>
+      </c>
+      <c r="D384" t="s">
+        <v>363</v>
+      </c>
+      <c r="E384" t="s">
+        <v>58</v>
+      </c>
+      <c r="F384" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="385" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A385" s="3">
+        <v>45488</v>
+      </c>
+      <c r="B385" t="s">
+        <v>380</v>
+      </c>
+      <c r="C385" t="s">
+        <v>381</v>
+      </c>
+      <c r="D385" t="s">
+        <v>363</v>
+      </c>
+      <c r="E385" t="s">
+        <v>22</v>
+      </c>
+      <c r="F385" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="386" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A386" s="3">
+        <v>45488</v>
+      </c>
+      <c r="B386" t="s">
+        <v>381</v>
+      </c>
+      <c r="C386" t="s">
+        <v>382</v>
+      </c>
+      <c r="D386" t="s">
+        <v>363</v>
+      </c>
+      <c r="E386" t="s">
+        <v>22</v>
+      </c>
+      <c r="F386" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="387" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A387" s="3">
+        <v>45488</v>
+      </c>
+      <c r="B387" t="s">
+        <v>382</v>
+      </c>
+      <c r="C387" t="s">
+        <v>383</v>
+      </c>
+      <c r="D387" t="s">
+        <v>363</v>
+      </c>
+      <c r="E387" t="s">
+        <v>22</v>
+      </c>
+      <c r="F387" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="388" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A388" s="3">
+        <v>45488</v>
+      </c>
+      <c r="B388" t="s">
+        <v>383</v>
+      </c>
+      <c r="C388" t="s">
+        <v>10</v>
+      </c>
+      <c r="D388" t="s">
+        <v>122</v>
+      </c>
+      <c r="E388" t="s">
+        <v>32</v>
+      </c>
+      <c r="F388" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="389" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A389" s="3">
+        <v>45489</v>
+      </c>
+      <c r="B389" t="s">
+        <v>12</v>
+      </c>
+      <c r="C389" t="s">
+        <v>36</v>
+      </c>
+      <c r="D389" t="s">
+        <v>122</v>
+      </c>
+      <c r="E389" t="s">
+        <v>32</v>
+      </c>
+      <c r="F389" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="390" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A390" s="3">
+        <v>45489</v>
+      </c>
+      <c r="B390" t="s">
+        <v>36</v>
+      </c>
+      <c r="C390" t="s">
+        <v>384</v>
+      </c>
+      <c r="D390" t="s">
+        <v>385</v>
+      </c>
+      <c r="E390" t="s">
+        <v>8</v>
+      </c>
+      <c r="F390" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="391" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A391" s="3">
+        <v>45489</v>
+      </c>
+      <c r="B391" t="s">
+        <v>384</v>
+      </c>
+      <c r="C391" t="s">
+        <v>387</v>
+      </c>
+      <c r="D391" t="s">
+        <v>122</v>
+      </c>
+      <c r="E391" t="s">
+        <v>32</v>
+      </c>
+      <c r="F391" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="392" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A392" s="3">
+        <v>45489</v>
+      </c>
+      <c r="B392" t="s">
+        <v>387</v>
+      </c>
+      <c r="C392" t="s">
+        <v>198</v>
+      </c>
+      <c r="D392" t="s">
+        <v>388</v>
+      </c>
+      <c r="E392" t="s">
+        <v>8</v>
+      </c>
+      <c r="F392" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="393" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A393" s="3">
+        <v>45489</v>
+      </c>
+      <c r="B393" t="s">
+        <v>198</v>
+      </c>
+      <c r="C393" t="s">
+        <v>389</v>
+      </c>
+      <c r="D393" t="s">
+        <v>388</v>
+      </c>
+      <c r="E393" t="s">
+        <v>29</v>
+      </c>
+      <c r="F393" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="394" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A394" s="3">
+        <v>45489</v>
+      </c>
+      <c r="B394" t="s">
+        <v>389</v>
+      </c>
+      <c r="C394" t="s">
+        <v>10</v>
+      </c>
+      <c r="D394" t="s">
+        <v>388</v>
+      </c>
+      <c r="E394" t="s">
+        <v>8</v>
+      </c>
+      <c r="F394" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="395" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A395" s="3">
+        <v>45490</v>
+      </c>
+      <c r="B395" t="s">
+        <v>12</v>
+      </c>
+      <c r="C395" t="s">
+        <v>390</v>
+      </c>
+      <c r="D395" t="s">
+        <v>388</v>
+      </c>
+      <c r="E395" t="s">
+        <v>8</v>
+      </c>
+      <c r="F395" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="396" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A396" s="3">
+        <v>45490</v>
+      </c>
+      <c r="B396" t="s">
+        <v>390</v>
+      </c>
+      <c r="C396" t="s">
+        <v>391</v>
+      </c>
+      <c r="D396" t="s">
+        <v>122</v>
+      </c>
+      <c r="E396" t="s">
+        <v>32</v>
+      </c>
+      <c r="F396" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="397" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A397" s="3">
+        <v>45490</v>
+      </c>
+      <c r="B397" t="s">
+        <v>391</v>
+      </c>
+      <c r="C397" t="s">
+        <v>392</v>
+      </c>
+      <c r="D397" t="s">
+        <v>393</v>
+      </c>
+      <c r="E397" t="s">
+        <v>58</v>
+      </c>
+      <c r="F397" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="398" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A398" s="3">
+        <v>45490</v>
+      </c>
+      <c r="B398" t="s">
+        <v>392</v>
+      </c>
+      <c r="C398" t="s">
+        <v>394</v>
+      </c>
+      <c r="D398" t="s">
+        <v>393</v>
+      </c>
+      <c r="E398" t="s">
+        <v>8</v>
+      </c>
+      <c r="F398" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="399" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A399" s="3">
+        <v>45490</v>
+      </c>
+      <c r="B399" t="s">
+        <v>394</v>
+      </c>
+      <c r="C399" t="s">
+        <v>114</v>
+      </c>
+      <c r="D399" t="s">
+        <v>393</v>
+      </c>
+      <c r="E399" t="s">
+        <v>58</v>
+      </c>
+      <c r="F399" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="400" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A400" s="3">
+        <v>45490</v>
+      </c>
+      <c r="B400" t="s">
+        <v>114</v>
+      </c>
+      <c r="C400" t="s">
+        <v>10</v>
+      </c>
+      <c r="D400" t="s">
+        <v>393</v>
+      </c>
+      <c r="E400" t="s">
+        <v>8</v>
+      </c>
+      <c r="F400" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="401" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A401" s="3">
+        <v>45491</v>
+      </c>
+      <c r="B401" t="s">
+        <v>12</v>
+      </c>
+      <c r="C401" t="s">
+        <v>120</v>
+      </c>
+      <c r="D401" t="s">
+        <v>393</v>
+      </c>
+      <c r="E401" t="s">
+        <v>8</v>
+      </c>
+      <c r="F401" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="402" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A402" s="3">
+        <v>45491</v>
+      </c>
+      <c r="B402" t="s">
+        <v>120</v>
+      </c>
+      <c r="C402" t="s">
+        <v>110</v>
+      </c>
+      <c r="D402" t="s">
+        <v>122</v>
+      </c>
+      <c r="E402" t="s">
+        <v>32</v>
+      </c>
+      <c r="F402" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="403" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A403" s="3">
+        <v>45491</v>
+      </c>
+      <c r="B403" t="s">
+        <v>395</v>
+      </c>
+      <c r="C403" t="s">
+        <v>396</v>
+      </c>
+      <c r="D403" t="s">
+        <v>363</v>
+      </c>
+      <c r="E403" t="s">
+        <v>22</v>
+      </c>
+      <c r="F403" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="404" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A404" s="3">
+        <v>45491</v>
+      </c>
+      <c r="B404" t="s">
+        <v>396</v>
+      </c>
+      <c r="C404" t="s">
+        <v>234</v>
+      </c>
+      <c r="D404" t="s">
+        <v>363</v>
+      </c>
+      <c r="E404" t="s">
+        <v>58</v>
+      </c>
+      <c r="F404" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="405" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A405" s="3">
+        <v>45491</v>
+      </c>
+      <c r="B405" t="s">
+        <v>234</v>
+      </c>
+      <c r="C405" t="s">
+        <v>10</v>
+      </c>
+      <c r="D405" t="s">
+        <v>363</v>
+      </c>
+      <c r="E405" t="s">
+        <v>22</v>
+      </c>
+      <c r="F405" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="406" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A406" s="3">
+        <v>45492</v>
+      </c>
+      <c r="B406" t="s">
+        <v>12</v>
+      </c>
+      <c r="C406" t="s">
+        <v>398</v>
+      </c>
+      <c r="D406" t="s">
+        <v>363</v>
+      </c>
+      <c r="E406" t="s">
+        <v>22</v>
+      </c>
+      <c r="F406" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="407" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A407" s="3">
+        <v>45492</v>
+      </c>
+      <c r="B407" t="s">
+        <v>398</v>
+      </c>
+      <c r="C407" t="s">
+        <v>64</v>
+      </c>
+      <c r="D407" t="s">
+        <v>363</v>
+      </c>
+      <c r="E407" t="s">
+        <v>22</v>
+      </c>
+      <c r="F407" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="408" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A408" s="3">
+        <v>45492</v>
+      </c>
+      <c r="B408" t="s">
+        <v>399</v>
+      </c>
+      <c r="C408" t="s">
+        <v>10</v>
+      </c>
+      <c r="D408" t="s">
+        <v>363</v>
+      </c>
+      <c r="E408" t="s">
+        <v>58</v>
+      </c>
+      <c r="F408" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="409" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A409" s="3">
+        <v>45493</v>
+      </c>
+      <c r="B409" t="s">
+        <v>12</v>
+      </c>
+      <c r="C409" t="s">
+        <v>400</v>
+      </c>
+      <c r="D409" t="s">
+        <v>363</v>
+      </c>
+      <c r="E409" t="s">
+        <v>58</v>
+      </c>
+      <c r="F409" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="410" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A410" s="3">
+        <v>45493</v>
+      </c>
+      <c r="B410" t="s">
+        <v>400</v>
+      </c>
+      <c r="C410" t="s">
+        <v>23</v>
+      </c>
+      <c r="D410" t="s">
+        <v>363</v>
+      </c>
+      <c r="E410" t="s">
+        <v>22</v>
+      </c>
+      <c r="F410" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="411" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A411" s="3">
+        <v>45493</v>
+      </c>
+      <c r="B411" t="s">
+        <v>23</v>
+      </c>
+      <c r="C411" t="s">
+        <v>401</v>
+      </c>
+      <c r="D411" t="s">
+        <v>363</v>
+      </c>
+      <c r="E411" t="s">
+        <v>58</v>
+      </c>
+      <c r="F411" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="412" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A412" s="3">
+        <v>45493</v>
+      </c>
+      <c r="B412" t="s">
+        <v>401</v>
+      </c>
+      <c r="C412" t="s">
+        <v>402</v>
+      </c>
+      <c r="D412" t="s">
+        <v>363</v>
+      </c>
+      <c r="E412" t="s">
+        <v>22</v>
+      </c>
+      <c r="F412" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="413" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A413" s="3">
+        <v>45493</v>
+      </c>
+      <c r="B413" t="s">
+        <v>123</v>
+      </c>
+      <c r="C413" t="s">
+        <v>96</v>
+      </c>
+      <c r="D413" t="s">
+        <v>363</v>
+      </c>
+      <c r="E413" t="s">
+        <v>22</v>
+      </c>
+      <c r="F413" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="414" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A414" s="3">
+        <v>45493</v>
+      </c>
+      <c r="B414" t="s">
+        <v>96</v>
+      </c>
+      <c r="C414" t="s">
+        <v>403</v>
+      </c>
+      <c r="D414" t="s">
+        <v>363</v>
+      </c>
+      <c r="E414" t="s">
+        <v>58</v>
+      </c>
+      <c r="F414" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="415" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A415" s="3">
+        <v>45493</v>
+      </c>
+      <c r="B415" t="s">
+        <v>403</v>
+      </c>
+      <c r="C415" t="s">
+        <v>10</v>
+      </c>
+      <c r="D415" t="s">
+        <v>363</v>
+      </c>
+      <c r="E415" t="s">
+        <v>22</v>
+      </c>
+      <c r="F415" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="416" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A416" s="3">
+        <v>45494</v>
+      </c>
+      <c r="B416" t="s">
+        <v>12</v>
+      </c>
+      <c r="C416" t="s">
+        <v>404</v>
+      </c>
+      <c r="D416" t="s">
+        <v>363</v>
+      </c>
+      <c r="E416" t="s">
+        <v>22</v>
+      </c>
+      <c r="F416" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="417" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A417" s="3">
+        <v>45494</v>
+      </c>
+      <c r="B417" t="s">
+        <v>404</v>
+      </c>
+      <c r="C417" t="s">
+        <v>267</v>
+      </c>
+      <c r="D417" t="s">
+        <v>363</v>
+      </c>
+      <c r="E417" t="s">
+        <v>22</v>
+      </c>
+      <c r="F417" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="418" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A418" s="3">
+        <v>45494</v>
+      </c>
+      <c r="B418" t="s">
+        <v>267</v>
+      </c>
+      <c r="C418" t="s">
+        <v>10</v>
+      </c>
+      <c r="D418" t="s">
+        <v>363</v>
+      </c>
+      <c r="E418" t="s">
+        <v>22</v>
+      </c>
+      <c r="F418" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="419" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A419" s="3">
+        <v>45495</v>
+      </c>
+      <c r="B419" t="s">
+        <v>12</v>
+      </c>
+      <c r="C419" t="s">
+        <v>398</v>
+      </c>
+      <c r="D419" t="s">
+        <v>363</v>
+      </c>
+      <c r="E419" t="s">
+        <v>22</v>
+      </c>
+      <c r="F419" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="420" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A420" s="3">
+        <v>45495</v>
+      </c>
+      <c r="B420" t="s">
+        <v>67</v>
+      </c>
+      <c r="C420" t="s">
+        <v>405</v>
+      </c>
+      <c r="D420" t="s">
+        <v>363</v>
+      </c>
+      <c r="E420" t="s">
+        <v>22</v>
+      </c>
+      <c r="F420" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="421" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A421" s="3">
+        <v>45495</v>
+      </c>
+      <c r="B421" t="s">
+        <v>405</v>
+      </c>
+      <c r="C421" t="s">
+        <v>406</v>
+      </c>
+      <c r="D421" t="s">
+        <v>363</v>
+      </c>
+      <c r="E421" t="s">
+        <v>22</v>
+      </c>
+      <c r="F421" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="422" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A422" s="3">
+        <v>45495</v>
+      </c>
+      <c r="B422" t="s">
+        <v>406</v>
+      </c>
+      <c r="C422" t="s">
+        <v>185</v>
+      </c>
+      <c r="D422" t="s">
+        <v>363</v>
+      </c>
+      <c r="E422" t="s">
+        <v>22</v>
+      </c>
+      <c r="F422" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="423" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A423" s="3">
+        <v>45495</v>
+      </c>
+      <c r="B423" t="s">
+        <v>407</v>
+      </c>
+      <c r="C423" t="s">
+        <v>10</v>
+      </c>
+      <c r="D423" t="s">
+        <v>363</v>
+      </c>
+      <c r="E423" t="s">
+        <v>8</v>
+      </c>
+      <c r="F423" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="424" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A424" s="3">
+        <v>45496</v>
+      </c>
+      <c r="B424" t="s">
+        <v>12</v>
+      </c>
+      <c r="C424" t="s">
+        <v>408</v>
+      </c>
+      <c r="D424" t="s">
+        <v>363</v>
+      </c>
+      <c r="E424" t="s">
+        <v>8</v>
+      </c>
+      <c r="F424" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="425" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A425" s="3">
+        <v>45496</v>
+      </c>
+      <c r="B425" t="s">
+        <v>408</v>
+      </c>
+      <c r="C425" t="s">
+        <v>409</v>
+      </c>
+      <c r="D425" t="s">
+        <v>363</v>
+      </c>
+      <c r="E425" t="s">
+        <v>22</v>
+      </c>
+      <c r="F425" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="426" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A426" s="3">
+        <v>45496</v>
+      </c>
+      <c r="B426" t="s">
+        <v>409</v>
+      </c>
+      <c r="C426" t="s">
+        <v>359</v>
+      </c>
+      <c r="D426" t="s">
+        <v>363</v>
+      </c>
+      <c r="E426" t="s">
+        <v>26</v>
+      </c>
+      <c r="F426" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="427" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A427" s="3">
+        <v>45496</v>
+      </c>
+      <c r="B427" t="s">
+        <v>359</v>
+      </c>
+      <c r="C427" t="s">
+        <v>10</v>
+      </c>
+      <c r="D427" t="s">
+        <v>363</v>
+      </c>
+      <c r="E427" t="s">
+        <v>22</v>
+      </c>
+      <c r="F427" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="428" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A428" s="3">
+        <v>45497</v>
+      </c>
+      <c r="B428" t="s">
+        <v>12</v>
+      </c>
+      <c r="C428" t="s">
+        <v>354</v>
+      </c>
+      <c r="D428" t="s">
+        <v>363</v>
+      </c>
+      <c r="E428" t="s">
+        <v>22</v>
+      </c>
+      <c r="F428" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="429" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A429" s="3">
+        <v>45497</v>
+      </c>
+      <c r="B429" t="s">
+        <v>354</v>
+      </c>
+      <c r="C429" t="s">
+        <v>10</v>
+      </c>
+      <c r="D429" t="s">
+        <v>363</v>
+      </c>
+      <c r="E429" t="s">
+        <v>22</v>
+      </c>
+      <c r="F429" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="430" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A430" s="3">
+        <v>45498</v>
+      </c>
+      <c r="B430" t="s">
+        <v>12</v>
+      </c>
+      <c r="C430" t="s">
+        <v>231</v>
+      </c>
+      <c r="D430" t="s">
+        <v>363</v>
+      </c>
+      <c r="E430" t="s">
+        <v>22</v>
+      </c>
+      <c r="F430" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="431" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A431" s="3">
+        <v>45498</v>
+      </c>
+      <c r="B431" t="s">
+        <v>231</v>
+      </c>
+      <c r="C431" t="s">
+        <v>410</v>
+      </c>
+      <c r="D431" t="s">
+        <v>363</v>
+      </c>
+      <c r="E431" t="s">
+        <v>8</v>
+      </c>
+      <c r="F431" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="432" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A432" s="3">
+        <v>45498</v>
+      </c>
+      <c r="B432" t="s">
+        <v>411</v>
+      </c>
+      <c r="C432" t="s">
+        <v>412</v>
+      </c>
+      <c r="D432" t="s">
+        <v>363</v>
+      </c>
+      <c r="E432" t="s">
+        <v>22</v>
+      </c>
+      <c r="F432" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="433" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A433" s="3">
+        <v>45498</v>
+      </c>
+      <c r="B433" t="s">
+        <v>412</v>
+      </c>
+      <c r="C433" t="s">
+        <v>10</v>
+      </c>
+      <c r="D433" t="s">
+        <v>363</v>
+      </c>
+      <c r="E433" t="s">
+        <v>8</v>
+      </c>
+      <c r="F433" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\N9635226\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38D5228E-8C64-4C50-A030-CEE314DA867E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC028825-6A4E-4AA1-B5B9-AC0CD4963AE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2160" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2240" uniqueCount="425">
   <si>
     <t>Date</t>
   </si>
@@ -1283,6 +1283,42 @@
   </si>
   <si>
     <t>17:52:00</t>
+  </si>
+  <si>
+    <t>15:25:00</t>
+  </si>
+  <si>
+    <t>15:04:00</t>
+  </si>
+  <si>
+    <t>16:45:00</t>
+  </si>
+  <si>
+    <t>16:47:00</t>
+  </si>
+  <si>
+    <t>17:39:00</t>
+  </si>
+  <si>
+    <t>23:08:00</t>
+  </si>
+  <si>
+    <t>03:45:00</t>
+  </si>
+  <si>
+    <t>17:15:00</t>
+  </si>
+  <si>
+    <t>16:32:00</t>
+  </si>
+  <si>
+    <t>18:04:00</t>
+  </si>
+  <si>
+    <t>18:29:00</t>
+  </si>
+  <si>
+    <t>23:31:00</t>
   </si>
 </sst>
 </file>
@@ -1673,22 +1709,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F433"/>
+  <dimension ref="A1:F449"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A412" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="F217" sqref="F217"/>
+    <sheetView tabSelected="1" topLeftCell="A433" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="A434" sqref="A434:F449"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="8.875" style="5"/>
-    <col min="4" max="4" width="14.375" customWidth="1"/>
-    <col min="5" max="5" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="8.88671875" style="5"/>
+    <col min="4" max="4" width="14.33203125" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1708,7 +1744,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>45406</v>
       </c>
@@ -1728,7 +1764,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>45406</v>
       </c>
@@ -1748,7 +1784,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>45407</v>
       </c>
@@ -1768,7 +1804,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>45407</v>
       </c>
@@ -1788,7 +1824,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>45408</v>
       </c>
@@ -1808,7 +1844,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>45408</v>
       </c>
@@ -1828,7 +1864,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>45408</v>
       </c>
@@ -1848,7 +1884,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>45409</v>
       </c>
@@ -1868,7 +1904,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>45409</v>
       </c>
@@ -1888,7 +1924,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>45409</v>
       </c>
@@ -1908,7 +1944,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>45409</v>
       </c>
@@ -1928,7 +1964,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>45409</v>
       </c>
@@ -1948,7 +1984,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>45409</v>
       </c>
@@ -1968,7 +2004,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>45409</v>
       </c>
@@ -1988,7 +2024,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>45410</v>
       </c>
@@ -2008,7 +2044,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>45410</v>
       </c>
@@ -2028,7 +2064,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>45410</v>
       </c>
@@ -2048,7 +2084,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>45410</v>
       </c>
@@ -2068,7 +2104,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>45410</v>
       </c>
@@ -2088,7 +2124,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>45410</v>
       </c>
@@ -2108,7 +2144,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>45410</v>
       </c>
@@ -2128,7 +2164,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>45411</v>
       </c>
@@ -2148,7 +2184,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>45411</v>
       </c>
@@ -2168,7 +2204,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>45412</v>
       </c>
@@ -2188,7 +2224,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>45412</v>
       </c>
@@ -2208,7 +2244,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>45412</v>
       </c>
@@ -2228,7 +2264,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>45413</v>
       </c>
@@ -2248,7 +2284,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>45414</v>
       </c>
@@ -2268,7 +2304,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>45415</v>
       </c>
@@ -2288,7 +2324,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>45415</v>
       </c>
@@ -2308,7 +2344,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>45415</v>
       </c>
@@ -2328,7 +2364,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>45415</v>
       </c>
@@ -2348,7 +2384,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>45415</v>
       </c>
@@ -2368,7 +2404,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>45415</v>
       </c>
@@ -2388,7 +2424,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>45415</v>
       </c>
@@ -2408,7 +2444,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>45416</v>
       </c>
@@ -2428,7 +2464,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>45416</v>
       </c>
@@ -2448,7 +2484,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>45416</v>
       </c>
@@ -2468,7 +2504,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>45417</v>
       </c>
@@ -2488,7 +2524,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>45417</v>
       </c>
@@ -2508,7 +2544,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>45417</v>
       </c>
@@ -2528,7 +2564,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>45417</v>
       </c>
@@ -2548,7 +2584,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>45417</v>
       </c>
@@ -2568,7 +2604,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>45418</v>
       </c>
@@ -2588,7 +2624,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>45418</v>
       </c>
@@ -2608,7 +2644,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>45418</v>
       </c>
@@ -2628,7 +2664,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>45418</v>
       </c>
@@ -2648,7 +2684,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>45419</v>
       </c>
@@ -2668,7 +2704,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <v>45419</v>
       </c>
@@ -2688,7 +2724,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
         <v>45419</v>
       </c>
@@ -2708,7 +2744,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
         <v>45419</v>
       </c>
@@ -2728,7 +2764,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
         <v>45419</v>
       </c>
@@ -2748,7 +2784,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
         <v>45419</v>
       </c>
@@ -2768,7 +2804,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
         <v>45419</v>
       </c>
@@ -2788,7 +2824,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
         <v>45419</v>
       </c>
@@ -2808,7 +2844,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
         <v>45419</v>
       </c>
@@ -2828,7 +2864,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
         <v>45420</v>
       </c>
@@ -2848,7 +2884,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
         <v>45420</v>
       </c>
@@ -2868,7 +2904,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
         <v>45421</v>
       </c>
@@ -2888,7 +2924,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
         <v>45421</v>
       </c>
@@ -2908,7 +2944,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="3">
         <v>45421</v>
       </c>
@@ -2928,7 +2964,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="3">
         <v>45421</v>
       </c>
@@ -2948,7 +2984,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="3">
         <v>45421</v>
       </c>
@@ -2968,7 +3004,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="3">
         <v>45421</v>
       </c>
@@ -2988,7 +3024,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="3">
         <v>45421</v>
       </c>
@@ -3008,7 +3044,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="3">
         <v>45422</v>
       </c>
@@ -3028,7 +3064,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="3">
         <v>45422</v>
       </c>
@@ -3048,7 +3084,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="3">
         <v>45422</v>
       </c>
@@ -3068,7 +3104,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="3">
         <v>45422</v>
       </c>
@@ -3088,7 +3124,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="3">
         <v>45422</v>
       </c>
@@ -3108,7 +3144,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="3">
         <v>45422</v>
       </c>
@@ -3128,7 +3164,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="3">
         <v>45422</v>
       </c>
@@ -3148,7 +3184,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="3">
         <v>45422</v>
       </c>
@@ -3168,7 +3204,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="3">
         <v>45422</v>
       </c>
@@ -3188,7 +3224,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="3">
         <v>45423</v>
       </c>
@@ -3208,7 +3244,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="3">
         <v>45423</v>
       </c>
@@ -3228,7 +3264,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="3">
         <v>45423</v>
       </c>
@@ -3248,7 +3284,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="3">
         <v>45423</v>
       </c>
@@ -3268,7 +3304,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="3">
         <v>45424</v>
       </c>
@@ -3288,7 +3324,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="3">
         <v>45424</v>
       </c>
@@ -3308,7 +3344,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="3">
         <v>45424</v>
       </c>
@@ -3328,7 +3364,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="3">
         <v>45424</v>
       </c>
@@ -3348,7 +3384,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="3">
         <v>45424</v>
       </c>
@@ -3368,7 +3404,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="3">
         <v>45424</v>
       </c>
@@ -3388,7 +3424,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="3">
         <v>45424</v>
       </c>
@@ -3408,7 +3444,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="3">
         <v>45424</v>
       </c>
@@ -3428,7 +3464,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="3">
         <v>45424</v>
       </c>
@@ -3448,7 +3484,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="3">
         <v>45424</v>
       </c>
@@ -3468,7 +3504,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="3">
         <v>45424</v>
       </c>
@@ -3488,7 +3524,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" s="3">
         <v>45425</v>
       </c>
@@ -3508,7 +3544,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" s="3">
         <v>45425</v>
       </c>
@@ -3528,7 +3564,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="3">
         <v>45425</v>
       </c>
@@ -3548,7 +3584,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" s="3">
         <v>45426</v>
       </c>
@@ -3568,7 +3604,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" s="3">
         <v>45427</v>
       </c>
@@ -3588,7 +3624,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" s="3">
         <v>45428</v>
       </c>
@@ -3608,7 +3644,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" s="3">
         <v>45428</v>
       </c>
@@ -3628,7 +3664,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" s="3">
         <v>45428</v>
       </c>
@@ -3648,7 +3684,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" s="3">
         <v>45429</v>
       </c>
@@ -3668,7 +3704,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" s="3">
         <v>45429</v>
       </c>
@@ -3688,7 +3724,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" s="3">
         <v>45429</v>
       </c>
@@ -3708,7 +3744,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" s="3">
         <v>45429</v>
       </c>
@@ -3728,7 +3764,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" s="3">
         <v>45430</v>
       </c>
@@ -3748,7 +3784,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" s="3">
         <v>45430</v>
       </c>
@@ -3768,7 +3804,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" s="3">
         <v>45430</v>
       </c>
@@ -3788,7 +3824,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" s="3">
         <v>45431</v>
       </c>
@@ -3808,7 +3844,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" s="3">
         <v>45431</v>
       </c>
@@ -3828,7 +3864,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" s="3">
         <v>45431</v>
       </c>
@@ -3848,7 +3884,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" s="3">
         <v>45431</v>
       </c>
@@ -3868,7 +3904,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" s="3">
         <v>45431</v>
       </c>
@@ -3888,7 +3924,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" s="3">
         <v>45431</v>
       </c>
@@ -3908,7 +3944,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" s="3">
         <v>45431</v>
       </c>
@@ -3928,7 +3964,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" s="3">
         <v>45431</v>
       </c>
@@ -3948,7 +3984,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" s="3">
         <v>45431</v>
       </c>
@@ -3968,7 +4004,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" s="3">
         <v>45431</v>
       </c>
@@ -3988,7 +4024,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" s="3">
         <v>45431</v>
       </c>
@@ -4008,7 +4044,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" s="3">
         <v>45431</v>
       </c>
@@ -4028,7 +4064,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" s="3">
         <v>45432</v>
       </c>
@@ -4048,7 +4084,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" s="3">
         <v>45432</v>
       </c>
@@ -4068,7 +4104,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" s="3">
         <v>45432</v>
       </c>
@@ -4088,7 +4124,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" s="3">
         <v>45433</v>
       </c>
@@ -4108,7 +4144,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" s="3">
         <v>45433</v>
       </c>
@@ -4128,7 +4164,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" s="3">
         <v>45433</v>
       </c>
@@ -4148,7 +4184,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" s="3">
         <v>45433</v>
       </c>
@@ -4168,7 +4204,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" s="3">
         <v>45433</v>
       </c>
@@ -4188,7 +4224,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" s="3">
         <v>45433</v>
       </c>
@@ -4208,7 +4244,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" s="3">
         <v>45433</v>
       </c>
@@ -4228,7 +4264,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" s="3">
         <v>45433</v>
       </c>
@@ -4248,7 +4284,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" s="3">
         <v>45434</v>
       </c>
@@ -4268,7 +4304,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" s="3">
         <v>45434</v>
       </c>
@@ -4288,7 +4324,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" s="3">
         <v>45434</v>
       </c>
@@ -4308,7 +4344,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" s="3">
         <v>45435</v>
       </c>
@@ -4328,7 +4364,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" s="3">
         <v>45435</v>
       </c>
@@ -4348,7 +4384,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" s="3">
         <v>45435</v>
       </c>
@@ -4368,7 +4404,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" s="3">
         <v>45435</v>
       </c>
@@ -4388,7 +4424,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" s="3">
         <v>45435</v>
       </c>
@@ -4408,7 +4444,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" s="3">
         <v>45436</v>
       </c>
@@ -4428,7 +4464,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" s="3">
         <v>45436</v>
       </c>
@@ -4448,7 +4484,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" s="3">
         <v>45436</v>
       </c>
@@ -4468,7 +4504,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" s="3">
         <v>45437</v>
       </c>
@@ -4488,7 +4524,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" s="3">
         <v>45437</v>
       </c>
@@ -4508,7 +4544,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142" s="3">
         <v>45437</v>
       </c>
@@ -4528,7 +4564,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" s="3">
         <v>45437</v>
       </c>
@@ -4548,7 +4584,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" s="3">
         <v>45437</v>
       </c>
@@ -4568,7 +4604,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" s="3">
         <v>45438</v>
       </c>
@@ -4588,7 +4624,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" s="3">
         <v>45438</v>
       </c>
@@ -4608,7 +4644,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" s="3">
         <v>45438</v>
       </c>
@@ -4628,7 +4664,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" s="3">
         <v>45438</v>
       </c>
@@ -4648,7 +4684,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" s="3">
         <v>45438</v>
       </c>
@@ -4668,7 +4704,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" s="3">
         <v>45438</v>
       </c>
@@ -4688,7 +4724,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" s="3">
         <v>45439</v>
       </c>
@@ -4708,7 +4744,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152" s="3">
         <v>45439</v>
       </c>
@@ -4728,7 +4764,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153" s="3">
         <v>45439</v>
       </c>
@@ -4748,7 +4784,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154" s="3">
         <v>45440</v>
       </c>
@@ -4768,7 +4804,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155" s="3">
         <v>45440</v>
       </c>
@@ -4788,7 +4824,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156" s="3">
         <v>45440</v>
       </c>
@@ -4808,7 +4844,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157" s="3">
         <v>45440</v>
       </c>
@@ -4828,7 +4864,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158" s="3">
         <v>45441</v>
       </c>
@@ -4848,7 +4884,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159" s="3">
         <v>45441</v>
       </c>
@@ -4868,7 +4904,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160" s="3">
         <v>45441</v>
       </c>
@@ -4888,7 +4924,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161" s="3">
         <v>45442</v>
       </c>
@@ -4908,7 +4944,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162" s="3">
         <v>45442</v>
       </c>
@@ -4928,7 +4964,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163" s="3">
         <v>45442</v>
       </c>
@@ -4948,7 +4984,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A164" s="3">
         <v>45442</v>
       </c>
@@ -4968,7 +5004,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A165" s="3">
         <v>45442</v>
       </c>
@@ -4988,7 +5024,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A166" s="3">
         <v>45442</v>
       </c>
@@ -5008,7 +5044,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A167" s="3">
         <v>45442</v>
       </c>
@@ -5028,7 +5064,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A168" s="3">
         <v>45442</v>
       </c>
@@ -5048,7 +5084,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A169" s="3">
         <v>45442</v>
       </c>
@@ -5068,7 +5104,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A170" s="3">
         <v>45442</v>
       </c>
@@ -5088,7 +5124,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A171" s="3">
         <v>45442</v>
       </c>
@@ -5108,7 +5144,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A172" s="3">
         <v>45443</v>
       </c>
@@ -5128,7 +5164,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A173" s="3">
         <v>45443</v>
       </c>
@@ -5148,7 +5184,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A174" s="3">
         <v>45443</v>
       </c>
@@ -5168,7 +5204,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A175" s="3">
         <v>45443</v>
       </c>
@@ -5188,7 +5224,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A176" s="3">
         <v>45443</v>
       </c>
@@ -5208,7 +5244,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A177" s="3">
         <v>45443</v>
       </c>
@@ -5228,7 +5264,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A178" s="3">
         <v>45443</v>
       </c>
@@ -5248,7 +5284,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A179" s="3">
         <v>45443</v>
       </c>
@@ -5268,7 +5304,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A180" s="3">
         <v>45443</v>
       </c>
@@ -5288,7 +5324,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A181" s="3">
         <v>45443</v>
       </c>
@@ -5308,7 +5344,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A182" s="3">
         <v>45443</v>
       </c>
@@ -5328,7 +5364,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A183" s="3">
         <v>45443</v>
       </c>
@@ -5348,7 +5384,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A184" s="3">
         <v>45443</v>
       </c>
@@ -5368,7 +5404,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A185" s="3">
         <v>45443</v>
       </c>
@@ -5388,7 +5424,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A186" s="3">
         <v>45443</v>
       </c>
@@ -5408,7 +5444,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A187" s="3">
         <v>45444</v>
       </c>
@@ -5428,7 +5464,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A188" s="3">
         <v>45444</v>
       </c>
@@ -5448,7 +5484,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A189" s="3">
         <v>45444</v>
       </c>
@@ -5468,7 +5504,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A190" s="3">
         <v>45444</v>
       </c>
@@ -5488,7 +5524,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A191" s="3">
         <v>45444</v>
       </c>
@@ -5508,7 +5544,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A192" s="3">
         <v>45444</v>
       </c>
@@ -5528,7 +5564,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A193" s="3">
         <v>45444</v>
       </c>
@@ -5548,7 +5584,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A194" s="3">
         <v>45445</v>
       </c>
@@ -5568,7 +5604,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A195" s="3">
         <v>45445</v>
       </c>
@@ -5588,7 +5624,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A196" s="3">
         <v>45445</v>
       </c>
@@ -5608,7 +5644,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A197" s="3">
         <v>45445</v>
       </c>
@@ -5628,7 +5664,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A198" s="3">
         <v>45445</v>
       </c>
@@ -5648,7 +5684,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A199" s="3">
         <v>45445</v>
       </c>
@@ -5668,7 +5704,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A200" s="3">
         <v>45446</v>
       </c>
@@ -5688,7 +5724,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A201" s="3">
         <v>45447</v>
       </c>
@@ -5708,7 +5744,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A202" s="3">
         <v>45448</v>
       </c>
@@ -5728,7 +5764,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A203" s="3">
         <v>45448</v>
       </c>
@@ -5748,7 +5784,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A204" s="3">
         <v>45448</v>
       </c>
@@ -5768,7 +5804,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A205" s="3">
         <v>45449</v>
       </c>
@@ -5788,7 +5824,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A206" s="3">
         <v>45449</v>
       </c>
@@ -5808,7 +5844,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A207" s="3">
         <v>45449</v>
       </c>
@@ -5828,7 +5864,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A208" s="3">
         <v>45450</v>
       </c>
@@ -5848,7 +5884,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A209" s="3">
         <v>45450</v>
       </c>
@@ -5868,7 +5904,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A210" s="3">
         <v>45451</v>
       </c>
@@ -5888,7 +5924,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A211" s="3">
         <v>45451</v>
       </c>
@@ -5908,7 +5944,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A212" s="3">
         <v>45451</v>
       </c>
@@ -5928,7 +5964,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A213" s="3">
         <v>45451</v>
       </c>
@@ -5948,7 +5984,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A214" s="3">
         <v>45452</v>
       </c>
@@ -5968,7 +6004,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A215" s="3">
         <v>45452</v>
       </c>
@@ -5988,7 +6024,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A216" s="3">
         <v>45452</v>
       </c>
@@ -6008,7 +6044,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A217" s="3">
         <v>45452</v>
       </c>
@@ -6028,7 +6064,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A218" s="3">
         <v>45452</v>
       </c>
@@ -6048,7 +6084,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A219" s="3">
         <v>45452</v>
       </c>
@@ -6068,7 +6104,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A220" s="3">
         <v>45452</v>
       </c>
@@ -6088,7 +6124,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A221" s="3">
         <v>45453</v>
       </c>
@@ -6108,7 +6144,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A222" s="3">
         <v>45453</v>
       </c>
@@ -6128,7 +6164,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A223" s="3">
         <v>45453</v>
       </c>
@@ -6148,7 +6184,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A224" s="3">
         <v>45454</v>
       </c>
@@ -6168,7 +6204,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A225" s="3">
         <v>45454</v>
       </c>
@@ -6188,7 +6224,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A226" s="3">
         <v>45454</v>
       </c>
@@ -6208,7 +6244,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A227" s="3">
         <v>45454</v>
       </c>
@@ -6228,7 +6264,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A228" s="3">
         <v>45454</v>
       </c>
@@ -6248,7 +6284,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A229" s="3">
         <v>45454</v>
       </c>
@@ -6268,7 +6304,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A230" s="3">
         <v>45455</v>
       </c>
@@ -6288,7 +6324,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A231" s="3">
         <v>45455</v>
       </c>
@@ -6308,7 +6344,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A232" s="3">
         <v>45455</v>
       </c>
@@ -6328,7 +6364,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A233" s="3">
         <v>45455</v>
       </c>
@@ -6348,7 +6384,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A234" s="3">
         <v>45455</v>
       </c>
@@ -6368,7 +6404,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A235" s="3">
         <v>45456</v>
       </c>
@@ -6388,7 +6424,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A236" s="3">
         <v>45456</v>
       </c>
@@ -6408,7 +6444,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A237" s="3">
         <v>45456</v>
       </c>
@@ -6428,7 +6464,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A238" s="3">
         <v>45456</v>
       </c>
@@ -6448,7 +6484,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A239" s="3">
         <v>45456</v>
       </c>
@@ -6468,7 +6504,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A240" s="3">
         <v>45457</v>
       </c>
@@ -6488,7 +6524,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A241" s="3">
         <v>45458</v>
       </c>
@@ -6508,7 +6544,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A242" s="3">
         <v>45458</v>
       </c>
@@ -6528,7 +6564,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A243" s="3">
         <v>45458</v>
       </c>
@@ -6548,7 +6584,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A244" s="3">
         <v>45458</v>
       </c>
@@ -6568,7 +6604,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A245" s="3">
         <v>45458</v>
       </c>
@@ -6588,7 +6624,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A246" s="3">
         <v>45458</v>
       </c>
@@ -6608,7 +6644,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A247" s="3">
         <v>45458</v>
       </c>
@@ -6628,7 +6664,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A248" s="3">
         <v>45459</v>
       </c>
@@ -6648,7 +6684,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A249" s="3">
         <v>45459</v>
       </c>
@@ -6668,7 +6704,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A250" s="3">
         <v>45459</v>
       </c>
@@ -6688,7 +6724,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A251" s="3">
         <v>45459</v>
       </c>
@@ -6708,7 +6744,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A252" s="3">
         <v>45459</v>
       </c>
@@ -6728,7 +6764,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A253" s="3">
         <v>45460</v>
       </c>
@@ -6748,7 +6784,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A254" s="3">
         <v>45460</v>
       </c>
@@ -6768,7 +6804,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A255" s="3">
         <v>45461</v>
       </c>
@@ -6788,7 +6824,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A256" s="3">
         <v>45461</v>
       </c>
@@ -6808,7 +6844,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A257" s="3">
         <v>45461</v>
       </c>
@@ -6828,7 +6864,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A258" s="3">
         <v>45461</v>
       </c>
@@ -6848,7 +6884,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A259" s="3">
         <v>45461</v>
       </c>
@@ -6868,7 +6904,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A260" s="3">
         <v>45462</v>
       </c>
@@ -6888,7 +6924,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A261" s="3">
         <v>45462</v>
       </c>
@@ -6908,7 +6944,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A262" s="3">
         <v>45462</v>
       </c>
@@ -6928,7 +6964,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A263" s="3">
         <v>45462</v>
       </c>
@@ -6948,7 +6984,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A264" s="3">
         <v>45462</v>
       </c>
@@ -6968,7 +7004,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A265" s="3">
         <v>45462</v>
       </c>
@@ -6988,7 +7024,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A266" s="3">
         <v>45462</v>
       </c>
@@ -7008,7 +7044,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A267" s="3">
         <v>45462</v>
       </c>
@@ -7028,7 +7064,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A268" s="3">
         <v>45462</v>
       </c>
@@ -7048,7 +7084,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A269" s="3">
         <v>45463</v>
       </c>
@@ -7068,7 +7104,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A270" s="3">
         <v>45463</v>
       </c>
@@ -7088,7 +7124,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A271" s="3">
         <v>45463</v>
       </c>
@@ -7108,7 +7144,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A272" s="3">
         <v>45464</v>
       </c>
@@ -7128,7 +7164,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A273" s="3">
         <v>45465</v>
       </c>
@@ -7148,7 +7184,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A274" s="3">
         <v>45465</v>
       </c>
@@ -7168,7 +7204,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A275" s="3">
         <v>45465</v>
       </c>
@@ -7188,7 +7224,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A276" s="3">
         <v>45465</v>
       </c>
@@ -7208,7 +7244,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A277" s="3">
         <v>45465</v>
       </c>
@@ -7228,7 +7264,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A278" s="3">
         <v>45465</v>
       </c>
@@ -7248,7 +7284,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A279" s="3">
         <v>45465</v>
       </c>
@@ -7268,7 +7304,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A280" s="3">
         <v>45465</v>
       </c>
@@ -7288,7 +7324,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A281" s="3">
         <v>45466</v>
       </c>
@@ -7308,7 +7344,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A282" s="3">
         <v>45466</v>
       </c>
@@ -7328,7 +7364,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A283" s="3">
         <v>45467</v>
       </c>
@@ -7348,7 +7384,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A284" s="3">
         <v>45467</v>
       </c>
@@ -7368,7 +7404,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A285" s="3">
         <v>45467</v>
       </c>
@@ -7388,7 +7424,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A286" s="3">
         <v>45467</v>
       </c>
@@ -7408,7 +7444,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A287" s="3">
         <v>45467</v>
       </c>
@@ -7428,7 +7464,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A288" s="3">
         <v>45467</v>
       </c>
@@ -7448,7 +7484,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A289" s="3">
         <v>45467</v>
       </c>
@@ -7468,7 +7504,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A290" s="3">
         <v>45467</v>
       </c>
@@ -7488,7 +7524,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A291" s="3">
         <v>45468</v>
       </c>
@@ -7508,7 +7544,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A292" s="3">
         <v>45468</v>
       </c>
@@ -7528,7 +7564,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A293" s="3">
         <v>45468</v>
       </c>
@@ -7548,7 +7584,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A294" s="3">
         <v>45468</v>
       </c>
@@ -7568,7 +7604,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A295" s="3">
         <v>45469</v>
       </c>
@@ -7588,7 +7624,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A296" s="3">
         <v>45469</v>
       </c>
@@ -7608,7 +7644,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A297" s="3">
         <v>45469</v>
       </c>
@@ -7628,7 +7664,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A298" s="3">
         <v>45470</v>
       </c>
@@ -7648,7 +7684,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A299" s="3">
         <v>45470</v>
       </c>
@@ -7668,7 +7704,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A300" s="3">
         <v>45470</v>
       </c>
@@ -7688,7 +7724,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A301" s="3">
         <v>45470</v>
       </c>
@@ -7708,7 +7744,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A302" s="3">
         <v>45470</v>
       </c>
@@ -7728,7 +7764,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A303" s="3">
         <v>45471</v>
       </c>
@@ -7748,7 +7784,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A304" s="3">
         <v>45471</v>
       </c>
@@ -7768,7 +7804,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A305" s="3">
         <v>45471</v>
       </c>
@@ -7788,7 +7824,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A306" s="3">
         <v>45471</v>
       </c>
@@ -7808,7 +7844,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A307" s="3">
         <v>45471</v>
       </c>
@@ -7828,7 +7864,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A308" s="3">
         <v>45471</v>
       </c>
@@ -7848,7 +7884,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A309" s="3">
         <v>45471</v>
       </c>
@@ -7868,7 +7904,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A310" s="3">
         <v>45471</v>
       </c>
@@ -7888,7 +7924,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A311" s="3">
         <v>45472</v>
       </c>
@@ -7908,7 +7944,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A312" s="3">
         <v>45472</v>
       </c>
@@ -7928,7 +7964,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A313" s="3">
         <v>45472</v>
       </c>
@@ -7948,7 +7984,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A314" s="3">
         <v>45472</v>
       </c>
@@ -7968,7 +8004,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A315" s="3">
         <v>45472</v>
       </c>
@@ -7988,7 +8024,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A316" s="3">
         <v>45472</v>
       </c>
@@ -8008,7 +8044,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A317" s="3">
         <v>45472</v>
       </c>
@@ -8028,7 +8064,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A318" s="3">
         <v>45472</v>
       </c>
@@ -8048,7 +8084,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A319" s="3">
         <v>45473</v>
       </c>
@@ -8068,7 +8104,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A320" s="3">
         <v>45473</v>
       </c>
@@ -8088,7 +8124,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A321" s="3">
         <v>45473</v>
       </c>
@@ -8108,7 +8144,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A322" s="3">
         <v>45473</v>
       </c>
@@ -8128,7 +8164,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A323" s="3">
         <v>45473</v>
       </c>
@@ -8148,7 +8184,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A324" s="3">
         <v>45473</v>
       </c>
@@ -8168,7 +8204,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A325" s="3">
         <v>45474</v>
       </c>
@@ -8188,7 +8224,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A326" s="3">
         <v>45474</v>
       </c>
@@ -8208,7 +8244,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A327" s="3">
         <v>45475</v>
       </c>
@@ -8228,7 +8264,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A328" s="3">
         <v>45476</v>
       </c>
@@ -8248,7 +8284,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A329" s="3">
         <v>45476</v>
       </c>
@@ -8268,7 +8304,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A330" s="3">
         <v>45476</v>
       </c>
@@ -8288,7 +8324,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A331" s="3">
         <v>45477</v>
       </c>
@@ -8308,7 +8344,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A332" s="3">
         <v>45477</v>
       </c>
@@ -8328,7 +8364,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="333" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A333" s="3">
         <v>45477</v>
       </c>
@@ -8348,7 +8384,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A334" s="3">
         <v>45477</v>
       </c>
@@ -8368,7 +8404,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="335" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A335" s="3">
         <v>45477</v>
       </c>
@@ -8388,7 +8424,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="336" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A336" s="3">
         <v>45477</v>
       </c>
@@ -8408,7 +8444,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A337" s="3">
         <v>45477</v>
       </c>
@@ -8428,7 +8464,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A338" s="3">
         <v>45477</v>
       </c>
@@ -8448,7 +8484,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="339" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A339" s="3">
         <v>45478</v>
       </c>
@@ -8468,7 +8504,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="340" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A340" s="3">
         <v>45478</v>
       </c>
@@ -8488,7 +8524,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A341" s="3">
         <v>45478</v>
       </c>
@@ -8508,7 +8544,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A342" s="3">
         <v>45479</v>
       </c>
@@ -8528,7 +8564,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A343" s="3">
         <v>45479</v>
       </c>
@@ -8548,7 +8584,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A344" s="3">
         <v>45479</v>
       </c>
@@ -8568,7 +8604,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="345" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A345" s="3">
         <v>45479</v>
       </c>
@@ -8588,7 +8624,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="346" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A346" s="3">
         <v>45480</v>
       </c>
@@ -8608,7 +8644,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="347" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A347" s="3">
         <v>45480</v>
       </c>
@@ -8628,7 +8664,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="348" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A348" s="3">
         <v>45480</v>
       </c>
@@ -8648,7 +8684,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="349" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A349" s="3">
         <v>45480</v>
       </c>
@@ -8668,7 +8704,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="350" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A350" s="3">
         <v>45480</v>
       </c>
@@ -8688,7 +8724,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="351" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A351" s="3">
         <v>45480</v>
       </c>
@@ -8708,7 +8744,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="352" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A352" s="3">
         <v>45481</v>
       </c>
@@ -8728,7 +8764,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="353" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A353" s="3">
         <v>45481</v>
       </c>
@@ -8748,7 +8784,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="354" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A354" s="3">
         <v>45481</v>
       </c>
@@ -8768,7 +8804,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="355" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A355" s="3">
         <v>45481</v>
       </c>
@@ -8788,7 +8824,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="356" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A356" s="3">
         <v>45481</v>
       </c>
@@ -8808,7 +8844,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="357" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A357" s="3">
         <v>45481</v>
       </c>
@@ -8828,7 +8864,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="358" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A358" s="3">
         <v>45481</v>
       </c>
@@ -8848,7 +8884,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="359" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A359" s="3">
         <v>45482</v>
       </c>
@@ -8868,7 +8904,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="360" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A360" s="3">
         <v>45482</v>
       </c>
@@ -8888,7 +8924,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="361" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A361" s="3">
         <v>45483</v>
       </c>
@@ -8908,7 +8944,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="362" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A362" s="3">
         <v>45483</v>
       </c>
@@ -8928,7 +8964,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="363" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A363" s="3">
         <v>45483</v>
       </c>
@@ -8948,7 +8984,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="364" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A364" s="3">
         <v>45483</v>
       </c>
@@ -8968,7 +9004,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="365" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A365" s="3">
         <v>45483</v>
       </c>
@@ -8988,7 +9024,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="366" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A366" s="3">
         <v>45484</v>
       </c>
@@ -9008,7 +9044,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="367" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A367" s="3">
         <v>45485</v>
       </c>
@@ -9028,7 +9064,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="368" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A368" s="3">
         <v>45485</v>
       </c>
@@ -9048,7 +9084,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="369" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A369" s="3">
         <v>45485</v>
       </c>
@@ -9068,7 +9104,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="370" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A370" s="3">
         <v>45486</v>
       </c>
@@ -9088,7 +9124,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="371" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A371" s="3">
         <v>45486</v>
       </c>
@@ -9108,7 +9144,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="372" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A372" s="3">
         <v>45486</v>
       </c>
@@ -9128,7 +9164,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="373" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A373" s="3">
         <v>45486</v>
       </c>
@@ -9148,7 +9184,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="374" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A374" s="3">
         <v>45486</v>
       </c>
@@ -9168,7 +9204,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="375" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A375" s="3">
         <v>45486</v>
       </c>
@@ -9188,7 +9224,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="376" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A376" s="3">
         <v>45486</v>
       </c>
@@ -9208,7 +9244,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="377" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A377" s="3">
         <v>45486</v>
       </c>
@@ -9228,7 +9264,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="378" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A378" s="3">
         <v>45487</v>
       </c>
@@ -9248,7 +9284,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="379" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A379" s="3">
         <v>45487</v>
       </c>
@@ -9268,7 +9304,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="380" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A380" s="3">
         <v>45487</v>
       </c>
@@ -9288,7 +9324,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="381" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A381" s="3">
         <v>45488</v>
       </c>
@@ -9308,7 +9344,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="382" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A382" s="3">
         <v>45488</v>
       </c>
@@ -9328,7 +9364,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="383" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A383" s="3">
         <v>45488</v>
       </c>
@@ -9348,7 +9384,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="384" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A384" s="3">
         <v>45488</v>
       </c>
@@ -9368,7 +9404,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="385" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A385" s="3">
         <v>45488</v>
       </c>
@@ -9388,7 +9424,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="386" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A386" s="3">
         <v>45488</v>
       </c>
@@ -9408,7 +9444,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="387" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A387" s="3">
         <v>45488</v>
       </c>
@@ -9428,7 +9464,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="388" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A388" s="3">
         <v>45488</v>
       </c>
@@ -9448,7 +9484,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="389" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A389" s="3">
         <v>45489</v>
       </c>
@@ -9468,7 +9504,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="390" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A390" s="3">
         <v>45489</v>
       </c>
@@ -9488,7 +9524,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="391" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A391" s="3">
         <v>45489</v>
       </c>
@@ -9508,7 +9544,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="392" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A392" s="3">
         <v>45489</v>
       </c>
@@ -9528,7 +9564,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="393" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A393" s="3">
         <v>45489</v>
       </c>
@@ -9548,7 +9584,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="394" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A394" s="3">
         <v>45489</v>
       </c>
@@ -9568,7 +9604,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="395" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A395" s="3">
         <v>45490</v>
       </c>
@@ -9588,7 +9624,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="396" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A396" s="3">
         <v>45490</v>
       </c>
@@ -9608,7 +9644,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="397" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A397" s="3">
         <v>45490</v>
       </c>
@@ -9628,7 +9664,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="398" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A398" s="3">
         <v>45490</v>
       </c>
@@ -9648,7 +9684,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="399" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A399" s="3">
         <v>45490</v>
       </c>
@@ -9668,7 +9704,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="400" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="400" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A400" s="3">
         <v>45490</v>
       </c>
@@ -9688,7 +9724,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="401" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A401" s="3">
         <v>45491</v>
       </c>
@@ -9708,7 +9744,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="402" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A402" s="3">
         <v>45491</v>
       </c>
@@ -9728,7 +9764,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="403" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A403" s="3">
         <v>45491</v>
       </c>
@@ -9748,7 +9784,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="404" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="404" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A404" s="3">
         <v>45491</v>
       </c>
@@ -9768,7 +9804,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="405" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A405" s="3">
         <v>45491</v>
       </c>
@@ -9788,7 +9824,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="406" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A406" s="3">
         <v>45492</v>
       </c>
@@ -9808,7 +9844,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="407" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A407" s="3">
         <v>45492</v>
       </c>
@@ -9828,7 +9864,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="408" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="408" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A408" s="3">
         <v>45492</v>
       </c>
@@ -9848,7 +9884,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="409" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="409" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A409" s="3">
         <v>45493</v>
       </c>
@@ -9868,7 +9904,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="410" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A410" s="3">
         <v>45493</v>
       </c>
@@ -9888,7 +9924,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="411" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="411" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A411" s="3">
         <v>45493</v>
       </c>
@@ -9908,7 +9944,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="412" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="412" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A412" s="3">
         <v>45493</v>
       </c>
@@ -9928,7 +9964,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="413" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="413" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A413" s="3">
         <v>45493</v>
       </c>
@@ -9948,7 +9984,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="414" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A414" s="3">
         <v>45493</v>
       </c>
@@ -9968,7 +10004,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="415" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="415" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A415" s="3">
         <v>45493</v>
       </c>
@@ -9988,7 +10024,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="416" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="416" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A416" s="3">
         <v>45494</v>
       </c>
@@ -10008,7 +10044,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="417" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="417" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A417" s="3">
         <v>45494</v>
       </c>
@@ -10028,7 +10064,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="418" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="418" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A418" s="3">
         <v>45494</v>
       </c>
@@ -10048,7 +10084,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="419" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="419" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A419" s="3">
         <v>45495</v>
       </c>
@@ -10068,7 +10104,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="420" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="420" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A420" s="3">
         <v>45495</v>
       </c>
@@ -10088,7 +10124,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="421" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="421" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A421" s="3">
         <v>45495</v>
       </c>
@@ -10108,7 +10144,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="422" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="422" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A422" s="3">
         <v>45495</v>
       </c>
@@ -10128,7 +10164,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="423" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="423" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A423" s="3">
         <v>45495</v>
       </c>
@@ -10148,7 +10184,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="424" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="424" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A424" s="3">
         <v>45496</v>
       </c>
@@ -10168,7 +10204,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="425" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="425" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A425" s="3">
         <v>45496</v>
       </c>
@@ -10188,7 +10224,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="426" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="426" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A426" s="3">
         <v>45496</v>
       </c>
@@ -10208,7 +10244,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="427" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="427" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A427" s="3">
         <v>45496</v>
       </c>
@@ -10228,7 +10264,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="428" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="428" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A428" s="3">
         <v>45497</v>
       </c>
@@ -10248,7 +10284,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="429" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="429" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A429" s="3">
         <v>45497</v>
       </c>
@@ -10268,7 +10304,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="430" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="430" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A430" s="3">
         <v>45498</v>
       </c>
@@ -10288,7 +10324,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="431" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="431" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A431" s="3">
         <v>45498</v>
       </c>
@@ -10308,7 +10344,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="432" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="432" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A432" s="3">
         <v>45498</v>
       </c>
@@ -10328,7 +10364,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="433" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="433" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A433" s="3">
         <v>45498</v>
       </c>
@@ -10346,6 +10382,326 @@
       </c>
       <c r="F433" t="s">
         <v>92</v>
+      </c>
+    </row>
+    <row r="434" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A434" s="3">
+        <v>45499</v>
+      </c>
+      <c r="B434" t="s">
+        <v>12</v>
+      </c>
+      <c r="C434" t="s">
+        <v>413</v>
+      </c>
+      <c r="D434" t="s">
+        <v>363</v>
+      </c>
+      <c r="E434" t="s">
+        <v>8</v>
+      </c>
+      <c r="F434" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="435" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A435" s="3">
+        <v>45499</v>
+      </c>
+      <c r="B435" t="s">
+        <v>414</v>
+      </c>
+      <c r="C435" t="s">
+        <v>415</v>
+      </c>
+      <c r="D435" t="s">
+        <v>363</v>
+      </c>
+      <c r="E435" t="s">
+        <v>22</v>
+      </c>
+      <c r="F435" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="436" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A436" s="3">
+        <v>45499</v>
+      </c>
+      <c r="B436" t="s">
+        <v>415</v>
+      </c>
+      <c r="C436" t="s">
+        <v>416</v>
+      </c>
+      <c r="D436" t="s">
+        <v>363</v>
+      </c>
+      <c r="E436" t="s">
+        <v>58</v>
+      </c>
+      <c r="F436" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="437" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A437" s="3">
+        <v>45499</v>
+      </c>
+      <c r="B437" t="s">
+        <v>416</v>
+      </c>
+      <c r="C437" t="s">
+        <v>417</v>
+      </c>
+      <c r="D437" t="s">
+        <v>363</v>
+      </c>
+      <c r="E437" t="s">
+        <v>58</v>
+      </c>
+      <c r="F437" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="438" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A438" s="3">
+        <v>45499</v>
+      </c>
+      <c r="B438" t="s">
+        <v>417</v>
+      </c>
+      <c r="C438" t="s">
+        <v>418</v>
+      </c>
+      <c r="D438" t="s">
+        <v>363</v>
+      </c>
+      <c r="E438" t="s">
+        <v>22</v>
+      </c>
+      <c r="F438" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="439" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A439" s="3">
+        <v>45499</v>
+      </c>
+      <c r="B439" t="s">
+        <v>308</v>
+      </c>
+      <c r="C439" t="s">
+        <v>10</v>
+      </c>
+      <c r="D439" t="s">
+        <v>363</v>
+      </c>
+      <c r="E439" t="s">
+        <v>22</v>
+      </c>
+      <c r="F439" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="440" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A440" s="3">
+        <v>45500</v>
+      </c>
+      <c r="B440" t="s">
+        <v>12</v>
+      </c>
+      <c r="C440" t="s">
+        <v>20</v>
+      </c>
+      <c r="D440" t="s">
+        <v>363</v>
+      </c>
+      <c r="E440" t="s">
+        <v>22</v>
+      </c>
+      <c r="F440" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="441" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A441" s="3">
+        <v>45500</v>
+      </c>
+      <c r="B441" t="s">
+        <v>20</v>
+      </c>
+      <c r="C441" t="s">
+        <v>309</v>
+      </c>
+      <c r="D441" t="s">
+        <v>363</v>
+      </c>
+      <c r="E441" t="s">
+        <v>58</v>
+      </c>
+      <c r="F441" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="442" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A442" s="3">
+        <v>45500</v>
+      </c>
+      <c r="B442" t="s">
+        <v>309</v>
+      </c>
+      <c r="C442" t="s">
+        <v>175</v>
+      </c>
+      <c r="D442" t="s">
+        <v>363</v>
+      </c>
+      <c r="E442" t="s">
+        <v>22</v>
+      </c>
+      <c r="F442" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="443" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A443" s="3">
+        <v>45500</v>
+      </c>
+      <c r="B443" t="s">
+        <v>419</v>
+      </c>
+      <c r="C443" t="s">
+        <v>252</v>
+      </c>
+      <c r="D443" t="s">
+        <v>363</v>
+      </c>
+      <c r="E443" t="s">
+        <v>22</v>
+      </c>
+      <c r="F443" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="444" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A444" s="3">
+        <v>45500</v>
+      </c>
+      <c r="B444" t="s">
+        <v>252</v>
+      </c>
+      <c r="C444" t="s">
+        <v>381</v>
+      </c>
+      <c r="D444" t="s">
+        <v>363</v>
+      </c>
+      <c r="E444" t="s">
+        <v>26</v>
+      </c>
+      <c r="F444" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="445" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A445" s="3">
+        <v>45500</v>
+      </c>
+      <c r="B445" t="s">
+        <v>381</v>
+      </c>
+      <c r="C445" t="s">
+        <v>420</v>
+      </c>
+      <c r="D445" t="s">
+        <v>363</v>
+      </c>
+      <c r="E445" t="s">
+        <v>22</v>
+      </c>
+      <c r="F445" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="446" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A446" s="3">
+        <v>45500</v>
+      </c>
+      <c r="B446" t="s">
+        <v>421</v>
+      </c>
+      <c r="C446" t="s">
+        <v>422</v>
+      </c>
+      <c r="D446" t="s">
+        <v>363</v>
+      </c>
+      <c r="E446" t="s">
+        <v>22</v>
+      </c>
+      <c r="F446" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="447" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A447" s="3">
+        <v>45500</v>
+      </c>
+      <c r="B447" t="s">
+        <v>422</v>
+      </c>
+      <c r="C447" t="s">
+        <v>423</v>
+      </c>
+      <c r="D447" t="s">
+        <v>363</v>
+      </c>
+      <c r="E447" t="s">
+        <v>58</v>
+      </c>
+      <c r="F447" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="448" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A448" s="3">
+        <v>45500</v>
+      </c>
+      <c r="B448" t="s">
+        <v>423</v>
+      </c>
+      <c r="C448" t="s">
+        <v>424</v>
+      </c>
+      <c r="D448" t="s">
+        <v>363</v>
+      </c>
+      <c r="E448" t="s">
+        <v>22</v>
+      </c>
+      <c r="F448" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="449" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A449" s="3">
+        <v>45500</v>
+      </c>
+      <c r="B449" t="s">
+        <v>424</v>
+      </c>
+      <c r="C449" t="s">
+        <v>10</v>
+      </c>
+      <c r="D449" t="s">
+        <v>363</v>
+      </c>
+      <c r="E449" t="s">
+        <v>22</v>
+      </c>
+      <c r="F449" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
